--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>75947.64999999999</v>
+        <v>19371.37</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -443,7 +443,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>37995.55</v>
+        <v>29218.71</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -460,7 +460,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>19966.3</v>
+        <v>19819.3</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -477,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>25499.91</v>
+        <v>25399.91</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -494,7 +494,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>19042.5</v>
+        <v>18509.5</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -528,7 +528,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>22966.39</v>
+        <v>21764.19</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -545,7 +545,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>38641.74</v>
+        <v>38515.34</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -562,7 +562,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>21908.46</v>
+        <v>21733.46</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -579,7 +579,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>28394.9</v>
+        <v>25715.4</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -596,7 +596,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>99475.81</v>
+        <v>22833.25</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -613,7 +613,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>21695.15</v>
+        <v>21596.15</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -647,7 +647,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>27214.6</v>
+        <v>24085.6</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -664,7 +664,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>15664.59</v>
+        <v>15644.59</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -681,7 +681,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>18407.2</v>
+        <v>18372.2</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -698,7 +698,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>24288.59</v>
+        <v>23446.19</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -783,7 +783,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>16941.82</v>
+        <v>15219.82</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -800,7 +800,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>20893.36</v>
+        <v>19895.36</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -817,7 +817,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>20182.02</v>
+        <v>19632.82</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -831,78 +831,78 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>13839.81</v>
+        <v>19212.07</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <v>2025</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>4705.9</v>
+        <v>14442</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27">
         <v>2025</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>17117.65</v>
+        <v>5289.3</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28">
         <v>2025</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>7657.8</v>
+        <v>16598.71</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29">
         <v>2025</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B30">
-        <v>38680.79</v>
+        <v>13803.81</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B31">
-        <v>20584.5</v>
+        <v>4705.9</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B32">
-        <v>58499.12</v>
+        <v>16680.45</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B33">
-        <v>14247.1</v>
+        <v>7657.8</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B34">
-        <v>8836.049999999999</v>
+        <v>37984.79</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B35">
-        <v>43117.38</v>
+        <v>19791.3</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B36">
-        <v>30810.57</v>
+        <v>51663.12</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B37">
-        <v>47755.44</v>
+        <v>14212.1</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B38">
-        <v>20418.69</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B39">
-        <v>65503.24</v>
+        <v>38138.8</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B40">
-        <v>24363.62</v>
+        <v>30745.57</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B41">
-        <v>4642</v>
+        <v>44416.44</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B42">
-        <v>37902.74</v>
+        <v>20045.79</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B43">
-        <v>15916.63</v>
+        <v>23677.64</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B44">
-        <v>33412.16</v>
+        <v>23636.62</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B45">
-        <v>37318.33</v>
+        <v>4642</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B46">
-        <v>30772.25</v>
+        <v>37009.74</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B47">
-        <v>21980.9</v>
+        <v>15851.63</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B48">
-        <v>5923.91</v>
+        <v>33313.16</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B49">
-        <v>34520.24</v>
+        <v>23394.13</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B50">
-        <v>43017.7</v>
+        <v>17765.24</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B51">
-        <v>20372.52</v>
+        <v>21750.9</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B52">
-        <v>29196.78</v>
+        <v>5923.91</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B53">
-        <v>17531.46</v>
+        <v>23370.46</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B54">
-        <v>16122.05</v>
+        <v>27227.58</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B55">
-        <v>7462.9</v>
+        <v>20282.52</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B56">
-        <v>24752.92</v>
+        <v>19695.38</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1358,78 +1358,78 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B57">
-        <v>23464.82</v>
+        <v>17250.36</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57">
         <v>2025</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B58">
-        <v>10035.5</v>
+        <v>15973.05</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58">
         <v>2025</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B59">
-        <v>25948.04</v>
+        <v>6906.9</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59">
         <v>2025</v>
       </c>
       <c r="E59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B60">
-        <v>17361.22</v>
+        <v>24267.47</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60">
         <v>2025</v>
       </c>
       <c r="E60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B61">
-        <v>28999.32</v>
+        <v>22837.82</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B62">
-        <v>28995.58</v>
+        <v>10035.5</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B63">
-        <v>61471.88</v>
+        <v>23114.36</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B64">
-        <v>31542.3</v>
+        <v>17250.02</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B65">
-        <v>6882.99</v>
+        <v>28584.32</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B66">
-        <v>34379.37</v>
+        <v>25749.58</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B67">
-        <v>22450.6</v>
+        <v>54601.36</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B68">
-        <v>86584.32000000001</v>
+        <v>25472.3</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B69">
-        <v>35885.62</v>
+        <v>6812.99</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B70">
-        <v>20762.42</v>
+        <v>34211.97</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B71">
-        <v>18901.7</v>
+        <v>20510.6</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B72">
-        <v>4694</v>
+        <v>28660.12</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B73">
-        <v>110712.73</v>
+        <v>35820.62</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B74">
-        <v>38866.64</v>
+        <v>20762.42</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B75">
-        <v>45056.84</v>
+        <v>18502.7</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B76">
-        <v>22830.55</v>
+        <v>4694</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B77">
-        <v>38508.45</v>
+        <v>57356.01</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B78">
-        <v>20407.2</v>
+        <v>38766.64</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B79">
-        <v>8507.9</v>
+        <v>37172.24</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B80">
-        <v>45828.1</v>
+        <v>22352.55</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B81">
-        <v>46803.55</v>
+        <v>38289.45</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B82">
-        <v>39700.44</v>
+        <v>19482.2</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B83">
-        <v>37928.01</v>
+        <v>8507.9</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B84">
-        <v>27674.04</v>
+        <v>45768.1</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -1834,78 +1834,78 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B85">
-        <v>24883.77</v>
+        <v>41476.67</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85">
         <v>2025</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B86">
-        <v>55648.29</v>
+        <v>20446.88</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86">
         <v>2025</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B87">
-        <v>24688.99</v>
+        <v>29037.01</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87">
         <v>2025</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B88">
-        <v>11511</v>
+        <v>26934.44</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D88">
         <v>2025</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B89">
-        <v>68110.08</v>
+        <v>21267.77</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B90">
-        <v>33795.68</v>
+        <v>24209.45</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B91">
-        <v>59772.96</v>
+        <v>14089.99</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B92">
-        <v>61043.87</v>
+        <v>9388</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B93">
-        <v>19047.35</v>
+        <v>31129.04</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B94">
-        <v>16016</v>
+        <v>22066.68</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B95">
-        <v>4529.75</v>
+        <v>22417.6</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B96">
-        <v>30488.92</v>
+        <v>23072.95</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B97">
-        <v>57615.79</v>
+        <v>17291.29</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B98">
-        <v>45468.54</v>
+        <v>15776</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B99">
-        <v>127489.8</v>
+        <v>4529.75</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B100">
-        <v>42518.25999999999</v>
+        <v>30004</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B101">
-        <v>20590.01</v>
+        <v>16520.27</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B102">
-        <v>9165</v>
+        <v>24823.94</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B103">
-        <v>21273.55</v>
+        <v>31800.92</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B104">
-        <v>31695.48</v>
+        <v>26415.47</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B105">
-        <v>21105.9</v>
+        <v>20240.01</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B106">
-        <v>90703.31</v>
+        <v>9165</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B107">
-        <v>22085.73</v>
+        <v>20439.55</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B108">
-        <v>16539.51</v>
+        <v>21938.12</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B109">
-        <v>6505.9</v>
+        <v>17800.9</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B110">
-        <v>44467.74</v>
+        <v>17359.35</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B111">
-        <v>23468.47</v>
+        <v>21841.03</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -2293,10 +2293,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B112">
-        <v>16267.37</v>
+        <v>15414.51</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -2310,10 +2310,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B113">
-        <v>49936.75</v>
+        <v>6505.9</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -2327,18 +2327,86 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
+        <v>27</v>
+      </c>
+      <c r="B114">
+        <v>19682.44</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>2025</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>28</v>
+      </c>
+      <c r="B115">
+        <v>22828.47</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>2025</v>
+      </c>
+      <c r="E115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>29</v>
+      </c>
+      <c r="B116">
+        <v>15542.37</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>2025</v>
+      </c>
+      <c r="E116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>30</v>
+      </c>
+      <c r="B117">
+        <v>22876.75</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>2025</v>
+      </c>
+      <c r="E117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
         <v>31</v>
       </c>
-      <c r="B114">
-        <v>21194.84</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-      <c r="D114">
-        <v>2025</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="B118">
+        <v>21144.84</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>2025</v>
+      </c>
+      <c r="E118" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -885,7 +885,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>16598.71</v>
+        <v>25680.18</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -899,27 +899,27 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>13803.81</v>
+        <v>21976.8</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30">
         <v>2025</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31">
-        <v>4705.9</v>
+        <v>13803.81</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32">
-        <v>16680.45</v>
+        <v>4705.9</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33">
-        <v>7657.8</v>
+        <v>16680.45</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34">
-        <v>37984.79</v>
+        <v>7657.8</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35">
-        <v>19791.3</v>
+        <v>37984.79</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36">
-        <v>51663.12</v>
+        <v>19791.3</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37">
-        <v>14212.1</v>
+        <v>51663.12</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38">
-        <v>8836.049999999999</v>
+        <v>14212.1</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39">
-        <v>38138.8</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40">
-        <v>30745.57</v>
+        <v>38138.8</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41">
-        <v>44416.44</v>
+        <v>30745.57</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42">
-        <v>20045.79</v>
+        <v>44416.44</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43">
-        <v>23677.64</v>
+        <v>20045.79</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44">
-        <v>23636.62</v>
+        <v>23677.64</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45">
-        <v>4642</v>
+        <v>23636.62</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46">
-        <v>37009.74</v>
+        <v>4642</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B47">
-        <v>15851.63</v>
+        <v>37009.74</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B48">
-        <v>33313.16</v>
+        <v>15851.63</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49">
-        <v>23394.13</v>
+        <v>33313.16</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50">
-        <v>17765.24</v>
+        <v>23394.13</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51">
-        <v>21750.9</v>
+        <v>17765.24</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B52">
-        <v>5923.91</v>
+        <v>21750.9</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53">
-        <v>23370.46</v>
+        <v>5923.91</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54">
-        <v>27227.58</v>
+        <v>23370.46</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55">
-        <v>20282.52</v>
+        <v>27227.58</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B56">
-        <v>19695.38</v>
+        <v>20282.52</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57">
-        <v>17250.36</v>
+        <v>19695.38</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58">
-        <v>15973.05</v>
+        <v>17250.36</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59">
-        <v>6906.9</v>
+        <v>15973.05</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B60">
-        <v>24267.47</v>
+        <v>6906.9</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1426,27 +1426,27 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B61">
-        <v>22837.82</v>
+        <v>24267.47</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61">
         <v>2025</v>
       </c>
       <c r="E61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62">
-        <v>10035.5</v>
+        <v>22837.82</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B63">
-        <v>23114.36</v>
+        <v>10035.5</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B64">
-        <v>17250.02</v>
+        <v>23114.36</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B65">
-        <v>28584.32</v>
+        <v>17250.02</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B66">
-        <v>25749.58</v>
+        <v>28584.32</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B67">
-        <v>54601.36</v>
+        <v>25749.58</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B68">
-        <v>25472.3</v>
+        <v>54601.36</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B69">
-        <v>6812.99</v>
+        <v>25472.3</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B70">
-        <v>34211.97</v>
+        <v>6812.99</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B71">
-        <v>20510.6</v>
+        <v>34211.97</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B72">
-        <v>28660.12</v>
+        <v>20510.6</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B73">
-        <v>35820.62</v>
+        <v>28660.12</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B74">
-        <v>20762.42</v>
+        <v>35820.62</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B75">
-        <v>18502.7</v>
+        <v>20762.42</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B76">
-        <v>4694</v>
+        <v>18502.7</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B77">
-        <v>57356.01</v>
+        <v>4694</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B78">
-        <v>38766.64</v>
+        <v>57356.01</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B79">
-        <v>37172.24</v>
+        <v>38766.64</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B80">
-        <v>22352.55</v>
+        <v>37172.24</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B81">
-        <v>38289.45</v>
+        <v>22352.55</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B82">
-        <v>19482.2</v>
+        <v>38289.45</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B83">
-        <v>8507.9</v>
+        <v>19482.2</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B84">
-        <v>45768.1</v>
+        <v>8507.9</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B85">
-        <v>41476.67</v>
+        <v>45768.1</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B86">
-        <v>20446.88</v>
+        <v>41476.67</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B87">
-        <v>29037.01</v>
+        <v>20446.88</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B88">
-        <v>26934.44</v>
+        <v>29037.01</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -1902,27 +1902,27 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B89">
-        <v>21267.77</v>
+        <v>26934.44</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89">
         <v>2025</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B90">
-        <v>24209.45</v>
+        <v>21267.77</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B91">
-        <v>14089.99</v>
+        <v>24209.45</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B92">
-        <v>9388</v>
+        <v>14089.99</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B93">
-        <v>31129.04</v>
+        <v>9388</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B94">
-        <v>22066.68</v>
+        <v>31129.04</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B95">
-        <v>22417.6</v>
+        <v>22066.68</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B96">
-        <v>23072.95</v>
+        <v>22417.6</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B97">
-        <v>17291.29</v>
+        <v>23072.95</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B98">
-        <v>15776</v>
+        <v>17291.29</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B99">
-        <v>4529.75</v>
+        <v>15776</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B100">
-        <v>30004</v>
+        <v>4529.75</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B101">
-        <v>16520.27</v>
+        <v>30004</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B102">
-        <v>24823.94</v>
+        <v>16520.27</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B103">
-        <v>31800.92</v>
+        <v>24823.94</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B104">
-        <v>26415.47</v>
+        <v>31800.92</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B105">
-        <v>20240.01</v>
+        <v>26415.47</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B106">
-        <v>9165</v>
+        <v>20240.01</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B107">
-        <v>20439.55</v>
+        <v>9165</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B108">
-        <v>21938.12</v>
+        <v>20439.55</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B109">
-        <v>17800.9</v>
+        <v>21938.12</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B110">
-        <v>17359.35</v>
+        <v>17800.9</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B111">
-        <v>21841.03</v>
+        <v>17359.35</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -2293,10 +2293,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B112">
-        <v>15414.51</v>
+        <v>21841.03</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -2310,10 +2310,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B113">
-        <v>6505.9</v>
+        <v>15414.51</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -2327,10 +2327,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B114">
-        <v>19682.44</v>
+        <v>6505.9</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B115">
-        <v>22828.47</v>
+        <v>19682.44</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -2361,10 +2361,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B116">
-        <v>15542.37</v>
+        <v>22828.47</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B117">
-        <v>22876.75</v>
+        <v>15542.37</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -2395,18 +2395,35 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118">
+        <v>30</v>
+      </c>
+      <c r="B118">
+        <v>22876.75</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>2025</v>
+      </c>
+      <c r="E118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
         <v>31</v>
       </c>
-      <c r="B118">
+      <c r="B119">
         <v>21144.84</v>
       </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118">
-        <v>2025</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>2025</v>
+      </c>
+      <c r="E119" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Período</t>
   </si>
   <si>
+    <t>05/2025</t>
+  </si>
+  <si>
     <t>04/2025</t>
   </si>
   <si>
@@ -38,9 +41,6 @@
   </si>
   <si>
     <t>02/2025</t>
-  </si>
-  <si>
-    <t>01/2025</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,10 +426,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>19371.37</v>
+        <v>17056.87</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>2025</v>
@@ -443,10 +443,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>29218.71</v>
+        <v>22786.63</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>2025</v>
@@ -460,10 +460,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>19819.3</v>
+        <v>29255</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>2025</v>
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>25399.91</v>
+        <v>4370</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>2025</v>
@@ -494,10 +494,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>18509.5</v>
+        <v>35402.64</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>2025</v>
@@ -511,10 +511,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5823.21</v>
+        <v>17735.42</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>2025</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>21764.19</v>
+        <v>19371.37</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -537,15 +537,15 @@
         <v>2025</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>38515.34</v>
+        <v>29218.71</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -554,15 +554,15 @@
         <v>2025</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>21733.46</v>
+        <v>19819.3</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -571,15 +571,15 @@
         <v>2025</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>25715.4</v>
+        <v>25399.91</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -588,15 +588,15 @@
         <v>2025</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>22833.25</v>
+        <v>18509.5</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -605,15 +605,15 @@
         <v>2025</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>21596.15</v>
+        <v>5823.21</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -622,15 +622,15 @@
         <v>2025</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>6451</v>
+        <v>21764.19</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -639,15 +639,15 @@
         <v>2025</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B15">
-        <v>24085.6</v>
+        <v>38515.34</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -656,15 +656,15 @@
         <v>2025</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B16">
-        <v>15644.59</v>
+        <v>21733.46</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -673,15 +673,15 @@
         <v>2025</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B17">
-        <v>18372.2</v>
+        <v>25715.4</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -690,15 +690,15 @@
         <v>2025</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>23446.19</v>
+        <v>22833.25</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -707,15 +707,15 @@
         <v>2025</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>15474.35</v>
+        <v>21596.15</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -724,15 +724,15 @@
         <v>2025</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>9164.799999999999</v>
+        <v>6451</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -741,15 +741,15 @@
         <v>2025</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B21">
-        <v>2719</v>
+        <v>24085.6</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -758,15 +758,15 @@
         <v>2025</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>15666.86</v>
+        <v>15644.59</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -775,15 +775,15 @@
         <v>2025</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B23">
-        <v>15219.82</v>
+        <v>18372.2</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -792,15 +792,15 @@
         <v>2025</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B24">
-        <v>19895.36</v>
+        <v>23446.19</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -809,15 +809,15 @@
         <v>2025</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B25">
-        <v>19632.82</v>
+        <v>15474.35</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -826,15 +826,15 @@
         <v>2025</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B26">
-        <v>19212.07</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -843,15 +843,15 @@
         <v>2025</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B27">
-        <v>14442</v>
+        <v>2719</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -860,15 +860,15 @@
         <v>2025</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B28">
-        <v>5289.3</v>
+        <v>15666.86</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -877,15 +877,15 @@
         <v>2025</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B29">
-        <v>25680.18</v>
+        <v>15219.82</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -894,15 +894,15 @@
         <v>2025</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B30">
-        <v>21976.8</v>
+        <v>19895.36</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -911,18 +911,18 @@
         <v>2025</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B31">
-        <v>13803.81</v>
+        <v>19632.82</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31">
         <v>2025</v>
@@ -933,13 +933,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B32">
-        <v>4705.9</v>
+        <v>19212.07</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32">
         <v>2025</v>
@@ -950,13 +950,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B33">
-        <v>16680.45</v>
+        <v>14442</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33">
         <v>2025</v>
@@ -967,13 +967,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B34">
-        <v>7657.8</v>
+        <v>5289.3</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34">
         <v>2025</v>
@@ -984,13 +984,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B35">
-        <v>37984.79</v>
+        <v>25680.18</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35">
         <v>2025</v>
@@ -1001,13 +1001,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B36">
-        <v>19791.3</v>
+        <v>21976.8</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36">
         <v>2025</v>
@@ -1018,13 +1018,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B37">
-        <v>51663.12</v>
+        <v>24773.88</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37">
         <v>2025</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B38">
-        <v>14212.1</v>
+        <v>13803.81</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -1047,15 +1047,15 @@
         <v>2025</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B39">
-        <v>8836.049999999999</v>
+        <v>4705.9</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -1064,15 +1064,15 @@
         <v>2025</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B40">
-        <v>38138.8</v>
+        <v>16680.45</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -1081,15 +1081,15 @@
         <v>2025</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B41">
-        <v>30745.57</v>
+        <v>7657.8</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -1098,15 +1098,15 @@
         <v>2025</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B42">
-        <v>44416.44</v>
+        <v>37984.79</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -1115,15 +1115,15 @@
         <v>2025</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B43">
-        <v>20045.79</v>
+        <v>19791.3</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -1132,15 +1132,15 @@
         <v>2025</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B44">
-        <v>23677.64</v>
+        <v>51663.12</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -1149,15 +1149,15 @@
         <v>2025</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B45">
-        <v>23636.62</v>
+        <v>14212.1</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -1166,15 +1166,15 @@
         <v>2025</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B46">
-        <v>4642</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -1183,15 +1183,15 @@
         <v>2025</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B47">
-        <v>37009.74</v>
+        <v>38138.8</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -1200,15 +1200,15 @@
         <v>2025</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B48">
-        <v>15851.63</v>
+        <v>30745.57</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -1217,15 +1217,15 @@
         <v>2025</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B49">
-        <v>33313.16</v>
+        <v>44416.44</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -1234,15 +1234,15 @@
         <v>2025</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B50">
-        <v>23394.13</v>
+        <v>20045.79</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -1251,15 +1251,15 @@
         <v>2025</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B51">
-        <v>17765.24</v>
+        <v>23677.64</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1268,15 +1268,15 @@
         <v>2025</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B52">
-        <v>21750.9</v>
+        <v>23636.62</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1285,15 +1285,15 @@
         <v>2025</v>
       </c>
       <c r="E52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B53">
-        <v>5923.91</v>
+        <v>4642</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1302,15 +1302,15 @@
         <v>2025</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B54">
-        <v>23370.46</v>
+        <v>37009.74</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -1319,15 +1319,15 @@
         <v>2025</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B55">
-        <v>27227.58</v>
+        <v>15851.63</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1336,15 +1336,15 @@
         <v>2025</v>
       </c>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B56">
-        <v>20282.52</v>
+        <v>33313.16</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1353,15 +1353,15 @@
         <v>2025</v>
       </c>
       <c r="E56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B57">
-        <v>19695.38</v>
+        <v>23394.13</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -1370,15 +1370,15 @@
         <v>2025</v>
       </c>
       <c r="E57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B58">
-        <v>17250.36</v>
+        <v>17765.24</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1387,15 +1387,15 @@
         <v>2025</v>
       </c>
       <c r="E58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B59">
-        <v>15973.05</v>
+        <v>21750.9</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1404,15 +1404,15 @@
         <v>2025</v>
       </c>
       <c r="E59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B60">
-        <v>6906.9</v>
+        <v>5923.91</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1421,15 +1421,15 @@
         <v>2025</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B61">
-        <v>24267.47</v>
+        <v>23370.46</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1438,18 +1438,18 @@
         <v>2025</v>
       </c>
       <c r="E61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B62">
-        <v>22837.82</v>
+        <v>27227.58</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62">
         <v>2025</v>
@@ -1460,13 +1460,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B63">
-        <v>10035.5</v>
+        <v>20282.52</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63">
         <v>2025</v>
@@ -1477,13 +1477,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B64">
-        <v>23114.36</v>
+        <v>19695.38</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64">
         <v>2025</v>
@@ -1494,13 +1494,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B65">
-        <v>17250.02</v>
+        <v>17250.36</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65">
         <v>2025</v>
@@ -1511,13 +1511,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B66">
-        <v>28584.32</v>
+        <v>15973.05</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66">
         <v>2025</v>
@@ -1528,13 +1528,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B67">
-        <v>25749.58</v>
+        <v>6906.9</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67">
         <v>2025</v>
@@ -1545,13 +1545,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B68">
-        <v>54601.36</v>
+        <v>24267.47</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68">
         <v>2025</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B69">
-        <v>25472.3</v>
+        <v>22837.82</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -1574,15 +1574,15 @@
         <v>2025</v>
       </c>
       <c r="E69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B70">
-        <v>6812.99</v>
+        <v>10035.5</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -1591,15 +1591,15 @@
         <v>2025</v>
       </c>
       <c r="E70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B71">
-        <v>34211.97</v>
+        <v>23114.36</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -1608,15 +1608,15 @@
         <v>2025</v>
       </c>
       <c r="E71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B72">
-        <v>20510.6</v>
+        <v>17250.02</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -1625,15 +1625,15 @@
         <v>2025</v>
       </c>
       <c r="E72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B73">
-        <v>28660.12</v>
+        <v>28584.32</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -1642,15 +1642,15 @@
         <v>2025</v>
       </c>
       <c r="E73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B74">
-        <v>35820.62</v>
+        <v>25749.58</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -1659,15 +1659,15 @@
         <v>2025</v>
       </c>
       <c r="E74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B75">
-        <v>20762.42</v>
+        <v>54601.36</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -1676,15 +1676,15 @@
         <v>2025</v>
       </c>
       <c r="E75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B76">
-        <v>18502.7</v>
+        <v>25472.3</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -1693,15 +1693,15 @@
         <v>2025</v>
       </c>
       <c r="E76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B77">
-        <v>4694</v>
+        <v>6812.99</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -1710,15 +1710,15 @@
         <v>2025</v>
       </c>
       <c r="E77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B78">
-        <v>57356.01</v>
+        <v>34211.97</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -1727,15 +1727,15 @@
         <v>2025</v>
       </c>
       <c r="E78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B79">
-        <v>38766.64</v>
+        <v>20510.6</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -1744,15 +1744,15 @@
         <v>2025</v>
       </c>
       <c r="E79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B80">
-        <v>37172.24</v>
+        <v>28660.12</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -1761,15 +1761,15 @@
         <v>2025</v>
       </c>
       <c r="E80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B81">
-        <v>22352.55</v>
+        <v>35820.62</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -1778,15 +1778,15 @@
         <v>2025</v>
       </c>
       <c r="E81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B82">
-        <v>38289.45</v>
+        <v>20762.42</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -1795,15 +1795,15 @@
         <v>2025</v>
       </c>
       <c r="E82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B83">
-        <v>19482.2</v>
+        <v>18502.7</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -1812,15 +1812,15 @@
         <v>2025</v>
       </c>
       <c r="E83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B84">
-        <v>8507.9</v>
+        <v>4694</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -1829,15 +1829,15 @@
         <v>2025</v>
       </c>
       <c r="E84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B85">
-        <v>45768.1</v>
+        <v>57356.01</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -1846,15 +1846,15 @@
         <v>2025</v>
       </c>
       <c r="E85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B86">
-        <v>41476.67</v>
+        <v>38766.64</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -1863,15 +1863,15 @@
         <v>2025</v>
       </c>
       <c r="E86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B87">
-        <v>20446.88</v>
+        <v>37172.24</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -1880,15 +1880,15 @@
         <v>2025</v>
       </c>
       <c r="E87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B88">
-        <v>29037.01</v>
+        <v>22352.55</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -1897,15 +1897,15 @@
         <v>2025</v>
       </c>
       <c r="E88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B89">
-        <v>26934.44</v>
+        <v>38289.45</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -1914,18 +1914,18 @@
         <v>2025</v>
       </c>
       <c r="E89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B90">
-        <v>21267.77</v>
+        <v>19482.2</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90">
         <v>2025</v>
@@ -1936,13 +1936,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B91">
-        <v>24209.45</v>
+        <v>8507.9</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91">
         <v>2025</v>
@@ -1953,13 +1953,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B92">
-        <v>14089.99</v>
+        <v>45768.1</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92">
         <v>2025</v>
@@ -1970,13 +1970,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B93">
-        <v>9388</v>
+        <v>41476.67</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93">
         <v>2025</v>
@@ -1987,13 +1987,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B94">
-        <v>31129.04</v>
+        <v>20446.88</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94">
         <v>2025</v>
@@ -2004,13 +2004,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B95">
-        <v>22066.68</v>
+        <v>29037.01</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95">
         <v>2025</v>
@@ -2021,409 +2021,18 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B96">
-        <v>22417.6</v>
+        <v>26934.44</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96">
         <v>2025</v>
       </c>
       <c r="E96" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97">
-        <v>9</v>
-      </c>
-      <c r="B97">
-        <v>23072.95</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97">
-        <v>2025</v>
-      </c>
-      <c r="E97" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98">
-        <v>10</v>
-      </c>
-      <c r="B98">
-        <v>17291.29</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>2025</v>
-      </c>
-      <c r="E98" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99">
-        <v>11</v>
-      </c>
-      <c r="B99">
-        <v>15776</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99">
-        <v>2025</v>
-      </c>
-      <c r="E99" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100">
-        <v>12</v>
-      </c>
-      <c r="B100">
-        <v>4529.75</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100">
-        <v>2025</v>
-      </c>
-      <c r="E100" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101">
-        <v>13</v>
-      </c>
-      <c r="B101">
-        <v>30004</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-      <c r="D101">
-        <v>2025</v>
-      </c>
-      <c r="E101" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102">
-        <v>14</v>
-      </c>
-      <c r="B102">
-        <v>16520.27</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102">
-        <v>2025</v>
-      </c>
-      <c r="E102" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103">
-        <v>15</v>
-      </c>
-      <c r="B103">
-        <v>24823.94</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-      <c r="D103">
-        <v>2025</v>
-      </c>
-      <c r="E103" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104">
-        <v>16</v>
-      </c>
-      <c r="B104">
-        <v>31800.92</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104">
-        <v>2025</v>
-      </c>
-      <c r="E104" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105">
-        <v>17</v>
-      </c>
-      <c r="B105">
-        <v>26415.47</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-      <c r="D105">
-        <v>2025</v>
-      </c>
-      <c r="E105" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106">
-        <v>18</v>
-      </c>
-      <c r="B106">
-        <v>20240.01</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106">
-        <v>2025</v>
-      </c>
-      <c r="E106" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107">
-        <v>19</v>
-      </c>
-      <c r="B107">
-        <v>9165</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107">
-        <v>2025</v>
-      </c>
-      <c r="E107" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108">
-        <v>20</v>
-      </c>
-      <c r="B108">
-        <v>20439.55</v>
-      </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-      <c r="D108">
-        <v>2025</v>
-      </c>
-      <c r="E108" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109">
-        <v>21</v>
-      </c>
-      <c r="B109">
-        <v>21938.12</v>
-      </c>
-      <c r="C109">
-        <v>1</v>
-      </c>
-      <c r="D109">
-        <v>2025</v>
-      </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110">
-        <v>22</v>
-      </c>
-      <c r="B110">
-        <v>17800.9</v>
-      </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
-      <c r="D110">
-        <v>2025</v>
-      </c>
-      <c r="E110" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111">
-        <v>23</v>
-      </c>
-      <c r="B111">
-        <v>17359.35</v>
-      </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-      <c r="D111">
-        <v>2025</v>
-      </c>
-      <c r="E111" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112">
-        <v>24</v>
-      </c>
-      <c r="B112">
-        <v>21841.03</v>
-      </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-      <c r="D112">
-        <v>2025</v>
-      </c>
-      <c r="E112" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113">
-        <v>25</v>
-      </c>
-      <c r="B113">
-        <v>15414.51</v>
-      </c>
-      <c r="C113">
-        <v>1</v>
-      </c>
-      <c r="D113">
-        <v>2025</v>
-      </c>
-      <c r="E113" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114">
-        <v>26</v>
-      </c>
-      <c r="B114">
-        <v>6505.9</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-      <c r="D114">
-        <v>2025</v>
-      </c>
-      <c r="E114" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115">
-        <v>27</v>
-      </c>
-      <c r="B115">
-        <v>19682.44</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115">
-        <v>2025</v>
-      </c>
-      <c r="E115" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116">
-        <v>28</v>
-      </c>
-      <c r="B116">
-        <v>22828.47</v>
-      </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-      <c r="D116">
-        <v>2025</v>
-      </c>
-      <c r="E116" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117">
-        <v>29</v>
-      </c>
-      <c r="B117">
-        <v>15542.37</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117">
-        <v>2025</v>
-      </c>
-      <c r="E117" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118">
-        <v>30</v>
-      </c>
-      <c r="B118">
-        <v>22876.75</v>
-      </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118">
-        <v>2025</v>
-      </c>
-      <c r="E118" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119">
-        <v>31</v>
-      </c>
-      <c r="B119">
-        <v>21144.84</v>
-      </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
-      <c r="D119">
-        <v>2025</v>
-      </c>
-      <c r="E119" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,7 +511,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>17735.42</v>
+        <v>28248.43</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -525,95 +525,95 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>19371.37</v>
+        <v>31437.91</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>2025</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>29218.71</v>
+        <v>27732.15</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>2025</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>19819.3</v>
+        <v>25508.17</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>2025</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>25399.91</v>
+        <v>14802.01</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>2025</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>18509.5</v>
+        <v>9716.9</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>2025</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>5823.21</v>
+        <v>19371.37</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>21764.19</v>
+        <v>29218.71</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B15">
-        <v>38515.34</v>
+        <v>19819.3</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>21733.46</v>
+        <v>25399.91</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>25715.4</v>
+        <v>18509.5</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>22833.25</v>
+        <v>5823.21</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>21596.15</v>
+        <v>21764.19</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B20">
-        <v>6451</v>
+        <v>38515.34</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B21">
-        <v>24085.6</v>
+        <v>21733.46</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B22">
-        <v>15644.59</v>
+        <v>25715.4</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B23">
-        <v>18372.2</v>
+        <v>22833.25</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B24">
-        <v>23446.19</v>
+        <v>21596.15</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B25">
-        <v>15474.35</v>
+        <v>6451</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B26">
-        <v>9164.799999999999</v>
+        <v>24085.6</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B27">
-        <v>2719</v>
+        <v>15644.59</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B28">
-        <v>15666.86</v>
+        <v>18372.2</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B29">
-        <v>15219.82</v>
+        <v>23446.19</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B30">
-        <v>19895.36</v>
+        <v>15474.35</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B31">
-        <v>19632.82</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B32">
-        <v>19212.07</v>
+        <v>2719</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B33">
-        <v>14442</v>
+        <v>15666.86</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B34">
-        <v>5289.3</v>
+        <v>15219.82</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B35">
-        <v>25680.18</v>
+        <v>19895.36</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B36">
-        <v>21976.8</v>
+        <v>19632.82</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B37">
-        <v>24773.88</v>
+        <v>19212.07</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,95 +1035,95 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B38">
-        <v>13803.81</v>
+        <v>14442</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38">
         <v>2025</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B39">
-        <v>4705.9</v>
+        <v>5289.3</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39">
         <v>2025</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B40">
-        <v>16680.45</v>
+        <v>25680.18</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40">
         <v>2025</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B41">
-        <v>7657.8</v>
+        <v>21976.8</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41">
         <v>2025</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B42">
-        <v>37984.79</v>
+        <v>24773.88</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42">
         <v>2025</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B43">
-        <v>19791.3</v>
+        <v>13803.81</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B44">
-        <v>51663.12</v>
+        <v>4705.9</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B45">
-        <v>14212.1</v>
+        <v>16680.45</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B46">
-        <v>8836.049999999999</v>
+        <v>7657.8</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B47">
-        <v>38138.8</v>
+        <v>37984.79</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B48">
-        <v>30745.57</v>
+        <v>19791.3</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B49">
-        <v>44416.44</v>
+        <v>51663.12</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B50">
-        <v>20045.79</v>
+        <v>14212.1</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B51">
-        <v>23677.64</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B52">
-        <v>23636.62</v>
+        <v>38138.8</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B53">
-        <v>4642</v>
+        <v>30745.57</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B54">
-        <v>37009.74</v>
+        <v>44416.44</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B55">
-        <v>15851.63</v>
+        <v>20045.79</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B56">
-        <v>33313.16</v>
+        <v>23677.64</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B57">
-        <v>23394.13</v>
+        <v>23636.62</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B58">
-        <v>17765.24</v>
+        <v>4642</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B59">
-        <v>21750.9</v>
+        <v>37009.74</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B60">
-        <v>5923.91</v>
+        <v>15851.63</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B61">
-        <v>23370.46</v>
+        <v>33313.16</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B62">
-        <v>27227.58</v>
+        <v>23394.13</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B63">
-        <v>20282.52</v>
+        <v>17765.24</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B64">
-        <v>19695.38</v>
+        <v>21750.9</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B65">
-        <v>17250.36</v>
+        <v>5923.91</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B66">
-        <v>15973.05</v>
+        <v>23370.46</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B67">
-        <v>6906.9</v>
+        <v>27227.58</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B68">
-        <v>24267.47</v>
+        <v>20282.52</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -1562,95 +1562,95 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B69">
-        <v>22837.82</v>
+        <v>19695.38</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69">
         <v>2025</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B70">
-        <v>10035.5</v>
+        <v>17250.36</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70">
         <v>2025</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B71">
-        <v>23114.36</v>
+        <v>15973.05</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71">
         <v>2025</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B72">
-        <v>17250.02</v>
+        <v>6906.9</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72">
         <v>2025</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B73">
-        <v>28584.32</v>
+        <v>24267.47</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73">
         <v>2025</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B74">
-        <v>25749.58</v>
+        <v>22837.82</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B75">
-        <v>54601.36</v>
+        <v>10035.5</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B76">
-        <v>25472.3</v>
+        <v>23114.36</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B77">
-        <v>6812.99</v>
+        <v>17250.02</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B78">
-        <v>34211.97</v>
+        <v>28584.32</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B79">
-        <v>20510.6</v>
+        <v>25749.58</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B80">
-        <v>28660.12</v>
+        <v>54601.36</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B81">
-        <v>35820.62</v>
+        <v>25472.3</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B82">
-        <v>20762.42</v>
+        <v>6812.99</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B83">
-        <v>18502.7</v>
+        <v>34211.97</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B84">
-        <v>4694</v>
+        <v>20510.6</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B85">
-        <v>57356.01</v>
+        <v>28660.12</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B86">
-        <v>38766.64</v>
+        <v>35820.62</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B87">
-        <v>37172.24</v>
+        <v>20762.42</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B88">
-        <v>22352.55</v>
+        <v>18502.7</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B89">
-        <v>38289.45</v>
+        <v>4694</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B90">
-        <v>19482.2</v>
+        <v>57356.01</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B91">
-        <v>8507.9</v>
+        <v>38766.64</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B92">
-        <v>45768.1</v>
+        <v>37172.24</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B93">
-        <v>41476.67</v>
+        <v>22352.55</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B94">
-        <v>20446.88</v>
+        <v>38289.45</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B95">
-        <v>29037.01</v>
+        <v>19482.2</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -2021,18 +2021,103 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
+        <v>23</v>
+      </c>
+      <c r="B96">
+        <v>8507.9</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>2025</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>24</v>
+      </c>
+      <c r="B97">
+        <v>45768.1</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>2025</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>25</v>
+      </c>
+      <c r="B98">
+        <v>41476.67</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>2025</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>26</v>
+      </c>
+      <c r="B99">
+        <v>20446.88</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>2025</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>27</v>
+      </c>
+      <c r="B100">
+        <v>29037.01</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>2025</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
         <v>28</v>
       </c>
-      <c r="B96">
+      <c r="B101">
         <v>26934.44</v>
       </c>
-      <c r="C96">
-        <v>2</v>
-      </c>
-      <c r="D96">
-        <v>2025</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>2025</v>
+      </c>
+      <c r="E101" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -596,7 +596,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>9716.9</v>
+        <v>9776.9</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -610,27 +610,27 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>19371.37</v>
+        <v>31185.44</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>2025</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B33">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B36">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B39">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B40">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42">
-        <v>24773.88</v>
+        <v>21976.8</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,27 +1120,27 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B43">
-        <v>13803.81</v>
+        <v>24773.88</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43">
         <v>2025</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44">
-        <v>4705.9</v>
+        <v>13803.81</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45">
-        <v>16680.45</v>
+        <v>4705.9</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46">
-        <v>7657.8</v>
+        <v>16680.45</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B47">
-        <v>37984.79</v>
+        <v>7657.8</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48">
-        <v>19791.3</v>
+        <v>37984.79</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49">
-        <v>51663.12</v>
+        <v>19791.3</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50">
-        <v>14212.1</v>
+        <v>51663.12</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51">
-        <v>8836.049999999999</v>
+        <v>14212.1</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B52">
-        <v>38138.8</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53">
-        <v>30745.57</v>
+        <v>38138.8</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B54">
-        <v>44416.44</v>
+        <v>30745.57</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55">
-        <v>20045.79</v>
+        <v>44416.44</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B56">
-        <v>23677.64</v>
+        <v>20045.79</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B57">
-        <v>23636.62</v>
+        <v>23677.64</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B58">
-        <v>4642</v>
+        <v>23636.62</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B59">
-        <v>37009.74</v>
+        <v>4642</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B60">
-        <v>15851.63</v>
+        <v>37009.74</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B61">
-        <v>33313.16</v>
+        <v>15851.63</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B62">
-        <v>23394.13</v>
+        <v>33313.16</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B63">
-        <v>17765.24</v>
+        <v>23394.13</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B64">
-        <v>21750.9</v>
+        <v>17765.24</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B65">
-        <v>5923.91</v>
+        <v>21750.9</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B66">
-        <v>23370.46</v>
+        <v>5923.91</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B67">
-        <v>27227.58</v>
+        <v>23370.46</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B68">
-        <v>20282.52</v>
+        <v>27227.58</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B69">
-        <v>19695.38</v>
+        <v>20282.52</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B70">
-        <v>17250.36</v>
+        <v>19695.38</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B71">
-        <v>15973.05</v>
+        <v>17250.36</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B72">
-        <v>6906.9</v>
+        <v>15973.05</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B73">
-        <v>24267.47</v>
+        <v>6906.9</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -1647,27 +1647,27 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B74">
-        <v>22837.82</v>
+        <v>24267.47</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74">
         <v>2025</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B75">
-        <v>10035.5</v>
+        <v>22837.82</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B76">
-        <v>23114.36</v>
+        <v>10035.5</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B77">
-        <v>17250.02</v>
+        <v>23114.36</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B78">
-        <v>28584.32</v>
+        <v>17250.02</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B79">
-        <v>25749.58</v>
+        <v>28584.32</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B80">
-        <v>54601.36</v>
+        <v>25749.58</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B81">
-        <v>25472.3</v>
+        <v>54601.36</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B82">
-        <v>6812.99</v>
+        <v>25472.3</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B83">
-        <v>34211.97</v>
+        <v>6812.99</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B84">
-        <v>20510.6</v>
+        <v>34211.97</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B85">
-        <v>28660.12</v>
+        <v>20510.6</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B86">
-        <v>35820.62</v>
+        <v>28660.12</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B87">
-        <v>20762.42</v>
+        <v>35820.62</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B88">
-        <v>18502.7</v>
+        <v>20762.42</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B89">
-        <v>4694</v>
+        <v>18502.7</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B90">
-        <v>57356.01</v>
+        <v>4694</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B91">
-        <v>38766.64</v>
+        <v>57356.01</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B92">
-        <v>37172.24</v>
+        <v>38766.64</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B93">
-        <v>22352.55</v>
+        <v>37172.24</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B94">
-        <v>38289.45</v>
+        <v>22352.55</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B95">
-        <v>19482.2</v>
+        <v>38289.45</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B96">
-        <v>8507.9</v>
+        <v>19482.2</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B97">
-        <v>45768.1</v>
+        <v>8507.9</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B98">
-        <v>41476.67</v>
+        <v>45768.1</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B99">
-        <v>20446.88</v>
+        <v>41476.67</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B100">
-        <v>29037.01</v>
+        <v>20446.88</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -2106,18 +2106,35 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
+        <v>27</v>
+      </c>
+      <c r="B101">
+        <v>29037.01</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>2025</v>
+      </c>
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
         <v>28</v>
       </c>
-      <c r="B101">
+      <c r="B102">
         <v>26934.44</v>
       </c>
-      <c r="C101">
-        <v>2</v>
-      </c>
-      <c r="D101">
-        <v>2025</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>2025</v>
+      </c>
+      <c r="E102" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +613,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>31185.44</v>
+        <v>31420.44</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -627,27 +627,27 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>19371.37</v>
+        <v>26203.86</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>2025</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43">
-        <v>24773.88</v>
+        <v>21976.8</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,27 +1137,27 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B44">
-        <v>13803.81</v>
+        <v>24773.88</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44">
         <v>2025</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45">
-        <v>4705.9</v>
+        <v>13803.81</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46">
-        <v>16680.45</v>
+        <v>4705.9</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47">
-        <v>7657.8</v>
+        <v>16680.45</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48">
-        <v>37984.79</v>
+        <v>7657.8</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49">
-        <v>19791.3</v>
+        <v>37984.79</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B50">
-        <v>51663.12</v>
+        <v>19791.3</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51">
-        <v>14212.1</v>
+        <v>51663.12</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B52">
-        <v>8836.049999999999</v>
+        <v>14212.1</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B53">
-        <v>38138.8</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54">
-        <v>30745.57</v>
+        <v>38138.8</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B55">
-        <v>44416.44</v>
+        <v>30745.57</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B56">
-        <v>20045.79</v>
+        <v>44416.44</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B57">
-        <v>23677.64</v>
+        <v>20045.79</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B58">
-        <v>23636.62</v>
+        <v>23677.64</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B59">
-        <v>4642</v>
+        <v>23636.62</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B60">
-        <v>37009.74</v>
+        <v>4642</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B61">
-        <v>15851.63</v>
+        <v>37009.74</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B62">
-        <v>33313.16</v>
+        <v>15851.63</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B63">
-        <v>23394.13</v>
+        <v>33313.16</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B64">
-        <v>17765.24</v>
+        <v>23394.13</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B65">
-        <v>21750.9</v>
+        <v>17765.24</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B66">
-        <v>5923.91</v>
+        <v>21750.9</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B67">
-        <v>23370.46</v>
+        <v>5923.91</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B68">
-        <v>27227.58</v>
+        <v>23370.46</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B69">
-        <v>20282.52</v>
+        <v>27227.58</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B70">
-        <v>19695.38</v>
+        <v>20282.52</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B71">
-        <v>17250.36</v>
+        <v>19695.38</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B72">
-        <v>15973.05</v>
+        <v>17250.36</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B73">
-        <v>6906.9</v>
+        <v>15973.05</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B74">
-        <v>24267.47</v>
+        <v>6906.9</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -1664,27 +1664,27 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B75">
-        <v>22837.82</v>
+        <v>24267.47</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75">
         <v>2025</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B76">
-        <v>10035.5</v>
+        <v>22837.82</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B77">
-        <v>23114.36</v>
+        <v>10035.5</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B78">
-        <v>17250.02</v>
+        <v>23114.36</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B79">
-        <v>28584.32</v>
+        <v>17250.02</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B80">
-        <v>25749.58</v>
+        <v>28584.32</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B81">
-        <v>54601.36</v>
+        <v>25749.58</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B82">
-        <v>25472.3</v>
+        <v>54601.36</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B83">
-        <v>6812.99</v>
+        <v>25472.3</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B84">
-        <v>34211.97</v>
+        <v>6812.99</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B85">
-        <v>20510.6</v>
+        <v>34211.97</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B86">
-        <v>28660.12</v>
+        <v>20510.6</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B87">
-        <v>35820.62</v>
+        <v>28660.12</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B88">
-        <v>20762.42</v>
+        <v>35820.62</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B89">
-        <v>18502.7</v>
+        <v>20762.42</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B90">
-        <v>4694</v>
+        <v>18502.7</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B91">
-        <v>57356.01</v>
+        <v>4694</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B92">
-        <v>38766.64</v>
+        <v>57356.01</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B93">
-        <v>37172.24</v>
+        <v>38766.64</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B94">
-        <v>22352.55</v>
+        <v>37172.24</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B95">
-        <v>38289.45</v>
+        <v>22352.55</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B96">
-        <v>19482.2</v>
+        <v>38289.45</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B97">
-        <v>8507.9</v>
+        <v>19482.2</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B98">
-        <v>45768.1</v>
+        <v>8507.9</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B99">
-        <v>41476.67</v>
+        <v>45768.1</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B100">
-        <v>20446.88</v>
+        <v>41476.67</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B101">
-        <v>29037.01</v>
+        <v>20446.88</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -2123,18 +2123,35 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
+        <v>27</v>
+      </c>
+      <c r="B102">
+        <v>29037.01</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>2025</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
         <v>28</v>
       </c>
-      <c r="B102">
+      <c r="B103">
         <v>26934.44</v>
       </c>
-      <c r="C102">
-        <v>2</v>
-      </c>
-      <c r="D102">
-        <v>2025</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>2025</v>
+      </c>
+      <c r="E103" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -644,27 +644,27 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>19371.37</v>
+        <v>36409.18</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>2025</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44">
-        <v>24773.88</v>
+        <v>21976.8</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,27 +1154,27 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B45">
-        <v>13803.81</v>
+        <v>24773.88</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45">
         <v>2025</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46">
-        <v>4705.9</v>
+        <v>13803.81</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47">
-        <v>16680.45</v>
+        <v>4705.9</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48">
-        <v>7657.8</v>
+        <v>16680.45</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B49">
-        <v>37984.79</v>
+        <v>7657.8</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50">
-        <v>19791.3</v>
+        <v>37984.79</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B51">
-        <v>51663.12</v>
+        <v>19791.3</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52">
-        <v>14212.1</v>
+        <v>51663.12</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B53">
-        <v>8836.049999999999</v>
+        <v>14212.1</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B54">
-        <v>38138.8</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55">
-        <v>30745.57</v>
+        <v>38138.8</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56">
-        <v>44416.44</v>
+        <v>30745.57</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B57">
-        <v>20045.79</v>
+        <v>44416.44</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B58">
-        <v>23677.64</v>
+        <v>20045.79</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B59">
-        <v>23636.62</v>
+        <v>23677.64</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B60">
-        <v>4642</v>
+        <v>23636.62</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B61">
-        <v>37009.74</v>
+        <v>4642</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B62">
-        <v>15851.63</v>
+        <v>37009.74</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B63">
-        <v>33313.16</v>
+        <v>15851.63</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B64">
-        <v>23394.13</v>
+        <v>33313.16</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B65">
-        <v>17765.24</v>
+        <v>23394.13</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B66">
-        <v>21750.9</v>
+        <v>17765.24</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B67">
-        <v>5923.91</v>
+        <v>21750.9</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B68">
-        <v>23370.46</v>
+        <v>5923.91</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B69">
-        <v>27227.58</v>
+        <v>23370.46</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B70">
-        <v>20282.52</v>
+        <v>27227.58</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B71">
-        <v>19695.38</v>
+        <v>20282.52</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B72">
-        <v>17250.36</v>
+        <v>19695.38</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B73">
-        <v>15973.05</v>
+        <v>17250.36</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B74">
-        <v>6906.9</v>
+        <v>15973.05</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B75">
-        <v>24267.47</v>
+        <v>6906.9</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -1681,27 +1681,27 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B76">
-        <v>22837.82</v>
+        <v>24267.47</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76">
         <v>2025</v>
       </c>
       <c r="E76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B77">
-        <v>10035.5</v>
+        <v>22837.82</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B78">
-        <v>23114.36</v>
+        <v>10035.5</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B79">
-        <v>17250.02</v>
+        <v>23114.36</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B80">
-        <v>28584.32</v>
+        <v>17250.02</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B81">
-        <v>25749.58</v>
+        <v>28584.32</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B82">
-        <v>54601.36</v>
+        <v>25749.58</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B83">
-        <v>25472.3</v>
+        <v>54601.36</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B84">
-        <v>6812.99</v>
+        <v>25472.3</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B85">
-        <v>34211.97</v>
+        <v>6812.99</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B86">
-        <v>20510.6</v>
+        <v>34211.97</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B87">
-        <v>28660.12</v>
+        <v>20510.6</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B88">
-        <v>35820.62</v>
+        <v>28660.12</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B89">
-        <v>20762.42</v>
+        <v>35820.62</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B90">
-        <v>18502.7</v>
+        <v>20762.42</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B91">
-        <v>4694</v>
+        <v>18502.7</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B92">
-        <v>57356.01</v>
+        <v>4694</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B93">
-        <v>38766.64</v>
+        <v>57356.01</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B94">
-        <v>37172.24</v>
+        <v>38766.64</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B95">
-        <v>22352.55</v>
+        <v>37172.24</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B96">
-        <v>38289.45</v>
+        <v>22352.55</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B97">
-        <v>19482.2</v>
+        <v>38289.45</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B98">
-        <v>8507.9</v>
+        <v>19482.2</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B99">
-        <v>45768.1</v>
+        <v>8507.9</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B100">
-        <v>41476.67</v>
+        <v>45768.1</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B101">
-        <v>20446.88</v>
+        <v>41476.67</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B102">
-        <v>29037.01</v>
+        <v>20446.88</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -2140,18 +2140,35 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
+        <v>27</v>
+      </c>
+      <c r="B103">
+        <v>29037.01</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>2025</v>
+      </c>
+      <c r="E103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
         <v>28</v>
       </c>
-      <c r="B103">
+      <c r="B104">
         <v>26934.44</v>
       </c>
-      <c r="C103">
-        <v>2</v>
-      </c>
-      <c r="D103">
-        <v>2025</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>2025</v>
+      </c>
+      <c r="E104" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,7 +630,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>26203.86</v>
+        <v>26531.86</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -647,7 +647,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>36409.18</v>
+        <v>36574.18</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -661,78 +661,78 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>19371.37</v>
+        <v>33940.79</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>2025</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>29218.71</v>
+        <v>30403.76</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>2025</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>19819.3</v>
+        <v>14533.8</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>25399.91</v>
+        <v>8085.01</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>2025</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B20">
-        <v>18509.5</v>
+        <v>19371.37</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>5823.21</v>
+        <v>29218.71</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B22">
-        <v>21764.19</v>
+        <v>19819.3</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B23">
-        <v>38515.34</v>
+        <v>25399.91</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B24">
-        <v>21733.46</v>
+        <v>18509.5</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B25">
-        <v>25715.4</v>
+        <v>5823.21</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B26">
-        <v>22833.25</v>
+        <v>21764.19</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B27">
-        <v>21596.15</v>
+        <v>38515.34</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B28">
-        <v>6451</v>
+        <v>21733.46</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B29">
-        <v>24085.6</v>
+        <v>25715.4</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B30">
-        <v>15644.59</v>
+        <v>22833.25</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B31">
-        <v>18372.2</v>
+        <v>21596.15</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B32">
-        <v>23446.19</v>
+        <v>6451</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B33">
-        <v>15474.35</v>
+        <v>24085.6</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B34">
-        <v>9164.799999999999</v>
+        <v>15644.59</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B35">
-        <v>2719</v>
+        <v>18372.2</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B36">
-        <v>15666.86</v>
+        <v>23446.19</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B37">
-        <v>15219.82</v>
+        <v>15474.35</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B38">
-        <v>19895.36</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B39">
-        <v>19632.82</v>
+        <v>2719</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B40">
-        <v>19212.07</v>
+        <v>15666.86</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B41">
-        <v>14442</v>
+        <v>15219.82</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B42">
-        <v>5289.3</v>
+        <v>19895.36</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B43">
-        <v>25680.18</v>
+        <v>19632.82</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B44">
-        <v>21976.8</v>
+        <v>19212.07</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B45">
-        <v>24773.88</v>
+        <v>14442</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,78 +1171,78 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B46">
-        <v>13803.81</v>
+        <v>5289.3</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46">
         <v>2025</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B47">
-        <v>4705.9</v>
+        <v>25680.18</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B48">
-        <v>16680.45</v>
+        <v>21976.8</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B49">
-        <v>7657.8</v>
+        <v>24773.88</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B50">
-        <v>37984.79</v>
+        <v>13803.81</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B51">
-        <v>19791.3</v>
+        <v>4705.9</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B52">
-        <v>51663.12</v>
+        <v>16680.45</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B53">
-        <v>14212.1</v>
+        <v>7657.8</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B54">
-        <v>8836.049999999999</v>
+        <v>37984.79</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B55">
-        <v>38138.8</v>
+        <v>19791.3</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B56">
-        <v>30745.57</v>
+        <v>51663.12</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B57">
-        <v>44416.44</v>
+        <v>14212.1</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B58">
-        <v>20045.79</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B59">
-        <v>23677.64</v>
+        <v>38138.8</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B60">
-        <v>23636.62</v>
+        <v>30745.57</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B61">
-        <v>4642</v>
+        <v>44416.44</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B62">
-        <v>37009.74</v>
+        <v>20045.79</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B63">
-        <v>15851.63</v>
+        <v>23677.64</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B64">
-        <v>33313.16</v>
+        <v>23636.62</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B65">
-        <v>23394.13</v>
+        <v>4642</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B66">
-        <v>17765.24</v>
+        <v>37009.74</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B67">
-        <v>21750.9</v>
+        <v>15851.63</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B68">
-        <v>5923.91</v>
+        <v>33313.16</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B69">
-        <v>23370.46</v>
+        <v>23394.13</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B70">
-        <v>27227.58</v>
+        <v>17765.24</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B71">
-        <v>20282.52</v>
+        <v>21750.9</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B72">
-        <v>19695.38</v>
+        <v>5923.91</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B73">
-        <v>17250.36</v>
+        <v>23370.46</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B74">
-        <v>15973.05</v>
+        <v>27227.58</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B75">
-        <v>6906.9</v>
+        <v>20282.52</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B76">
-        <v>24267.47</v>
+        <v>19695.38</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -1698,78 +1698,78 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B77">
-        <v>22837.82</v>
+        <v>17250.36</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77">
         <v>2025</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B78">
-        <v>10035.5</v>
+        <v>15973.05</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78">
         <v>2025</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B79">
-        <v>23114.36</v>
+        <v>6906.9</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79">
         <v>2025</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B80">
-        <v>17250.02</v>
+        <v>24267.47</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80">
         <v>2025</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B81">
-        <v>28584.32</v>
+        <v>22837.82</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B82">
-        <v>25749.58</v>
+        <v>10035.5</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B83">
-        <v>54601.36</v>
+        <v>23114.36</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B84">
-        <v>25472.3</v>
+        <v>17250.02</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B85">
-        <v>6812.99</v>
+        <v>28584.32</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B86">
-        <v>34211.97</v>
+        <v>25749.58</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B87">
-        <v>20510.6</v>
+        <v>54601.36</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B88">
-        <v>28660.12</v>
+        <v>25472.3</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B89">
-        <v>35820.62</v>
+        <v>6812.99</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B90">
-        <v>20762.42</v>
+        <v>34211.97</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B91">
-        <v>18502.7</v>
+        <v>20510.6</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B92">
-        <v>4694</v>
+        <v>28660.12</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B93">
-        <v>57356.01</v>
+        <v>35820.62</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B94">
-        <v>38766.64</v>
+        <v>20762.42</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B95">
-        <v>37172.24</v>
+        <v>18502.7</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B96">
-        <v>22352.55</v>
+        <v>4694</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B97">
-        <v>38289.45</v>
+        <v>57356.01</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B98">
-        <v>19482.2</v>
+        <v>38766.64</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B99">
-        <v>8507.9</v>
+        <v>37172.24</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B100">
-        <v>45768.1</v>
+        <v>22352.55</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B101">
-        <v>41476.67</v>
+        <v>38289.45</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B102">
-        <v>20446.88</v>
+        <v>19482.2</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B103">
-        <v>29037.01</v>
+        <v>8507.9</v>
       </c>
       <c r="C103">
         <v>2</v>
@@ -2157,18 +2157,86 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
+        <v>24</v>
+      </c>
+      <c r="B104">
+        <v>45768.1</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>2025</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>25</v>
+      </c>
+      <c r="B105">
+        <v>41476.67</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>2025</v>
+      </c>
+      <c r="E105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>26</v>
+      </c>
+      <c r="B106">
+        <v>20446.88</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>2025</v>
+      </c>
+      <c r="E106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>27</v>
+      </c>
+      <c r="B107">
+        <v>29037.01</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107">
+        <v>2025</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
         <v>28</v>
       </c>
-      <c r="B104">
+      <c r="B108">
         <v>26934.44</v>
       </c>
-      <c r="C104">
-        <v>2</v>
-      </c>
-      <c r="D104">
-        <v>2025</v>
-      </c>
-      <c r="E104" t="s">
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>2025</v>
+      </c>
+      <c r="E108" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -681,7 +681,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>30403.76</v>
+        <v>30498.76</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -698,7 +698,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>14533.8</v>
+        <v>15120.8</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -729,27 +729,27 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>19371.37</v>
+        <v>26923.67</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>2025</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B42">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B44">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B46">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B47">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B48">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49">
-        <v>24773.88</v>
+        <v>21976.8</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,27 +1239,27 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B50">
-        <v>13803.81</v>
+        <v>24773.88</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50">
         <v>2025</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51">
-        <v>4705.9</v>
+        <v>13803.81</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52">
-        <v>16680.45</v>
+        <v>4705.9</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53">
-        <v>7657.8</v>
+        <v>16680.45</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54">
-        <v>37984.79</v>
+        <v>7657.8</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B55">
-        <v>19791.3</v>
+        <v>37984.79</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B56">
-        <v>51663.12</v>
+        <v>19791.3</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B57">
-        <v>14212.1</v>
+        <v>51663.12</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B58">
-        <v>8836.049999999999</v>
+        <v>14212.1</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B59">
-        <v>38138.8</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B60">
-        <v>30745.57</v>
+        <v>38138.8</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B61">
-        <v>44416.44</v>
+        <v>30745.57</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B62">
-        <v>20045.79</v>
+        <v>44416.44</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B63">
-        <v>23677.64</v>
+        <v>20045.79</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B64">
-        <v>23636.62</v>
+        <v>23677.64</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B65">
-        <v>4642</v>
+        <v>23636.62</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B66">
-        <v>37009.74</v>
+        <v>4642</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B67">
-        <v>15851.63</v>
+        <v>37009.74</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B68">
-        <v>33313.16</v>
+        <v>15851.63</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B69">
-        <v>23394.13</v>
+        <v>33313.16</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B70">
-        <v>17765.24</v>
+        <v>23394.13</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B71">
-        <v>21750.9</v>
+        <v>17765.24</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B72">
-        <v>5923.91</v>
+        <v>21750.9</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B73">
-        <v>23370.46</v>
+        <v>5923.91</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B74">
-        <v>27227.58</v>
+        <v>23370.46</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B75">
-        <v>20282.52</v>
+        <v>27227.58</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B76">
-        <v>19695.38</v>
+        <v>20282.52</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B77">
-        <v>17250.36</v>
+        <v>19695.38</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B78">
-        <v>15973.05</v>
+        <v>17250.36</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B79">
-        <v>6906.9</v>
+        <v>15973.05</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B80">
-        <v>24267.47</v>
+        <v>6906.9</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -1766,27 +1766,27 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B81">
-        <v>22837.82</v>
+        <v>24267.47</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81">
         <v>2025</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B82">
-        <v>10035.5</v>
+        <v>22837.82</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B83">
-        <v>23114.36</v>
+        <v>10035.5</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B84">
-        <v>17250.02</v>
+        <v>23114.36</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B85">
-        <v>28584.32</v>
+        <v>17250.02</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B86">
-        <v>25749.58</v>
+        <v>28584.32</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B87">
-        <v>54601.36</v>
+        <v>25749.58</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B88">
-        <v>25472.3</v>
+        <v>54601.36</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B89">
-        <v>6812.99</v>
+        <v>25472.3</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B90">
-        <v>34211.97</v>
+        <v>6812.99</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B91">
-        <v>20510.6</v>
+        <v>34211.97</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B92">
-        <v>28660.12</v>
+        <v>20510.6</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B93">
-        <v>35820.62</v>
+        <v>28660.12</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B94">
-        <v>20762.42</v>
+        <v>35820.62</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B95">
-        <v>18502.7</v>
+        <v>20762.42</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B96">
-        <v>4694</v>
+        <v>18502.7</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B97">
-        <v>57356.01</v>
+        <v>4694</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B98">
-        <v>38766.64</v>
+        <v>57356.01</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B99">
-        <v>37172.24</v>
+        <v>38766.64</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B100">
-        <v>22352.55</v>
+        <v>37172.24</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B101">
-        <v>38289.45</v>
+        <v>22352.55</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B102">
-        <v>19482.2</v>
+        <v>38289.45</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B103">
-        <v>8507.9</v>
+        <v>19482.2</v>
       </c>
       <c r="C103">
         <v>2</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B104">
-        <v>45768.1</v>
+        <v>8507.9</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B105">
-        <v>41476.67</v>
+        <v>45768.1</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B106">
-        <v>20446.88</v>
+        <v>41476.67</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B107">
-        <v>29037.01</v>
+        <v>20446.88</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -2225,18 +2225,35 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
+        <v>27</v>
+      </c>
+      <c r="B108">
+        <v>29037.01</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>2025</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
         <v>28</v>
       </c>
-      <c r="B108">
+      <c r="B109">
         <v>26934.44</v>
       </c>
-      <c r="C108">
-        <v>2</v>
-      </c>
-      <c r="D108">
-        <v>2025</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109">
+        <v>2025</v>
+      </c>
+      <c r="E109" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -746,44 +746,44 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>19371.37</v>
+        <v>33090.3</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>2025</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>29218.71</v>
+        <v>24686.66</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>2025</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>19819.3</v>
+        <v>19371.37</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>25399.91</v>
+        <v>29218.71</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>18509.5</v>
+        <v>19819.3</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>5823.21</v>
+        <v>25399.91</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>21764.19</v>
+        <v>18509.5</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>38515.34</v>
+        <v>5823.21</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>21733.46</v>
+        <v>21764.19</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>25715.4</v>
+        <v>38515.34</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>22833.25</v>
+        <v>21733.46</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>21596.15</v>
+        <v>25715.4</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>6451</v>
+        <v>22833.25</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>24085.6</v>
+        <v>21596.15</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>15644.59</v>
+        <v>6451</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>18372.2</v>
+        <v>24085.6</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>23446.19</v>
+        <v>15644.59</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B38">
-        <v>15474.35</v>
+        <v>18372.2</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B39">
-        <v>9164.799999999999</v>
+        <v>23446.19</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B40">
-        <v>2719</v>
+        <v>15474.35</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B41">
-        <v>15666.86</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B42">
-        <v>15219.82</v>
+        <v>2719</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B43">
-        <v>19895.36</v>
+        <v>15666.86</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B44">
-        <v>19632.82</v>
+        <v>15219.82</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B45">
-        <v>19212.07</v>
+        <v>19895.36</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B46">
-        <v>14442</v>
+        <v>19632.82</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B47">
-        <v>5289.3</v>
+        <v>19212.07</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B48">
-        <v>25680.18</v>
+        <v>14442</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B49">
-        <v>21976.8</v>
+        <v>5289.3</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B50">
-        <v>24773.88</v>
+        <v>25680.18</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,44 +1256,44 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B51">
-        <v>13803.81</v>
+        <v>21976.8</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51">
         <v>2025</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B52">
-        <v>4705.9</v>
+        <v>24773.88</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52">
         <v>2025</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B53">
-        <v>16680.45</v>
+        <v>13803.81</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B54">
-        <v>7657.8</v>
+        <v>4705.9</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B55">
-        <v>37984.79</v>
+        <v>16680.45</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B56">
-        <v>19791.3</v>
+        <v>7657.8</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B57">
-        <v>51663.12</v>
+        <v>37984.79</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B58">
-        <v>14212.1</v>
+        <v>19791.3</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B59">
-        <v>8836.049999999999</v>
+        <v>51663.12</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B60">
-        <v>38138.8</v>
+        <v>14212.1</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B61">
-        <v>30745.57</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B62">
-        <v>44416.44</v>
+        <v>38138.8</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B63">
-        <v>20045.79</v>
+        <v>30745.57</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B64">
-        <v>23677.64</v>
+        <v>44416.44</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B65">
-        <v>23636.62</v>
+        <v>20045.79</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B66">
-        <v>4642</v>
+        <v>23677.64</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B67">
-        <v>37009.74</v>
+        <v>23636.62</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B68">
-        <v>15851.63</v>
+        <v>4642</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B69">
-        <v>33313.16</v>
+        <v>37009.74</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B70">
-        <v>23394.13</v>
+        <v>15851.63</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B71">
-        <v>17765.24</v>
+        <v>33313.16</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B72">
-        <v>21750.9</v>
+        <v>23394.13</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B73">
-        <v>5923.91</v>
+        <v>17765.24</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B74">
-        <v>23370.46</v>
+        <v>21750.9</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B75">
-        <v>27227.58</v>
+        <v>5923.91</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B76">
-        <v>20282.52</v>
+        <v>23370.46</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B77">
-        <v>19695.38</v>
+        <v>27227.58</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B78">
-        <v>17250.36</v>
+        <v>20282.52</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B79">
-        <v>15973.05</v>
+        <v>19695.38</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B80">
-        <v>6906.9</v>
+        <v>17250.36</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B81">
-        <v>24267.47</v>
+        <v>15973.05</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -1783,44 +1783,44 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B82">
-        <v>22837.82</v>
+        <v>6906.9</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82">
         <v>2025</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B83">
-        <v>10035.5</v>
+        <v>24267.47</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83">
         <v>2025</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B84">
-        <v>23114.36</v>
+        <v>22837.82</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B85">
-        <v>17250.02</v>
+        <v>10035.5</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B86">
-        <v>28584.32</v>
+        <v>23114.36</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B87">
-        <v>25749.58</v>
+        <v>17250.02</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B88">
-        <v>54601.36</v>
+        <v>28584.32</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B89">
-        <v>25472.3</v>
+        <v>25749.58</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B90">
-        <v>6812.99</v>
+        <v>54601.36</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B91">
-        <v>34211.97</v>
+        <v>25472.3</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B92">
-        <v>20510.6</v>
+        <v>6812.99</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B93">
-        <v>28660.12</v>
+        <v>34211.97</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B94">
-        <v>35820.62</v>
+        <v>20510.6</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B95">
-        <v>20762.42</v>
+        <v>28660.12</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B96">
-        <v>18502.7</v>
+        <v>35820.62</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B97">
-        <v>4694</v>
+        <v>20762.42</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B98">
-        <v>57356.01</v>
+        <v>18502.7</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B99">
-        <v>38766.64</v>
+        <v>4694</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B100">
-        <v>37172.24</v>
+        <v>57356.01</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B101">
-        <v>22352.55</v>
+        <v>38766.64</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B102">
-        <v>38289.45</v>
+        <v>37172.24</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B103">
-        <v>19482.2</v>
+        <v>22352.55</v>
       </c>
       <c r="C103">
         <v>2</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B104">
-        <v>8507.9</v>
+        <v>38289.45</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B105">
-        <v>45768.1</v>
+        <v>19482.2</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B106">
-        <v>41476.67</v>
+        <v>8507.9</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B107">
-        <v>20446.88</v>
+        <v>45768.1</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B108">
-        <v>29037.01</v>
+        <v>41476.67</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -2242,18 +2242,52 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
+        <v>26</v>
+      </c>
+      <c r="B109">
+        <v>20446.88</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109">
+        <v>2025</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>27</v>
+      </c>
+      <c r="B110">
+        <v>29037.01</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+      <c r="D110">
+        <v>2025</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
         <v>28</v>
       </c>
-      <c r="B109">
+      <c r="B111">
         <v>26934.44</v>
       </c>
-      <c r="C109">
-        <v>2</v>
-      </c>
-      <c r="D109">
-        <v>2025</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="C111">
+        <v>2</v>
+      </c>
+      <c r="D111">
+        <v>2025</v>
+      </c>
+      <c r="E111" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -766,7 +766,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>24686.66</v>
+        <v>25994.16</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,27 +780,27 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>19371.37</v>
+        <v>27147.29</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23">
         <v>2025</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B43">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B44">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B45">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B46">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B47">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B48">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B49">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B50">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B51">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B52">
-        <v>24773.88</v>
+        <v>21976.8</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,27 +1290,27 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B53">
-        <v>13803.81</v>
+        <v>24773.88</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53">
         <v>2025</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54">
-        <v>4705.9</v>
+        <v>13803.81</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B55">
-        <v>16680.45</v>
+        <v>4705.9</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B56">
-        <v>7657.8</v>
+        <v>16680.45</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B57">
-        <v>37984.79</v>
+        <v>7657.8</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B58">
-        <v>19791.3</v>
+        <v>37984.79</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B59">
-        <v>51663.12</v>
+        <v>19791.3</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B60">
-        <v>14212.1</v>
+        <v>51663.12</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B61">
-        <v>8836.049999999999</v>
+        <v>14212.1</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B62">
-        <v>38138.8</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B63">
-        <v>30745.57</v>
+        <v>38138.8</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B64">
-        <v>44416.44</v>
+        <v>30745.57</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B65">
-        <v>20045.79</v>
+        <v>44416.44</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B66">
-        <v>23677.64</v>
+        <v>20045.79</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B67">
-        <v>23636.62</v>
+        <v>23677.64</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B68">
-        <v>4642</v>
+        <v>23636.62</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B69">
-        <v>37009.74</v>
+        <v>4642</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B70">
-        <v>15851.63</v>
+        <v>37009.74</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B71">
-        <v>33313.16</v>
+        <v>15851.63</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B72">
-        <v>23394.13</v>
+        <v>33313.16</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B73">
-        <v>17765.24</v>
+        <v>23394.13</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B74">
-        <v>21750.9</v>
+        <v>17765.24</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B75">
-        <v>5923.91</v>
+        <v>21750.9</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B76">
-        <v>23370.46</v>
+        <v>5923.91</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B77">
-        <v>27227.58</v>
+        <v>23370.46</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B78">
-        <v>20282.52</v>
+        <v>27227.58</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B79">
-        <v>19695.38</v>
+        <v>20282.52</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B80">
-        <v>17250.36</v>
+        <v>19695.38</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B81">
-        <v>15973.05</v>
+        <v>17250.36</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B82">
-        <v>6906.9</v>
+        <v>15973.05</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B83">
-        <v>24267.47</v>
+        <v>6906.9</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -1817,27 +1817,27 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B84">
-        <v>22837.82</v>
+        <v>24267.47</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84">
         <v>2025</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B85">
-        <v>10035.5</v>
+        <v>22837.82</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B86">
-        <v>23114.36</v>
+        <v>10035.5</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B87">
-        <v>17250.02</v>
+        <v>23114.36</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B88">
-        <v>28584.32</v>
+        <v>17250.02</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B89">
-        <v>25749.58</v>
+        <v>28584.32</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B90">
-        <v>54601.36</v>
+        <v>25749.58</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B91">
-        <v>25472.3</v>
+        <v>54601.36</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B92">
-        <v>6812.99</v>
+        <v>25472.3</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B93">
-        <v>34211.97</v>
+        <v>6812.99</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B94">
-        <v>20510.6</v>
+        <v>34211.97</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B95">
-        <v>28660.12</v>
+        <v>20510.6</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B96">
-        <v>35820.62</v>
+        <v>28660.12</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B97">
-        <v>20762.42</v>
+        <v>35820.62</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B98">
-        <v>18502.7</v>
+        <v>20762.42</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B99">
-        <v>4694</v>
+        <v>18502.7</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B100">
-        <v>57356.01</v>
+        <v>4694</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B101">
-        <v>38766.64</v>
+        <v>57356.01</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B102">
-        <v>37172.24</v>
+        <v>38766.64</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B103">
-        <v>22352.55</v>
+        <v>37172.24</v>
       </c>
       <c r="C103">
         <v>2</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B104">
-        <v>38289.45</v>
+        <v>22352.55</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B105">
-        <v>19482.2</v>
+        <v>38289.45</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B106">
-        <v>8507.9</v>
+        <v>19482.2</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B107">
-        <v>45768.1</v>
+        <v>8507.9</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B108">
-        <v>41476.67</v>
+        <v>45768.1</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B109">
-        <v>20446.88</v>
+        <v>41476.67</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B110">
-        <v>29037.01</v>
+        <v>20446.88</v>
       </c>
       <c r="C110">
         <v>2</v>
@@ -2276,18 +2276,35 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
+        <v>27</v>
+      </c>
+      <c r="B111">
+        <v>29037.01</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+      <c r="D111">
+        <v>2025</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
         <v>28</v>
       </c>
-      <c r="B111">
+      <c r="B112">
         <v>26934.44</v>
       </c>
-      <c r="C111">
-        <v>2</v>
-      </c>
-      <c r="D111">
-        <v>2025</v>
-      </c>
-      <c r="E111" t="s">
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>2025</v>
+      </c>
+      <c r="E112" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -797,61 +797,61 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>19371.37</v>
+        <v>23820.29</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>2025</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>29218.71</v>
+        <v>34922.72</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <v>2025</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>19819.3</v>
+        <v>1686.9</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>2025</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B27">
-        <v>25399.91</v>
+        <v>19371.37</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B28">
-        <v>18509.5</v>
+        <v>29218.71</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B29">
-        <v>5823.21</v>
+        <v>19819.3</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B30">
-        <v>21764.19</v>
+        <v>25399.91</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B31">
-        <v>38515.34</v>
+        <v>18509.5</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B32">
-        <v>21733.46</v>
+        <v>5823.21</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B33">
-        <v>25715.4</v>
+        <v>21764.19</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B34">
-        <v>22833.25</v>
+        <v>38515.34</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B35">
-        <v>21596.15</v>
+        <v>21733.46</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B36">
-        <v>6451</v>
+        <v>25715.4</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B37">
-        <v>24085.6</v>
+        <v>22833.25</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B38">
-        <v>15644.59</v>
+        <v>21596.15</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B39">
-        <v>18372.2</v>
+        <v>6451</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B40">
-        <v>23446.19</v>
+        <v>24085.6</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B41">
-        <v>15474.35</v>
+        <v>15644.59</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B42">
-        <v>9164.799999999999</v>
+        <v>18372.2</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B43">
-        <v>2719</v>
+        <v>23446.19</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B44">
-        <v>15666.86</v>
+        <v>15474.35</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B45">
-        <v>15219.82</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B46">
-        <v>19895.36</v>
+        <v>2719</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B47">
-        <v>19632.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B48">
-        <v>19212.07</v>
+        <v>15219.82</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B49">
-        <v>14442</v>
+        <v>19895.36</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B50">
-        <v>5289.3</v>
+        <v>19632.82</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B51">
-        <v>25680.18</v>
+        <v>19212.07</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B52">
-        <v>21976.8</v>
+        <v>14442</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B53">
-        <v>24773.88</v>
+        <v>5289.3</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,61 +1307,61 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B54">
-        <v>13803.81</v>
+        <v>25680.18</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54">
         <v>2025</v>
       </c>
       <c r="E54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B55">
-        <v>4705.9</v>
+        <v>21976.8</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55">
         <v>2025</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B56">
-        <v>16680.45</v>
+        <v>24773.88</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56">
         <v>2025</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B57">
-        <v>7657.8</v>
+        <v>13803.81</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B58">
-        <v>37984.79</v>
+        <v>4705.9</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B59">
-        <v>19791.3</v>
+        <v>16680.45</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B60">
-        <v>51663.12</v>
+        <v>7657.8</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B61">
-        <v>14212.1</v>
+        <v>37984.79</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B62">
-        <v>8836.049999999999</v>
+        <v>19791.3</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B63">
-        <v>38138.8</v>
+        <v>51663.12</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B64">
-        <v>30745.57</v>
+        <v>14212.1</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B65">
-        <v>44416.44</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B66">
-        <v>20045.79</v>
+        <v>38138.8</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B67">
-        <v>23677.64</v>
+        <v>30745.57</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B68">
-        <v>23636.62</v>
+        <v>44416.44</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B69">
-        <v>4642</v>
+        <v>20045.79</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B70">
-        <v>37009.74</v>
+        <v>23677.64</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B71">
-        <v>15851.63</v>
+        <v>23636.62</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B72">
-        <v>33313.16</v>
+        <v>4642</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B73">
-        <v>23394.13</v>
+        <v>37009.74</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B74">
-        <v>17765.24</v>
+        <v>15851.63</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B75">
-        <v>21750.9</v>
+        <v>33313.16</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B76">
-        <v>5923.91</v>
+        <v>23394.13</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B77">
-        <v>23370.46</v>
+        <v>17765.24</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B78">
-        <v>27227.58</v>
+        <v>21750.9</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B79">
-        <v>20282.52</v>
+        <v>5923.91</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B80">
-        <v>19695.38</v>
+        <v>23370.46</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B81">
-        <v>17250.36</v>
+        <v>27227.58</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B82">
-        <v>15973.05</v>
+        <v>20282.52</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B83">
-        <v>6906.9</v>
+        <v>19695.38</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B84">
-        <v>24267.47</v>
+        <v>17250.36</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -1834,61 +1834,61 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B85">
-        <v>22837.82</v>
+        <v>15973.05</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85">
         <v>2025</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B86">
-        <v>10035.5</v>
+        <v>6906.9</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86">
         <v>2025</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B87">
-        <v>23114.36</v>
+        <v>24267.47</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87">
         <v>2025</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B88">
-        <v>17250.02</v>
+        <v>22837.82</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B89">
-        <v>28584.32</v>
+        <v>10035.5</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B90">
-        <v>25749.58</v>
+        <v>23114.36</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B91">
-        <v>54601.36</v>
+        <v>17250.02</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B92">
-        <v>25472.3</v>
+        <v>28584.32</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B93">
-        <v>6812.99</v>
+        <v>25749.58</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B94">
-        <v>34211.97</v>
+        <v>54601.36</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B95">
-        <v>20510.6</v>
+        <v>25472.3</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B96">
-        <v>28660.12</v>
+        <v>6812.99</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B97">
-        <v>35820.62</v>
+        <v>34211.97</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B98">
-        <v>20762.42</v>
+        <v>20510.6</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B99">
-        <v>18502.7</v>
+        <v>28660.12</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B100">
-        <v>4694</v>
+        <v>35820.62</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B101">
-        <v>57356.01</v>
+        <v>20762.42</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B102">
-        <v>38766.64</v>
+        <v>18502.7</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B103">
-        <v>37172.24</v>
+        <v>4694</v>
       </c>
       <c r="C103">
         <v>2</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B104">
-        <v>22352.55</v>
+        <v>57356.01</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B105">
-        <v>38289.45</v>
+        <v>38766.64</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B106">
-        <v>19482.2</v>
+        <v>37172.24</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B107">
-        <v>8507.9</v>
+        <v>22352.55</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B108">
-        <v>45768.1</v>
+        <v>38289.45</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B109">
-        <v>41476.67</v>
+        <v>19482.2</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B110">
-        <v>20446.88</v>
+        <v>8507.9</v>
       </c>
       <c r="C110">
         <v>2</v>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B111">
-        <v>29037.01</v>
+        <v>45768.1</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -2293,18 +2293,69 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
+        <v>25</v>
+      </c>
+      <c r="B112">
+        <v>41476.67</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>2025</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>26</v>
+      </c>
+      <c r="B113">
+        <v>20446.88</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>2025</v>
+      </c>
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>27</v>
+      </c>
+      <c r="B114">
+        <v>29037.01</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>2025</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
         <v>28</v>
       </c>
-      <c r="B112">
+      <c r="B115">
         <v>26934.44</v>
       </c>
-      <c r="C112">
-        <v>2</v>
-      </c>
-      <c r="D112">
-        <v>2025</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <v>2025</v>
+      </c>
+      <c r="E115" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -834,7 +834,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1686.9</v>
+        <v>3824.9</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,27 +848,27 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>19371.37</v>
+        <v>27393.77</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>2025</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B35">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B45">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B48">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B49">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B50">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B51">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B52">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B53">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B54">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B55">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B56">
-        <v>24773.88</v>
+        <v>21976.8</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,27 +1358,27 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B57">
-        <v>13803.81</v>
+        <v>24773.88</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57">
         <v>2025</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58">
-        <v>4705.9</v>
+        <v>13803.81</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B59">
-        <v>16680.45</v>
+        <v>4705.9</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60">
-        <v>7657.8</v>
+        <v>16680.45</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B61">
-        <v>37984.79</v>
+        <v>7657.8</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B62">
-        <v>19791.3</v>
+        <v>37984.79</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B63">
-        <v>51663.12</v>
+        <v>19791.3</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B64">
-        <v>14212.1</v>
+        <v>51663.12</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B65">
-        <v>8836.049999999999</v>
+        <v>14212.1</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B66">
-        <v>38138.8</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B67">
-        <v>30745.57</v>
+        <v>38138.8</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B68">
-        <v>44416.44</v>
+        <v>30745.57</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B69">
-        <v>20045.79</v>
+        <v>44416.44</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B70">
-        <v>23677.64</v>
+        <v>20045.79</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B71">
-        <v>23636.62</v>
+        <v>23677.64</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B72">
-        <v>4642</v>
+        <v>23636.62</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B73">
-        <v>37009.74</v>
+        <v>4642</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B74">
-        <v>15851.63</v>
+        <v>37009.74</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B75">
-        <v>33313.16</v>
+        <v>15851.63</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B76">
-        <v>23394.13</v>
+        <v>33313.16</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B77">
-        <v>17765.24</v>
+        <v>23394.13</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B78">
-        <v>21750.9</v>
+        <v>17765.24</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B79">
-        <v>5923.91</v>
+        <v>21750.9</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B80">
-        <v>23370.46</v>
+        <v>5923.91</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B81">
-        <v>27227.58</v>
+        <v>23370.46</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B82">
-        <v>20282.52</v>
+        <v>27227.58</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B83">
-        <v>19695.38</v>
+        <v>20282.52</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B84">
-        <v>17250.36</v>
+        <v>19695.38</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B85">
-        <v>15973.05</v>
+        <v>17250.36</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B86">
-        <v>6906.9</v>
+        <v>15973.05</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B87">
-        <v>24267.47</v>
+        <v>6906.9</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -1885,27 +1885,27 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B88">
-        <v>22837.82</v>
+        <v>24267.47</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88">
         <v>2025</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B89">
-        <v>10035.5</v>
+        <v>22837.82</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B90">
-        <v>23114.36</v>
+        <v>10035.5</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B91">
-        <v>17250.02</v>
+        <v>23114.36</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B92">
-        <v>28584.32</v>
+        <v>17250.02</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B93">
-        <v>25749.58</v>
+        <v>28584.32</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B94">
-        <v>54601.36</v>
+        <v>25749.58</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B95">
-        <v>25472.3</v>
+        <v>54601.36</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B96">
-        <v>6812.99</v>
+        <v>25472.3</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B97">
-        <v>34211.97</v>
+        <v>6812.99</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B98">
-        <v>20510.6</v>
+        <v>34211.97</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B99">
-        <v>28660.12</v>
+        <v>20510.6</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B100">
-        <v>35820.62</v>
+        <v>28660.12</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B101">
-        <v>20762.42</v>
+        <v>35820.62</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B102">
-        <v>18502.7</v>
+        <v>20762.42</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B103">
-        <v>4694</v>
+        <v>18502.7</v>
       </c>
       <c r="C103">
         <v>2</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B104">
-        <v>57356.01</v>
+        <v>4694</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B105">
-        <v>38766.64</v>
+        <v>57356.01</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B106">
-        <v>37172.24</v>
+        <v>38766.64</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B107">
-        <v>22352.55</v>
+        <v>37172.24</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B108">
-        <v>38289.45</v>
+        <v>22352.55</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B109">
-        <v>19482.2</v>
+        <v>38289.45</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B110">
-        <v>8507.9</v>
+        <v>19482.2</v>
       </c>
       <c r="C110">
         <v>2</v>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B111">
-        <v>45768.1</v>
+        <v>8507.9</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -2293,10 +2293,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B112">
-        <v>41476.67</v>
+        <v>45768.1</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -2310,10 +2310,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B113">
-        <v>20446.88</v>
+        <v>41476.67</v>
       </c>
       <c r="C113">
         <v>2</v>
@@ -2327,10 +2327,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B114">
-        <v>29037.01</v>
+        <v>20446.88</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -2344,18 +2344,35 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
+        <v>27</v>
+      </c>
+      <c r="B115">
+        <v>29037.01</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <v>2025</v>
+      </c>
+      <c r="E115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
         <v>28</v>
       </c>
-      <c r="B115">
+      <c r="B116">
         <v>26934.44</v>
       </c>
-      <c r="C115">
-        <v>2</v>
-      </c>
-      <c r="D115">
-        <v>2025</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <v>2025</v>
+      </c>
+      <c r="E116" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -865,27 +865,27 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>19371.37</v>
+        <v>24156.31</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>2025</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B42">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B45">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B46">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B47">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B48">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B49">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B50">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B51">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B52">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B54">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B55">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B56">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B57">
-        <v>24773.88</v>
+        <v>21976.8</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,27 +1375,27 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B58">
-        <v>13803.81</v>
+        <v>24773.88</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58">
         <v>2025</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59">
-        <v>4705.9</v>
+        <v>13803.81</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B60">
-        <v>16680.45</v>
+        <v>4705.9</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B61">
-        <v>7657.8</v>
+        <v>16680.45</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B62">
-        <v>37984.79</v>
+        <v>7657.8</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B63">
-        <v>19791.3</v>
+        <v>37984.79</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B64">
-        <v>51663.12</v>
+        <v>19791.3</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B65">
-        <v>14212.1</v>
+        <v>51663.12</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B66">
-        <v>8836.049999999999</v>
+        <v>14212.1</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B67">
-        <v>38138.8</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B68">
-        <v>30745.57</v>
+        <v>38138.8</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B69">
-        <v>44416.44</v>
+        <v>30745.57</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B70">
-        <v>20045.79</v>
+        <v>44416.44</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B71">
-        <v>23677.64</v>
+        <v>20045.79</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B72">
-        <v>23636.62</v>
+        <v>23677.64</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B73">
-        <v>4642</v>
+        <v>23636.62</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B74">
-        <v>37009.74</v>
+        <v>4642</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B75">
-        <v>15851.63</v>
+        <v>37009.74</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B76">
-        <v>33313.16</v>
+        <v>15851.63</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B77">
-        <v>23394.13</v>
+        <v>33313.16</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B78">
-        <v>17765.24</v>
+        <v>23394.13</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B79">
-        <v>21750.9</v>
+        <v>17765.24</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B80">
-        <v>5923.91</v>
+        <v>21750.9</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B81">
-        <v>23370.46</v>
+        <v>5923.91</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B82">
-        <v>27227.58</v>
+        <v>23370.46</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B83">
-        <v>20282.52</v>
+        <v>27227.58</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B84">
-        <v>19695.38</v>
+        <v>20282.52</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B85">
-        <v>17250.36</v>
+        <v>19695.38</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B86">
-        <v>15973.05</v>
+        <v>17250.36</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B87">
-        <v>6906.9</v>
+        <v>15973.05</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B88">
-        <v>24267.47</v>
+        <v>6906.9</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -1902,27 +1902,27 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B89">
-        <v>22837.82</v>
+        <v>24267.47</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89">
         <v>2025</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B90">
-        <v>10035.5</v>
+        <v>22837.82</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B91">
-        <v>23114.36</v>
+        <v>10035.5</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B92">
-        <v>17250.02</v>
+        <v>23114.36</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B93">
-        <v>28584.32</v>
+        <v>17250.02</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B94">
-        <v>25749.58</v>
+        <v>28584.32</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B95">
-        <v>54601.36</v>
+        <v>25749.58</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B96">
-        <v>25472.3</v>
+        <v>54601.36</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B97">
-        <v>6812.99</v>
+        <v>25472.3</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B98">
-        <v>34211.97</v>
+        <v>6812.99</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B99">
-        <v>20510.6</v>
+        <v>34211.97</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B100">
-        <v>28660.12</v>
+        <v>20510.6</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B101">
-        <v>35820.62</v>
+        <v>28660.12</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B102">
-        <v>20762.42</v>
+        <v>35820.62</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B103">
-        <v>18502.7</v>
+        <v>20762.42</v>
       </c>
       <c r="C103">
         <v>2</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B104">
-        <v>4694</v>
+        <v>18502.7</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B105">
-        <v>57356.01</v>
+        <v>4694</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B106">
-        <v>38766.64</v>
+        <v>57356.01</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B107">
-        <v>37172.24</v>
+        <v>38766.64</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B108">
-        <v>22352.55</v>
+        <v>37172.24</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B109">
-        <v>38289.45</v>
+        <v>22352.55</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B110">
-        <v>19482.2</v>
+        <v>38289.45</v>
       </c>
       <c r="C110">
         <v>2</v>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B111">
-        <v>8507.9</v>
+        <v>19482.2</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -2293,10 +2293,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B112">
-        <v>45768.1</v>
+        <v>8507.9</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -2310,10 +2310,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B113">
-        <v>41476.67</v>
+        <v>45768.1</v>
       </c>
       <c r="C113">
         <v>2</v>
@@ -2327,10 +2327,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B114">
-        <v>20446.88</v>
+        <v>41476.67</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B115">
-        <v>29037.01</v>
+        <v>20446.88</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -2361,18 +2361,35 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
+        <v>27</v>
+      </c>
+      <c r="B116">
+        <v>29037.01</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <v>2025</v>
+      </c>
+      <c r="E116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
         <v>28</v>
       </c>
-      <c r="B116">
+      <c r="B117">
         <v>26934.44</v>
       </c>
-      <c r="C116">
-        <v>2</v>
-      </c>
-      <c r="D116">
-        <v>2025</v>
-      </c>
-      <c r="E116" t="s">
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117">
+        <v>2025</v>
+      </c>
+      <c r="E117" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -882,27 +882,27 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>19371.37</v>
+        <v>21619.63</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <v>2025</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B44">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B46">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B47">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B48">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B49">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B50">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B51">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B52">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B53">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B54">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B56">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B57">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B58">
-        <v>24773.88</v>
+        <v>21976.8</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,27 +1392,27 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B59">
-        <v>13803.81</v>
+        <v>24773.88</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59">
         <v>2025</v>
       </c>
       <c r="E59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60">
-        <v>4705.9</v>
+        <v>13803.81</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B61">
-        <v>16680.45</v>
+        <v>4705.9</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B62">
-        <v>7657.8</v>
+        <v>16680.45</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B63">
-        <v>37984.79</v>
+        <v>7657.8</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B64">
-        <v>19791.3</v>
+        <v>37984.79</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B65">
-        <v>51663.12</v>
+        <v>19791.3</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66">
-        <v>14212.1</v>
+        <v>51663.12</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B67">
-        <v>8836.049999999999</v>
+        <v>14212.1</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B68">
-        <v>38138.8</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B69">
-        <v>30745.57</v>
+        <v>38138.8</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B70">
-        <v>44416.44</v>
+        <v>30745.57</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B71">
-        <v>20045.79</v>
+        <v>44416.44</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B72">
-        <v>23677.64</v>
+        <v>20045.79</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B73">
-        <v>23636.62</v>
+        <v>23677.64</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B74">
-        <v>4642</v>
+        <v>23636.62</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B75">
-        <v>37009.74</v>
+        <v>4642</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B76">
-        <v>15851.63</v>
+        <v>37009.74</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B77">
-        <v>33313.16</v>
+        <v>15851.63</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B78">
-        <v>23394.13</v>
+        <v>33313.16</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B79">
-        <v>17765.24</v>
+        <v>23394.13</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B80">
-        <v>21750.9</v>
+        <v>17765.24</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B81">
-        <v>5923.91</v>
+        <v>21750.9</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B82">
-        <v>23370.46</v>
+        <v>5923.91</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B83">
-        <v>27227.58</v>
+        <v>23370.46</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B84">
-        <v>20282.52</v>
+        <v>27227.58</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B85">
-        <v>19695.38</v>
+        <v>20282.52</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B86">
-        <v>17250.36</v>
+        <v>19695.38</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B87">
-        <v>15973.05</v>
+        <v>17250.36</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B88">
-        <v>6906.9</v>
+        <v>15973.05</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B89">
-        <v>24267.47</v>
+        <v>6906.9</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -1919,27 +1919,27 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B90">
-        <v>22837.82</v>
+        <v>24267.47</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90">
         <v>2025</v>
       </c>
       <c r="E90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B91">
-        <v>10035.5</v>
+        <v>22837.82</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B92">
-        <v>23114.36</v>
+        <v>10035.5</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B93">
-        <v>17250.02</v>
+        <v>23114.36</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B94">
-        <v>28584.32</v>
+        <v>17250.02</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B95">
-        <v>25749.58</v>
+        <v>28584.32</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B96">
-        <v>54601.36</v>
+        <v>25749.58</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B97">
-        <v>25472.3</v>
+        <v>54601.36</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B98">
-        <v>6812.99</v>
+        <v>25472.3</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B99">
-        <v>34211.97</v>
+        <v>6812.99</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B100">
-        <v>20510.6</v>
+        <v>34211.97</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B101">
-        <v>28660.12</v>
+        <v>20510.6</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B102">
-        <v>35820.62</v>
+        <v>28660.12</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B103">
-        <v>20762.42</v>
+        <v>35820.62</v>
       </c>
       <c r="C103">
         <v>2</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B104">
-        <v>18502.7</v>
+        <v>20762.42</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B105">
-        <v>4694</v>
+        <v>18502.7</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B106">
-        <v>57356.01</v>
+        <v>4694</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B107">
-        <v>38766.64</v>
+        <v>57356.01</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B108">
-        <v>37172.24</v>
+        <v>38766.64</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B109">
-        <v>22352.55</v>
+        <v>37172.24</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B110">
-        <v>38289.45</v>
+        <v>22352.55</v>
       </c>
       <c r="C110">
         <v>2</v>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B111">
-        <v>19482.2</v>
+        <v>38289.45</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -2293,10 +2293,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B112">
-        <v>8507.9</v>
+        <v>19482.2</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -2310,10 +2310,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B113">
-        <v>45768.1</v>
+        <v>8507.9</v>
       </c>
       <c r="C113">
         <v>2</v>
@@ -2327,10 +2327,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B114">
-        <v>41476.67</v>
+        <v>45768.1</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B115">
-        <v>20446.88</v>
+        <v>41476.67</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -2361,10 +2361,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B116">
-        <v>29037.01</v>
+        <v>20446.88</v>
       </c>
       <c r="C116">
         <v>2</v>
@@ -2378,18 +2378,35 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
+        <v>27</v>
+      </c>
+      <c r="B117">
+        <v>29037.01</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117">
+        <v>2025</v>
+      </c>
+      <c r="E117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
         <v>28</v>
       </c>
-      <c r="B117">
+      <c r="B118">
         <v>26934.44</v>
       </c>
-      <c r="C117">
-        <v>2</v>
-      </c>
-      <c r="D117">
-        <v>2025</v>
-      </c>
-      <c r="E117" t="s">
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>2025</v>
+      </c>
+      <c r="E118" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -851,7 +851,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>27393.77</v>
+        <v>27831.77</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -885,7 +885,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>21619.63</v>
+        <v>21718.63</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,27 +899,27 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>19371.37</v>
+        <v>19445.75</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>2025</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B47">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B48">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B52">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B56">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59">
-        <v>24773.88</v>
+        <v>21976.8</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,27 +1409,27 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B60">
-        <v>13803.81</v>
+        <v>24773.88</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60">
         <v>2025</v>
       </c>
       <c r="E60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B61">
-        <v>4705.9</v>
+        <v>13803.81</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B62">
-        <v>16680.45</v>
+        <v>4705.9</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B63">
-        <v>7657.8</v>
+        <v>16680.45</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B64">
-        <v>37984.79</v>
+        <v>7657.8</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B65">
-        <v>19791.3</v>
+        <v>37984.79</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B66">
-        <v>51663.12</v>
+        <v>19791.3</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B67">
-        <v>14212.1</v>
+        <v>51663.12</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B68">
-        <v>8836.049999999999</v>
+        <v>14212.1</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B69">
-        <v>38138.8</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B70">
-        <v>30745.57</v>
+        <v>38138.8</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B71">
-        <v>44416.44</v>
+        <v>30745.57</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B72">
-        <v>20045.79</v>
+        <v>44416.44</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B73">
-        <v>23677.64</v>
+        <v>20045.79</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B74">
-        <v>23636.62</v>
+        <v>23677.64</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B75">
-        <v>4642</v>
+        <v>23636.62</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B76">
-        <v>37009.74</v>
+        <v>4642</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B77">
-        <v>15851.63</v>
+        <v>37009.74</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B78">
-        <v>33313.16</v>
+        <v>15851.63</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B79">
-        <v>23394.13</v>
+        <v>33313.16</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B80">
-        <v>17765.24</v>
+        <v>23394.13</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B81">
-        <v>21750.9</v>
+        <v>17765.24</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B82">
-        <v>5923.91</v>
+        <v>21750.9</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B83">
-        <v>23370.46</v>
+        <v>5923.91</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B84">
-        <v>27227.58</v>
+        <v>23370.46</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B85">
-        <v>20282.52</v>
+        <v>27227.58</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B86">
-        <v>19695.38</v>
+        <v>20282.52</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B87">
-        <v>17250.36</v>
+        <v>19695.38</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B88">
-        <v>15973.05</v>
+        <v>17250.36</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B89">
-        <v>6906.9</v>
+        <v>15973.05</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B90">
-        <v>24267.47</v>
+        <v>6906.9</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -1936,27 +1936,27 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B91">
-        <v>22837.82</v>
+        <v>24267.47</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91">
         <v>2025</v>
       </c>
       <c r="E91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B92">
-        <v>10035.5</v>
+        <v>22837.82</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B93">
-        <v>23114.36</v>
+        <v>10035.5</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B94">
-        <v>17250.02</v>
+        <v>23114.36</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B95">
-        <v>28584.32</v>
+        <v>17250.02</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B96">
-        <v>25749.58</v>
+        <v>28584.32</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B97">
-        <v>54601.36</v>
+        <v>25749.58</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B98">
-        <v>25472.3</v>
+        <v>54601.36</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B99">
-        <v>6812.99</v>
+        <v>25472.3</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B100">
-        <v>34211.97</v>
+        <v>6812.99</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B101">
-        <v>20510.6</v>
+        <v>34211.97</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B102">
-        <v>28660.12</v>
+        <v>20510.6</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B103">
-        <v>35820.62</v>
+        <v>28660.12</v>
       </c>
       <c r="C103">
         <v>2</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B104">
-        <v>20762.42</v>
+        <v>35820.62</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B105">
-        <v>18502.7</v>
+        <v>20762.42</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B106">
-        <v>4694</v>
+        <v>18502.7</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B107">
-        <v>57356.01</v>
+        <v>4694</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B108">
-        <v>38766.64</v>
+        <v>57356.01</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B109">
-        <v>37172.24</v>
+        <v>38766.64</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B110">
-        <v>22352.55</v>
+        <v>37172.24</v>
       </c>
       <c r="C110">
         <v>2</v>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B111">
-        <v>38289.45</v>
+        <v>22352.55</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -2293,10 +2293,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B112">
-        <v>19482.2</v>
+        <v>38289.45</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -2310,10 +2310,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B113">
-        <v>8507.9</v>
+        <v>19482.2</v>
       </c>
       <c r="C113">
         <v>2</v>
@@ -2327,10 +2327,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B114">
-        <v>45768.1</v>
+        <v>8507.9</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B115">
-        <v>41476.67</v>
+        <v>45768.1</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -2361,10 +2361,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B116">
-        <v>20446.88</v>
+        <v>41476.67</v>
       </c>
       <c r="C116">
         <v>2</v>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B117">
-        <v>29037.01</v>
+        <v>20446.88</v>
       </c>
       <c r="C117">
         <v>2</v>
@@ -2395,18 +2395,35 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118">
+        <v>27</v>
+      </c>
+      <c r="B118">
+        <v>29037.01</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>2025</v>
+      </c>
+      <c r="E118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
         <v>28</v>
       </c>
-      <c r="B118">
+      <c r="B119">
         <v>26934.44</v>
       </c>
-      <c r="C118">
-        <v>2</v>
-      </c>
-      <c r="D118">
-        <v>2025</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119">
+        <v>2025</v>
+      </c>
+      <c r="E119" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Período</t>
   </si>
   <si>
+    <t>06/2025</t>
+  </si>
+  <si>
     <t>05/2025</t>
   </si>
   <si>
@@ -38,9 +41,6 @@
   </si>
   <si>
     <t>03/2025</t>
-  </si>
-  <si>
-    <t>02/2025</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,10 +426,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>17056.87</v>
+        <v>5140.01</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>2025</v>
@@ -440,10 +440,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -452,15 +452,15 @@
         <v>2025</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -469,15 +469,15 @@
         <v>2025</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -486,15 +486,15 @@
         <v>2025</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -503,15 +503,15 @@
         <v>2025</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -520,15 +520,15 @@
         <v>2025</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -537,15 +537,15 @@
         <v>2025</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -554,15 +554,15 @@
         <v>2025</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -571,15 +571,15 @@
         <v>2025</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -588,15 +588,15 @@
         <v>2025</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -605,15 +605,15 @@
         <v>2025</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -622,15 +622,15 @@
         <v>2025</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -639,15 +639,15 @@
         <v>2025</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -656,15 +656,15 @@
         <v>2025</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -673,15 +673,15 @@
         <v>2025</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -690,15 +690,15 @@
         <v>2025</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -707,15 +707,15 @@
         <v>2025</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -724,15 +724,15 @@
         <v>2025</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -741,15 +741,15 @@
         <v>2025</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -758,15 +758,15 @@
         <v>2025</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -775,15 +775,15 @@
         <v>2025</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -792,15 +792,15 @@
         <v>2025</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -809,15 +809,15 @@
         <v>2025</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -826,15 +826,15 @@
         <v>2025</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -843,15 +843,15 @@
         <v>2025</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -860,15 +860,15 @@
         <v>2025</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -877,15 +877,15 @@
         <v>2025</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -894,15 +894,15 @@
         <v>2025</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -911,18 +911,18 @@
         <v>2025</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>19371.37</v>
+        <v>19445.75</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31">
         <v>2025</v>
@@ -933,13 +933,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>29218.71</v>
+        <v>25298.12</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32">
         <v>2025</v>
@@ -950,13 +950,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>19819.3</v>
+        <v>19327.9</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33">
         <v>2025</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B34">
-        <v>25399.91</v>
+        <v>19371.37</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -979,15 +979,15 @@
         <v>2025</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B35">
-        <v>18509.5</v>
+        <v>29218.71</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -996,15 +996,15 @@
         <v>2025</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B36">
-        <v>5823.21</v>
+        <v>19819.3</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1013,15 +1013,15 @@
         <v>2025</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B37">
-        <v>21764.19</v>
+        <v>25399.91</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1030,15 +1030,15 @@
         <v>2025</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B38">
-        <v>38515.34</v>
+        <v>18509.5</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1047,15 +1047,15 @@
         <v>2025</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B39">
-        <v>21733.46</v>
+        <v>5823.21</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1064,15 +1064,15 @@
         <v>2025</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B40">
-        <v>25715.4</v>
+        <v>21764.19</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1081,15 +1081,15 @@
         <v>2025</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B41">
-        <v>22833.25</v>
+        <v>38515.34</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1098,15 +1098,15 @@
         <v>2025</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B42">
-        <v>21596.15</v>
+        <v>21733.46</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1115,15 +1115,15 @@
         <v>2025</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B43">
-        <v>6451</v>
+        <v>25715.4</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1132,15 +1132,15 @@
         <v>2025</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B44">
-        <v>24085.6</v>
+        <v>22833.25</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1149,15 +1149,15 @@
         <v>2025</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B45">
-        <v>15644.59</v>
+        <v>21596.15</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1166,15 +1166,15 @@
         <v>2025</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B46">
-        <v>18372.2</v>
+        <v>6451</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1183,15 +1183,15 @@
         <v>2025</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B47">
-        <v>23446.19</v>
+        <v>24085.6</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1200,15 +1200,15 @@
         <v>2025</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B48">
-        <v>15474.35</v>
+        <v>15644.59</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1217,15 +1217,15 @@
         <v>2025</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B49">
-        <v>9164.799999999999</v>
+        <v>18372.2</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1234,15 +1234,15 @@
         <v>2025</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B50">
-        <v>2719</v>
+        <v>23446.19</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1251,15 +1251,15 @@
         <v>2025</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B51">
-        <v>15666.86</v>
+        <v>15474.35</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1268,15 +1268,15 @@
         <v>2025</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B52">
-        <v>15219.82</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1285,15 +1285,15 @@
         <v>2025</v>
       </c>
       <c r="E52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B53">
-        <v>19895.36</v>
+        <v>2719</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1302,15 +1302,15 @@
         <v>2025</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B54">
-        <v>19632.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1319,15 +1319,15 @@
         <v>2025</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B55">
-        <v>19212.07</v>
+        <v>15219.82</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1336,15 +1336,15 @@
         <v>2025</v>
       </c>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B56">
-        <v>14442</v>
+        <v>19895.36</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1353,15 +1353,15 @@
         <v>2025</v>
       </c>
       <c r="E56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B57">
-        <v>5289.3</v>
+        <v>19632.82</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1370,15 +1370,15 @@
         <v>2025</v>
       </c>
       <c r="E57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B58">
-        <v>25680.18</v>
+        <v>19212.07</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1387,15 +1387,15 @@
         <v>2025</v>
       </c>
       <c r="E58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B59">
-        <v>21976.8</v>
+        <v>14442</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1404,15 +1404,15 @@
         <v>2025</v>
       </c>
       <c r="E59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B60">
-        <v>24773.88</v>
+        <v>5289.3</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1421,18 +1421,18 @@
         <v>2025</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B61">
-        <v>13803.81</v>
+        <v>25680.18</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61">
         <v>2025</v>
@@ -1443,13 +1443,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B62">
-        <v>4705.9</v>
+        <v>21976.8</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62">
         <v>2025</v>
@@ -1460,13 +1460,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B63">
-        <v>16680.45</v>
+        <v>24773.88</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63">
         <v>2025</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B64">
-        <v>7657.8</v>
+        <v>13803.81</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -1489,15 +1489,15 @@
         <v>2025</v>
       </c>
       <c r="E64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B65">
-        <v>37984.79</v>
+        <v>4705.9</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1506,15 +1506,15 @@
         <v>2025</v>
       </c>
       <c r="E65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B66">
-        <v>19791.3</v>
+        <v>16680.45</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1523,15 +1523,15 @@
         <v>2025</v>
       </c>
       <c r="E66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B67">
-        <v>51663.12</v>
+        <v>7657.8</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1540,15 +1540,15 @@
         <v>2025</v>
       </c>
       <c r="E67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B68">
-        <v>14212.1</v>
+        <v>37984.79</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -1557,15 +1557,15 @@
         <v>2025</v>
       </c>
       <c r="E68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B69">
-        <v>8836.049999999999</v>
+        <v>19791.3</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -1574,15 +1574,15 @@
         <v>2025</v>
       </c>
       <c r="E69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B70">
-        <v>38138.8</v>
+        <v>51663.12</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1591,15 +1591,15 @@
         <v>2025</v>
       </c>
       <c r="E70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B71">
-        <v>30745.57</v>
+        <v>14212.1</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1608,15 +1608,15 @@
         <v>2025</v>
       </c>
       <c r="E71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B72">
-        <v>44416.44</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -1625,15 +1625,15 @@
         <v>2025</v>
       </c>
       <c r="E72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B73">
-        <v>20045.79</v>
+        <v>38138.8</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -1642,15 +1642,15 @@
         <v>2025</v>
       </c>
       <c r="E73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B74">
-        <v>23677.64</v>
+        <v>30745.57</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -1659,15 +1659,15 @@
         <v>2025</v>
       </c>
       <c r="E74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B75">
-        <v>23636.62</v>
+        <v>44416.44</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -1676,15 +1676,15 @@
         <v>2025</v>
       </c>
       <c r="E75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B76">
-        <v>4642</v>
+        <v>20045.79</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -1693,15 +1693,15 @@
         <v>2025</v>
       </c>
       <c r="E76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B77">
-        <v>37009.74</v>
+        <v>23677.64</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -1710,15 +1710,15 @@
         <v>2025</v>
       </c>
       <c r="E77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B78">
-        <v>15851.63</v>
+        <v>23636.62</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -1727,15 +1727,15 @@
         <v>2025</v>
       </c>
       <c r="E78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B79">
-        <v>33313.16</v>
+        <v>4642</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -1744,15 +1744,15 @@
         <v>2025</v>
       </c>
       <c r="E79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B80">
-        <v>23394.13</v>
+        <v>37009.74</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -1761,15 +1761,15 @@
         <v>2025</v>
       </c>
       <c r="E80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B81">
-        <v>17765.24</v>
+        <v>15851.63</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -1778,15 +1778,15 @@
         <v>2025</v>
       </c>
       <c r="E81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B82">
-        <v>21750.9</v>
+        <v>33313.16</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -1795,15 +1795,15 @@
         <v>2025</v>
       </c>
       <c r="E82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B83">
-        <v>5923.91</v>
+        <v>23394.13</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -1812,15 +1812,15 @@
         <v>2025</v>
       </c>
       <c r="E83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B84">
-        <v>23370.46</v>
+        <v>17765.24</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -1829,15 +1829,15 @@
         <v>2025</v>
       </c>
       <c r="E84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B85">
-        <v>27227.58</v>
+        <v>21750.9</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -1846,15 +1846,15 @@
         <v>2025</v>
       </c>
       <c r="E85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B86">
-        <v>20282.52</v>
+        <v>5923.91</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -1863,15 +1863,15 @@
         <v>2025</v>
       </c>
       <c r="E86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B87">
-        <v>19695.38</v>
+        <v>23370.46</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -1880,15 +1880,15 @@
         <v>2025</v>
       </c>
       <c r="E87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B88">
-        <v>17250.36</v>
+        <v>27227.58</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -1897,15 +1897,15 @@
         <v>2025</v>
       </c>
       <c r="E88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B89">
-        <v>15973.05</v>
+        <v>20282.52</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -1914,15 +1914,15 @@
         <v>2025</v>
       </c>
       <c r="E89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B90">
-        <v>6906.9</v>
+        <v>19695.38</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -1931,15 +1931,15 @@
         <v>2025</v>
       </c>
       <c r="E90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B91">
-        <v>24267.47</v>
+        <v>17250.36</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -1948,18 +1948,18 @@
         <v>2025</v>
       </c>
       <c r="E91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B92">
-        <v>22837.82</v>
+        <v>15973.05</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92">
         <v>2025</v>
@@ -1970,13 +1970,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B93">
-        <v>10035.5</v>
+        <v>6906.9</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93">
         <v>2025</v>
@@ -1987,443 +1987,18 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B94">
-        <v>23114.36</v>
+        <v>24267.47</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94">
         <v>2025</v>
       </c>
       <c r="E94" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95">
-        <v>4</v>
-      </c>
-      <c r="B95">
-        <v>17250.02</v>
-      </c>
-      <c r="C95">
-        <v>2</v>
-      </c>
-      <c r="D95">
-        <v>2025</v>
-      </c>
-      <c r="E95" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96">
-        <v>5</v>
-      </c>
-      <c r="B96">
-        <v>28584.32</v>
-      </c>
-      <c r="C96">
-        <v>2</v>
-      </c>
-      <c r="D96">
-        <v>2025</v>
-      </c>
-      <c r="E96" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97">
-        <v>6</v>
-      </c>
-      <c r="B97">
-        <v>25749.58</v>
-      </c>
-      <c r="C97">
-        <v>2</v>
-      </c>
-      <c r="D97">
-        <v>2025</v>
-      </c>
-      <c r="E97" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98">
-        <v>7</v>
-      </c>
-      <c r="B98">
-        <v>54601.36</v>
-      </c>
-      <c r="C98">
-        <v>2</v>
-      </c>
-      <c r="D98">
-        <v>2025</v>
-      </c>
-      <c r="E98" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99">
-        <v>8</v>
-      </c>
-      <c r="B99">
-        <v>25472.3</v>
-      </c>
-      <c r="C99">
-        <v>2</v>
-      </c>
-      <c r="D99">
-        <v>2025</v>
-      </c>
-      <c r="E99" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100">
-        <v>9</v>
-      </c>
-      <c r="B100">
-        <v>6812.99</v>
-      </c>
-      <c r="C100">
-        <v>2</v>
-      </c>
-      <c r="D100">
-        <v>2025</v>
-      </c>
-      <c r="E100" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101">
-        <v>10</v>
-      </c>
-      <c r="B101">
-        <v>34211.97</v>
-      </c>
-      <c r="C101">
-        <v>2</v>
-      </c>
-      <c r="D101">
-        <v>2025</v>
-      </c>
-      <c r="E101" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102">
-        <v>11</v>
-      </c>
-      <c r="B102">
-        <v>20510.6</v>
-      </c>
-      <c r="C102">
-        <v>2</v>
-      </c>
-      <c r="D102">
-        <v>2025</v>
-      </c>
-      <c r="E102" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103">
-        <v>12</v>
-      </c>
-      <c r="B103">
-        <v>28660.12</v>
-      </c>
-      <c r="C103">
-        <v>2</v>
-      </c>
-      <c r="D103">
-        <v>2025</v>
-      </c>
-      <c r="E103" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104">
-        <v>13</v>
-      </c>
-      <c r="B104">
-        <v>35820.62</v>
-      </c>
-      <c r="C104">
-        <v>2</v>
-      </c>
-      <c r="D104">
-        <v>2025</v>
-      </c>
-      <c r="E104" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105">
-        <v>14</v>
-      </c>
-      <c r="B105">
-        <v>20762.42</v>
-      </c>
-      <c r="C105">
-        <v>2</v>
-      </c>
-      <c r="D105">
-        <v>2025</v>
-      </c>
-      <c r="E105" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106">
-        <v>15</v>
-      </c>
-      <c r="B106">
-        <v>18502.7</v>
-      </c>
-      <c r="C106">
-        <v>2</v>
-      </c>
-      <c r="D106">
-        <v>2025</v>
-      </c>
-      <c r="E106" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107">
-        <v>16</v>
-      </c>
-      <c r="B107">
-        <v>4694</v>
-      </c>
-      <c r="C107">
-        <v>2</v>
-      </c>
-      <c r="D107">
-        <v>2025</v>
-      </c>
-      <c r="E107" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108">
-        <v>17</v>
-      </c>
-      <c r="B108">
-        <v>57356.01</v>
-      </c>
-      <c r="C108">
-        <v>2</v>
-      </c>
-      <c r="D108">
-        <v>2025</v>
-      </c>
-      <c r="E108" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109">
-        <v>18</v>
-      </c>
-      <c r="B109">
-        <v>38766.64</v>
-      </c>
-      <c r="C109">
-        <v>2</v>
-      </c>
-      <c r="D109">
-        <v>2025</v>
-      </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110">
-        <v>19</v>
-      </c>
-      <c r="B110">
-        <v>37172.24</v>
-      </c>
-      <c r="C110">
-        <v>2</v>
-      </c>
-      <c r="D110">
-        <v>2025</v>
-      </c>
-      <c r="E110" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111">
-        <v>20</v>
-      </c>
-      <c r="B111">
-        <v>22352.55</v>
-      </c>
-      <c r="C111">
-        <v>2</v>
-      </c>
-      <c r="D111">
-        <v>2025</v>
-      </c>
-      <c r="E111" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112">
-        <v>21</v>
-      </c>
-      <c r="B112">
-        <v>38289.45</v>
-      </c>
-      <c r="C112">
-        <v>2</v>
-      </c>
-      <c r="D112">
-        <v>2025</v>
-      </c>
-      <c r="E112" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113">
-        <v>22</v>
-      </c>
-      <c r="B113">
-        <v>19482.2</v>
-      </c>
-      <c r="C113">
-        <v>2</v>
-      </c>
-      <c r="D113">
-        <v>2025</v>
-      </c>
-      <c r="E113" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114">
-        <v>23</v>
-      </c>
-      <c r="B114">
-        <v>8507.9</v>
-      </c>
-      <c r="C114">
-        <v>2</v>
-      </c>
-      <c r="D114">
-        <v>2025</v>
-      </c>
-      <c r="E114" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115">
-        <v>24</v>
-      </c>
-      <c r="B115">
-        <v>45768.1</v>
-      </c>
-      <c r="C115">
-        <v>2</v>
-      </c>
-      <c r="D115">
-        <v>2025</v>
-      </c>
-      <c r="E115" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116">
-        <v>25</v>
-      </c>
-      <c r="B116">
-        <v>41476.67</v>
-      </c>
-      <c r="C116">
-        <v>2</v>
-      </c>
-      <c r="D116">
-        <v>2025</v>
-      </c>
-      <c r="E116" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117">
-        <v>26</v>
-      </c>
-      <c r="B117">
-        <v>20446.88</v>
-      </c>
-      <c r="C117">
-        <v>2</v>
-      </c>
-      <c r="D117">
-        <v>2025</v>
-      </c>
-      <c r="E117" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118">
-        <v>27</v>
-      </c>
-      <c r="B118">
-        <v>29037.01</v>
-      </c>
-      <c r="C118">
-        <v>2</v>
-      </c>
-      <c r="D118">
-        <v>2025</v>
-      </c>
-      <c r="E118" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119">
-        <v>28</v>
-      </c>
-      <c r="B119">
-        <v>26934.44</v>
-      </c>
-      <c r="C119">
-        <v>2</v>
-      </c>
-      <c r="D119">
-        <v>2025</v>
-      </c>
-      <c r="E119" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,27 +440,27 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>17056.87</v>
+        <v>27652.8</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>2025</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -474,10 +474,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -491,10 +491,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -508,10 +508,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32">
-        <v>25298.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,27 +967,27 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B34">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34">
         <v>2025</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B42">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B45">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B47">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B48">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B49">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B50">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B51">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B52">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B53">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B54">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B55">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B56">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B57">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B58">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B59">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B60">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B61">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B62">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B63">
-        <v>24773.88</v>
+        <v>21976.8</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,27 +1477,27 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B64">
-        <v>13803.81</v>
+        <v>24773.88</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64">
         <v>2025</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65">
-        <v>4705.9</v>
+        <v>13803.81</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B66">
-        <v>16680.45</v>
+        <v>4705.9</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B67">
-        <v>7657.8</v>
+        <v>16680.45</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B68">
-        <v>37984.79</v>
+        <v>7657.8</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B69">
-        <v>19791.3</v>
+        <v>37984.79</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B70">
-        <v>51663.12</v>
+        <v>19791.3</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B71">
-        <v>14212.1</v>
+        <v>51663.12</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B72">
-        <v>8836.049999999999</v>
+        <v>14212.1</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B73">
-        <v>38138.8</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B74">
-        <v>30745.57</v>
+        <v>38138.8</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B75">
-        <v>44416.44</v>
+        <v>30745.57</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B76">
-        <v>20045.79</v>
+        <v>44416.44</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B77">
-        <v>23677.64</v>
+        <v>20045.79</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B78">
-        <v>23636.62</v>
+        <v>23677.64</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B79">
-        <v>4642</v>
+        <v>23636.62</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B80">
-        <v>37009.74</v>
+        <v>4642</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B81">
-        <v>15851.63</v>
+        <v>37009.74</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B82">
-        <v>33313.16</v>
+        <v>15851.63</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B83">
-        <v>23394.13</v>
+        <v>33313.16</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B84">
-        <v>17765.24</v>
+        <v>23394.13</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B85">
-        <v>21750.9</v>
+        <v>17765.24</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B86">
-        <v>5923.91</v>
+        <v>21750.9</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B87">
-        <v>23370.46</v>
+        <v>5923.91</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B88">
-        <v>27227.58</v>
+        <v>23370.46</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B89">
-        <v>20282.52</v>
+        <v>27227.58</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B90">
-        <v>19695.38</v>
+        <v>20282.52</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B91">
-        <v>17250.36</v>
+        <v>19695.38</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B92">
-        <v>15973.05</v>
+        <v>17250.36</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B93">
-        <v>6906.9</v>
+        <v>15973.05</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -1987,18 +1987,35 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
+        <v>30</v>
+      </c>
+      <c r="B94">
+        <v>6906.9</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>2025</v>
+      </c>
+      <c r="E94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
         <v>31</v>
       </c>
-      <c r="B94">
+      <c r="B95">
         <v>24267.47</v>
       </c>
-      <c r="C94">
-        <v>3</v>
-      </c>
-      <c r="D94">
-        <v>2025</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>2025</v>
+      </c>
+      <c r="E95" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,27 +457,27 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>17056.87</v>
+        <v>25236.75</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>2025</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -491,10 +491,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -508,10 +508,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,27 +984,27 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B35">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35">
         <v>2025</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B45">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B46">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B48">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B49">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B51">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B52">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B53">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B54">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B55">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B56">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B57">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B58">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B59">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B60">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B61">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B62">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B63">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B64">
-        <v>24773.88</v>
+        <v>21976.8</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,27 +1494,27 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B65">
-        <v>13803.81</v>
+        <v>24773.88</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65">
         <v>2025</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B66">
-        <v>4705.9</v>
+        <v>13803.81</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B67">
-        <v>16680.45</v>
+        <v>4705.9</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B68">
-        <v>7657.8</v>
+        <v>16680.45</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B69">
-        <v>37984.79</v>
+        <v>7657.8</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B70">
-        <v>19791.3</v>
+        <v>37984.79</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B71">
-        <v>51663.12</v>
+        <v>19791.3</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B72">
-        <v>14212.1</v>
+        <v>51663.12</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B73">
-        <v>8836.049999999999</v>
+        <v>14212.1</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B74">
-        <v>38138.8</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75">
-        <v>30745.57</v>
+        <v>38138.8</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B76">
-        <v>44416.44</v>
+        <v>30745.57</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B77">
-        <v>20045.79</v>
+        <v>44416.44</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B78">
-        <v>23677.64</v>
+        <v>20045.79</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B79">
-        <v>23636.62</v>
+        <v>23677.64</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B80">
-        <v>4642</v>
+        <v>23636.62</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B81">
-        <v>37009.74</v>
+        <v>4642</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B82">
-        <v>15851.63</v>
+        <v>37009.74</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B83">
-        <v>33313.16</v>
+        <v>15851.63</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B84">
-        <v>23394.13</v>
+        <v>33313.16</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B85">
-        <v>17765.24</v>
+        <v>23394.13</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B86">
-        <v>21750.9</v>
+        <v>17765.24</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B87">
-        <v>5923.91</v>
+        <v>21750.9</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B88">
-        <v>23370.46</v>
+        <v>5923.91</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B89">
-        <v>27227.58</v>
+        <v>23370.46</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B90">
-        <v>20282.52</v>
+        <v>27227.58</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B91">
-        <v>19695.38</v>
+        <v>20282.52</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B92">
-        <v>17250.36</v>
+        <v>19695.38</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B93">
-        <v>15973.05</v>
+        <v>17250.36</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B94">
-        <v>6906.9</v>
+        <v>15973.05</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -2004,18 +2004,35 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
+        <v>30</v>
+      </c>
+      <c r="B95">
+        <v>6906.9</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>2025</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
         <v>31</v>
       </c>
-      <c r="B95">
+      <c r="B96">
         <v>24267.47</v>
       </c>
-      <c r="C95">
-        <v>3</v>
-      </c>
-      <c r="D95">
-        <v>2025</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96">
+        <v>2025</v>
+      </c>
+      <c r="E96" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -443,7 +443,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>27652.8</v>
+        <v>27797.8</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -474,27 +474,27 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>17056.87</v>
+        <v>35372.46</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>2025</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -508,10 +508,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,27 +1001,27 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B36">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36">
         <v>2025</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B49">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B50">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B51">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B52">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B53">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B54">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B55">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B56">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B57">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B58">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B59">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B60">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B61">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B62">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B63">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B64">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B65">
-        <v>24773.88</v>
+        <v>21976.8</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,27 +1511,27 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B66">
-        <v>13803.81</v>
+        <v>24773.88</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66">
         <v>2025</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67">
-        <v>4705.9</v>
+        <v>13803.81</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B68">
-        <v>16680.45</v>
+        <v>4705.9</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B69">
-        <v>7657.8</v>
+        <v>16680.45</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B70">
-        <v>37984.79</v>
+        <v>7657.8</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B71">
-        <v>19791.3</v>
+        <v>37984.79</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B72">
-        <v>51663.12</v>
+        <v>19791.3</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B73">
-        <v>14212.1</v>
+        <v>51663.12</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B74">
-        <v>8836.049999999999</v>
+        <v>14212.1</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B75">
-        <v>38138.8</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B76">
-        <v>30745.57</v>
+        <v>38138.8</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B77">
-        <v>44416.44</v>
+        <v>30745.57</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B78">
-        <v>20045.79</v>
+        <v>44416.44</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B79">
-        <v>23677.64</v>
+        <v>20045.79</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B80">
-        <v>23636.62</v>
+        <v>23677.64</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B81">
-        <v>4642</v>
+        <v>23636.62</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B82">
-        <v>37009.74</v>
+        <v>4642</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B83">
-        <v>15851.63</v>
+        <v>37009.74</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B84">
-        <v>33313.16</v>
+        <v>15851.63</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B85">
-        <v>23394.13</v>
+        <v>33313.16</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B86">
-        <v>17765.24</v>
+        <v>23394.13</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B87">
-        <v>21750.9</v>
+        <v>17765.24</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B88">
-        <v>5923.91</v>
+        <v>21750.9</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B89">
-        <v>23370.46</v>
+        <v>5923.91</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B90">
-        <v>27227.58</v>
+        <v>23370.46</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B91">
-        <v>20282.52</v>
+        <v>27227.58</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B92">
-        <v>19695.38</v>
+        <v>20282.52</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B93">
-        <v>17250.36</v>
+        <v>19695.38</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B94">
-        <v>15973.05</v>
+        <v>17250.36</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B95">
-        <v>6906.9</v>
+        <v>15973.05</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -2021,18 +2021,35 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
+        <v>30</v>
+      </c>
+      <c r="B96">
+        <v>6906.9</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96">
+        <v>2025</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
         <v>31</v>
       </c>
-      <c r="B96">
+      <c r="B97">
         <v>24267.47</v>
       </c>
-      <c r="C96">
-        <v>3</v>
-      </c>
-      <c r="D96">
-        <v>2025</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97">
+        <v>2025</v>
+      </c>
+      <c r="E97" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>35372.46</v>
+        <v>36189.46</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -491,27 +491,27 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>17056.87</v>
+        <v>21588.35</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>2025</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,27 +1018,27 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B37">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37">
         <v>2025</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B46">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B48">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B50">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B53">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B54">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B55">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B57">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B58">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B59">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B60">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B61">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B62">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B63">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B64">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B65">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B66">
-        <v>24773.88</v>
+        <v>21976.8</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,27 +1528,27 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B67">
-        <v>13803.81</v>
+        <v>24773.88</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67">
         <v>2025</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B68">
-        <v>4705.9</v>
+        <v>13803.81</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B69">
-        <v>16680.45</v>
+        <v>4705.9</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B70">
-        <v>7657.8</v>
+        <v>16680.45</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B71">
-        <v>37984.79</v>
+        <v>7657.8</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B72">
-        <v>19791.3</v>
+        <v>37984.79</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B73">
-        <v>51663.12</v>
+        <v>19791.3</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B74">
-        <v>14212.1</v>
+        <v>51663.12</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B75">
-        <v>8836.049999999999</v>
+        <v>14212.1</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B76">
-        <v>38138.8</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B77">
-        <v>30745.57</v>
+        <v>38138.8</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B78">
-        <v>44416.44</v>
+        <v>30745.57</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B79">
-        <v>20045.79</v>
+        <v>44416.44</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B80">
-        <v>23677.64</v>
+        <v>20045.79</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B81">
-        <v>23636.62</v>
+        <v>23677.64</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B82">
-        <v>4642</v>
+        <v>23636.62</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B83">
-        <v>37009.74</v>
+        <v>4642</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B84">
-        <v>15851.63</v>
+        <v>37009.74</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B85">
-        <v>33313.16</v>
+        <v>15851.63</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B86">
-        <v>23394.13</v>
+        <v>33313.16</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B87">
-        <v>17765.24</v>
+        <v>23394.13</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B88">
-        <v>21750.9</v>
+        <v>17765.24</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B89">
-        <v>5923.91</v>
+        <v>21750.9</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B90">
-        <v>23370.46</v>
+        <v>5923.91</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B91">
-        <v>27227.58</v>
+        <v>23370.46</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B92">
-        <v>20282.52</v>
+        <v>27227.58</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B93">
-        <v>19695.38</v>
+        <v>20282.52</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B94">
-        <v>17250.36</v>
+        <v>19695.38</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B95">
-        <v>15973.05</v>
+        <v>17250.36</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B96">
-        <v>6906.9</v>
+        <v>15973.05</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -2038,18 +2038,35 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
+        <v>30</v>
+      </c>
+      <c r="B97">
+        <v>6906.9</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97">
+        <v>2025</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
         <v>31</v>
       </c>
-      <c r="B97">
+      <c r="B98">
         <v>24267.47</v>
       </c>
-      <c r="C97">
-        <v>3</v>
-      </c>
-      <c r="D97">
-        <v>2025</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="C98">
+        <v>3</v>
+      </c>
+      <c r="D98">
+        <v>2025</v>
+      </c>
+      <c r="E98" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,44 +508,44 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>17056.87</v>
+        <v>15533.91</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>2025</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>22786.63</v>
+        <v>19035.4</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>2025</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>29255</v>
+        <v>17056.87</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>4370</v>
+        <v>22786.63</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>35402.64</v>
+        <v>29255</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>28248.43</v>
+        <v>4370</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>31437.91</v>
+        <v>35402.64</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>27732.15</v>
+        <v>28248.43</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>25508.17</v>
+        <v>31437.91</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16">
-        <v>14802.01</v>
+        <v>27732.15</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17">
-        <v>9776.9</v>
+        <v>25508.17</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>31420.44</v>
+        <v>14802.01</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B19">
-        <v>26531.86</v>
+        <v>9776.9</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B20">
-        <v>36574.18</v>
+        <v>31420.44</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>33940.79</v>
+        <v>26531.86</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>30498.76</v>
+        <v>36574.18</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B23">
-        <v>15120.8</v>
+        <v>33940.79</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>8085.01</v>
+        <v>30498.76</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B25">
-        <v>26923.67</v>
+        <v>15120.8</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B26">
-        <v>33090.3</v>
+        <v>8085.01</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B27">
-        <v>25994.16</v>
+        <v>26923.67</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B28">
-        <v>27147.29</v>
+        <v>33090.3</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B29">
-        <v>23820.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B30">
-        <v>34922.72</v>
+        <v>27147.29</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B31">
-        <v>3824.9</v>
+        <v>23820.29</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B32">
-        <v>27831.77</v>
+        <v>34922.72</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B33">
-        <v>24156.31</v>
+        <v>3824.9</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B34">
-        <v>21718.63</v>
+        <v>27831.77</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B35">
-        <v>19445.75</v>
+        <v>24156.31</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B36">
-        <v>26951.12</v>
+        <v>21718.63</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B37">
-        <v>19327.9</v>
+        <v>19445.75</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,44 +1035,44 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B38">
-        <v>19371.37</v>
+        <v>26951.12</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38">
         <v>2025</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B39">
-        <v>29218.71</v>
+        <v>19327.9</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39">
         <v>2025</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B40">
-        <v>19819.3</v>
+        <v>19371.37</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B41">
-        <v>25399.91</v>
+        <v>29218.71</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B42">
-        <v>18509.5</v>
+        <v>19819.3</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B43">
-        <v>5823.21</v>
+        <v>25399.91</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B44">
-        <v>21764.19</v>
+        <v>18509.5</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B45">
-        <v>38515.34</v>
+        <v>5823.21</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B46">
-        <v>21733.46</v>
+        <v>21764.19</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B47">
-        <v>25715.4</v>
+        <v>38515.34</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B48">
-        <v>22833.25</v>
+        <v>21733.46</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B49">
-        <v>21596.15</v>
+        <v>25715.4</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B50">
-        <v>6451</v>
+        <v>22833.25</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B51">
-        <v>24085.6</v>
+        <v>21596.15</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B52">
-        <v>15644.59</v>
+        <v>6451</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B53">
-        <v>18372.2</v>
+        <v>24085.6</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B54">
-        <v>23446.19</v>
+        <v>15644.59</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B55">
-        <v>15474.35</v>
+        <v>18372.2</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B56">
-        <v>9164.799999999999</v>
+        <v>23446.19</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B57">
-        <v>2719</v>
+        <v>15474.35</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B58">
-        <v>15666.86</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B59">
-        <v>15219.82</v>
+        <v>2719</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B60">
-        <v>19895.36</v>
+        <v>15666.86</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B61">
-        <v>19632.82</v>
+        <v>15219.82</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B62">
-        <v>19212.07</v>
+        <v>19895.36</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B63">
-        <v>14442</v>
+        <v>19632.82</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B64">
-        <v>5289.3</v>
+        <v>19212.07</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B65">
-        <v>25680.18</v>
+        <v>14442</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B66">
-        <v>21976.8</v>
+        <v>5289.3</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B67">
-        <v>24773.88</v>
+        <v>25680.18</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,44 +1545,44 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B68">
-        <v>13803.81</v>
+        <v>21976.8</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68">
         <v>2025</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B69">
-        <v>4705.9</v>
+        <v>24773.88</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69">
         <v>2025</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B70">
-        <v>16680.45</v>
+        <v>13803.81</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B71">
-        <v>7657.8</v>
+        <v>4705.9</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B72">
-        <v>37984.79</v>
+        <v>16680.45</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B73">
-        <v>19791.3</v>
+        <v>7657.8</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B74">
-        <v>51663.12</v>
+        <v>37984.79</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B75">
-        <v>14212.1</v>
+        <v>19791.3</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B76">
-        <v>8836.049999999999</v>
+        <v>51663.12</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B77">
-        <v>38138.8</v>
+        <v>14212.1</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B78">
-        <v>30745.57</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B79">
-        <v>44416.44</v>
+        <v>38138.8</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B80">
-        <v>20045.79</v>
+        <v>30745.57</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B81">
-        <v>23677.64</v>
+        <v>44416.44</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B82">
-        <v>23636.62</v>
+        <v>20045.79</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B83">
-        <v>4642</v>
+        <v>23677.64</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B84">
-        <v>37009.74</v>
+        <v>23636.62</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B85">
-        <v>15851.63</v>
+        <v>4642</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B86">
-        <v>33313.16</v>
+        <v>37009.74</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B87">
-        <v>23394.13</v>
+        <v>15851.63</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B88">
-        <v>17765.24</v>
+        <v>33313.16</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B89">
-        <v>21750.9</v>
+        <v>23394.13</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B90">
-        <v>5923.91</v>
+        <v>17765.24</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B91">
-        <v>23370.46</v>
+        <v>21750.9</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B92">
-        <v>27227.58</v>
+        <v>5923.91</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B93">
-        <v>20282.52</v>
+        <v>23370.46</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B94">
-        <v>19695.38</v>
+        <v>27227.58</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B95">
-        <v>17250.36</v>
+        <v>20282.52</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B96">
-        <v>15973.05</v>
+        <v>19695.38</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B97">
-        <v>6906.9</v>
+        <v>17250.36</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -2055,18 +2055,52 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
+        <v>29</v>
+      </c>
+      <c r="B98">
+        <v>15973.05</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+      <c r="D98">
+        <v>2025</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>30</v>
+      </c>
+      <c r="B99">
+        <v>6906.9</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>2025</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
         <v>31</v>
       </c>
-      <c r="B98">
+      <c r="B100">
         <v>24267.47</v>
       </c>
-      <c r="C98">
-        <v>3</v>
-      </c>
-      <c r="D98">
-        <v>2025</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>2025</v>
+      </c>
+      <c r="E100" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -542,27 +542,27 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>17056.87</v>
+        <v>4942.9</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>2025</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,27 +1069,27 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B40">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40">
         <v>2025</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B51">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B53">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B54">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B55">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B56">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B57">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B58">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B59">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B60">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B61">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B62">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B63">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B64">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B65">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B66">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B67">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B68">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B69">
-        <v>24773.88</v>
+        <v>21976.8</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,27 +1579,27 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B70">
-        <v>13803.81</v>
+        <v>24773.88</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70">
         <v>2025</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B71">
-        <v>4705.9</v>
+        <v>13803.81</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B72">
-        <v>16680.45</v>
+        <v>4705.9</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B73">
-        <v>7657.8</v>
+        <v>16680.45</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B74">
-        <v>37984.79</v>
+        <v>7657.8</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B75">
-        <v>19791.3</v>
+        <v>37984.79</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B76">
-        <v>51663.12</v>
+        <v>19791.3</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B77">
-        <v>14212.1</v>
+        <v>51663.12</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B78">
-        <v>8836.049999999999</v>
+        <v>14212.1</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B79">
-        <v>38138.8</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B80">
-        <v>30745.57</v>
+        <v>38138.8</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B81">
-        <v>44416.44</v>
+        <v>30745.57</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B82">
-        <v>20045.79</v>
+        <v>44416.44</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B83">
-        <v>23677.64</v>
+        <v>20045.79</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B84">
-        <v>23636.62</v>
+        <v>23677.64</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B85">
-        <v>4642</v>
+        <v>23636.62</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B86">
-        <v>37009.74</v>
+        <v>4642</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B87">
-        <v>15851.63</v>
+        <v>37009.74</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B88">
-        <v>33313.16</v>
+        <v>15851.63</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B89">
-        <v>23394.13</v>
+        <v>33313.16</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B90">
-        <v>17765.24</v>
+        <v>23394.13</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B91">
-        <v>21750.9</v>
+        <v>17765.24</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B92">
-        <v>5923.91</v>
+        <v>21750.9</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B93">
-        <v>23370.46</v>
+        <v>5923.91</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B94">
-        <v>27227.58</v>
+        <v>23370.46</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B95">
-        <v>20282.52</v>
+        <v>27227.58</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B96">
-        <v>19695.38</v>
+        <v>20282.52</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B97">
-        <v>17250.36</v>
+        <v>19695.38</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B98">
-        <v>15973.05</v>
+        <v>17250.36</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B99">
-        <v>6906.9</v>
+        <v>15973.05</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -2089,18 +2089,35 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
+        <v>30</v>
+      </c>
+      <c r="B100">
+        <v>6906.9</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>2025</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
         <v>31</v>
       </c>
-      <c r="B100">
+      <c r="B101">
         <v>24267.47</v>
       </c>
-      <c r="C100">
-        <v>3</v>
-      </c>
-      <c r="D100">
-        <v>2025</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <v>2025</v>
+      </c>
+      <c r="E101" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,27 +559,27 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>17056.87</v>
+        <v>23856.87</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>2025</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B39">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,27 +1086,27 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B41">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41">
         <v>2025</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B49">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B50">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B52">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B53">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B54">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B55">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B56">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B57">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B58">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B59">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B60">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B61">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B62">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B63">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B64">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B65">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B66">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B67">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B68">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B69">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B70">
-        <v>24773.88</v>
+        <v>21976.8</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,27 +1596,27 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B71">
-        <v>13803.81</v>
+        <v>24773.88</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71">
         <v>2025</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B72">
-        <v>4705.9</v>
+        <v>13803.81</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B73">
-        <v>16680.45</v>
+        <v>4705.9</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B74">
-        <v>7657.8</v>
+        <v>16680.45</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B75">
-        <v>37984.79</v>
+        <v>7657.8</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B76">
-        <v>19791.3</v>
+        <v>37984.79</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B77">
-        <v>51663.12</v>
+        <v>19791.3</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78">
-        <v>14212.1</v>
+        <v>51663.12</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B79">
-        <v>8836.049999999999</v>
+        <v>14212.1</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B80">
-        <v>38138.8</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B81">
-        <v>30745.57</v>
+        <v>38138.8</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B82">
-        <v>44416.44</v>
+        <v>30745.57</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B83">
-        <v>20045.79</v>
+        <v>44416.44</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B84">
-        <v>23677.64</v>
+        <v>20045.79</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B85">
-        <v>23636.62</v>
+        <v>23677.64</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B86">
-        <v>4642</v>
+        <v>23636.62</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B87">
-        <v>37009.74</v>
+        <v>4642</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B88">
-        <v>15851.63</v>
+        <v>37009.74</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B89">
-        <v>33313.16</v>
+        <v>15851.63</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B90">
-        <v>23394.13</v>
+        <v>33313.16</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B91">
-        <v>17765.24</v>
+        <v>23394.13</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B92">
-        <v>21750.9</v>
+        <v>17765.24</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B93">
-        <v>5923.91</v>
+        <v>21750.9</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B94">
-        <v>23370.46</v>
+        <v>5923.91</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B95">
-        <v>27227.58</v>
+        <v>23370.46</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B96">
-        <v>20282.52</v>
+        <v>27227.58</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B97">
-        <v>19695.38</v>
+        <v>20282.52</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B98">
-        <v>17250.36</v>
+        <v>19695.38</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B99">
-        <v>15973.05</v>
+        <v>17250.36</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B100">
-        <v>6906.9</v>
+        <v>15973.05</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2106,18 +2106,35 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
+        <v>30</v>
+      </c>
+      <c r="B101">
+        <v>6906.9</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <v>2025</v>
+      </c>
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
         <v>31</v>
       </c>
-      <c r="B101">
+      <c r="B102">
         <v>24267.47</v>
       </c>
-      <c r="C101">
-        <v>3</v>
-      </c>
-      <c r="D101">
-        <v>2025</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102">
+        <v>2025</v>
+      </c>
+      <c r="E102" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,7 +494,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>21588.35</v>
+        <v>21643.35</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -576,27 +576,27 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>17056.87</v>
+        <v>31200</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>2025</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B39">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B40">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B41">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,27 +1103,27 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B42">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42">
         <v>2025</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B46">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B48">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B50">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B51">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B53">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B54">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B55">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B56">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B57">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B58">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B59">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B60">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B61">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B62">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B63">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B64">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B65">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B66">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B67">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B68">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B69">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B70">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B71">
-        <v>24773.88</v>
+        <v>21976.8</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,27 +1613,27 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B72">
-        <v>13803.81</v>
+        <v>24773.88</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72">
         <v>2025</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B73">
-        <v>4705.9</v>
+        <v>13803.81</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B74">
-        <v>16680.45</v>
+        <v>4705.9</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B75">
-        <v>7657.8</v>
+        <v>16680.45</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B76">
-        <v>37984.79</v>
+        <v>7657.8</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B77">
-        <v>19791.3</v>
+        <v>37984.79</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B78">
-        <v>51663.12</v>
+        <v>19791.3</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B79">
-        <v>14212.1</v>
+        <v>51663.12</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B80">
-        <v>8836.049999999999</v>
+        <v>14212.1</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B81">
-        <v>38138.8</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B82">
-        <v>30745.57</v>
+        <v>38138.8</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B83">
-        <v>44416.44</v>
+        <v>30745.57</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B84">
-        <v>20045.79</v>
+        <v>44416.44</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B85">
-        <v>23677.64</v>
+        <v>20045.79</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B86">
-        <v>23636.62</v>
+        <v>23677.64</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B87">
-        <v>4642</v>
+        <v>23636.62</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B88">
-        <v>37009.74</v>
+        <v>4642</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B89">
-        <v>15851.63</v>
+        <v>37009.74</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B90">
-        <v>33313.16</v>
+        <v>15851.63</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B91">
-        <v>23394.13</v>
+        <v>33313.16</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B92">
-        <v>17765.24</v>
+        <v>23394.13</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B93">
-        <v>21750.9</v>
+        <v>17765.24</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B94">
-        <v>5923.91</v>
+        <v>21750.9</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B95">
-        <v>23370.46</v>
+        <v>5923.91</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B96">
-        <v>27227.58</v>
+        <v>23370.46</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B97">
-        <v>20282.52</v>
+        <v>27227.58</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B98">
-        <v>19695.38</v>
+        <v>20282.52</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B99">
-        <v>17250.36</v>
+        <v>19695.38</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B100">
-        <v>15973.05</v>
+        <v>17250.36</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B101">
-        <v>6906.9</v>
+        <v>15973.05</v>
       </c>
       <c r="C101">
         <v>3</v>
@@ -2123,18 +2123,35 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
+        <v>30</v>
+      </c>
+      <c r="B102">
+        <v>6906.9</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102">
+        <v>2025</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
         <v>31</v>
       </c>
-      <c r="B102">
+      <c r="B103">
         <v>24267.47</v>
       </c>
-      <c r="C102">
-        <v>3</v>
-      </c>
-      <c r="D102">
-        <v>2025</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>2025</v>
+      </c>
+      <c r="E103" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -593,27 +593,27 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>17056.87</v>
+        <v>33119.36</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>2025</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B37">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B41">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B42">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,27 +1120,27 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B43">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43">
         <v>2025</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B47">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B52">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B54">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B56">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B57">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B58">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B59">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B60">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B61">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B62">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B63">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B64">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B65">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B66">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B67">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B68">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B69">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B70">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B71">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B72">
-        <v>24773.88</v>
+        <v>21976.8</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,27 +1630,27 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B73">
-        <v>13803.81</v>
+        <v>24773.88</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73">
         <v>2025</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B74">
-        <v>4705.9</v>
+        <v>13803.81</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B75">
-        <v>16680.45</v>
+        <v>4705.9</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B76">
-        <v>7657.8</v>
+        <v>16680.45</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B77">
-        <v>37984.79</v>
+        <v>7657.8</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B78">
-        <v>19791.3</v>
+        <v>37984.79</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B79">
-        <v>51663.12</v>
+        <v>19791.3</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B80">
-        <v>14212.1</v>
+        <v>51663.12</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B81">
-        <v>8836.049999999999</v>
+        <v>14212.1</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B82">
-        <v>38138.8</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B83">
-        <v>30745.57</v>
+        <v>38138.8</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B84">
-        <v>44416.44</v>
+        <v>30745.57</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B85">
-        <v>20045.79</v>
+        <v>44416.44</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B86">
-        <v>23677.64</v>
+        <v>20045.79</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B87">
-        <v>23636.62</v>
+        <v>23677.64</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B88">
-        <v>4642</v>
+        <v>23636.62</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B89">
-        <v>37009.74</v>
+        <v>4642</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B90">
-        <v>15851.63</v>
+        <v>37009.74</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B91">
-        <v>33313.16</v>
+        <v>15851.63</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B92">
-        <v>23394.13</v>
+        <v>33313.16</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B93">
-        <v>17765.24</v>
+        <v>23394.13</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B94">
-        <v>21750.9</v>
+        <v>17765.24</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B95">
-        <v>5923.91</v>
+        <v>21750.9</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B96">
-        <v>23370.46</v>
+        <v>5923.91</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B97">
-        <v>27227.58</v>
+        <v>23370.46</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B98">
-        <v>20282.52</v>
+        <v>27227.58</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B99">
-        <v>19695.38</v>
+        <v>20282.52</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B100">
-        <v>17250.36</v>
+        <v>19695.38</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B101">
-        <v>15973.05</v>
+        <v>17250.36</v>
       </c>
       <c r="C101">
         <v>3</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B102">
-        <v>6906.9</v>
+        <v>15973.05</v>
       </c>
       <c r="C102">
         <v>3</v>
@@ -2140,18 +2140,35 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
+        <v>30</v>
+      </c>
+      <c r="B103">
+        <v>6906.9</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>2025</v>
+      </c>
+      <c r="E103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
         <v>31</v>
       </c>
-      <c r="B103">
+      <c r="B104">
         <v>24267.47</v>
       </c>
-      <c r="C103">
-        <v>3</v>
-      </c>
-      <c r="D103">
-        <v>2025</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>2025</v>
+      </c>
+      <c r="E104" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,27 +610,27 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>17056.87</v>
+        <v>38843.63</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>2025</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B33">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B36">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B39">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B40">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,27 +1137,27 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B44">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44">
         <v>2025</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B50">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B52">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B53">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B55">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B56">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B57">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B58">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B59">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B60">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B61">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B62">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B63">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B64">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B65">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B66">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B67">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B68">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B69">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B70">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B71">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B72">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B73">
-        <v>24773.88</v>
+        <v>21976.8</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1647,27 +1647,27 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B74">
-        <v>13803.81</v>
+        <v>24773.88</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74">
         <v>2025</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B75">
-        <v>4705.9</v>
+        <v>13803.81</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B76">
-        <v>16680.45</v>
+        <v>4705.9</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B77">
-        <v>7657.8</v>
+        <v>16680.45</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B78">
-        <v>37984.79</v>
+        <v>7657.8</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B79">
-        <v>19791.3</v>
+        <v>37984.79</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B80">
-        <v>51663.12</v>
+        <v>19791.3</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B81">
-        <v>14212.1</v>
+        <v>51663.12</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B82">
-        <v>8836.049999999999</v>
+        <v>14212.1</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B83">
-        <v>38138.8</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B84">
-        <v>30745.57</v>
+        <v>38138.8</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B85">
-        <v>44416.44</v>
+        <v>30745.57</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B86">
-        <v>20045.79</v>
+        <v>44416.44</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B87">
-        <v>23677.64</v>
+        <v>20045.79</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B88">
-        <v>23636.62</v>
+        <v>23677.64</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B89">
-        <v>4642</v>
+        <v>23636.62</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B90">
-        <v>37009.74</v>
+        <v>4642</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B91">
-        <v>15851.63</v>
+        <v>37009.74</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B92">
-        <v>33313.16</v>
+        <v>15851.63</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B93">
-        <v>23394.13</v>
+        <v>33313.16</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B94">
-        <v>17765.24</v>
+        <v>23394.13</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B95">
-        <v>21750.9</v>
+        <v>17765.24</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B96">
-        <v>5923.91</v>
+        <v>21750.9</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B97">
-        <v>23370.46</v>
+        <v>5923.91</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B98">
-        <v>27227.58</v>
+        <v>23370.46</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B99">
-        <v>20282.52</v>
+        <v>27227.58</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B100">
-        <v>19695.38</v>
+        <v>20282.52</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B101">
-        <v>17250.36</v>
+        <v>19695.38</v>
       </c>
       <c r="C101">
         <v>3</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B102">
-        <v>15973.05</v>
+        <v>17250.36</v>
       </c>
       <c r="C102">
         <v>3</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B103">
-        <v>6906.9</v>
+        <v>15973.05</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -2157,18 +2157,35 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
+        <v>30</v>
+      </c>
+      <c r="B104">
+        <v>6906.9</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>2025</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
         <v>31</v>
       </c>
-      <c r="B104">
+      <c r="B105">
         <v>24267.47</v>
       </c>
-      <c r="C104">
-        <v>3</v>
-      </c>
-      <c r="D104">
-        <v>2025</v>
-      </c>
-      <c r="E104" t="s">
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <v>2025</v>
+      </c>
+      <c r="E105" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -596,7 +596,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>33119.36</v>
+        <v>33164.36</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -627,27 +627,27 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>17056.87</v>
+        <v>22070.29</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>2025</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,27 +1154,27 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B45">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45">
         <v>2025</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B49">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B51">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B53">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B54">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B57">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B58">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B59">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B60">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B61">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B62">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B63">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B64">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B65">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B66">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B67">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B68">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B69">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B70">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B71">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B72">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B73">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B74">
-        <v>24773.88</v>
+        <v>21976.8</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1664,27 +1664,27 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B75">
-        <v>13803.81</v>
+        <v>24773.88</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75">
         <v>2025</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B76">
-        <v>4705.9</v>
+        <v>13803.81</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B77">
-        <v>16680.45</v>
+        <v>4705.9</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B78">
-        <v>7657.8</v>
+        <v>16680.45</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B79">
-        <v>37984.79</v>
+        <v>7657.8</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B80">
-        <v>19791.3</v>
+        <v>37984.79</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B81">
-        <v>51663.12</v>
+        <v>19791.3</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B82">
-        <v>14212.1</v>
+        <v>51663.12</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B83">
-        <v>8836.049999999999</v>
+        <v>14212.1</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B84">
-        <v>38138.8</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B85">
-        <v>30745.57</v>
+        <v>38138.8</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B86">
-        <v>44416.44</v>
+        <v>30745.57</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B87">
-        <v>20045.79</v>
+        <v>44416.44</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B88">
-        <v>23677.64</v>
+        <v>20045.79</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B89">
-        <v>23636.62</v>
+        <v>23677.64</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B90">
-        <v>4642</v>
+        <v>23636.62</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B91">
-        <v>37009.74</v>
+        <v>4642</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B92">
-        <v>15851.63</v>
+        <v>37009.74</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B93">
-        <v>33313.16</v>
+        <v>15851.63</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B94">
-        <v>23394.13</v>
+        <v>33313.16</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B95">
-        <v>17765.24</v>
+        <v>23394.13</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B96">
-        <v>21750.9</v>
+        <v>17765.24</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B97">
-        <v>5923.91</v>
+        <v>21750.9</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B98">
-        <v>23370.46</v>
+        <v>5923.91</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B99">
-        <v>27227.58</v>
+        <v>23370.46</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B100">
-        <v>20282.52</v>
+        <v>27227.58</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B101">
-        <v>19695.38</v>
+        <v>20282.52</v>
       </c>
       <c r="C101">
         <v>3</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B102">
-        <v>17250.36</v>
+        <v>19695.38</v>
       </c>
       <c r="C102">
         <v>3</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B103">
-        <v>15973.05</v>
+        <v>17250.36</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B104">
-        <v>6906.9</v>
+        <v>15973.05</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -2174,18 +2174,35 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
+        <v>30</v>
+      </c>
+      <c r="B105">
+        <v>6906.9</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <v>2025</v>
+      </c>
+      <c r="E105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
         <v>31</v>
       </c>
-      <c r="B105">
+      <c r="B106">
         <v>24267.47</v>
       </c>
-      <c r="C105">
-        <v>3</v>
-      </c>
-      <c r="D105">
-        <v>2025</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106">
+        <v>2025</v>
+      </c>
+      <c r="E106" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,7 +630,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>22070.29</v>
+        <v>22435.29</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -644,44 +644,44 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>17056.87</v>
+        <v>27509.4</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>2025</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>22786.63</v>
+        <v>4621.42</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>2025</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>29255</v>
+        <v>17056.87</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>4370</v>
+        <v>22786.63</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19">
-        <v>35402.64</v>
+        <v>29255</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B20">
-        <v>28248.43</v>
+        <v>4370</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B21">
-        <v>31437.91</v>
+        <v>35402.64</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B22">
-        <v>27732.15</v>
+        <v>28248.43</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B23">
-        <v>25508.17</v>
+        <v>31437.91</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B24">
-        <v>14802.01</v>
+        <v>27732.15</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B25">
-        <v>9776.9</v>
+        <v>25508.17</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B26">
-        <v>31420.44</v>
+        <v>14802.01</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B27">
-        <v>26531.86</v>
+        <v>9776.9</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B28">
-        <v>36574.18</v>
+        <v>31420.44</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29">
-        <v>33940.79</v>
+        <v>26531.86</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30">
-        <v>30498.76</v>
+        <v>36574.18</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B31">
-        <v>15120.8</v>
+        <v>33940.79</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B32">
-        <v>8085.01</v>
+        <v>30498.76</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B33">
-        <v>26923.67</v>
+        <v>15120.8</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B34">
-        <v>33090.3</v>
+        <v>8085.01</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B35">
-        <v>25994.16</v>
+        <v>26923.67</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B36">
-        <v>27147.29</v>
+        <v>33090.3</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B37">
-        <v>23820.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B38">
-        <v>34922.72</v>
+        <v>27147.29</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B39">
-        <v>3824.9</v>
+        <v>23820.29</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B40">
-        <v>27831.77</v>
+        <v>34922.72</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B41">
-        <v>24156.31</v>
+        <v>3824.9</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B42">
-        <v>21718.63</v>
+        <v>27831.77</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B43">
-        <v>19445.75</v>
+        <v>24156.31</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B44">
-        <v>26951.12</v>
+        <v>21718.63</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B45">
-        <v>19327.9</v>
+        <v>19445.75</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,44 +1171,44 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B46">
-        <v>19371.37</v>
+        <v>26951.12</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46">
         <v>2025</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B47">
-        <v>29218.71</v>
+        <v>19327.9</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B48">
-        <v>19819.3</v>
+        <v>19371.37</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B49">
-        <v>25399.91</v>
+        <v>29218.71</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B50">
-        <v>18509.5</v>
+        <v>19819.3</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B51">
-        <v>5823.21</v>
+        <v>25399.91</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B52">
-        <v>21764.19</v>
+        <v>18509.5</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B53">
-        <v>38515.34</v>
+        <v>5823.21</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B54">
-        <v>21733.46</v>
+        <v>21764.19</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B55">
-        <v>25715.4</v>
+        <v>38515.34</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B56">
-        <v>22833.25</v>
+        <v>21733.46</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B57">
-        <v>21596.15</v>
+        <v>25715.4</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B58">
-        <v>6451</v>
+        <v>22833.25</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B59">
-        <v>24085.6</v>
+        <v>21596.15</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B60">
-        <v>15644.59</v>
+        <v>6451</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B61">
-        <v>18372.2</v>
+        <v>24085.6</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B62">
-        <v>23446.19</v>
+        <v>15644.59</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B63">
-        <v>15474.35</v>
+        <v>18372.2</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B64">
-        <v>9164.799999999999</v>
+        <v>23446.19</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B65">
-        <v>2719</v>
+        <v>15474.35</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B66">
-        <v>15666.86</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B67">
-        <v>15219.82</v>
+        <v>2719</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B68">
-        <v>19895.36</v>
+        <v>15666.86</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B69">
-        <v>19632.82</v>
+        <v>15219.82</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B70">
-        <v>19212.07</v>
+        <v>19895.36</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B71">
-        <v>14442</v>
+        <v>19632.82</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B72">
-        <v>5289.3</v>
+        <v>19212.07</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B73">
-        <v>25680.18</v>
+        <v>14442</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B74">
-        <v>21976.8</v>
+        <v>5289.3</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B75">
-        <v>24773.88</v>
+        <v>25680.18</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1681,44 +1681,44 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B76">
-        <v>13803.81</v>
+        <v>21976.8</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76">
         <v>2025</v>
       </c>
       <c r="E76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B77">
-        <v>4705.9</v>
+        <v>24773.88</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77">
         <v>2025</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B78">
-        <v>16680.45</v>
+        <v>13803.81</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B79">
-        <v>7657.8</v>
+        <v>4705.9</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B80">
-        <v>37984.79</v>
+        <v>16680.45</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B81">
-        <v>19791.3</v>
+        <v>7657.8</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B82">
-        <v>51663.12</v>
+        <v>37984.79</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B83">
-        <v>14212.1</v>
+        <v>19791.3</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B84">
-        <v>8836.049999999999</v>
+        <v>51663.12</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B85">
-        <v>38138.8</v>
+        <v>14212.1</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B86">
-        <v>30745.57</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B87">
-        <v>44416.44</v>
+        <v>38138.8</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B88">
-        <v>20045.79</v>
+        <v>30745.57</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B89">
-        <v>23677.64</v>
+        <v>44416.44</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B90">
-        <v>23636.62</v>
+        <v>20045.79</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B91">
-        <v>4642</v>
+        <v>23677.64</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B92">
-        <v>37009.74</v>
+        <v>23636.62</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B93">
-        <v>15851.63</v>
+        <v>4642</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B94">
-        <v>33313.16</v>
+        <v>37009.74</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B95">
-        <v>23394.13</v>
+        <v>15851.63</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B96">
-        <v>17765.24</v>
+        <v>33313.16</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B97">
-        <v>21750.9</v>
+        <v>23394.13</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B98">
-        <v>5923.91</v>
+        <v>17765.24</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B99">
-        <v>23370.46</v>
+        <v>21750.9</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B100">
-        <v>27227.58</v>
+        <v>5923.91</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B101">
-        <v>20282.52</v>
+        <v>23370.46</v>
       </c>
       <c r="C101">
         <v>3</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B102">
-        <v>19695.38</v>
+        <v>27227.58</v>
       </c>
       <c r="C102">
         <v>3</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B103">
-        <v>17250.36</v>
+        <v>20282.52</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B104">
-        <v>15973.05</v>
+        <v>19695.38</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B105">
-        <v>6906.9</v>
+        <v>17250.36</v>
       </c>
       <c r="C105">
         <v>3</v>
@@ -2191,18 +2191,52 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
+        <v>29</v>
+      </c>
+      <c r="B106">
+        <v>15973.05</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106">
+        <v>2025</v>
+      </c>
+      <c r="E106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>30</v>
+      </c>
+      <c r="B107">
+        <v>6906.9</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+      <c r="D107">
+        <v>2025</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
         <v>31</v>
       </c>
-      <c r="B106">
+      <c r="B108">
         <v>24267.47</v>
       </c>
-      <c r="C106">
-        <v>3</v>
-      </c>
-      <c r="D106">
-        <v>2025</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="D108">
+        <v>2025</v>
+      </c>
+      <c r="E108" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -678,27 +678,27 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>17056.87</v>
+        <v>28514.4</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>2025</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B37">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B39">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B43">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B44">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B46">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B47">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,27 +1205,27 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B48">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B50">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B51">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B52">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B54">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B57">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B58">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B59">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B60">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B61">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B62">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B63">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B64">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B65">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B66">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B67">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B68">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B69">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B70">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B71">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B72">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B73">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B74">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B75">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B76">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B77">
-        <v>24773.88</v>
+        <v>21976.8</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -1715,27 +1715,27 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B78">
-        <v>13803.81</v>
+        <v>24773.88</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78">
         <v>2025</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B79">
-        <v>4705.9</v>
+        <v>13803.81</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B80">
-        <v>16680.45</v>
+        <v>4705.9</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B81">
-        <v>7657.8</v>
+        <v>16680.45</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B82">
-        <v>37984.79</v>
+        <v>7657.8</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B83">
-        <v>19791.3</v>
+        <v>37984.79</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B84">
-        <v>51663.12</v>
+        <v>19791.3</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B85">
-        <v>14212.1</v>
+        <v>51663.12</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B86">
-        <v>8836.049999999999</v>
+        <v>14212.1</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B87">
-        <v>38138.8</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B88">
-        <v>30745.57</v>
+        <v>38138.8</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B89">
-        <v>44416.44</v>
+        <v>30745.57</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B90">
-        <v>20045.79</v>
+        <v>44416.44</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B91">
-        <v>23677.64</v>
+        <v>20045.79</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B92">
-        <v>23636.62</v>
+        <v>23677.64</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B93">
-        <v>4642</v>
+        <v>23636.62</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B94">
-        <v>37009.74</v>
+        <v>4642</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B95">
-        <v>15851.63</v>
+        <v>37009.74</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B96">
-        <v>33313.16</v>
+        <v>15851.63</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B97">
-        <v>23394.13</v>
+        <v>33313.16</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B98">
-        <v>17765.24</v>
+        <v>23394.13</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B99">
-        <v>21750.9</v>
+        <v>17765.24</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B100">
-        <v>5923.91</v>
+        <v>21750.9</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B101">
-        <v>23370.46</v>
+        <v>5923.91</v>
       </c>
       <c r="C101">
         <v>3</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B102">
-        <v>27227.58</v>
+        <v>23370.46</v>
       </c>
       <c r="C102">
         <v>3</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B103">
-        <v>20282.52</v>
+        <v>27227.58</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B104">
-        <v>19695.38</v>
+        <v>20282.52</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B105">
-        <v>17250.36</v>
+        <v>19695.38</v>
       </c>
       <c r="C105">
         <v>3</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B106">
-        <v>15973.05</v>
+        <v>17250.36</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B107">
-        <v>6906.9</v>
+        <v>15973.05</v>
       </c>
       <c r="C107">
         <v>3</v>
@@ -2225,18 +2225,35 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
+        <v>30</v>
+      </c>
+      <c r="B108">
+        <v>6906.9</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="D108">
+        <v>2025</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
         <v>31</v>
       </c>
-      <c r="B108">
+      <c r="B109">
         <v>24267.47</v>
       </c>
-      <c r="C108">
-        <v>3</v>
-      </c>
-      <c r="D108">
-        <v>2025</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>2025</v>
+      </c>
+      <c r="E109" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -695,27 +695,27 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>17056.87</v>
+        <v>18098.79</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B36">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B37">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B38">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B39">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B40">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B41">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B44">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B45">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B47">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B48">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,27 +1222,27 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B49">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B51">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B52">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B53">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B54">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B55">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B56">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B57">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B58">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B59">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B60">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B62">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B63">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B64">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B65">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B66">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B67">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B68">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B69">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B70">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B71">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B72">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B73">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B74">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B75">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B76">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B77">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B78">
-        <v>24773.88</v>
+        <v>21976.8</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -1732,27 +1732,27 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B79">
-        <v>13803.81</v>
+        <v>24773.88</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79">
         <v>2025</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B80">
-        <v>4705.9</v>
+        <v>13803.81</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B81">
-        <v>16680.45</v>
+        <v>4705.9</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B82">
-        <v>7657.8</v>
+        <v>16680.45</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B83">
-        <v>37984.79</v>
+        <v>7657.8</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B84">
-        <v>19791.3</v>
+        <v>37984.79</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B85">
-        <v>51663.12</v>
+        <v>19791.3</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B86">
-        <v>14212.1</v>
+        <v>51663.12</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B87">
-        <v>8836.049999999999</v>
+        <v>14212.1</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B88">
-        <v>38138.8</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B89">
-        <v>30745.57</v>
+        <v>38138.8</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B90">
-        <v>44416.44</v>
+        <v>30745.57</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B91">
-        <v>20045.79</v>
+        <v>44416.44</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B92">
-        <v>23677.64</v>
+        <v>20045.79</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B93">
-        <v>23636.62</v>
+        <v>23677.64</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B94">
-        <v>4642</v>
+        <v>23636.62</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B95">
-        <v>37009.74</v>
+        <v>4642</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B96">
-        <v>15851.63</v>
+        <v>37009.74</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B97">
-        <v>33313.16</v>
+        <v>15851.63</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B98">
-        <v>23394.13</v>
+        <v>33313.16</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B99">
-        <v>17765.24</v>
+        <v>23394.13</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B100">
-        <v>21750.9</v>
+        <v>17765.24</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B101">
-        <v>5923.91</v>
+        <v>21750.9</v>
       </c>
       <c r="C101">
         <v>3</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B102">
-        <v>23370.46</v>
+        <v>5923.91</v>
       </c>
       <c r="C102">
         <v>3</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B103">
-        <v>27227.58</v>
+        <v>23370.46</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B104">
-        <v>20282.52</v>
+        <v>27227.58</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B105">
-        <v>19695.38</v>
+        <v>20282.52</v>
       </c>
       <c r="C105">
         <v>3</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B106">
-        <v>17250.36</v>
+        <v>19695.38</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B107">
-        <v>15973.05</v>
+        <v>17250.36</v>
       </c>
       <c r="C107">
         <v>3</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B108">
-        <v>6906.9</v>
+        <v>15973.05</v>
       </c>
       <c r="C108">
         <v>3</v>
@@ -2242,18 +2242,35 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
+        <v>30</v>
+      </c>
+      <c r="B109">
+        <v>6906.9</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>2025</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
         <v>31</v>
       </c>
-      <c r="B109">
+      <c r="B110">
         <v>24267.47</v>
       </c>
-      <c r="C109">
-        <v>3</v>
-      </c>
-      <c r="D109">
-        <v>2025</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <v>2025</v>
+      </c>
+      <c r="E110" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,61 +712,61 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>17056.87</v>
+        <v>27037.48</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19">
         <v>2025</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>22786.63</v>
+        <v>17122.67</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>2025</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>29255</v>
+        <v>35</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>2025</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B22">
-        <v>4370</v>
+        <v>17056.87</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23">
-        <v>35402.64</v>
+        <v>22786.63</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B24">
-        <v>28248.43</v>
+        <v>29255</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B25">
-        <v>31437.91</v>
+        <v>4370</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B26">
-        <v>27732.15</v>
+        <v>35402.64</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B27">
-        <v>25508.17</v>
+        <v>28248.43</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B28">
-        <v>14802.01</v>
+        <v>31437.91</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B29">
-        <v>9776.9</v>
+        <v>27732.15</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B30">
-        <v>31420.44</v>
+        <v>25508.17</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B31">
-        <v>26531.86</v>
+        <v>14802.01</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B32">
-        <v>36574.18</v>
+        <v>9776.9</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B33">
-        <v>33940.79</v>
+        <v>31420.44</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B34">
-        <v>30498.76</v>
+        <v>26531.86</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B35">
-        <v>15120.8</v>
+        <v>36574.18</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B36">
-        <v>8085.01</v>
+        <v>33940.79</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B37">
-        <v>26923.67</v>
+        <v>30498.76</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B38">
-        <v>33090.3</v>
+        <v>15120.8</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B39">
-        <v>25994.16</v>
+        <v>8085.01</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B40">
-        <v>27147.29</v>
+        <v>26923.67</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B41">
-        <v>23820.29</v>
+        <v>33090.3</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B42">
-        <v>34922.72</v>
+        <v>25994.16</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B43">
-        <v>3824.9</v>
+        <v>27147.29</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B44">
-        <v>27831.77</v>
+        <v>23820.29</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B45">
-        <v>24156.31</v>
+        <v>34922.72</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B46">
-        <v>21718.63</v>
+        <v>3824.9</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B47">
-        <v>19445.75</v>
+        <v>27831.77</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B48">
-        <v>26951.12</v>
+        <v>24156.31</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B49">
-        <v>19327.9</v>
+        <v>21718.63</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,61 +1239,61 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B50">
-        <v>19371.37</v>
+        <v>19445.75</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50">
         <v>2025</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B51">
-        <v>29218.71</v>
+        <v>26951.12</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51">
         <v>2025</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B52">
-        <v>19819.3</v>
+        <v>19327.9</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52">
         <v>2025</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B53">
-        <v>25399.91</v>
+        <v>19371.37</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B54">
-        <v>18509.5</v>
+        <v>29218.71</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B55">
-        <v>5823.21</v>
+        <v>19819.3</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B56">
-        <v>21764.19</v>
+        <v>25399.91</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B57">
-        <v>38515.34</v>
+        <v>18509.5</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B58">
-        <v>21733.46</v>
+        <v>5823.21</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B59">
-        <v>25715.4</v>
+        <v>21764.19</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B60">
-        <v>22833.25</v>
+        <v>38515.34</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B61">
-        <v>21596.15</v>
+        <v>21733.46</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B62">
-        <v>6451</v>
+        <v>25715.4</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B63">
-        <v>24085.6</v>
+        <v>22833.25</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B64">
-        <v>15644.59</v>
+        <v>21596.15</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B65">
-        <v>18372.2</v>
+        <v>6451</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B66">
-        <v>23446.19</v>
+        <v>24085.6</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B67">
-        <v>15474.35</v>
+        <v>15644.59</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B68">
-        <v>9164.799999999999</v>
+        <v>18372.2</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B69">
-        <v>2719</v>
+        <v>23446.19</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B70">
-        <v>15666.86</v>
+        <v>15474.35</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B71">
-        <v>15219.82</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B72">
-        <v>19895.36</v>
+        <v>2719</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B73">
-        <v>19632.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B74">
-        <v>19212.07</v>
+        <v>15219.82</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B75">
-        <v>14442</v>
+        <v>19895.36</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B76">
-        <v>5289.3</v>
+        <v>19632.82</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B77">
-        <v>25680.18</v>
+        <v>19212.07</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B78">
-        <v>21976.8</v>
+        <v>14442</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B79">
-        <v>24773.88</v>
+        <v>5289.3</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -1749,61 +1749,61 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B80">
-        <v>13803.81</v>
+        <v>25680.18</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80">
         <v>2025</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B81">
-        <v>4705.9</v>
+        <v>21976.8</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81">
         <v>2025</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B82">
-        <v>16680.45</v>
+        <v>24773.88</v>
       </c>
       <c r="C82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82">
         <v>2025</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B83">
-        <v>7657.8</v>
+        <v>13803.81</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B84">
-        <v>37984.79</v>
+        <v>4705.9</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B85">
-        <v>19791.3</v>
+        <v>16680.45</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B86">
-        <v>51663.12</v>
+        <v>7657.8</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B87">
-        <v>14212.1</v>
+        <v>37984.79</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B88">
-        <v>8836.049999999999</v>
+        <v>19791.3</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B89">
-        <v>38138.8</v>
+        <v>51663.12</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B90">
-        <v>30745.57</v>
+        <v>14212.1</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B91">
-        <v>44416.44</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B92">
-        <v>20045.79</v>
+        <v>38138.8</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B93">
-        <v>23677.64</v>
+        <v>30745.57</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B94">
-        <v>23636.62</v>
+        <v>44416.44</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B95">
-        <v>4642</v>
+        <v>20045.79</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B96">
-        <v>37009.74</v>
+        <v>23677.64</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B97">
-        <v>15851.63</v>
+        <v>23636.62</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B98">
-        <v>33313.16</v>
+        <v>4642</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B99">
-        <v>23394.13</v>
+        <v>37009.74</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B100">
-        <v>17765.24</v>
+        <v>15851.63</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B101">
-        <v>21750.9</v>
+        <v>33313.16</v>
       </c>
       <c r="C101">
         <v>3</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B102">
-        <v>5923.91</v>
+        <v>23394.13</v>
       </c>
       <c r="C102">
         <v>3</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B103">
-        <v>23370.46</v>
+        <v>17765.24</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B104">
-        <v>27227.58</v>
+        <v>21750.9</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B105">
-        <v>20282.52</v>
+        <v>5923.91</v>
       </c>
       <c r="C105">
         <v>3</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B106">
-        <v>19695.38</v>
+        <v>23370.46</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B107">
-        <v>17250.36</v>
+        <v>27227.58</v>
       </c>
       <c r="C107">
         <v>3</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B108">
-        <v>15973.05</v>
+        <v>20282.52</v>
       </c>
       <c r="C108">
         <v>3</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B109">
-        <v>6906.9</v>
+        <v>19695.38</v>
       </c>
       <c r="C109">
         <v>3</v>
@@ -2259,18 +2259,69 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
+        <v>28</v>
+      </c>
+      <c r="B110">
+        <v>17250.36</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <v>2025</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>29</v>
+      </c>
+      <c r="B111">
+        <v>15973.05</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111">
+        <v>2025</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>30</v>
+      </c>
+      <c r="B112">
+        <v>6906.9</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112">
+        <v>2025</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
         <v>31</v>
       </c>
-      <c r="B110">
+      <c r="B113">
         <v>24267.47</v>
       </c>
-      <c r="C110">
-        <v>3</v>
-      </c>
-      <c r="D110">
-        <v>2025</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="C113">
+        <v>3</v>
+      </c>
+      <c r="D113">
+        <v>2025</v>
+      </c>
+      <c r="E113" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -749,7 +749,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>35</v>
+        <v>17622.85</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -763,44 +763,44 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>17056.87</v>
+        <v>13501.01</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>2025</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>22786.63</v>
+        <v>4054.5</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23">
         <v>2025</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24">
-        <v>29255</v>
+        <v>17056.87</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25">
-        <v>4370</v>
+        <v>22786.63</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B26">
-        <v>35402.64</v>
+        <v>29255</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B27">
-        <v>28248.43</v>
+        <v>4370</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B28">
-        <v>31437.91</v>
+        <v>35402.64</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B29">
-        <v>27732.15</v>
+        <v>28248.43</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B30">
-        <v>25508.17</v>
+        <v>31437.91</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B31">
-        <v>14802.01</v>
+        <v>27732.15</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B32">
-        <v>9776.9</v>
+        <v>25508.17</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B33">
-        <v>31420.44</v>
+        <v>14802.01</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B34">
-        <v>26531.86</v>
+        <v>9776.9</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B35">
-        <v>36574.18</v>
+        <v>31420.44</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B36">
-        <v>33940.79</v>
+        <v>26531.86</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B37">
-        <v>30498.76</v>
+        <v>36574.18</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B38">
-        <v>15120.8</v>
+        <v>33940.79</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B39">
-        <v>8085.01</v>
+        <v>30498.76</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B40">
-        <v>26923.67</v>
+        <v>15120.8</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B41">
-        <v>33090.3</v>
+        <v>8085.01</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B42">
-        <v>25994.16</v>
+        <v>26923.67</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B43">
-        <v>27147.29</v>
+        <v>33090.3</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B44">
-        <v>23820.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B45">
-        <v>34922.72</v>
+        <v>27147.29</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B46">
-        <v>3824.9</v>
+        <v>23820.29</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B47">
-        <v>27831.77</v>
+        <v>34922.72</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B48">
-        <v>24156.31</v>
+        <v>3824.9</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B49">
-        <v>21718.63</v>
+        <v>27831.77</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B50">
-        <v>19445.75</v>
+        <v>24156.31</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B51">
-        <v>26951.12</v>
+        <v>21718.63</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B52">
-        <v>19327.9</v>
+        <v>19445.75</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,44 +1290,44 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B53">
-        <v>19371.37</v>
+        <v>26951.12</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53">
         <v>2025</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B54">
-        <v>29218.71</v>
+        <v>19327.9</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54">
         <v>2025</v>
       </c>
       <c r="E54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B55">
-        <v>19819.3</v>
+        <v>19371.37</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B56">
-        <v>25399.91</v>
+        <v>29218.71</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B57">
-        <v>18509.5</v>
+        <v>19819.3</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B58">
-        <v>5823.21</v>
+        <v>25399.91</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B59">
-        <v>21764.19</v>
+        <v>18509.5</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B60">
-        <v>38515.34</v>
+        <v>5823.21</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B61">
-        <v>21733.46</v>
+        <v>21764.19</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B62">
-        <v>25715.4</v>
+        <v>38515.34</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B63">
-        <v>22833.25</v>
+        <v>21733.46</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B64">
-        <v>21596.15</v>
+        <v>25715.4</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B65">
-        <v>6451</v>
+        <v>22833.25</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B66">
-        <v>24085.6</v>
+        <v>21596.15</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B67">
-        <v>15644.59</v>
+        <v>6451</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B68">
-        <v>18372.2</v>
+        <v>24085.6</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B69">
-        <v>23446.19</v>
+        <v>15644.59</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B70">
-        <v>15474.35</v>
+        <v>18372.2</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B71">
-        <v>9164.799999999999</v>
+        <v>23446.19</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B72">
-        <v>2719</v>
+        <v>15474.35</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B73">
-        <v>15666.86</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B74">
-        <v>15219.82</v>
+        <v>2719</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B75">
-        <v>19895.36</v>
+        <v>15666.86</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B76">
-        <v>19632.82</v>
+        <v>15219.82</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B77">
-        <v>19212.07</v>
+        <v>19895.36</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B78">
-        <v>14442</v>
+        <v>19632.82</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B79">
-        <v>5289.3</v>
+        <v>19212.07</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B80">
-        <v>25680.18</v>
+        <v>14442</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B81">
-        <v>21976.8</v>
+        <v>5289.3</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B82">
-        <v>24773.88</v>
+        <v>25680.18</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -1800,44 +1800,44 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B83">
-        <v>13803.81</v>
+        <v>21976.8</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83">
         <v>2025</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B84">
-        <v>4705.9</v>
+        <v>24773.88</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84">
         <v>2025</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B85">
-        <v>16680.45</v>
+        <v>13803.81</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B86">
-        <v>7657.8</v>
+        <v>4705.9</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B87">
-        <v>37984.79</v>
+        <v>16680.45</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B88">
-        <v>19791.3</v>
+        <v>7657.8</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B89">
-        <v>51663.12</v>
+        <v>37984.79</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B90">
-        <v>14212.1</v>
+        <v>19791.3</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B91">
-        <v>8836.049999999999</v>
+        <v>51663.12</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B92">
-        <v>38138.8</v>
+        <v>14212.1</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B93">
-        <v>30745.57</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B94">
-        <v>44416.44</v>
+        <v>38138.8</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B95">
-        <v>20045.79</v>
+        <v>30745.57</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B96">
-        <v>23677.64</v>
+        <v>44416.44</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B97">
-        <v>23636.62</v>
+        <v>20045.79</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B98">
-        <v>4642</v>
+        <v>23677.64</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B99">
-        <v>37009.74</v>
+        <v>23636.62</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B100">
-        <v>15851.63</v>
+        <v>4642</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B101">
-        <v>33313.16</v>
+        <v>37009.74</v>
       </c>
       <c r="C101">
         <v>3</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B102">
-        <v>23394.13</v>
+        <v>15851.63</v>
       </c>
       <c r="C102">
         <v>3</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B103">
-        <v>17765.24</v>
+        <v>33313.16</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B104">
-        <v>21750.9</v>
+        <v>23394.13</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B105">
-        <v>5923.91</v>
+        <v>17765.24</v>
       </c>
       <c r="C105">
         <v>3</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B106">
-        <v>23370.46</v>
+        <v>21750.9</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B107">
-        <v>27227.58</v>
+        <v>5923.91</v>
       </c>
       <c r="C107">
         <v>3</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B108">
-        <v>20282.52</v>
+        <v>23370.46</v>
       </c>
       <c r="C108">
         <v>3</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B109">
-        <v>19695.38</v>
+        <v>27227.58</v>
       </c>
       <c r="C109">
         <v>3</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B110">
-        <v>17250.36</v>
+        <v>20282.52</v>
       </c>
       <c r="C110">
         <v>3</v>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B111">
-        <v>15973.05</v>
+        <v>19695.38</v>
       </c>
       <c r="C111">
         <v>3</v>
@@ -2293,10 +2293,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B112">
-        <v>6906.9</v>
+        <v>17250.36</v>
       </c>
       <c r="C112">
         <v>3</v>
@@ -2310,18 +2310,52 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
+        <v>29</v>
+      </c>
+      <c r="B113">
+        <v>15973.05</v>
+      </c>
+      <c r="C113">
+        <v>3</v>
+      </c>
+      <c r="D113">
+        <v>2025</v>
+      </c>
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>30</v>
+      </c>
+      <c r="B114">
+        <v>6906.9</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <v>2025</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
         <v>31</v>
       </c>
-      <c r="B113">
+      <c r="B115">
         <v>24267.47</v>
       </c>
-      <c r="C113">
-        <v>3</v>
-      </c>
-      <c r="D113">
-        <v>2025</v>
-      </c>
-      <c r="E113" t="s">
+      <c r="C115">
+        <v>3</v>
+      </c>
+      <c r="D115">
+        <v>2025</v>
+      </c>
+      <c r="E115" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -797,27 +797,27 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>17056.87</v>
+        <v>25183.26</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>2025</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B40">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B42">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B44">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B46">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B48">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B49">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B50">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B51">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B52">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B53">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B54">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,27 +1324,27 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B55">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55">
         <v>2025</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B56">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B57">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B58">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B59">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B60">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B61">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B62">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B63">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B64">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B65">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B66">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B67">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B68">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B69">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B70">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B71">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B72">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B73">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B74">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B75">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B76">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B77">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B78">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B79">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B80">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B81">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B82">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B83">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B84">
-        <v>24773.88</v>
+        <v>21976.8</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -1834,27 +1834,27 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B85">
-        <v>13803.81</v>
+        <v>24773.88</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85">
         <v>2025</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B86">
-        <v>4705.9</v>
+        <v>13803.81</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B87">
-        <v>16680.45</v>
+        <v>4705.9</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B88">
-        <v>7657.8</v>
+        <v>16680.45</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B89">
-        <v>37984.79</v>
+        <v>7657.8</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B90">
-        <v>19791.3</v>
+        <v>37984.79</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B91">
-        <v>51663.12</v>
+        <v>19791.3</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B92">
-        <v>14212.1</v>
+        <v>51663.12</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B93">
-        <v>8836.049999999999</v>
+        <v>14212.1</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B94">
-        <v>38138.8</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B95">
-        <v>30745.57</v>
+        <v>38138.8</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B96">
-        <v>44416.44</v>
+        <v>30745.57</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B97">
-        <v>20045.79</v>
+        <v>44416.44</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B98">
-        <v>23677.64</v>
+        <v>20045.79</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B99">
-        <v>23636.62</v>
+        <v>23677.64</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B100">
-        <v>4642</v>
+        <v>23636.62</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B101">
-        <v>37009.74</v>
+        <v>4642</v>
       </c>
       <c r="C101">
         <v>3</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B102">
-        <v>15851.63</v>
+        <v>37009.74</v>
       </c>
       <c r="C102">
         <v>3</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B103">
-        <v>33313.16</v>
+        <v>15851.63</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B104">
-        <v>23394.13</v>
+        <v>33313.16</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B105">
-        <v>17765.24</v>
+        <v>23394.13</v>
       </c>
       <c r="C105">
         <v>3</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B106">
-        <v>21750.9</v>
+        <v>17765.24</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B107">
-        <v>5923.91</v>
+        <v>21750.9</v>
       </c>
       <c r="C107">
         <v>3</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B108">
-        <v>23370.46</v>
+        <v>5923.91</v>
       </c>
       <c r="C108">
         <v>3</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B109">
-        <v>27227.58</v>
+        <v>23370.46</v>
       </c>
       <c r="C109">
         <v>3</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B110">
-        <v>20282.52</v>
+        <v>27227.58</v>
       </c>
       <c r="C110">
         <v>3</v>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B111">
-        <v>19695.38</v>
+        <v>20282.52</v>
       </c>
       <c r="C111">
         <v>3</v>
@@ -2293,10 +2293,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B112">
-        <v>17250.36</v>
+        <v>19695.38</v>
       </c>
       <c r="C112">
         <v>3</v>
@@ -2310,10 +2310,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B113">
-        <v>15973.05</v>
+        <v>17250.36</v>
       </c>
       <c r="C113">
         <v>3</v>
@@ -2327,10 +2327,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B114">
-        <v>6906.9</v>
+        <v>15973.05</v>
       </c>
       <c r="C114">
         <v>3</v>
@@ -2344,18 +2344,35 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
+        <v>30</v>
+      </c>
+      <c r="B115">
+        <v>6906.9</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+      <c r="D115">
+        <v>2025</v>
+      </c>
+      <c r="E115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
         <v>31</v>
       </c>
-      <c r="B115">
+      <c r="B116">
         <v>24267.47</v>
       </c>
-      <c r="C115">
-        <v>3</v>
-      </c>
-      <c r="D115">
-        <v>2025</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="C116">
+        <v>3</v>
+      </c>
+      <c r="D116">
+        <v>2025</v>
+      </c>
+      <c r="E116" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -814,27 +814,27 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>17056.87</v>
+        <v>22602.82</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25">
         <v>2025</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B41">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B42">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B43">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B45">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B46">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B48">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B49">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B50">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B51">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B52">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B53">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B54">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B55">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,27 +1341,27 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B56">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56">
         <v>2025</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B58">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B61">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B62">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B64">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B65">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B67">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B68">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B69">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B70">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B71">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B72">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B73">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B74">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B75">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B76">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B77">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B78">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B79">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B80">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B81">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B82">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B83">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B84">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B85">
-        <v>24773.88</v>
+        <v>21976.8</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -1851,27 +1851,27 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B86">
-        <v>13803.81</v>
+        <v>24773.88</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86">
         <v>2025</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B87">
-        <v>4705.9</v>
+        <v>13803.81</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B88">
-        <v>16680.45</v>
+        <v>4705.9</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B89">
-        <v>7657.8</v>
+        <v>16680.45</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B90">
-        <v>37984.79</v>
+        <v>7657.8</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B91">
-        <v>19791.3</v>
+        <v>37984.79</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B92">
-        <v>51663.12</v>
+        <v>19791.3</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B93">
-        <v>14212.1</v>
+        <v>51663.12</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B94">
-        <v>8836.049999999999</v>
+        <v>14212.1</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B95">
-        <v>38138.8</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B96">
-        <v>30745.57</v>
+        <v>38138.8</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B97">
-        <v>44416.44</v>
+        <v>30745.57</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B98">
-        <v>20045.79</v>
+        <v>44416.44</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B99">
-        <v>23677.64</v>
+        <v>20045.79</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B100">
-        <v>23636.62</v>
+        <v>23677.64</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B101">
-        <v>4642</v>
+        <v>23636.62</v>
       </c>
       <c r="C101">
         <v>3</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B102">
-        <v>37009.74</v>
+        <v>4642</v>
       </c>
       <c r="C102">
         <v>3</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B103">
-        <v>15851.63</v>
+        <v>37009.74</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B104">
-        <v>33313.16</v>
+        <v>15851.63</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B105">
-        <v>23394.13</v>
+        <v>33313.16</v>
       </c>
       <c r="C105">
         <v>3</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B106">
-        <v>17765.24</v>
+        <v>23394.13</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B107">
-        <v>21750.9</v>
+        <v>17765.24</v>
       </c>
       <c r="C107">
         <v>3</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B108">
-        <v>5923.91</v>
+        <v>21750.9</v>
       </c>
       <c r="C108">
         <v>3</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B109">
-        <v>23370.46</v>
+        <v>5923.91</v>
       </c>
       <c r="C109">
         <v>3</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B110">
-        <v>27227.58</v>
+        <v>23370.46</v>
       </c>
       <c r="C110">
         <v>3</v>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B111">
-        <v>20282.52</v>
+        <v>27227.58</v>
       </c>
       <c r="C111">
         <v>3</v>
@@ -2293,10 +2293,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B112">
-        <v>19695.38</v>
+        <v>20282.52</v>
       </c>
       <c r="C112">
         <v>3</v>
@@ -2310,10 +2310,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B113">
-        <v>17250.36</v>
+        <v>19695.38</v>
       </c>
       <c r="C113">
         <v>3</v>
@@ -2327,10 +2327,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B114">
-        <v>15973.05</v>
+        <v>17250.36</v>
       </c>
       <c r="C114">
         <v>3</v>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B115">
-        <v>6906.9</v>
+        <v>15973.05</v>
       </c>
       <c r="C115">
         <v>3</v>
@@ -2361,18 +2361,35 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
+        <v>30</v>
+      </c>
+      <c r="B116">
+        <v>6906.9</v>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+      <c r="D116">
+        <v>2025</v>
+      </c>
+      <c r="E116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
         <v>31</v>
       </c>
-      <c r="B116">
+      <c r="B117">
         <v>24267.47</v>
       </c>
-      <c r="C116">
-        <v>3</v>
-      </c>
-      <c r="D116">
-        <v>2025</v>
-      </c>
-      <c r="E116" t="s">
+      <c r="C117">
+        <v>3</v>
+      </c>
+      <c r="D117">
+        <v>2025</v>
+      </c>
+      <c r="E117" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -831,27 +831,27 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>17056.87</v>
+        <v>20180.46</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26">
         <v>2025</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B34">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B43">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B44">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B45">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B46">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B48">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B49">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B50">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B51">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B52">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B53">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B54">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B55">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B56">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,27 +1358,27 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B57">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57">
         <v>2025</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B59">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B61">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B62">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B63">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B64">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B65">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B66">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B67">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B68">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B69">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B70">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B71">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B72">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B73">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B74">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B75">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B76">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B77">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B78">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B79">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B80">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B81">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B82">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B83">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B84">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B85">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B86">
-        <v>24773.88</v>
+        <v>21976.8</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -1868,27 +1868,27 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B87">
-        <v>13803.81</v>
+        <v>24773.88</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87">
         <v>2025</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B88">
-        <v>4705.9</v>
+        <v>13803.81</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B89">
-        <v>16680.45</v>
+        <v>4705.9</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B90">
-        <v>7657.8</v>
+        <v>16680.45</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B91">
-        <v>37984.79</v>
+        <v>7657.8</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B92">
-        <v>19791.3</v>
+        <v>37984.79</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B93">
-        <v>51663.12</v>
+        <v>19791.3</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B94">
-        <v>14212.1</v>
+        <v>51663.12</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B95">
-        <v>8836.049999999999</v>
+        <v>14212.1</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B96">
-        <v>38138.8</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B97">
-        <v>30745.57</v>
+        <v>38138.8</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B98">
-        <v>44416.44</v>
+        <v>30745.57</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B99">
-        <v>20045.79</v>
+        <v>44416.44</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B100">
-        <v>23677.64</v>
+        <v>20045.79</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B101">
-        <v>23636.62</v>
+        <v>23677.64</v>
       </c>
       <c r="C101">
         <v>3</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B102">
-        <v>4642</v>
+        <v>23636.62</v>
       </c>
       <c r="C102">
         <v>3</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B103">
-        <v>37009.74</v>
+        <v>4642</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B104">
-        <v>15851.63</v>
+        <v>37009.74</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B105">
-        <v>33313.16</v>
+        <v>15851.63</v>
       </c>
       <c r="C105">
         <v>3</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B106">
-        <v>23394.13</v>
+        <v>33313.16</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B107">
-        <v>17765.24</v>
+        <v>23394.13</v>
       </c>
       <c r="C107">
         <v>3</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B108">
-        <v>21750.9</v>
+        <v>17765.24</v>
       </c>
       <c r="C108">
         <v>3</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B109">
-        <v>5923.91</v>
+        <v>21750.9</v>
       </c>
       <c r="C109">
         <v>3</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B110">
-        <v>23370.46</v>
+        <v>5923.91</v>
       </c>
       <c r="C110">
         <v>3</v>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B111">
-        <v>27227.58</v>
+        <v>23370.46</v>
       </c>
       <c r="C111">
         <v>3</v>
@@ -2293,10 +2293,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B112">
-        <v>20282.52</v>
+        <v>27227.58</v>
       </c>
       <c r="C112">
         <v>3</v>
@@ -2310,10 +2310,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B113">
-        <v>19695.38</v>
+        <v>20282.52</v>
       </c>
       <c r="C113">
         <v>3</v>
@@ -2327,10 +2327,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B114">
-        <v>17250.36</v>
+        <v>19695.38</v>
       </c>
       <c r="C114">
         <v>3</v>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B115">
-        <v>15973.05</v>
+        <v>17250.36</v>
       </c>
       <c r="C115">
         <v>3</v>
@@ -2361,10 +2361,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B116">
-        <v>6906.9</v>
+        <v>15973.05</v>
       </c>
       <c r="C116">
         <v>3</v>
@@ -2378,18 +2378,35 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
+        <v>30</v>
+      </c>
+      <c r="B117">
+        <v>6906.9</v>
+      </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
+      <c r="D117">
+        <v>2025</v>
+      </c>
+      <c r="E117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
         <v>31</v>
       </c>
-      <c r="B117">
+      <c r="B118">
         <v>24267.47</v>
       </c>
-      <c r="C117">
-        <v>3</v>
-      </c>
-      <c r="D117">
-        <v>2025</v>
-      </c>
-      <c r="E117" t="s">
+      <c r="C118">
+        <v>3</v>
+      </c>
+      <c r="D118">
+        <v>2025</v>
+      </c>
+      <c r="E118" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -848,44 +848,44 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>17056.87</v>
+        <v>37345.11</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>2025</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>22786.63</v>
+        <v>1314.2</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>2025</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B29">
-        <v>29255</v>
+        <v>17056.87</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B30">
-        <v>4370</v>
+        <v>22786.63</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B31">
-        <v>35402.64</v>
+        <v>29255</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B32">
-        <v>28248.43</v>
+        <v>4370</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B33">
-        <v>31437.91</v>
+        <v>35402.64</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B34">
-        <v>27732.15</v>
+        <v>28248.43</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B35">
-        <v>25508.17</v>
+        <v>31437.91</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B36">
-        <v>14802.01</v>
+        <v>27732.15</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B37">
-        <v>9776.9</v>
+        <v>25508.17</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B38">
-        <v>31420.44</v>
+        <v>14802.01</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B39">
-        <v>26531.86</v>
+        <v>9776.9</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B40">
-        <v>36574.18</v>
+        <v>31420.44</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B41">
-        <v>33940.79</v>
+        <v>26531.86</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B42">
-        <v>30498.76</v>
+        <v>36574.18</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B43">
-        <v>15120.8</v>
+        <v>33940.79</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B44">
-        <v>8085.01</v>
+        <v>30498.76</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B45">
-        <v>26923.67</v>
+        <v>15120.8</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B46">
-        <v>33090.3</v>
+        <v>8085.01</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B47">
-        <v>25994.16</v>
+        <v>26923.67</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B48">
-        <v>27147.29</v>
+        <v>33090.3</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B49">
-        <v>23820.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B50">
-        <v>34922.72</v>
+        <v>27147.29</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B51">
-        <v>3824.9</v>
+        <v>23820.29</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B52">
-        <v>27831.77</v>
+        <v>34922.72</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B53">
-        <v>24156.31</v>
+        <v>3824.9</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B54">
-        <v>21718.63</v>
+        <v>27831.77</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B55">
-        <v>19445.75</v>
+        <v>24156.31</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B56">
-        <v>26951.12</v>
+        <v>21718.63</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B57">
-        <v>19327.9</v>
+        <v>19445.75</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,44 +1375,44 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B58">
-        <v>19371.37</v>
+        <v>26951.12</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58">
         <v>2025</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B59">
-        <v>29218.71</v>
+        <v>19327.9</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59">
         <v>2025</v>
       </c>
       <c r="E59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B60">
-        <v>19819.3</v>
+        <v>19371.37</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B61">
-        <v>25399.91</v>
+        <v>29218.71</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B62">
-        <v>18509.5</v>
+        <v>19819.3</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B63">
-        <v>5823.21</v>
+        <v>25399.91</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B64">
-        <v>21764.19</v>
+        <v>18509.5</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B65">
-        <v>38515.34</v>
+        <v>5823.21</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B66">
-        <v>21733.46</v>
+        <v>21764.19</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B67">
-        <v>25715.4</v>
+        <v>38515.34</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B68">
-        <v>22833.25</v>
+        <v>21733.46</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B69">
-        <v>21596.15</v>
+        <v>25715.4</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B70">
-        <v>6451</v>
+        <v>22833.25</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B71">
-        <v>24085.6</v>
+        <v>21596.15</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B72">
-        <v>15644.59</v>
+        <v>6451</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B73">
-        <v>18372.2</v>
+        <v>24085.6</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B74">
-        <v>23446.19</v>
+        <v>15644.59</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B75">
-        <v>15474.35</v>
+        <v>18372.2</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B76">
-        <v>9164.799999999999</v>
+        <v>23446.19</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B77">
-        <v>2719</v>
+        <v>15474.35</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B78">
-        <v>15666.86</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B79">
-        <v>15219.82</v>
+        <v>2719</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B80">
-        <v>19895.36</v>
+        <v>15666.86</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B81">
-        <v>19632.82</v>
+        <v>15219.82</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B82">
-        <v>19212.07</v>
+        <v>19895.36</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B83">
-        <v>14442</v>
+        <v>19632.82</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B84">
-        <v>5289.3</v>
+        <v>19212.07</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B85">
-        <v>25680.18</v>
+        <v>14442</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B86">
-        <v>21976.8</v>
+        <v>5289.3</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B87">
-        <v>24773.88</v>
+        <v>25680.18</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -1885,44 +1885,44 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B88">
-        <v>13803.81</v>
+        <v>21976.8</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88">
         <v>2025</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B89">
-        <v>4705.9</v>
+        <v>24773.88</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89">
         <v>2025</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B90">
-        <v>16680.45</v>
+        <v>13803.81</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B91">
-        <v>7657.8</v>
+        <v>4705.9</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B92">
-        <v>37984.79</v>
+        <v>16680.45</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B93">
-        <v>19791.3</v>
+        <v>7657.8</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B94">
-        <v>51663.12</v>
+        <v>37984.79</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B95">
-        <v>14212.1</v>
+        <v>19791.3</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B96">
-        <v>8836.049999999999</v>
+        <v>51663.12</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B97">
-        <v>38138.8</v>
+        <v>14212.1</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B98">
-        <v>30745.57</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B99">
-        <v>44416.44</v>
+        <v>38138.8</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B100">
-        <v>20045.79</v>
+        <v>30745.57</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B101">
-        <v>23677.64</v>
+        <v>44416.44</v>
       </c>
       <c r="C101">
         <v>3</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B102">
-        <v>23636.62</v>
+        <v>20045.79</v>
       </c>
       <c r="C102">
         <v>3</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B103">
-        <v>4642</v>
+        <v>23677.64</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B104">
-        <v>37009.74</v>
+        <v>23636.62</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B105">
-        <v>15851.63</v>
+        <v>4642</v>
       </c>
       <c r="C105">
         <v>3</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B106">
-        <v>33313.16</v>
+        <v>37009.74</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B107">
-        <v>23394.13</v>
+        <v>15851.63</v>
       </c>
       <c r="C107">
         <v>3</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B108">
-        <v>17765.24</v>
+        <v>33313.16</v>
       </c>
       <c r="C108">
         <v>3</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B109">
-        <v>21750.9</v>
+        <v>23394.13</v>
       </c>
       <c r="C109">
         <v>3</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B110">
-        <v>5923.91</v>
+        <v>17765.24</v>
       </c>
       <c r="C110">
         <v>3</v>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B111">
-        <v>23370.46</v>
+        <v>21750.9</v>
       </c>
       <c r="C111">
         <v>3</v>
@@ -2293,10 +2293,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B112">
-        <v>27227.58</v>
+        <v>5923.91</v>
       </c>
       <c r="C112">
         <v>3</v>
@@ -2310,10 +2310,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B113">
-        <v>20282.52</v>
+        <v>23370.46</v>
       </c>
       <c r="C113">
         <v>3</v>
@@ -2327,10 +2327,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B114">
-        <v>19695.38</v>
+        <v>27227.58</v>
       </c>
       <c r="C114">
         <v>3</v>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B115">
-        <v>17250.36</v>
+        <v>20282.52</v>
       </c>
       <c r="C115">
         <v>3</v>
@@ -2361,10 +2361,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B116">
-        <v>15973.05</v>
+        <v>19695.38</v>
       </c>
       <c r="C116">
         <v>3</v>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B117">
-        <v>6906.9</v>
+        <v>17250.36</v>
       </c>
       <c r="C117">
         <v>3</v>
@@ -2395,18 +2395,52 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118">
+        <v>29</v>
+      </c>
+      <c r="B118">
+        <v>15973.05</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+      <c r="D118">
+        <v>2025</v>
+      </c>
+      <c r="E118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>30</v>
+      </c>
+      <c r="B119">
+        <v>6906.9</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119">
+        <v>2025</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
         <v>31</v>
       </c>
-      <c r="B118">
+      <c r="B120">
         <v>24267.47</v>
       </c>
-      <c r="C118">
-        <v>3</v>
-      </c>
-      <c r="D118">
-        <v>2025</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="C120">
+        <v>3</v>
+      </c>
+      <c r="D120">
+        <v>2025</v>
+      </c>
+      <c r="E120" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -868,7 +868,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1314.2</v>
+        <v>24519.52</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,44 +882,44 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>17056.87</v>
+        <v>10903.9</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>2025</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>22786.63</v>
+        <v>6129.8</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>2025</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B31">
-        <v>29255</v>
+        <v>17056.87</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B32">
-        <v>4370</v>
+        <v>22786.63</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B33">
-        <v>35402.64</v>
+        <v>29255</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B34">
-        <v>28248.43</v>
+        <v>4370</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B35">
-        <v>31437.91</v>
+        <v>35402.64</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B36">
-        <v>27732.15</v>
+        <v>28248.43</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B37">
-        <v>25508.17</v>
+        <v>31437.91</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B38">
-        <v>14802.01</v>
+        <v>27732.15</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B39">
-        <v>9776.9</v>
+        <v>25508.17</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B40">
-        <v>31420.44</v>
+        <v>14802.01</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B41">
-        <v>26531.86</v>
+        <v>9776.9</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B42">
-        <v>36574.18</v>
+        <v>31420.44</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B43">
-        <v>33940.79</v>
+        <v>26531.86</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B44">
-        <v>30498.76</v>
+        <v>36574.18</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B45">
-        <v>15120.8</v>
+        <v>33940.79</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B46">
-        <v>8085.01</v>
+        <v>30498.76</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B47">
-        <v>26923.67</v>
+        <v>15120.8</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B48">
-        <v>33090.3</v>
+        <v>8085.01</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B49">
-        <v>25994.16</v>
+        <v>26923.67</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B50">
-        <v>27147.29</v>
+        <v>33090.3</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B51">
-        <v>23820.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B52">
-        <v>34922.72</v>
+        <v>27147.29</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B53">
-        <v>3824.9</v>
+        <v>23820.29</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B54">
-        <v>27831.77</v>
+        <v>34922.72</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B55">
-        <v>24156.31</v>
+        <v>3824.9</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B56">
-        <v>21718.63</v>
+        <v>27831.77</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B57">
-        <v>19445.75</v>
+        <v>24156.31</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B58">
-        <v>26951.12</v>
+        <v>21718.63</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B59">
-        <v>19327.9</v>
+        <v>19445.75</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,44 +1409,44 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B60">
-        <v>19371.37</v>
+        <v>26951.12</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60">
         <v>2025</v>
       </c>
       <c r="E60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B61">
-        <v>29218.71</v>
+        <v>19327.9</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61">
         <v>2025</v>
       </c>
       <c r="E61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B62">
-        <v>19819.3</v>
+        <v>19371.37</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B63">
-        <v>25399.91</v>
+        <v>29218.71</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B64">
-        <v>18509.5</v>
+        <v>19819.3</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B65">
-        <v>5823.21</v>
+        <v>25399.91</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B66">
-        <v>21764.19</v>
+        <v>18509.5</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B67">
-        <v>38515.34</v>
+        <v>5823.21</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B68">
-        <v>21733.46</v>
+        <v>21764.19</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B69">
-        <v>25715.4</v>
+        <v>38515.34</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B70">
-        <v>22833.25</v>
+        <v>21733.46</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B71">
-        <v>21596.15</v>
+        <v>25715.4</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B72">
-        <v>6451</v>
+        <v>22833.25</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B73">
-        <v>24085.6</v>
+        <v>21596.15</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B74">
-        <v>15644.59</v>
+        <v>6451</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B75">
-        <v>18372.2</v>
+        <v>24085.6</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B76">
-        <v>23446.19</v>
+        <v>15644.59</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B77">
-        <v>15474.35</v>
+        <v>18372.2</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B78">
-        <v>9164.799999999999</v>
+        <v>23446.19</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B79">
-        <v>2719</v>
+        <v>15474.35</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B80">
-        <v>15666.86</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B81">
-        <v>15219.82</v>
+        <v>2719</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B82">
-        <v>19895.36</v>
+        <v>15666.86</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B83">
-        <v>19632.82</v>
+        <v>15219.82</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B84">
-        <v>19212.07</v>
+        <v>19895.36</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B85">
-        <v>14442</v>
+        <v>19632.82</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B86">
-        <v>5289.3</v>
+        <v>19212.07</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B87">
-        <v>25680.18</v>
+        <v>14442</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B88">
-        <v>21976.8</v>
+        <v>5289.3</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B89">
-        <v>24773.88</v>
+        <v>25680.18</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -1919,44 +1919,44 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B90">
-        <v>13803.81</v>
+        <v>21976.8</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90">
         <v>2025</v>
       </c>
       <c r="E90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B91">
-        <v>4705.9</v>
+        <v>24773.88</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91">
         <v>2025</v>
       </c>
       <c r="E91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B92">
-        <v>16680.45</v>
+        <v>13803.81</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B93">
-        <v>7657.8</v>
+        <v>4705.9</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B94">
-        <v>37984.79</v>
+        <v>16680.45</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B95">
-        <v>19791.3</v>
+        <v>7657.8</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B96">
-        <v>51663.12</v>
+        <v>37984.79</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B97">
-        <v>14212.1</v>
+        <v>19791.3</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B98">
-        <v>8836.049999999999</v>
+        <v>51663.12</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B99">
-        <v>38138.8</v>
+        <v>14212.1</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B100">
-        <v>30745.57</v>
+        <v>8836.049999999999</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B101">
-        <v>44416.44</v>
+        <v>38138.8</v>
       </c>
       <c r="C101">
         <v>3</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B102">
-        <v>20045.79</v>
+        <v>30745.57</v>
       </c>
       <c r="C102">
         <v>3</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B103">
-        <v>23677.64</v>
+        <v>44416.44</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B104">
-        <v>23636.62</v>
+        <v>20045.79</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B105">
-        <v>4642</v>
+        <v>23677.64</v>
       </c>
       <c r="C105">
         <v>3</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B106">
-        <v>37009.74</v>
+        <v>23636.62</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B107">
-        <v>15851.63</v>
+        <v>4642</v>
       </c>
       <c r="C107">
         <v>3</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B108">
-        <v>33313.16</v>
+        <v>37009.74</v>
       </c>
       <c r="C108">
         <v>3</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B109">
-        <v>23394.13</v>
+        <v>15851.63</v>
       </c>
       <c r="C109">
         <v>3</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B110">
-        <v>17765.24</v>
+        <v>33313.16</v>
       </c>
       <c r="C110">
         <v>3</v>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B111">
-        <v>21750.9</v>
+        <v>23394.13</v>
       </c>
       <c r="C111">
         <v>3</v>
@@ -2293,10 +2293,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B112">
-        <v>5923.91</v>
+        <v>17765.24</v>
       </c>
       <c r="C112">
         <v>3</v>
@@ -2310,10 +2310,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B113">
-        <v>23370.46</v>
+        <v>21750.9</v>
       </c>
       <c r="C113">
         <v>3</v>
@@ -2327,10 +2327,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B114">
-        <v>27227.58</v>
+        <v>5923.91</v>
       </c>
       <c r="C114">
         <v>3</v>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B115">
-        <v>20282.52</v>
+        <v>23370.46</v>
       </c>
       <c r="C115">
         <v>3</v>
@@ -2361,10 +2361,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B116">
-        <v>19695.38</v>
+        <v>27227.58</v>
       </c>
       <c r="C116">
         <v>3</v>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B117">
-        <v>17250.36</v>
+        <v>20282.52</v>
       </c>
       <c r="C117">
         <v>3</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B118">
-        <v>15973.05</v>
+        <v>19695.38</v>
       </c>
       <c r="C118">
         <v>3</v>
@@ -2412,10 +2412,10 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B119">
-        <v>6906.9</v>
+        <v>17250.36</v>
       </c>
       <c r="C119">
         <v>3</v>
@@ -2429,18 +2429,52 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120">
+        <v>29</v>
+      </c>
+      <c r="B120">
+        <v>15973.05</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+      <c r="D120">
+        <v>2025</v>
+      </c>
+      <c r="E120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>30</v>
+      </c>
+      <c r="B121">
+        <v>6906.9</v>
+      </c>
+      <c r="C121">
+        <v>3</v>
+      </c>
+      <c r="D121">
+        <v>2025</v>
+      </c>
+      <c r="E121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
         <v>31</v>
       </c>
-      <c r="B120">
+      <c r="B122">
         <v>24267.47</v>
       </c>
-      <c r="C120">
-        <v>3</v>
-      </c>
-      <c r="D120">
-        <v>2025</v>
-      </c>
-      <c r="E120" t="s">
+      <c r="C122">
+        <v>3</v>
+      </c>
+      <c r="D122">
+        <v>2025</v>
+      </c>
+      <c r="E122" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="8">
   <si>
     <t>Dia</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>04/2025</t>
-  </si>
-  <si>
-    <t>03/2025</t>
   </si>
 </sst>
 </file>
@@ -398,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -916,27 +913,27 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>17056.87</v>
+        <v>24329.12</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D31">
         <v>2025</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +947,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +964,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +981,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +998,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1015,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1032,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1049,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1066,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1083,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1100,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1117,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1134,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1151,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B45">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1168,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1185,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1202,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1219,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B49">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1236,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B50">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1253,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B51">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1270,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B52">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1287,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B53">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1304,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B54">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1321,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B55">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1338,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B56">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1355,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B57">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1372,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B58">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1389,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B59">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1406,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B60">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1423,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B61">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,27 +1440,27 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B62">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62">
         <v>2025</v>
       </c>
       <c r="E62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1474,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B64">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1491,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B65">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1508,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B66">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1525,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B67">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1542,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B68">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1559,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B69">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1576,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B70">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1593,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B71">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,10 +1610,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B72">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,10 +1627,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B73">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1647,10 +1644,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B74">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1664,10 +1661,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B75">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1681,10 +1678,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B76">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -1698,10 +1695,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B77">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -1715,10 +1712,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B78">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -1732,10 +1729,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B79">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -1749,10 +1746,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B80">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -1766,10 +1763,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B81">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -1783,10 +1780,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B82">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -1800,10 +1797,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B83">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -1817,10 +1814,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B84">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -1834,10 +1831,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B85">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -1851,10 +1848,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B86">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -1868,10 +1865,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B87">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -1885,10 +1882,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B88">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -1902,10 +1899,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B89">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -1919,10 +1916,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B90">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -1936,10 +1933,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B91">
-        <v>24773.88</v>
+        <v>21976.8</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -1953,529 +1950,19 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B92">
-        <v>13803.81</v>
+        <v>24773.88</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92">
         <v>2025</v>
       </c>
       <c r="E92" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93">
-        <v>2</v>
-      </c>
-      <c r="B93">
-        <v>4705.9</v>
-      </c>
-      <c r="C93">
-        <v>3</v>
-      </c>
-      <c r="D93">
-        <v>2025</v>
-      </c>
-      <c r="E93" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94">
-        <v>3</v>
-      </c>
-      <c r="B94">
-        <v>16680.45</v>
-      </c>
-      <c r="C94">
-        <v>3</v>
-      </c>
-      <c r="D94">
-        <v>2025</v>
-      </c>
-      <c r="E94" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95">
-        <v>4</v>
-      </c>
-      <c r="B95">
-        <v>7657.8</v>
-      </c>
-      <c r="C95">
-        <v>3</v>
-      </c>
-      <c r="D95">
-        <v>2025</v>
-      </c>
-      <c r="E95" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96">
-        <v>5</v>
-      </c>
-      <c r="B96">
-        <v>37984.79</v>
-      </c>
-      <c r="C96">
-        <v>3</v>
-      </c>
-      <c r="D96">
-        <v>2025</v>
-      </c>
-      <c r="E96" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97">
-        <v>6</v>
-      </c>
-      <c r="B97">
-        <v>19791.3</v>
-      </c>
-      <c r="C97">
-        <v>3</v>
-      </c>
-      <c r="D97">
-        <v>2025</v>
-      </c>
-      <c r="E97" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98">
-        <v>7</v>
-      </c>
-      <c r="B98">
-        <v>51663.12</v>
-      </c>
-      <c r="C98">
-        <v>3</v>
-      </c>
-      <c r="D98">
-        <v>2025</v>
-      </c>
-      <c r="E98" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99">
-        <v>8</v>
-      </c>
-      <c r="B99">
-        <v>14212.1</v>
-      </c>
-      <c r="C99">
-        <v>3</v>
-      </c>
-      <c r="D99">
-        <v>2025</v>
-      </c>
-      <c r="E99" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100">
-        <v>9</v>
-      </c>
-      <c r="B100">
-        <v>8836.049999999999</v>
-      </c>
-      <c r="C100">
-        <v>3</v>
-      </c>
-      <c r="D100">
-        <v>2025</v>
-      </c>
-      <c r="E100" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101">
-        <v>10</v>
-      </c>
-      <c r="B101">
-        <v>38138.8</v>
-      </c>
-      <c r="C101">
-        <v>3</v>
-      </c>
-      <c r="D101">
-        <v>2025</v>
-      </c>
-      <c r="E101" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102">
-        <v>11</v>
-      </c>
-      <c r="B102">
-        <v>30745.57</v>
-      </c>
-      <c r="C102">
-        <v>3</v>
-      </c>
-      <c r="D102">
-        <v>2025</v>
-      </c>
-      <c r="E102" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103">
-        <v>12</v>
-      </c>
-      <c r="B103">
-        <v>44416.44</v>
-      </c>
-      <c r="C103">
-        <v>3</v>
-      </c>
-      <c r="D103">
-        <v>2025</v>
-      </c>
-      <c r="E103" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104">
-        <v>13</v>
-      </c>
-      <c r="B104">
-        <v>20045.79</v>
-      </c>
-      <c r="C104">
-        <v>3</v>
-      </c>
-      <c r="D104">
-        <v>2025</v>
-      </c>
-      <c r="E104" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105">
-        <v>14</v>
-      </c>
-      <c r="B105">
-        <v>23677.64</v>
-      </c>
-      <c r="C105">
-        <v>3</v>
-      </c>
-      <c r="D105">
-        <v>2025</v>
-      </c>
-      <c r="E105" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106">
-        <v>15</v>
-      </c>
-      <c r="B106">
-        <v>23636.62</v>
-      </c>
-      <c r="C106">
-        <v>3</v>
-      </c>
-      <c r="D106">
-        <v>2025</v>
-      </c>
-      <c r="E106" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107">
-        <v>16</v>
-      </c>
-      <c r="B107">
-        <v>4642</v>
-      </c>
-      <c r="C107">
-        <v>3</v>
-      </c>
-      <c r="D107">
-        <v>2025</v>
-      </c>
-      <c r="E107" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108">
-        <v>17</v>
-      </c>
-      <c r="B108">
-        <v>37009.74</v>
-      </c>
-      <c r="C108">
-        <v>3</v>
-      </c>
-      <c r="D108">
-        <v>2025</v>
-      </c>
-      <c r="E108" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109">
-        <v>18</v>
-      </c>
-      <c r="B109">
-        <v>15851.63</v>
-      </c>
-      <c r="C109">
-        <v>3</v>
-      </c>
-      <c r="D109">
-        <v>2025</v>
-      </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110">
-        <v>19</v>
-      </c>
-      <c r="B110">
-        <v>33313.16</v>
-      </c>
-      <c r="C110">
-        <v>3</v>
-      </c>
-      <c r="D110">
-        <v>2025</v>
-      </c>
-      <c r="E110" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111">
-        <v>20</v>
-      </c>
-      <c r="B111">
-        <v>23394.13</v>
-      </c>
-      <c r="C111">
-        <v>3</v>
-      </c>
-      <c r="D111">
-        <v>2025</v>
-      </c>
-      <c r="E111" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112">
-        <v>21</v>
-      </c>
-      <c r="B112">
-        <v>17765.24</v>
-      </c>
-      <c r="C112">
-        <v>3</v>
-      </c>
-      <c r="D112">
-        <v>2025</v>
-      </c>
-      <c r="E112" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113">
-        <v>22</v>
-      </c>
-      <c r="B113">
-        <v>21750.9</v>
-      </c>
-      <c r="C113">
-        <v>3</v>
-      </c>
-      <c r="D113">
-        <v>2025</v>
-      </c>
-      <c r="E113" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114">
-        <v>23</v>
-      </c>
-      <c r="B114">
-        <v>5923.91</v>
-      </c>
-      <c r="C114">
-        <v>3</v>
-      </c>
-      <c r="D114">
-        <v>2025</v>
-      </c>
-      <c r="E114" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115">
-        <v>24</v>
-      </c>
-      <c r="B115">
-        <v>23370.46</v>
-      </c>
-      <c r="C115">
-        <v>3</v>
-      </c>
-      <c r="D115">
-        <v>2025</v>
-      </c>
-      <c r="E115" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116">
-        <v>25</v>
-      </c>
-      <c r="B116">
-        <v>27227.58</v>
-      </c>
-      <c r="C116">
-        <v>3</v>
-      </c>
-      <c r="D116">
-        <v>2025</v>
-      </c>
-      <c r="E116" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117">
-        <v>26</v>
-      </c>
-      <c r="B117">
-        <v>20282.52</v>
-      </c>
-      <c r="C117">
-        <v>3</v>
-      </c>
-      <c r="D117">
-        <v>2025</v>
-      </c>
-      <c r="E117" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118">
-        <v>27</v>
-      </c>
-      <c r="B118">
-        <v>19695.38</v>
-      </c>
-      <c r="C118">
-        <v>3</v>
-      </c>
-      <c r="D118">
-        <v>2025</v>
-      </c>
-      <c r="E118" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119">
-        <v>28</v>
-      </c>
-      <c r="B119">
-        <v>17250.36</v>
-      </c>
-      <c r="C119">
-        <v>3</v>
-      </c>
-      <c r="D119">
-        <v>2025</v>
-      </c>
-      <c r="E119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120">
-        <v>29</v>
-      </c>
-      <c r="B120">
-        <v>15973.05</v>
-      </c>
-      <c r="C120">
-        <v>3</v>
-      </c>
-      <c r="D120">
-        <v>2025</v>
-      </c>
-      <c r="E120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121">
-        <v>30</v>
-      </c>
-      <c r="B121">
-        <v>6906.9</v>
-      </c>
-      <c r="C121">
-        <v>3</v>
-      </c>
-      <c r="D121">
-        <v>2025</v>
-      </c>
-      <c r="E121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122">
-        <v>31</v>
-      </c>
-      <c r="B122">
-        <v>24267.47</v>
-      </c>
-      <c r="C122">
-        <v>3</v>
-      </c>
-      <c r="D122">
-        <v>2025</v>
-      </c>
-      <c r="E122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Período</t>
+  </si>
+  <si>
+    <t>07/2025</t>
   </si>
   <si>
     <t>06/2025</t>
@@ -395,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,10 +426,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5140.01</v>
+        <v>17229.16</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>2025</v>
@@ -437,10 +440,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>27797.8</v>
+        <v>5140.01</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -449,15 +452,15 @@
         <v>2025</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>25236.75</v>
+        <v>27797.8</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -466,15 +469,15 @@
         <v>2025</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>36189.46</v>
+        <v>25236.75</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -483,15 +486,15 @@
         <v>2025</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>21643.35</v>
+        <v>36189.46</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -500,15 +503,15 @@
         <v>2025</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>15533.91</v>
+        <v>21643.35</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -517,15 +520,15 @@
         <v>2025</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>19035.4</v>
+        <v>15533.91</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -534,15 +537,15 @@
         <v>2025</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>4942.9</v>
+        <v>19035.4</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -551,15 +554,15 @@
         <v>2025</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>23856.87</v>
+        <v>4942.9</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -568,15 +571,15 @@
         <v>2025</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>31200</v>
+        <v>23856.87</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -585,15 +588,15 @@
         <v>2025</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>33164.36</v>
+        <v>31200</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -602,15 +605,15 @@
         <v>2025</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>38843.63</v>
+        <v>33164.36</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -619,15 +622,15 @@
         <v>2025</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>22435.29</v>
+        <v>38843.63</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -636,15 +639,15 @@
         <v>2025</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>27509.4</v>
+        <v>22435.29</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -653,15 +656,15 @@
         <v>2025</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>4621.42</v>
+        <v>27509.4</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -670,15 +673,15 @@
         <v>2025</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>28514.4</v>
+        <v>4621.42</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -687,15 +690,15 @@
         <v>2025</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>18098.79</v>
+        <v>28514.4</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -704,15 +707,15 @@
         <v>2025</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>27037.48</v>
+        <v>18098.79</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -721,15 +724,15 @@
         <v>2025</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>17122.67</v>
+        <v>27037.48</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -738,15 +741,15 @@
         <v>2025</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>17622.85</v>
+        <v>17122.67</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -755,15 +758,15 @@
         <v>2025</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>13501.01</v>
+        <v>17622.85</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -772,15 +775,15 @@
         <v>2025</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>4054.5</v>
+        <v>13501.01</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -789,15 +792,15 @@
         <v>2025</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>25183.26</v>
+        <v>4054.5</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -806,15 +809,15 @@
         <v>2025</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>22602.82</v>
+        <v>25183.26</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -823,15 +826,15 @@
         <v>2025</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>20180.46</v>
+        <v>22602.82</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -840,15 +843,15 @@
         <v>2025</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>37345.11</v>
+        <v>20180.46</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -857,15 +860,15 @@
         <v>2025</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>24519.52</v>
+        <v>37345.11</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -874,15 +877,15 @@
         <v>2025</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>10903.9</v>
+        <v>24519.52</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -891,15 +894,15 @@
         <v>2025</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>6129.8</v>
+        <v>10903.9</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -908,15 +911,15 @@
         <v>2025</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>24329.12</v>
+        <v>6129.8</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -925,18 +928,18 @@
         <v>2025</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>17056.87</v>
+        <v>24329.12</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32">
         <v>2025</v>
@@ -947,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -959,15 +962,15 @@
         <v>2025</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -976,15 +979,15 @@
         <v>2025</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -993,15 +996,15 @@
         <v>2025</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1010,15 +1013,15 @@
         <v>2025</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1027,15 +1030,15 @@
         <v>2025</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1044,15 +1047,15 @@
         <v>2025</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1061,15 +1064,15 @@
         <v>2025</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1078,15 +1081,15 @@
         <v>2025</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1095,15 +1098,15 @@
         <v>2025</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1112,15 +1115,15 @@
         <v>2025</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B43">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1129,15 +1132,15 @@
         <v>2025</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1146,15 +1149,15 @@
         <v>2025</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B45">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1163,15 +1166,15 @@
         <v>2025</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B46">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1180,15 +1183,15 @@
         <v>2025</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B47">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1197,15 +1200,15 @@
         <v>2025</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B48">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1214,15 +1217,15 @@
         <v>2025</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B49">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1231,15 +1234,15 @@
         <v>2025</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B50">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1248,15 +1251,15 @@
         <v>2025</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B51">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1265,15 +1268,15 @@
         <v>2025</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B52">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1282,15 +1285,15 @@
         <v>2025</v>
       </c>
       <c r="E52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B53">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1299,15 +1302,15 @@
         <v>2025</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B54">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1316,15 +1319,15 @@
         <v>2025</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B55">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1333,15 +1336,15 @@
         <v>2025</v>
       </c>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B56">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1350,15 +1353,15 @@
         <v>2025</v>
       </c>
       <c r="E56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B57">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1367,15 +1370,15 @@
         <v>2025</v>
       </c>
       <c r="E57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B58">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1384,15 +1387,15 @@
         <v>2025</v>
       </c>
       <c r="E58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B59">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1401,15 +1404,15 @@
         <v>2025</v>
       </c>
       <c r="E59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B60">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1418,15 +1421,15 @@
         <v>2025</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B61">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1435,15 +1438,15 @@
         <v>2025</v>
       </c>
       <c r="E61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B62">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1452,18 +1455,18 @@
         <v>2025</v>
       </c>
       <c r="E62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B63">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63">
         <v>2025</v>
@@ -1474,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B64">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1486,15 +1489,15 @@
         <v>2025</v>
       </c>
       <c r="E64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B65">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1503,15 +1506,15 @@
         <v>2025</v>
       </c>
       <c r="E65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B66">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1520,15 +1523,15 @@
         <v>2025</v>
       </c>
       <c r="E66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B67">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1537,15 +1540,15 @@
         <v>2025</v>
       </c>
       <c r="E67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B68">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1554,15 +1557,15 @@
         <v>2025</v>
       </c>
       <c r="E68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B69">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1571,15 +1574,15 @@
         <v>2025</v>
       </c>
       <c r="E69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B70">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1588,15 +1591,15 @@
         <v>2025</v>
       </c>
       <c r="E70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B71">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1605,15 +1608,15 @@
         <v>2025</v>
       </c>
       <c r="E71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B72">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1622,15 +1625,15 @@
         <v>2025</v>
       </c>
       <c r="E72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B73">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1639,15 +1642,15 @@
         <v>2025</v>
       </c>
       <c r="E73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B74">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1656,15 +1659,15 @@
         <v>2025</v>
       </c>
       <c r="E74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B75">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1673,15 +1676,15 @@
         <v>2025</v>
       </c>
       <c r="E75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B76">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -1690,15 +1693,15 @@
         <v>2025</v>
       </c>
       <c r="E76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B77">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -1707,15 +1710,15 @@
         <v>2025</v>
       </c>
       <c r="E77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B78">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -1724,15 +1727,15 @@
         <v>2025</v>
       </c>
       <c r="E78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B79">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -1741,15 +1744,15 @@
         <v>2025</v>
       </c>
       <c r="E79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B80">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -1758,15 +1761,15 @@
         <v>2025</v>
       </c>
       <c r="E80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B81">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -1775,15 +1778,15 @@
         <v>2025</v>
       </c>
       <c r="E81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B82">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -1792,15 +1795,15 @@
         <v>2025</v>
       </c>
       <c r="E82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B83">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -1809,15 +1812,15 @@
         <v>2025</v>
       </c>
       <c r="E83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B84">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -1826,15 +1829,15 @@
         <v>2025</v>
       </c>
       <c r="E84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B85">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -1843,15 +1846,15 @@
         <v>2025</v>
       </c>
       <c r="E85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B86">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -1860,15 +1863,15 @@
         <v>2025</v>
       </c>
       <c r="E86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B87">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -1877,15 +1880,15 @@
         <v>2025</v>
       </c>
       <c r="E87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B88">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -1894,15 +1897,15 @@
         <v>2025</v>
       </c>
       <c r="E88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B89">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -1911,15 +1914,15 @@
         <v>2025</v>
       </c>
       <c r="E89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B90">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -1928,15 +1931,15 @@
         <v>2025</v>
       </c>
       <c r="E90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B91">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -1945,24 +1948,41 @@
         <v>2025</v>
       </c>
       <c r="E91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
+        <v>29</v>
+      </c>
+      <c r="B92">
+        <v>21976.8</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+      <c r="D92">
+        <v>2025</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
         <v>30</v>
       </c>
-      <c r="B92">
+      <c r="B93">
         <v>24773.88</v>
       </c>
-      <c r="C92">
-        <v>4</v>
-      </c>
-      <c r="D92">
-        <v>2025</v>
-      </c>
-      <c r="E92" t="s">
-        <v>7</v>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>2025</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>17229.16</v>
+        <v>17734.16</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -440,27 +440,27 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>5140.01</v>
+        <v>20464.65</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>2025</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>27797.8</v>
+        <v>5140.01</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -474,10 +474,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>25236.75</v>
+        <v>27797.8</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -491,10 +491,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>36189.46</v>
+        <v>25236.75</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -508,10 +508,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>21643.35</v>
+        <v>36189.46</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>15533.91</v>
+        <v>21643.35</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>19035.4</v>
+        <v>15533.91</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>4942.9</v>
+        <v>19035.4</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>23856.87</v>
+        <v>4942.9</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>31200</v>
+        <v>23856.87</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>33164.36</v>
+        <v>31200</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>38843.63</v>
+        <v>33164.36</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>22435.29</v>
+        <v>38843.63</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>27509.4</v>
+        <v>22435.29</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>4621.42</v>
+        <v>27509.4</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>28514.4</v>
+        <v>4621.42</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>18098.79</v>
+        <v>28514.4</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>27037.48</v>
+        <v>18098.79</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>17122.67</v>
+        <v>27037.48</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22">
-        <v>17622.85</v>
+        <v>17122.67</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
-        <v>13501.01</v>
+        <v>17622.85</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
-        <v>4054.5</v>
+        <v>13501.01</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
-        <v>25183.26</v>
+        <v>4054.5</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
-        <v>22602.82</v>
+        <v>25183.26</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27">
-        <v>20180.46</v>
+        <v>22602.82</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28">
-        <v>37345.11</v>
+        <v>20180.46</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29">
-        <v>24519.52</v>
+        <v>37345.11</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30">
-        <v>10903.9</v>
+        <v>24519.52</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31">
-        <v>6129.8</v>
+        <v>10903.9</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32">
-        <v>24329.12</v>
+        <v>6129.8</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,27 +950,27 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B33">
-        <v>17056.87</v>
+        <v>24329.12</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D33">
         <v>2025</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B41">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B46">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B47">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B49">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B50">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B51">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B52">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B53">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B54">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B55">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B56">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B57">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B58">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B59">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B60">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B61">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B62">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B63">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,27 +1477,27 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B64">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64">
         <v>2025</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B66">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B67">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B68">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B69">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B70">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B71">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B72">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B73">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B74">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B75">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B76">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B77">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B78">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B79">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B80">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B81">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B82">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B83">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B84">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B85">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B86">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B87">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B88">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B89">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B90">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B91">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B92">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -1970,18 +1970,35 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
+        <v>29</v>
+      </c>
+      <c r="B93">
+        <v>21976.8</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>2025</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
         <v>30</v>
       </c>
-      <c r="B93">
+      <c r="B94">
         <v>24773.88</v>
       </c>
-      <c r="C93">
-        <v>4</v>
-      </c>
-      <c r="D93">
-        <v>2025</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>2025</v>
+      </c>
+      <c r="E94" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -443,7 +443,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20464.65</v>
+        <v>21194.65</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -457,27 +457,27 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>5140.01</v>
+        <v>22837.33</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>2025</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>27797.8</v>
+        <v>5140.01</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -491,10 +491,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>25236.75</v>
+        <v>27797.8</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -508,10 +508,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>36189.46</v>
+        <v>25236.75</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>21643.35</v>
+        <v>36189.46</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>15533.91</v>
+        <v>21643.35</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>19035.4</v>
+        <v>15533.91</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>4942.9</v>
+        <v>19035.4</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>23856.87</v>
+        <v>4942.9</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>31200</v>
+        <v>23856.87</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>33164.36</v>
+        <v>31200</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>38843.63</v>
+        <v>33164.36</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>22435.29</v>
+        <v>38843.63</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>27509.4</v>
+        <v>22435.29</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>4621.42</v>
+        <v>27509.4</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19">
-        <v>28514.4</v>
+        <v>4621.42</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>18098.79</v>
+        <v>28514.4</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
-        <v>27037.48</v>
+        <v>18098.79</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>17122.67</v>
+        <v>27037.48</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23">
-        <v>17622.85</v>
+        <v>17122.67</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24">
-        <v>13501.01</v>
+        <v>17622.85</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25">
-        <v>4054.5</v>
+        <v>13501.01</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <v>25183.26</v>
+        <v>4054.5</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27">
-        <v>22602.82</v>
+        <v>25183.26</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28">
-        <v>20180.46</v>
+        <v>22602.82</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29">
-        <v>37345.11</v>
+        <v>20180.46</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30">
-        <v>24519.52</v>
+        <v>37345.11</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31">
-        <v>10903.9</v>
+        <v>24519.52</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32">
-        <v>6129.8</v>
+        <v>10903.9</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33">
-        <v>24329.12</v>
+        <v>6129.8</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,27 +967,27 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B34">
-        <v>17056.87</v>
+        <v>24329.12</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34">
         <v>2025</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B42">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B45">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B47">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B48">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B49">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B50">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B51">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B52">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B53">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B54">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B55">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B56">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B57">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B58">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B59">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B60">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B61">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B62">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B63">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B64">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,27 +1494,27 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B65">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65">
         <v>2025</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B66">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B67">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B68">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B69">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B70">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B71">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B72">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B73">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B74">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B76">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B77">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B78">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B79">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B80">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B81">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B82">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B83">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B84">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B85">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B86">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B87">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B88">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B89">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B90">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B91">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B92">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B93">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -1987,18 +1987,35 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
+        <v>29</v>
+      </c>
+      <c r="B94">
+        <v>21976.8</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>2025</v>
+      </c>
+      <c r="E94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
         <v>30</v>
       </c>
-      <c r="B94">
+      <c r="B95">
         <v>24773.88</v>
       </c>
-      <c r="C94">
-        <v>4</v>
-      </c>
-      <c r="D94">
-        <v>2025</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>2025</v>
+      </c>
+      <c r="E95" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -460,7 +460,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>22837.33</v>
+        <v>22892.33</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -474,61 +474,61 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>5140.01</v>
+        <v>25204.24</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>2025</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>27797.8</v>
+        <v>15236.75</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>2025</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>25236.75</v>
+        <v>5666.65</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>2025</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>36189.46</v>
+        <v>5140.01</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>21643.35</v>
+        <v>27797.8</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>15533.91</v>
+        <v>25236.75</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>19035.4</v>
+        <v>36189.46</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>4942.9</v>
+        <v>21643.35</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>23856.87</v>
+        <v>15533.91</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>31200</v>
+        <v>19035.4</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B15">
-        <v>33164.36</v>
+        <v>4942.9</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B16">
-        <v>38843.63</v>
+        <v>23856.87</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B17">
-        <v>22435.29</v>
+        <v>31200</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>27509.4</v>
+        <v>33164.36</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>4621.42</v>
+        <v>38843.63</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>28514.4</v>
+        <v>22435.29</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B21">
-        <v>18098.79</v>
+        <v>27509.4</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>27037.48</v>
+        <v>4621.42</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B23">
-        <v>17122.67</v>
+        <v>28514.4</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B24">
-        <v>17622.85</v>
+        <v>18098.79</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B25">
-        <v>13501.01</v>
+        <v>27037.48</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B26">
-        <v>4054.5</v>
+        <v>17122.67</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B27">
-        <v>25183.26</v>
+        <v>17622.85</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B28">
-        <v>22602.82</v>
+        <v>13501.01</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B29">
-        <v>20180.46</v>
+        <v>4054.5</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B30">
-        <v>37345.11</v>
+        <v>25183.26</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B31">
-        <v>24519.52</v>
+        <v>22602.82</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B32">
-        <v>10903.9</v>
+        <v>20180.46</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B33">
-        <v>6129.8</v>
+        <v>37345.11</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B34">
-        <v>24329.12</v>
+        <v>24519.52</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,61 +984,61 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B35">
-        <v>17056.87</v>
+        <v>10903.9</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D35">
         <v>2025</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B36">
-        <v>22786.63</v>
+        <v>6129.8</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36">
         <v>2025</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B37">
-        <v>29255</v>
+        <v>24329.12</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D37">
         <v>2025</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B38">
-        <v>4370</v>
+        <v>17056.87</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B39">
-        <v>35402.64</v>
+        <v>22786.63</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B40">
-        <v>28248.43</v>
+        <v>29255</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B41">
-        <v>31437.91</v>
+        <v>4370</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B42">
-        <v>27732.15</v>
+        <v>35402.64</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B43">
-        <v>25508.17</v>
+        <v>28248.43</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B44">
-        <v>14802.01</v>
+        <v>31437.91</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B45">
-        <v>9776.9</v>
+        <v>27732.15</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B46">
-        <v>31420.44</v>
+        <v>25508.17</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B47">
-        <v>26531.86</v>
+        <v>14802.01</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B48">
-        <v>36574.18</v>
+        <v>9776.9</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B49">
-        <v>33940.79</v>
+        <v>31420.44</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B50">
-        <v>30498.76</v>
+        <v>26531.86</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B51">
-        <v>15120.8</v>
+        <v>36574.18</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B52">
-        <v>8085.01</v>
+        <v>33940.79</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B53">
-        <v>26923.67</v>
+        <v>30498.76</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B54">
-        <v>33090.3</v>
+        <v>15120.8</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B55">
-        <v>25994.16</v>
+        <v>8085.01</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B56">
-        <v>27147.29</v>
+        <v>26923.67</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B57">
-        <v>23820.29</v>
+        <v>33090.3</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B58">
-        <v>34922.72</v>
+        <v>25994.16</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B59">
-        <v>3824.9</v>
+        <v>27147.29</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B60">
-        <v>27831.77</v>
+        <v>23820.29</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B61">
-        <v>24156.31</v>
+        <v>34922.72</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B62">
-        <v>21718.63</v>
+        <v>3824.9</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B63">
-        <v>19445.75</v>
+        <v>27831.77</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B64">
-        <v>26951.12</v>
+        <v>24156.31</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B65">
-        <v>19327.9</v>
+        <v>21718.63</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,61 +1511,61 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B66">
-        <v>19371.37</v>
+        <v>19445.75</v>
       </c>
       <c r="C66">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66">
         <v>2025</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B67">
-        <v>29218.71</v>
+        <v>26951.12</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67">
         <v>2025</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B68">
-        <v>19819.3</v>
+        <v>19327.9</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68">
         <v>2025</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B69">
-        <v>25399.91</v>
+        <v>19371.37</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B70">
-        <v>18509.5</v>
+        <v>29218.71</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B71">
-        <v>5823.21</v>
+        <v>19819.3</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B72">
-        <v>21764.19</v>
+        <v>25399.91</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B73">
-        <v>38515.34</v>
+        <v>18509.5</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B74">
-        <v>21733.46</v>
+        <v>5823.21</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B75">
-        <v>25715.4</v>
+        <v>21764.19</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B76">
-        <v>22833.25</v>
+        <v>38515.34</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B77">
-        <v>21596.15</v>
+        <v>21733.46</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B78">
-        <v>6451</v>
+        <v>25715.4</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B79">
-        <v>24085.6</v>
+        <v>22833.25</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B80">
-        <v>15644.59</v>
+        <v>21596.15</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B81">
-        <v>18372.2</v>
+        <v>6451</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B82">
-        <v>23446.19</v>
+        <v>24085.6</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B83">
-        <v>15474.35</v>
+        <v>15644.59</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B84">
-        <v>9164.799999999999</v>
+        <v>18372.2</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B85">
-        <v>2719</v>
+        <v>23446.19</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B86">
-        <v>15666.86</v>
+        <v>15474.35</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B87">
-        <v>15219.82</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B88">
-        <v>19895.36</v>
+        <v>2719</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B89">
-        <v>19632.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B90">
-        <v>19212.07</v>
+        <v>15219.82</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B91">
-        <v>14442</v>
+        <v>19895.36</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B92">
-        <v>5289.3</v>
+        <v>19632.82</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B93">
-        <v>25680.18</v>
+        <v>19212.07</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B94">
-        <v>21976.8</v>
+        <v>14442</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -2004,18 +2004,69 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
+        <v>27</v>
+      </c>
+      <c r="B95">
+        <v>5289.3</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>2025</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>28</v>
+      </c>
+      <c r="B96">
+        <v>25680.18</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>2025</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>29</v>
+      </c>
+      <c r="B97">
+        <v>21976.8</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>2025</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
         <v>30</v>
       </c>
-      <c r="B95">
+      <c r="B98">
         <v>24773.88</v>
       </c>
-      <c r="C95">
-        <v>4</v>
-      </c>
-      <c r="D95">
-        <v>2025</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="C98">
+        <v>4</v>
+      </c>
+      <c r="D98">
+        <v>2025</v>
+      </c>
+      <c r="E98" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,27 +525,27 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>5140.01</v>
+        <v>19917.67</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>2025</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>27797.8</v>
+        <v>5140.01</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>25236.75</v>
+        <v>27797.8</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>36189.46</v>
+        <v>25236.75</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>21643.35</v>
+        <v>36189.46</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>15533.91</v>
+        <v>21643.35</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>19035.4</v>
+        <v>15533.91</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>4942.9</v>
+        <v>19035.4</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16">
-        <v>23856.87</v>
+        <v>4942.9</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17">
-        <v>31200</v>
+        <v>23856.87</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>33164.36</v>
+        <v>31200</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19">
-        <v>38843.63</v>
+        <v>33164.36</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20">
-        <v>22435.29</v>
+        <v>38843.63</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>27509.4</v>
+        <v>22435.29</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>4621.42</v>
+        <v>27509.4</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23">
-        <v>28514.4</v>
+        <v>4621.42</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>18098.79</v>
+        <v>28514.4</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25">
-        <v>27037.48</v>
+        <v>18098.79</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26">
-        <v>17122.67</v>
+        <v>27037.48</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27">
-        <v>17622.85</v>
+        <v>17122.67</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28">
-        <v>13501.01</v>
+        <v>17622.85</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29">
-        <v>4054.5</v>
+        <v>13501.01</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30">
-        <v>25183.26</v>
+        <v>4054.5</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31">
-        <v>22602.82</v>
+        <v>25183.26</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32">
-        <v>20180.46</v>
+        <v>22602.82</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33">
-        <v>37345.11</v>
+        <v>20180.46</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34">
-        <v>24519.52</v>
+        <v>37345.11</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35">
-        <v>10903.9</v>
+        <v>24519.52</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36">
-        <v>6129.8</v>
+        <v>10903.9</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37">
-        <v>24329.12</v>
+        <v>6129.8</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,27 +1035,27 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B38">
-        <v>17056.87</v>
+        <v>24329.12</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D38">
         <v>2025</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B46">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B47">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B49">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B50">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B51">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B52">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B53">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B54">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B55">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B56">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B57">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B58">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B59">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B60">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B61">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B62">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B63">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B64">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B65">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B66">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B68">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1562,27 +1562,27 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B69">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69">
         <v>2025</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B70">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B71">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B72">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B73">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B74">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B75">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B76">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B77">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B78">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B79">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B80">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B81">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B82">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B83">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B84">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B85">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B86">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B87">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B88">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B89">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B90">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B91">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B92">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B93">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B94">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B95">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B96">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B97">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -2055,18 +2055,35 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
+        <v>29</v>
+      </c>
+      <c r="B98">
+        <v>21976.8</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+      <c r="D98">
+        <v>2025</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
         <v>30</v>
       </c>
-      <c r="B98">
+      <c r="B99">
         <v>24773.88</v>
       </c>
-      <c r="C98">
-        <v>4</v>
-      </c>
-      <c r="D98">
-        <v>2025</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="C99">
+        <v>4</v>
+      </c>
+      <c r="D99">
+        <v>2025</v>
+      </c>
+      <c r="E99" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>19917.67</v>
+        <v>21527.67</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -542,27 +542,27 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>5140.01</v>
+        <v>17965.81</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>2025</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>27797.8</v>
+        <v>5140.01</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>25236.75</v>
+        <v>27797.8</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>36189.46</v>
+        <v>25236.75</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>21643.35</v>
+        <v>36189.46</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>15533.91</v>
+        <v>21643.35</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>19035.4</v>
+        <v>15533.91</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>4942.9</v>
+        <v>19035.4</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17">
-        <v>23856.87</v>
+        <v>4942.9</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18">
-        <v>31200</v>
+        <v>23856.87</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19">
-        <v>33164.36</v>
+        <v>31200</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20">
-        <v>38843.63</v>
+        <v>33164.36</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>22435.29</v>
+        <v>38843.63</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22">
-        <v>27509.4</v>
+        <v>22435.29</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23">
-        <v>4621.42</v>
+        <v>27509.4</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24">
-        <v>28514.4</v>
+        <v>4621.42</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>18098.79</v>
+        <v>28514.4</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26">
-        <v>27037.48</v>
+        <v>18098.79</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27">
-        <v>17122.67</v>
+        <v>27037.48</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28">
-        <v>17622.85</v>
+        <v>17122.67</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29">
-        <v>13501.01</v>
+        <v>17622.85</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30">
-        <v>4054.5</v>
+        <v>13501.01</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31">
-        <v>25183.26</v>
+        <v>4054.5</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32">
-        <v>22602.82</v>
+        <v>25183.26</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33">
-        <v>20180.46</v>
+        <v>22602.82</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34">
-        <v>37345.11</v>
+        <v>20180.46</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35">
-        <v>24519.52</v>
+        <v>37345.11</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36">
-        <v>10903.9</v>
+        <v>24519.52</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37">
-        <v>6129.8</v>
+        <v>10903.9</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38">
-        <v>24329.12</v>
+        <v>6129.8</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,27 +1052,27 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B39">
-        <v>17056.87</v>
+        <v>24329.12</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D39">
         <v>2025</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B47">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B48">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B50">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B51">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B52">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B53">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B54">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B55">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B56">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B57">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B58">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B59">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B60">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B61">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B62">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B63">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B64">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B65">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B66">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B67">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B68">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B69">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1579,27 +1579,27 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B70">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70">
         <v>2025</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B71">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B72">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B73">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B74">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B75">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B76">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B77">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B78">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B79">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B80">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B81">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B82">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B83">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B84">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B85">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B86">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B87">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B88">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B89">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B90">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B91">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B92">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B93">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B94">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B95">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B96">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B97">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B98">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C98">
         <v>4</v>
@@ -2072,18 +2072,35 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
+        <v>29</v>
+      </c>
+      <c r="B99">
+        <v>21976.8</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+      <c r="D99">
+        <v>2025</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
         <v>30</v>
       </c>
-      <c r="B99">
+      <c r="B100">
         <v>24773.88</v>
       </c>
-      <c r="C99">
-        <v>4</v>
-      </c>
-      <c r="D99">
-        <v>2025</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>2025</v>
+      </c>
+      <c r="E100" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,27 +559,27 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>5140.01</v>
+        <v>18313.97</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>2025</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>27797.8</v>
+        <v>5140.01</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>25236.75</v>
+        <v>27797.8</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>36189.46</v>
+        <v>25236.75</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>21643.35</v>
+        <v>36189.46</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>15533.91</v>
+        <v>21643.35</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>19035.4</v>
+        <v>15533.91</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>4942.9</v>
+        <v>19035.4</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>23856.87</v>
+        <v>4942.9</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <v>31200</v>
+        <v>23856.87</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>33164.36</v>
+        <v>31200</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21">
-        <v>38843.63</v>
+        <v>33164.36</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>22435.29</v>
+        <v>38843.63</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23">
-        <v>27509.4</v>
+        <v>22435.29</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>4621.42</v>
+        <v>27509.4</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25">
-        <v>28514.4</v>
+        <v>4621.42</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>18098.79</v>
+        <v>28514.4</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27">
-        <v>27037.48</v>
+        <v>18098.79</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28">
-        <v>17122.67</v>
+        <v>27037.48</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29">
-        <v>17622.85</v>
+        <v>17122.67</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30">
-        <v>13501.01</v>
+        <v>17622.85</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31">
-        <v>4054.5</v>
+        <v>13501.01</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32">
-        <v>25183.26</v>
+        <v>4054.5</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33">
-        <v>22602.82</v>
+        <v>25183.26</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34">
-        <v>20180.46</v>
+        <v>22602.82</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35">
-        <v>37345.11</v>
+        <v>20180.46</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36">
-        <v>24519.52</v>
+        <v>37345.11</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37">
-        <v>10903.9</v>
+        <v>24519.52</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38">
-        <v>6129.8</v>
+        <v>10903.9</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B39">
-        <v>24329.12</v>
+        <v>6129.8</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,27 +1069,27 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B40">
-        <v>17056.87</v>
+        <v>24329.12</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D40">
         <v>2025</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B51">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B53">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B54">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B55">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B56">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B57">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B58">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B59">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B60">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B61">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B62">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B63">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B64">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B65">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B66">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B67">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B68">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B69">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B70">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -1596,27 +1596,27 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B71">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71">
         <v>2025</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B72">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B73">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B74">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B75">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B76">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B77">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B79">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B80">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B81">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B82">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B83">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B84">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B85">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B86">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B87">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B88">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B89">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B90">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B91">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B92">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B93">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B94">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B95">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B96">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B97">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B98">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C98">
         <v>4</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B99">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C99">
         <v>4</v>
@@ -2089,18 +2089,35 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
+        <v>29</v>
+      </c>
+      <c r="B100">
+        <v>21976.8</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>2025</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
         <v>30</v>
       </c>
-      <c r="B100">
+      <c r="B101">
         <v>24773.88</v>
       </c>
-      <c r="C100">
-        <v>4</v>
-      </c>
-      <c r="D100">
-        <v>2025</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>2025</v>
+      </c>
+      <c r="E101" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -576,27 +576,27 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>5140.01</v>
+        <v>21266</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>2025</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>27797.8</v>
+        <v>5140.01</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>25236.75</v>
+        <v>27797.8</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>36189.46</v>
+        <v>25236.75</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15">
-        <v>21643.35</v>
+        <v>36189.46</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16">
-        <v>15533.91</v>
+        <v>21643.35</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17">
-        <v>19035.4</v>
+        <v>15533.91</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>4942.9</v>
+        <v>19035.4</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>23856.87</v>
+        <v>4942.9</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20">
-        <v>31200</v>
+        <v>23856.87</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>33164.36</v>
+        <v>31200</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22">
-        <v>38843.63</v>
+        <v>33164.36</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>22435.29</v>
+        <v>38843.63</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24">
-        <v>27509.4</v>
+        <v>22435.29</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25">
-        <v>4621.42</v>
+        <v>27509.4</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26">
-        <v>28514.4</v>
+        <v>4621.42</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27">
-        <v>18098.79</v>
+        <v>28514.4</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28">
-        <v>27037.48</v>
+        <v>18098.79</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29">
-        <v>17122.67</v>
+        <v>27037.48</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30">
-        <v>17622.85</v>
+        <v>17122.67</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31">
-        <v>13501.01</v>
+        <v>17622.85</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32">
-        <v>4054.5</v>
+        <v>13501.01</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33">
-        <v>25183.26</v>
+        <v>4054.5</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34">
-        <v>22602.82</v>
+        <v>25183.26</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35">
-        <v>20180.46</v>
+        <v>22602.82</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36">
-        <v>37345.11</v>
+        <v>20180.46</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37">
-        <v>24519.52</v>
+        <v>37345.11</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38">
-        <v>10903.9</v>
+        <v>24519.52</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B39">
-        <v>6129.8</v>
+        <v>10903.9</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B40">
-        <v>24329.12</v>
+        <v>6129.8</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,27 +1086,27 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B41">
-        <v>17056.87</v>
+        <v>24329.12</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D41">
         <v>2025</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B49">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B50">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B52">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B53">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B54">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B55">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B56">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B57">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B58">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B59">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B60">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B61">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B62">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B63">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B64">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B65">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B66">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B67">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B68">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B69">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B70">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B71">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -1613,27 +1613,27 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B72">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72">
         <v>2025</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B73">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B74">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B75">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B76">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B77">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B78">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B79">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B80">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B81">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B82">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B83">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B84">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B85">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B86">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B87">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B88">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B89">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B90">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B91">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B92">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B93">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B94">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B95">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B96">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B97">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B98">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C98">
         <v>4</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B99">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C99">
         <v>4</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B100">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -2106,18 +2106,35 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
+        <v>29</v>
+      </c>
+      <c r="B101">
+        <v>21976.8</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>2025</v>
+      </c>
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
         <v>30</v>
       </c>
-      <c r="B101">
+      <c r="B102">
         <v>24773.88</v>
       </c>
-      <c r="C101">
-        <v>4</v>
-      </c>
-      <c r="D101">
-        <v>2025</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>2025</v>
+      </c>
+      <c r="E102" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -593,61 +593,61 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>5140.01</v>
+        <v>25398.22</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>2025</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>27797.8</v>
+        <v>10045.9</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>2025</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>25236.75</v>
+        <v>2989.9</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>2025</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>36189.46</v>
+        <v>5140.01</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>21643.35</v>
+        <v>27797.8</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>15533.91</v>
+        <v>25236.75</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B18">
-        <v>19035.4</v>
+        <v>36189.46</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>4942.9</v>
+        <v>21643.35</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B20">
-        <v>23856.87</v>
+        <v>15533.91</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>31200</v>
+        <v>19035.4</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B22">
-        <v>33164.36</v>
+        <v>4942.9</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B23">
-        <v>38843.63</v>
+        <v>23856.87</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B24">
-        <v>22435.29</v>
+        <v>31200</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B25">
-        <v>27509.4</v>
+        <v>33164.36</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B26">
-        <v>4621.42</v>
+        <v>38843.63</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B27">
-        <v>28514.4</v>
+        <v>22435.29</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B28">
-        <v>18098.79</v>
+        <v>27509.4</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B29">
-        <v>27037.48</v>
+        <v>4621.42</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B30">
-        <v>17122.67</v>
+        <v>28514.4</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B31">
-        <v>17622.85</v>
+        <v>18098.79</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B32">
-        <v>13501.01</v>
+        <v>27037.48</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B33">
-        <v>4054.5</v>
+        <v>17122.67</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B34">
-        <v>25183.26</v>
+        <v>17622.85</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B35">
-        <v>22602.82</v>
+        <v>13501.01</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B36">
-        <v>20180.46</v>
+        <v>4054.5</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B37">
-        <v>37345.11</v>
+        <v>25183.26</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B38">
-        <v>24519.52</v>
+        <v>22602.82</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B39">
-        <v>10903.9</v>
+        <v>20180.46</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B40">
-        <v>6129.8</v>
+        <v>37345.11</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B41">
-        <v>24329.12</v>
+        <v>24519.52</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,61 +1103,61 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B42">
-        <v>17056.87</v>
+        <v>10903.9</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D42">
         <v>2025</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B43">
-        <v>22786.63</v>
+        <v>6129.8</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D43">
         <v>2025</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B44">
-        <v>29255</v>
+        <v>24329.12</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D44">
         <v>2025</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B45">
-        <v>4370</v>
+        <v>17056.87</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B46">
-        <v>35402.64</v>
+        <v>22786.63</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B47">
-        <v>28248.43</v>
+        <v>29255</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B48">
-        <v>31437.91</v>
+        <v>4370</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B49">
-        <v>27732.15</v>
+        <v>35402.64</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B50">
-        <v>25508.17</v>
+        <v>28248.43</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B51">
-        <v>14802.01</v>
+        <v>31437.91</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B52">
-        <v>9776.9</v>
+        <v>27732.15</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B53">
-        <v>31420.44</v>
+        <v>25508.17</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B54">
-        <v>26531.86</v>
+        <v>14802.01</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B55">
-        <v>36574.18</v>
+        <v>9776.9</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B56">
-        <v>33940.79</v>
+        <v>31420.44</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B57">
-        <v>30498.76</v>
+        <v>26531.86</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B58">
-        <v>15120.8</v>
+        <v>36574.18</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B59">
-        <v>8085.01</v>
+        <v>33940.79</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B60">
-        <v>26923.67</v>
+        <v>30498.76</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B61">
-        <v>33090.3</v>
+        <v>15120.8</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B62">
-        <v>25994.16</v>
+        <v>8085.01</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B63">
-        <v>27147.29</v>
+        <v>26923.67</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B64">
-        <v>23820.29</v>
+        <v>33090.3</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B65">
-        <v>34922.72</v>
+        <v>25994.16</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B66">
-        <v>3824.9</v>
+        <v>27147.29</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B67">
-        <v>27831.77</v>
+        <v>23820.29</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B68">
-        <v>24156.31</v>
+        <v>34922.72</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B69">
-        <v>21718.63</v>
+        <v>3824.9</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B70">
-        <v>19445.75</v>
+        <v>27831.77</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B71">
-        <v>26951.12</v>
+        <v>24156.31</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B72">
-        <v>19327.9</v>
+        <v>21718.63</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -1630,61 +1630,61 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B73">
-        <v>19371.37</v>
+        <v>19445.75</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73">
         <v>2025</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B74">
-        <v>29218.71</v>
+        <v>26951.12</v>
       </c>
       <c r="C74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74">
         <v>2025</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B75">
-        <v>19819.3</v>
+        <v>19327.9</v>
       </c>
       <c r="C75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75">
         <v>2025</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B76">
-        <v>25399.91</v>
+        <v>19371.37</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B77">
-        <v>18509.5</v>
+        <v>29218.71</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B78">
-        <v>5823.21</v>
+        <v>19819.3</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B79">
-        <v>21764.19</v>
+        <v>25399.91</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B80">
-        <v>38515.34</v>
+        <v>18509.5</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B81">
-        <v>21733.46</v>
+        <v>5823.21</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B82">
-        <v>25715.4</v>
+        <v>21764.19</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B83">
-        <v>22833.25</v>
+        <v>38515.34</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B84">
-        <v>21596.15</v>
+        <v>21733.46</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B85">
-        <v>6451</v>
+        <v>25715.4</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B86">
-        <v>24085.6</v>
+        <v>22833.25</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B87">
-        <v>15644.59</v>
+        <v>21596.15</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B88">
-        <v>18372.2</v>
+        <v>6451</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B89">
-        <v>23446.19</v>
+        <v>24085.6</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B90">
-        <v>15474.35</v>
+        <v>15644.59</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B91">
-        <v>9164.799999999999</v>
+        <v>18372.2</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B92">
-        <v>2719</v>
+        <v>23446.19</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B93">
-        <v>15666.86</v>
+        <v>15474.35</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B94">
-        <v>15219.82</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B95">
-        <v>19895.36</v>
+        <v>2719</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B96">
-        <v>19632.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B97">
-        <v>19212.07</v>
+        <v>15219.82</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B98">
-        <v>14442</v>
+        <v>19895.36</v>
       </c>
       <c r="C98">
         <v>4</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B99">
-        <v>5289.3</v>
+        <v>19632.82</v>
       </c>
       <c r="C99">
         <v>4</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B100">
-        <v>25680.18</v>
+        <v>19212.07</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B101">
-        <v>21976.8</v>
+        <v>14442</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2123,18 +2123,69 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
+        <v>27</v>
+      </c>
+      <c r="B102">
+        <v>5289.3</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>2025</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>28</v>
+      </c>
+      <c r="B103">
+        <v>25680.18</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103">
+        <v>2025</v>
+      </c>
+      <c r="E103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>29</v>
+      </c>
+      <c r="B104">
+        <v>21976.8</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>2025</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
         <v>30</v>
       </c>
-      <c r="B102">
+      <c r="B105">
         <v>24773.88</v>
       </c>
-      <c r="C102">
-        <v>4</v>
-      </c>
-      <c r="D102">
-        <v>2025</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>2025</v>
+      </c>
+      <c r="E105" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -644,27 +644,27 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>5140.01</v>
+        <v>21278.41</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>2025</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>27797.8</v>
+        <v>5140.01</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>25236.75</v>
+        <v>27797.8</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>36189.46</v>
+        <v>25236.75</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19">
-        <v>21643.35</v>
+        <v>36189.46</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20">
-        <v>15533.91</v>
+        <v>21643.35</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21">
-        <v>19035.4</v>
+        <v>15533.91</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22">
-        <v>4942.9</v>
+        <v>19035.4</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23">
-        <v>23856.87</v>
+        <v>4942.9</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24">
-        <v>31200</v>
+        <v>23856.87</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25">
-        <v>33164.36</v>
+        <v>31200</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26">
-        <v>38843.63</v>
+        <v>33164.36</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27">
-        <v>22435.29</v>
+        <v>38843.63</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28">
-        <v>27509.4</v>
+        <v>22435.29</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29">
-        <v>4621.42</v>
+        <v>27509.4</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30">
-        <v>28514.4</v>
+        <v>4621.42</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31">
-        <v>18098.79</v>
+        <v>28514.4</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32">
-        <v>27037.48</v>
+        <v>18098.79</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33">
-        <v>17122.67</v>
+        <v>27037.48</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34">
-        <v>17622.85</v>
+        <v>17122.67</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35">
-        <v>13501.01</v>
+        <v>17622.85</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36">
-        <v>4054.5</v>
+        <v>13501.01</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37">
-        <v>25183.26</v>
+        <v>4054.5</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38">
-        <v>22602.82</v>
+        <v>25183.26</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39">
-        <v>20180.46</v>
+        <v>22602.82</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40">
-        <v>37345.11</v>
+        <v>20180.46</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41">
-        <v>24519.52</v>
+        <v>37345.11</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42">
-        <v>10903.9</v>
+        <v>24519.52</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43">
-        <v>6129.8</v>
+        <v>10903.9</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44">
-        <v>24329.12</v>
+        <v>6129.8</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1154,27 +1154,27 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B45">
-        <v>17056.87</v>
+        <v>24329.12</v>
       </c>
       <c r="C45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D45">
         <v>2025</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B49">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B51">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B53">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B54">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B57">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B58">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B59">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B60">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B61">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B62">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B63">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B64">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B65">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B66">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B67">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B68">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B69">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B70">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B71">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B72">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B73">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B74">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B75">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -1681,27 +1681,27 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B76">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76">
         <v>2025</v>
       </c>
       <c r="E76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B77">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B78">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B79">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B80">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B81">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B82">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B83">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B84">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B85">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B86">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B87">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B88">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B89">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B90">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B91">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B92">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B93">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B94">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B95">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B96">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B97">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B98">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C98">
         <v>4</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B99">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C99">
         <v>4</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B100">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B101">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B102">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C102">
         <v>4</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B103">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C103">
         <v>4</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B104">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C104">
         <v>4</v>
@@ -2174,18 +2174,35 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
+        <v>29</v>
+      </c>
+      <c r="B105">
+        <v>21976.8</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>2025</v>
+      </c>
+      <c r="E105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
         <v>30</v>
       </c>
-      <c r="B105">
+      <c r="B106">
         <v>24773.88</v>
       </c>
-      <c r="C105">
-        <v>4</v>
-      </c>
-      <c r="D105">
-        <v>2025</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="C106">
+        <v>4</v>
+      </c>
+      <c r="D106">
+        <v>2025</v>
+      </c>
+      <c r="E106" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -647,7 +647,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>21278.41</v>
+        <v>21313.41</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -661,27 +661,27 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>5140.01</v>
+        <v>32100.04</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>2025</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>27797.8</v>
+        <v>5140.01</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>25236.75</v>
+        <v>27797.8</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19">
-        <v>36189.46</v>
+        <v>25236.75</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20">
-        <v>21643.35</v>
+        <v>36189.46</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21">
-        <v>15533.91</v>
+        <v>21643.35</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22">
-        <v>19035.4</v>
+        <v>15533.91</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23">
-        <v>4942.9</v>
+        <v>19035.4</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24">
-        <v>23856.87</v>
+        <v>4942.9</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25">
-        <v>31200</v>
+        <v>23856.87</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26">
-        <v>33164.36</v>
+        <v>31200</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27">
-        <v>38843.63</v>
+        <v>33164.36</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28">
-        <v>22435.29</v>
+        <v>38843.63</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29">
-        <v>27509.4</v>
+        <v>22435.29</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30">
-        <v>4621.42</v>
+        <v>27509.4</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31">
-        <v>28514.4</v>
+        <v>4621.42</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32">
-        <v>18098.79</v>
+        <v>28514.4</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33">
-        <v>27037.48</v>
+        <v>18098.79</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34">
-        <v>17122.67</v>
+        <v>27037.48</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35">
-        <v>17622.85</v>
+        <v>17122.67</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B36">
-        <v>13501.01</v>
+        <v>17622.85</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37">
-        <v>4054.5</v>
+        <v>13501.01</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38">
-        <v>25183.26</v>
+        <v>4054.5</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39">
-        <v>22602.82</v>
+        <v>25183.26</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40">
-        <v>20180.46</v>
+        <v>22602.82</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41">
-        <v>37345.11</v>
+        <v>20180.46</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B42">
-        <v>24519.52</v>
+        <v>37345.11</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43">
-        <v>10903.9</v>
+        <v>24519.52</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44">
-        <v>6129.8</v>
+        <v>10903.9</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45">
-        <v>24329.12</v>
+        <v>6129.8</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1171,27 +1171,27 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B46">
-        <v>17056.87</v>
+        <v>24329.12</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D46">
         <v>2025</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B50">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B52">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B53">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B55">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B56">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B57">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B58">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B59">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B60">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B61">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B62">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B63">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B64">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B65">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B66">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B67">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B68">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B69">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B70">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B71">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B72">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B73">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B74">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B75">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B76">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -1698,27 +1698,27 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B77">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77">
         <v>2025</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B78">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B79">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B80">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B81">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B82">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B83">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B84">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B85">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B86">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B87">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B88">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B89">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B90">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B91">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B92">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B93">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B94">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B95">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B96">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B97">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B98">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C98">
         <v>4</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B99">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C99">
         <v>4</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B100">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B101">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B102">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C102">
         <v>4</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B103">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C103">
         <v>4</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B104">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C104">
         <v>4</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B105">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C105">
         <v>4</v>
@@ -2191,18 +2191,35 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
+        <v>29</v>
+      </c>
+      <c r="B106">
+        <v>21976.8</v>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+      <c r="D106">
+        <v>2025</v>
+      </c>
+      <c r="E106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
         <v>30</v>
       </c>
-      <c r="B106">
+      <c r="B107">
         <v>24773.88</v>
       </c>
-      <c r="C106">
-        <v>4</v>
-      </c>
-      <c r="D106">
-        <v>2025</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107">
+        <v>2025</v>
+      </c>
+      <c r="E107" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -678,27 +678,27 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>5140.01</v>
+        <v>30864.92</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>2025</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>27797.8</v>
+        <v>5140.01</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19">
-        <v>25236.75</v>
+        <v>27797.8</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20">
-        <v>36189.46</v>
+        <v>25236.75</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21">
-        <v>21643.35</v>
+        <v>36189.46</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22">
-        <v>15533.91</v>
+        <v>21643.35</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23">
-        <v>19035.4</v>
+        <v>15533.91</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24">
-        <v>4942.9</v>
+        <v>19035.4</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25">
-        <v>23856.87</v>
+        <v>4942.9</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26">
-        <v>31200</v>
+        <v>23856.87</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27">
-        <v>33164.36</v>
+        <v>31200</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28">
-        <v>38843.63</v>
+        <v>33164.36</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29">
-        <v>22435.29</v>
+        <v>38843.63</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30">
-        <v>27509.4</v>
+        <v>22435.29</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31">
-        <v>4621.42</v>
+        <v>27509.4</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32">
-        <v>28514.4</v>
+        <v>4621.42</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33">
-        <v>18098.79</v>
+        <v>28514.4</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34">
-        <v>27037.48</v>
+        <v>18098.79</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35">
-        <v>17122.67</v>
+        <v>27037.48</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36">
-        <v>17622.85</v>
+        <v>17122.67</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B37">
-        <v>13501.01</v>
+        <v>17622.85</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38">
-        <v>4054.5</v>
+        <v>13501.01</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B39">
-        <v>25183.26</v>
+        <v>4054.5</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40">
-        <v>22602.82</v>
+        <v>25183.26</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41">
-        <v>20180.46</v>
+        <v>22602.82</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42">
-        <v>37345.11</v>
+        <v>20180.46</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B43">
-        <v>24519.52</v>
+        <v>37345.11</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B44">
-        <v>10903.9</v>
+        <v>24519.52</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45">
-        <v>6129.8</v>
+        <v>10903.9</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B46">
-        <v>24329.12</v>
+        <v>6129.8</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -1188,27 +1188,27 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B47">
-        <v>17056.87</v>
+        <v>24329.12</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B53">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B55">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B56">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B58">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B59">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B60">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B61">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B62">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B63">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B64">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B65">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B66">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B67">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B68">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B69">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B70">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B71">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B72">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B73">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B74">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B75">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B76">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B77">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -1715,27 +1715,27 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B78">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78">
         <v>2025</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B79">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B80">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B81">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B82">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B83">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B84">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B85">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B86">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B87">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B88">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B89">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B90">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B91">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B92">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B93">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B94">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B95">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B96">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B97">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B98">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C98">
         <v>4</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B99">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C99">
         <v>4</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B100">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B101">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B102">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C102">
         <v>4</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B103">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C103">
         <v>4</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B104">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C104">
         <v>4</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B105">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C105">
         <v>4</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B106">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C106">
         <v>4</v>
@@ -2208,18 +2208,35 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
+        <v>29</v>
+      </c>
+      <c r="B107">
+        <v>21976.8</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107">
+        <v>2025</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
         <v>30</v>
       </c>
-      <c r="B107">
+      <c r="B108">
         <v>24773.88</v>
       </c>
-      <c r="C107">
-        <v>4</v>
-      </c>
-      <c r="D107">
-        <v>2025</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>2025</v>
+      </c>
+      <c r="E108" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -695,27 +695,27 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>5140.01</v>
+        <v>17617.07</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>27797.8</v>
+        <v>5140.01</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20">
-        <v>25236.75</v>
+        <v>27797.8</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>36189.46</v>
+        <v>25236.75</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22">
-        <v>21643.35</v>
+        <v>36189.46</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23">
-        <v>15533.91</v>
+        <v>21643.35</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24">
-        <v>19035.4</v>
+        <v>15533.91</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25">
-        <v>4942.9</v>
+        <v>19035.4</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26">
-        <v>23856.87</v>
+        <v>4942.9</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27">
-        <v>31200</v>
+        <v>23856.87</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28">
-        <v>33164.36</v>
+        <v>31200</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29">
-        <v>38843.63</v>
+        <v>33164.36</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30">
-        <v>22435.29</v>
+        <v>38843.63</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31">
-        <v>27509.4</v>
+        <v>22435.29</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32">
-        <v>4621.42</v>
+        <v>27509.4</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33">
-        <v>28514.4</v>
+        <v>4621.42</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34">
-        <v>18098.79</v>
+        <v>28514.4</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35">
-        <v>27037.48</v>
+        <v>18098.79</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B36">
-        <v>17122.67</v>
+        <v>27037.48</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B37">
-        <v>17622.85</v>
+        <v>17122.67</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B38">
-        <v>13501.01</v>
+        <v>17622.85</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B39">
-        <v>4054.5</v>
+        <v>13501.01</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B40">
-        <v>25183.26</v>
+        <v>4054.5</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B41">
-        <v>22602.82</v>
+        <v>25183.26</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42">
-        <v>20180.46</v>
+        <v>22602.82</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43">
-        <v>37345.11</v>
+        <v>20180.46</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B44">
-        <v>24519.52</v>
+        <v>37345.11</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B45">
-        <v>10903.9</v>
+        <v>24519.52</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46">
-        <v>6129.8</v>
+        <v>10903.9</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B47">
-        <v>24329.12</v>
+        <v>6129.8</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -1205,27 +1205,27 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B48">
-        <v>17056.87</v>
+        <v>24329.12</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B50">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B51">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B52">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B54">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B57">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B58">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B59">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B60">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B61">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B62">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B63">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B64">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B65">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B66">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B67">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B68">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B69">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B70">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B71">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B72">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B73">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B74">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B75">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B76">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B77">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B78">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -1732,27 +1732,27 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B79">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79">
         <v>2025</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B80">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B81">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B82">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B83">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B84">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B85">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B86">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B87">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B88">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B89">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B90">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B91">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B92">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B93">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B94">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B95">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B96">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B97">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B98">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C98">
         <v>4</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B99">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C99">
         <v>4</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B100">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B101">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B102">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C102">
         <v>4</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B103">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C103">
         <v>4</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B104">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C104">
         <v>4</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B105">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C105">
         <v>4</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B106">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C106">
         <v>4</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B107">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C107">
         <v>4</v>
@@ -2225,18 +2225,35 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
+        <v>29</v>
+      </c>
+      <c r="B108">
+        <v>21976.8</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>2025</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
         <v>30</v>
       </c>
-      <c r="B108">
+      <c r="B109">
         <v>24773.88</v>
       </c>
-      <c r="C108">
-        <v>4</v>
-      </c>
-      <c r="D108">
-        <v>2025</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="C109">
+        <v>4</v>
+      </c>
+      <c r="D109">
+        <v>2025</v>
+      </c>
+      <c r="E109" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -698,7 +698,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>17617.07</v>
+        <v>20643.07</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -712,61 +712,61 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>5140.01</v>
+        <v>21820.3</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>2025</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>27797.8</v>
+        <v>13982.65</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <v>2025</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>25236.75</v>
+        <v>3733</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <v>2025</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B22">
-        <v>36189.46</v>
+        <v>5140.01</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23">
-        <v>21643.35</v>
+        <v>27797.8</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B24">
-        <v>15533.91</v>
+        <v>25236.75</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B25">
-        <v>19035.4</v>
+        <v>36189.46</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B26">
-        <v>4942.9</v>
+        <v>21643.35</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B27">
-        <v>23856.87</v>
+        <v>15533.91</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B28">
-        <v>31200</v>
+        <v>19035.4</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B29">
-        <v>33164.36</v>
+        <v>4942.9</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B30">
-        <v>38843.63</v>
+        <v>23856.87</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B31">
-        <v>22435.29</v>
+        <v>31200</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B32">
-        <v>27509.4</v>
+        <v>33164.36</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B33">
-        <v>4621.42</v>
+        <v>38843.63</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B34">
-        <v>28514.4</v>
+        <v>22435.29</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B35">
-        <v>18098.79</v>
+        <v>27509.4</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B36">
-        <v>27037.48</v>
+        <v>4621.42</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B37">
-        <v>17122.67</v>
+        <v>28514.4</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B38">
-        <v>17622.85</v>
+        <v>18098.79</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B39">
-        <v>13501.01</v>
+        <v>27037.48</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B40">
-        <v>4054.5</v>
+        <v>17122.67</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B41">
-        <v>25183.26</v>
+        <v>17622.85</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B42">
-        <v>22602.82</v>
+        <v>13501.01</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B43">
-        <v>20180.46</v>
+        <v>4054.5</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B44">
-        <v>37345.11</v>
+        <v>25183.26</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B45">
-        <v>24519.52</v>
+        <v>22602.82</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B46">
-        <v>10903.9</v>
+        <v>20180.46</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B47">
-        <v>6129.8</v>
+        <v>37345.11</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B48">
-        <v>24329.12</v>
+        <v>24519.52</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -1222,61 +1222,61 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B49">
-        <v>17056.87</v>
+        <v>10903.9</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B50">
-        <v>22786.63</v>
+        <v>6129.8</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D50">
         <v>2025</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B51">
-        <v>29255</v>
+        <v>24329.12</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D51">
         <v>2025</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B52">
-        <v>4370</v>
+        <v>17056.87</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B53">
-        <v>35402.64</v>
+        <v>22786.63</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B54">
-        <v>28248.43</v>
+        <v>29255</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B55">
-        <v>31437.91</v>
+        <v>4370</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B56">
-        <v>27732.15</v>
+        <v>35402.64</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B57">
-        <v>25508.17</v>
+        <v>28248.43</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B58">
-        <v>14802.01</v>
+        <v>31437.91</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B59">
-        <v>9776.9</v>
+        <v>27732.15</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B60">
-        <v>31420.44</v>
+        <v>25508.17</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B61">
-        <v>26531.86</v>
+        <v>14802.01</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B62">
-        <v>36574.18</v>
+        <v>9776.9</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B63">
-        <v>33940.79</v>
+        <v>31420.44</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B64">
-        <v>30498.76</v>
+        <v>26531.86</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B65">
-        <v>15120.8</v>
+        <v>36574.18</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B66">
-        <v>8085.01</v>
+        <v>33940.79</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B67">
-        <v>26923.67</v>
+        <v>30498.76</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B68">
-        <v>33090.3</v>
+        <v>15120.8</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B69">
-        <v>25994.16</v>
+        <v>8085.01</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B70">
-        <v>27147.29</v>
+        <v>26923.67</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B71">
-        <v>23820.29</v>
+        <v>33090.3</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B72">
-        <v>34922.72</v>
+        <v>25994.16</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B73">
-        <v>3824.9</v>
+        <v>27147.29</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B74">
-        <v>27831.77</v>
+        <v>23820.29</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B75">
-        <v>24156.31</v>
+        <v>34922.72</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B76">
-        <v>21718.63</v>
+        <v>3824.9</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B77">
-        <v>19445.75</v>
+        <v>27831.77</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B78">
-        <v>26951.12</v>
+        <v>24156.31</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B79">
-        <v>19327.9</v>
+        <v>21718.63</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -1749,61 +1749,61 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B80">
-        <v>19371.37</v>
+        <v>19445.75</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80">
         <v>2025</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B81">
-        <v>29218.71</v>
+        <v>26951.12</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81">
         <v>2025</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B82">
-        <v>19819.3</v>
+        <v>19327.9</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82">
         <v>2025</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B83">
-        <v>25399.91</v>
+        <v>19371.37</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B84">
-        <v>18509.5</v>
+        <v>29218.71</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B85">
-        <v>5823.21</v>
+        <v>19819.3</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B86">
-        <v>21764.19</v>
+        <v>25399.91</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B87">
-        <v>38515.34</v>
+        <v>18509.5</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B88">
-        <v>21733.46</v>
+        <v>5823.21</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B89">
-        <v>25715.4</v>
+        <v>21764.19</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B90">
-        <v>22833.25</v>
+        <v>38515.34</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B91">
-        <v>21596.15</v>
+        <v>21733.46</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B92">
-        <v>6451</v>
+        <v>25715.4</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B93">
-        <v>24085.6</v>
+        <v>22833.25</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B94">
-        <v>15644.59</v>
+        <v>21596.15</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B95">
-        <v>18372.2</v>
+        <v>6451</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B96">
-        <v>23446.19</v>
+        <v>24085.6</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B97">
-        <v>15474.35</v>
+        <v>15644.59</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B98">
-        <v>9164.799999999999</v>
+        <v>18372.2</v>
       </c>
       <c r="C98">
         <v>4</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B99">
-        <v>2719</v>
+        <v>23446.19</v>
       </c>
       <c r="C99">
         <v>4</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B100">
-        <v>15666.86</v>
+        <v>15474.35</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B101">
-        <v>15219.82</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B102">
-        <v>19895.36</v>
+        <v>2719</v>
       </c>
       <c r="C102">
         <v>4</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B103">
-        <v>19632.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C103">
         <v>4</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B104">
-        <v>19212.07</v>
+        <v>15219.82</v>
       </c>
       <c r="C104">
         <v>4</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B105">
-        <v>14442</v>
+        <v>19895.36</v>
       </c>
       <c r="C105">
         <v>4</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B106">
-        <v>5289.3</v>
+        <v>19632.82</v>
       </c>
       <c r="C106">
         <v>4</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B107">
-        <v>25680.18</v>
+        <v>19212.07</v>
       </c>
       <c r="C107">
         <v>4</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B108">
-        <v>21976.8</v>
+        <v>14442</v>
       </c>
       <c r="C108">
         <v>4</v>
@@ -2242,18 +2242,69 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
+        <v>27</v>
+      </c>
+      <c r="B109">
+        <v>5289.3</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+      <c r="D109">
+        <v>2025</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>28</v>
+      </c>
+      <c r="B110">
+        <v>25680.18</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>2025</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>29</v>
+      </c>
+      <c r="B111">
+        <v>21976.8</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>2025</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
         <v>30</v>
       </c>
-      <c r="B109">
+      <c r="B112">
         <v>24773.88</v>
       </c>
-      <c r="C109">
-        <v>4</v>
-      </c>
-      <c r="D109">
-        <v>2025</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>2025</v>
+      </c>
+      <c r="E112" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -732,7 +732,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>13982.65</v>
+        <v>15007.65</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -763,44 +763,44 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>5140.01</v>
+        <v>26242.62</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22">
         <v>2025</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>27797.8</v>
+        <v>60</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23">
         <v>2025</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24">
-        <v>25236.75</v>
+        <v>5140.01</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25">
-        <v>36189.46</v>
+        <v>27797.8</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B26">
-        <v>21643.35</v>
+        <v>25236.75</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B27">
-        <v>15533.91</v>
+        <v>36189.46</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B28">
-        <v>19035.4</v>
+        <v>21643.35</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B29">
-        <v>4942.9</v>
+        <v>15533.91</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B30">
-        <v>23856.87</v>
+        <v>19035.4</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B31">
-        <v>31200</v>
+        <v>4942.9</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B32">
-        <v>33164.36</v>
+        <v>23856.87</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B33">
-        <v>38843.63</v>
+        <v>31200</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B34">
-        <v>22435.29</v>
+        <v>33164.36</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B35">
-        <v>27509.4</v>
+        <v>38843.63</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B36">
-        <v>4621.42</v>
+        <v>22435.29</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B37">
-        <v>28514.4</v>
+        <v>27509.4</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B38">
-        <v>18098.79</v>
+        <v>4621.42</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B39">
-        <v>27037.48</v>
+        <v>28514.4</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B40">
-        <v>17122.67</v>
+        <v>18098.79</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B41">
-        <v>17622.85</v>
+        <v>27037.48</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B42">
-        <v>13501.01</v>
+        <v>17122.67</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B43">
-        <v>4054.5</v>
+        <v>17622.85</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B44">
-        <v>25183.26</v>
+        <v>13501.01</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B45">
-        <v>22602.82</v>
+        <v>4054.5</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B46">
-        <v>20180.46</v>
+        <v>25183.26</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B47">
-        <v>37345.11</v>
+        <v>22602.82</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B48">
-        <v>24519.52</v>
+        <v>20180.46</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B49">
-        <v>10903.9</v>
+        <v>37345.11</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B50">
-        <v>6129.8</v>
+        <v>24519.52</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B51">
-        <v>24329.12</v>
+        <v>10903.9</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -1273,44 +1273,44 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B52">
-        <v>17056.87</v>
+        <v>6129.8</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D52">
         <v>2025</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B53">
-        <v>22786.63</v>
+        <v>24329.12</v>
       </c>
       <c r="C53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D53">
         <v>2025</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B54">
-        <v>29255</v>
+        <v>17056.87</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B55">
-        <v>4370</v>
+        <v>22786.63</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B56">
-        <v>35402.64</v>
+        <v>29255</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B57">
-        <v>28248.43</v>
+        <v>4370</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B58">
-        <v>31437.91</v>
+        <v>35402.64</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B59">
-        <v>27732.15</v>
+        <v>28248.43</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B60">
-        <v>25508.17</v>
+        <v>31437.91</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B61">
-        <v>14802.01</v>
+        <v>27732.15</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B62">
-        <v>9776.9</v>
+        <v>25508.17</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B63">
-        <v>31420.44</v>
+        <v>14802.01</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B64">
-        <v>26531.86</v>
+        <v>9776.9</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B65">
-        <v>36574.18</v>
+        <v>31420.44</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B66">
-        <v>33940.79</v>
+        <v>26531.86</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B67">
-        <v>30498.76</v>
+        <v>36574.18</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B68">
-        <v>15120.8</v>
+        <v>33940.79</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B69">
-        <v>8085.01</v>
+        <v>30498.76</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B70">
-        <v>26923.67</v>
+        <v>15120.8</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B71">
-        <v>33090.3</v>
+        <v>8085.01</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B72">
-        <v>25994.16</v>
+        <v>26923.67</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B73">
-        <v>27147.29</v>
+        <v>33090.3</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B74">
-        <v>23820.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B75">
-        <v>34922.72</v>
+        <v>27147.29</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B76">
-        <v>3824.9</v>
+        <v>23820.29</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B77">
-        <v>27831.77</v>
+        <v>34922.72</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B78">
-        <v>24156.31</v>
+        <v>3824.9</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B79">
-        <v>21718.63</v>
+        <v>27831.77</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B80">
-        <v>19445.75</v>
+        <v>24156.31</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B81">
-        <v>26951.12</v>
+        <v>21718.63</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B82">
-        <v>19327.9</v>
+        <v>19445.75</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -1800,44 +1800,44 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B83">
-        <v>19371.37</v>
+        <v>26951.12</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83">
         <v>2025</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B84">
-        <v>29218.71</v>
+        <v>19327.9</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84">
         <v>2025</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B85">
-        <v>19819.3</v>
+        <v>19371.37</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B86">
-        <v>25399.91</v>
+        <v>29218.71</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B87">
-        <v>18509.5</v>
+        <v>19819.3</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B88">
-        <v>5823.21</v>
+        <v>25399.91</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B89">
-        <v>21764.19</v>
+        <v>18509.5</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B90">
-        <v>38515.34</v>
+        <v>5823.21</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B91">
-        <v>21733.46</v>
+        <v>21764.19</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B92">
-        <v>25715.4</v>
+        <v>38515.34</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B93">
-        <v>22833.25</v>
+        <v>21733.46</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B94">
-        <v>21596.15</v>
+        <v>25715.4</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B95">
-        <v>6451</v>
+        <v>22833.25</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B96">
-        <v>24085.6</v>
+        <v>21596.15</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B97">
-        <v>15644.59</v>
+        <v>6451</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B98">
-        <v>18372.2</v>
+        <v>24085.6</v>
       </c>
       <c r="C98">
         <v>4</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B99">
-        <v>23446.19</v>
+        <v>15644.59</v>
       </c>
       <c r="C99">
         <v>4</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B100">
-        <v>15474.35</v>
+        <v>18372.2</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B101">
-        <v>9164.799999999999</v>
+        <v>23446.19</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B102">
-        <v>2719</v>
+        <v>15474.35</v>
       </c>
       <c r="C102">
         <v>4</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B103">
-        <v>15666.86</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C103">
         <v>4</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B104">
-        <v>15219.82</v>
+        <v>2719</v>
       </c>
       <c r="C104">
         <v>4</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B105">
-        <v>19895.36</v>
+        <v>15666.86</v>
       </c>
       <c r="C105">
         <v>4</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B106">
-        <v>19632.82</v>
+        <v>15219.82</v>
       </c>
       <c r="C106">
         <v>4</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B107">
-        <v>19212.07</v>
+        <v>19895.36</v>
       </c>
       <c r="C107">
         <v>4</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B108">
-        <v>14442</v>
+        <v>19632.82</v>
       </c>
       <c r="C108">
         <v>4</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B109">
-        <v>5289.3</v>
+        <v>19212.07</v>
       </c>
       <c r="C109">
         <v>4</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B110">
-        <v>25680.18</v>
+        <v>14442</v>
       </c>
       <c r="C110">
         <v>4</v>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B111">
-        <v>21976.8</v>
+        <v>5289.3</v>
       </c>
       <c r="C111">
         <v>4</v>
@@ -2293,18 +2293,52 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
+        <v>28</v>
+      </c>
+      <c r="B112">
+        <v>25680.18</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>2025</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>29</v>
+      </c>
+      <c r="B113">
+        <v>21976.8</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113">
+        <v>2025</v>
+      </c>
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
         <v>30</v>
       </c>
-      <c r="B112">
+      <c r="B114">
         <v>24773.88</v>
       </c>
-      <c r="C112">
-        <v>4</v>
-      </c>
-      <c r="D112">
-        <v>2025</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="C114">
+        <v>4</v>
+      </c>
+      <c r="D114">
+        <v>2025</v>
+      </c>
+      <c r="E114" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -783,7 +783,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>60</v>
+        <v>16345.2</v>
       </c>
       <c r="C23">
         <v>7</v>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -797,27 +797,27 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>5140.01</v>
+        <v>14310.32</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24">
         <v>2025</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25">
-        <v>27797.8</v>
+        <v>5140.01</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26">
-        <v>25236.75</v>
+        <v>27797.8</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27">
-        <v>36189.46</v>
+        <v>25236.75</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28">
-        <v>21643.35</v>
+        <v>36189.46</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29">
-        <v>15533.91</v>
+        <v>21643.35</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30">
-        <v>19035.4</v>
+        <v>15533.91</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31">
-        <v>4942.9</v>
+        <v>19035.4</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32">
-        <v>23856.87</v>
+        <v>4942.9</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33">
-        <v>31200</v>
+        <v>23856.87</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34">
-        <v>33164.36</v>
+        <v>31200</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35">
-        <v>38843.63</v>
+        <v>33164.36</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36">
-        <v>22435.29</v>
+        <v>38843.63</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37">
-        <v>27509.4</v>
+        <v>22435.29</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38">
-        <v>4621.42</v>
+        <v>27509.4</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39">
-        <v>28514.4</v>
+        <v>4621.42</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B40">
-        <v>18098.79</v>
+        <v>28514.4</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41">
-        <v>27037.48</v>
+        <v>18098.79</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B42">
-        <v>17122.67</v>
+        <v>27037.48</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43">
-        <v>17622.85</v>
+        <v>17122.67</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B44">
-        <v>13501.01</v>
+        <v>17622.85</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45">
-        <v>4054.5</v>
+        <v>13501.01</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B46">
-        <v>25183.26</v>
+        <v>4054.5</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47">
-        <v>22602.82</v>
+        <v>25183.26</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B48">
-        <v>20180.46</v>
+        <v>22602.82</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B49">
-        <v>37345.11</v>
+        <v>20180.46</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B50">
-        <v>24519.52</v>
+        <v>37345.11</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B51">
-        <v>10903.9</v>
+        <v>24519.52</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B52">
-        <v>6129.8</v>
+        <v>10903.9</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B53">
-        <v>24329.12</v>
+        <v>6129.8</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -1307,27 +1307,27 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B54">
-        <v>17056.87</v>
+        <v>24329.12</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D54">
         <v>2025</v>
       </c>
       <c r="E54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B56">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B58">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B59">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B60">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B61">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B62">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B63">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B64">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B66">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B67">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B68">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B69">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B70">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B71">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B72">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B73">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B74">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B75">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B76">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B77">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B78">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B79">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B80">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B81">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B82">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B83">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B84">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -1834,27 +1834,27 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B85">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85">
         <v>2025</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B86">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B87">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B88">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B89">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B90">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B91">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B92">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B93">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B94">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B95">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B96">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B97">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B98">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C98">
         <v>4</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B99">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C99">
         <v>4</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B100">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B101">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B102">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C102">
         <v>4</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B103">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C103">
         <v>4</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B104">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C104">
         <v>4</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B105">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C105">
         <v>4</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B106">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C106">
         <v>4</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B107">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C107">
         <v>4</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B108">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C108">
         <v>4</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B109">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C109">
         <v>4</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B110">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C110">
         <v>4</v>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B111">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C111">
         <v>4</v>
@@ -2293,10 +2293,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B112">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C112">
         <v>4</v>
@@ -2310,10 +2310,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B113">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C113">
         <v>4</v>
@@ -2327,18 +2327,35 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
+        <v>29</v>
+      </c>
+      <c r="B114">
+        <v>21976.8</v>
+      </c>
+      <c r="C114">
+        <v>4</v>
+      </c>
+      <c r="D114">
+        <v>2025</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
         <v>30</v>
       </c>
-      <c r="B114">
+      <c r="B115">
         <v>24773.88</v>
       </c>
-      <c r="C114">
-        <v>4</v>
-      </c>
-      <c r="D114">
-        <v>2025</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>2025</v>
+      </c>
+      <c r="E115" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -800,7 +800,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>14310.32</v>
+        <v>14800.32</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -814,27 +814,27 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>5140.01</v>
+        <v>15029.97</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25">
         <v>2025</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26">
-        <v>27797.8</v>
+        <v>5140.01</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27">
-        <v>25236.75</v>
+        <v>27797.8</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28">
-        <v>36189.46</v>
+        <v>25236.75</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29">
-        <v>21643.35</v>
+        <v>36189.46</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30">
-        <v>15533.91</v>
+        <v>21643.35</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31">
-        <v>19035.4</v>
+        <v>15533.91</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32">
-        <v>4942.9</v>
+        <v>19035.4</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33">
-        <v>23856.87</v>
+        <v>4942.9</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34">
-        <v>31200</v>
+        <v>23856.87</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35">
-        <v>33164.36</v>
+        <v>31200</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36">
-        <v>38843.63</v>
+        <v>33164.36</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37">
-        <v>22435.29</v>
+        <v>38843.63</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38">
-        <v>27509.4</v>
+        <v>22435.29</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39">
-        <v>4621.42</v>
+        <v>27509.4</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40">
-        <v>28514.4</v>
+        <v>4621.42</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B41">
-        <v>18098.79</v>
+        <v>28514.4</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B42">
-        <v>27037.48</v>
+        <v>18098.79</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B43">
-        <v>17122.67</v>
+        <v>27037.48</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44">
-        <v>17622.85</v>
+        <v>17122.67</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B45">
-        <v>13501.01</v>
+        <v>17622.85</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B46">
-        <v>4054.5</v>
+        <v>13501.01</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47">
-        <v>25183.26</v>
+        <v>4054.5</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B48">
-        <v>22602.82</v>
+        <v>25183.26</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B49">
-        <v>20180.46</v>
+        <v>22602.82</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B50">
-        <v>37345.11</v>
+        <v>20180.46</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B51">
-        <v>24519.52</v>
+        <v>37345.11</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B52">
-        <v>10903.9</v>
+        <v>24519.52</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B53">
-        <v>6129.8</v>
+        <v>10903.9</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B54">
-        <v>24329.12</v>
+        <v>6129.8</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -1324,27 +1324,27 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B55">
-        <v>17056.87</v>
+        <v>24329.12</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D55">
         <v>2025</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B56">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B57">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B58">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B59">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B60">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B61">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B62">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B63">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B64">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B65">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B66">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B67">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B68">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B69">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B70">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B71">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B72">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B73">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B74">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B75">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B76">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B77">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B78">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B79">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B80">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B81">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B82">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B83">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B84">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B85">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -1851,27 +1851,27 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B86">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86">
         <v>2025</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B87">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B88">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B89">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B90">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B91">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B92">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B93">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B94">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B95">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B96">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B97">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B98">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C98">
         <v>4</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B99">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C99">
         <v>4</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B100">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B101">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B102">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C102">
         <v>4</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B103">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C103">
         <v>4</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B104">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C104">
         <v>4</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B105">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C105">
         <v>4</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B106">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C106">
         <v>4</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B107">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C107">
         <v>4</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B108">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C108">
         <v>4</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B109">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C109">
         <v>4</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B110">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C110">
         <v>4</v>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B111">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C111">
         <v>4</v>
@@ -2293,10 +2293,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B112">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C112">
         <v>4</v>
@@ -2310,10 +2310,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B113">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C113">
         <v>4</v>
@@ -2327,10 +2327,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B114">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C114">
         <v>4</v>
@@ -2344,18 +2344,35 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
+        <v>29</v>
+      </c>
+      <c r="B115">
+        <v>21976.8</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>2025</v>
+      </c>
+      <c r="E115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
         <v>30</v>
       </c>
-      <c r="B115">
+      <c r="B116">
         <v>24773.88</v>
       </c>
-      <c r="C115">
-        <v>4</v>
-      </c>
-      <c r="D115">
-        <v>2025</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>2025</v>
+      </c>
+      <c r="E116" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -831,61 +831,61 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>5140.01</v>
+        <v>21050.1</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26">
         <v>2025</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>27797.8</v>
+        <v>9960</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27">
         <v>2025</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>25236.75</v>
+        <v>3677</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28">
         <v>2025</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B29">
-        <v>36189.46</v>
+        <v>5140.01</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B30">
-        <v>21643.35</v>
+        <v>27797.8</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B31">
-        <v>15533.91</v>
+        <v>25236.75</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B32">
-        <v>19035.4</v>
+        <v>36189.46</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B33">
-        <v>4942.9</v>
+        <v>21643.35</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B34">
-        <v>23856.87</v>
+        <v>15533.91</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B35">
-        <v>31200</v>
+        <v>19035.4</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B36">
-        <v>33164.36</v>
+        <v>4942.9</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B37">
-        <v>38843.63</v>
+        <v>23856.87</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B38">
-        <v>22435.29</v>
+        <v>31200</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B39">
-        <v>27509.4</v>
+        <v>33164.36</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B40">
-        <v>4621.42</v>
+        <v>38843.63</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B41">
-        <v>28514.4</v>
+        <v>22435.29</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B42">
-        <v>18098.79</v>
+        <v>27509.4</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B43">
-        <v>27037.48</v>
+        <v>4621.42</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B44">
-        <v>17122.67</v>
+        <v>28514.4</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B45">
-        <v>17622.85</v>
+        <v>18098.79</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B46">
-        <v>13501.01</v>
+        <v>27037.48</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B47">
-        <v>4054.5</v>
+        <v>17122.67</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B48">
-        <v>25183.26</v>
+        <v>17622.85</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B49">
-        <v>22602.82</v>
+        <v>13501.01</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B50">
-        <v>20180.46</v>
+        <v>4054.5</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B51">
-        <v>37345.11</v>
+        <v>25183.26</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B52">
-        <v>24519.52</v>
+        <v>22602.82</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B53">
-        <v>10903.9</v>
+        <v>20180.46</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B54">
-        <v>6129.8</v>
+        <v>37345.11</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B55">
-        <v>24329.12</v>
+        <v>24519.52</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -1341,61 +1341,61 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B56">
-        <v>17056.87</v>
+        <v>10903.9</v>
       </c>
       <c r="C56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D56">
         <v>2025</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B57">
-        <v>22786.63</v>
+        <v>6129.8</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D57">
         <v>2025</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B58">
-        <v>29255</v>
+        <v>24329.12</v>
       </c>
       <c r="C58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D58">
         <v>2025</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B59">
-        <v>4370</v>
+        <v>17056.87</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B60">
-        <v>35402.64</v>
+        <v>22786.63</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B61">
-        <v>28248.43</v>
+        <v>29255</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B62">
-        <v>31437.91</v>
+        <v>4370</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B63">
-        <v>27732.15</v>
+        <v>35402.64</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B64">
-        <v>25508.17</v>
+        <v>28248.43</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B65">
-        <v>14802.01</v>
+        <v>31437.91</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B66">
-        <v>9776.9</v>
+        <v>27732.15</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B67">
-        <v>31420.44</v>
+        <v>25508.17</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B68">
-        <v>26531.86</v>
+        <v>14802.01</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B69">
-        <v>36574.18</v>
+        <v>9776.9</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B70">
-        <v>33940.79</v>
+        <v>31420.44</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B71">
-        <v>30498.76</v>
+        <v>26531.86</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B72">
-        <v>15120.8</v>
+        <v>36574.18</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B73">
-        <v>8085.01</v>
+        <v>33940.79</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B74">
-        <v>26923.67</v>
+        <v>30498.76</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B75">
-        <v>33090.3</v>
+        <v>15120.8</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B76">
-        <v>25994.16</v>
+        <v>8085.01</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B77">
-        <v>27147.29</v>
+        <v>26923.67</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B78">
-        <v>23820.29</v>
+        <v>33090.3</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B79">
-        <v>34922.72</v>
+        <v>25994.16</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B80">
-        <v>3824.9</v>
+        <v>27147.29</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B81">
-        <v>27831.77</v>
+        <v>23820.29</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B82">
-        <v>24156.31</v>
+        <v>34922.72</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B83">
-        <v>21718.63</v>
+        <v>3824.9</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B84">
-        <v>19445.75</v>
+        <v>27831.77</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B85">
-        <v>26951.12</v>
+        <v>24156.31</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B86">
-        <v>19327.9</v>
+        <v>21718.63</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -1868,61 +1868,61 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B87">
-        <v>19371.37</v>
+        <v>19445.75</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87">
         <v>2025</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B88">
-        <v>29218.71</v>
+        <v>26951.12</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88">
         <v>2025</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B89">
-        <v>19819.3</v>
+        <v>19327.9</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89">
         <v>2025</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B90">
-        <v>25399.91</v>
+        <v>19371.37</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B91">
-        <v>18509.5</v>
+        <v>29218.71</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B92">
-        <v>5823.21</v>
+        <v>19819.3</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B93">
-        <v>21764.19</v>
+        <v>25399.91</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B94">
-        <v>38515.34</v>
+        <v>18509.5</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B95">
-        <v>21733.46</v>
+        <v>5823.21</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B96">
-        <v>25715.4</v>
+        <v>21764.19</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B97">
-        <v>22833.25</v>
+        <v>38515.34</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B98">
-        <v>21596.15</v>
+        <v>21733.46</v>
       </c>
       <c r="C98">
         <v>4</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B99">
-        <v>6451</v>
+        <v>25715.4</v>
       </c>
       <c r="C99">
         <v>4</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B100">
-        <v>24085.6</v>
+        <v>22833.25</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B101">
-        <v>15644.59</v>
+        <v>21596.15</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B102">
-        <v>18372.2</v>
+        <v>6451</v>
       </c>
       <c r="C102">
         <v>4</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B103">
-        <v>23446.19</v>
+        <v>24085.6</v>
       </c>
       <c r="C103">
         <v>4</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B104">
-        <v>15474.35</v>
+        <v>15644.59</v>
       </c>
       <c r="C104">
         <v>4</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B105">
-        <v>9164.799999999999</v>
+        <v>18372.2</v>
       </c>
       <c r="C105">
         <v>4</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B106">
-        <v>2719</v>
+        <v>23446.19</v>
       </c>
       <c r="C106">
         <v>4</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B107">
-        <v>15666.86</v>
+        <v>15474.35</v>
       </c>
       <c r="C107">
         <v>4</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B108">
-        <v>15219.82</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C108">
         <v>4</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B109">
-        <v>19895.36</v>
+        <v>2719</v>
       </c>
       <c r="C109">
         <v>4</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B110">
-        <v>19632.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C110">
         <v>4</v>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B111">
-        <v>19212.07</v>
+        <v>15219.82</v>
       </c>
       <c r="C111">
         <v>4</v>
@@ -2293,10 +2293,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B112">
-        <v>14442</v>
+        <v>19895.36</v>
       </c>
       <c r="C112">
         <v>4</v>
@@ -2310,10 +2310,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B113">
-        <v>5289.3</v>
+        <v>19632.82</v>
       </c>
       <c r="C113">
         <v>4</v>
@@ -2327,10 +2327,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B114">
-        <v>25680.18</v>
+        <v>19212.07</v>
       </c>
       <c r="C114">
         <v>4</v>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B115">
-        <v>21976.8</v>
+        <v>14442</v>
       </c>
       <c r="C115">
         <v>4</v>
@@ -2361,18 +2361,69 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
+        <v>27</v>
+      </c>
+      <c r="B116">
+        <v>5289.3</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>2025</v>
+      </c>
+      <c r="E116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>28</v>
+      </c>
+      <c r="B117">
+        <v>25680.18</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>2025</v>
+      </c>
+      <c r="E117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>29</v>
+      </c>
+      <c r="B118">
+        <v>21976.8</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+      <c r="D118">
+        <v>2025</v>
+      </c>
+      <c r="E118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
         <v>30</v>
       </c>
-      <c r="B116">
+      <c r="B119">
         <v>24773.88</v>
       </c>
-      <c r="C116">
-        <v>4</v>
-      </c>
-      <c r="D116">
-        <v>2025</v>
-      </c>
-      <c r="E116" t="s">
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>2025</v>
+      </c>
+      <c r="E119" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -882,27 +882,27 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>5140.01</v>
+        <v>24381.97</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29">
         <v>2025</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30">
-        <v>27797.8</v>
+        <v>5140.01</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31">
-        <v>25236.75</v>
+        <v>27797.8</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32">
-        <v>36189.46</v>
+        <v>25236.75</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33">
-        <v>21643.35</v>
+        <v>36189.46</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34">
-        <v>15533.91</v>
+        <v>21643.35</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35">
-        <v>19035.4</v>
+        <v>15533.91</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36">
-        <v>4942.9</v>
+        <v>19035.4</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37">
-        <v>23856.87</v>
+        <v>4942.9</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38">
-        <v>31200</v>
+        <v>23856.87</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39">
-        <v>33164.36</v>
+        <v>31200</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40">
-        <v>38843.63</v>
+        <v>33164.36</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41">
-        <v>22435.29</v>
+        <v>38843.63</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42">
-        <v>27509.4</v>
+        <v>22435.29</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43">
-        <v>4621.42</v>
+        <v>27509.4</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B44">
-        <v>28514.4</v>
+        <v>4621.42</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45">
-        <v>18098.79</v>
+        <v>28514.4</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B46">
-        <v>27037.48</v>
+        <v>18098.79</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B47">
-        <v>17122.67</v>
+        <v>27037.48</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B48">
-        <v>17622.85</v>
+        <v>17122.67</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B49">
-        <v>13501.01</v>
+        <v>17622.85</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B50">
-        <v>4054.5</v>
+        <v>13501.01</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B51">
-        <v>25183.26</v>
+        <v>4054.5</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B52">
-        <v>22602.82</v>
+        <v>25183.26</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B53">
-        <v>20180.46</v>
+        <v>22602.82</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B54">
-        <v>37345.11</v>
+        <v>20180.46</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55">
-        <v>24519.52</v>
+        <v>37345.11</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B56">
-        <v>10903.9</v>
+        <v>24519.52</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B57">
-        <v>6129.8</v>
+        <v>10903.9</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B58">
-        <v>24329.12</v>
+        <v>6129.8</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -1392,27 +1392,27 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B59">
-        <v>17056.87</v>
+        <v>24329.12</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D59">
         <v>2025</v>
       </c>
       <c r="E59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B61">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B62">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B63">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B64">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B65">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B67">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B68">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B69">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B70">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B71">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B72">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B73">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B74">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B75">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B76">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B77">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B78">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B79">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B80">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B81">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B82">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B83">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B84">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B85">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B86">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B87">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B88">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C88">
         <v>5</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B89">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C89">
         <v>5</v>
@@ -1919,27 +1919,27 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B90">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90">
         <v>2025</v>
       </c>
       <c r="E90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B91">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B92">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B93">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B94">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B95">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B96">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B97">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B98">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C98">
         <v>4</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B99">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C99">
         <v>4</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B100">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B101">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B102">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C102">
         <v>4</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B103">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C103">
         <v>4</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B104">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C104">
         <v>4</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B105">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C105">
         <v>4</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B106">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C106">
         <v>4</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B107">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C107">
         <v>4</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B108">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C108">
         <v>4</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B109">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C109">
         <v>4</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B110">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C110">
         <v>4</v>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B111">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C111">
         <v>4</v>
@@ -2293,10 +2293,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B112">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C112">
         <v>4</v>
@@ -2310,10 +2310,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B113">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C113">
         <v>4</v>
@@ -2327,10 +2327,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B114">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C114">
         <v>4</v>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B115">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C115">
         <v>4</v>
@@ -2361,10 +2361,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B116">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C116">
         <v>4</v>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B117">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C117">
         <v>4</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B118">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C118">
         <v>4</v>
@@ -2412,18 +2412,35 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119">
+        <v>29</v>
+      </c>
+      <c r="B119">
+        <v>21976.8</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>2025</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
         <v>30</v>
       </c>
-      <c r="B119">
+      <c r="B120">
         <v>24773.88</v>
       </c>
-      <c r="C119">
-        <v>4</v>
-      </c>
-      <c r="D119">
-        <v>2025</v>
-      </c>
-      <c r="E119" t="s">
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>2025</v>
+      </c>
+      <c r="E120" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -899,27 +899,27 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>5140.01</v>
+        <v>20532.76</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D30">
         <v>2025</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31">
-        <v>27797.8</v>
+        <v>5140.01</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32">
-        <v>25236.75</v>
+        <v>27797.8</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33">
-        <v>36189.46</v>
+        <v>25236.75</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34">
-        <v>21643.35</v>
+        <v>36189.46</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35">
-        <v>15533.91</v>
+        <v>21643.35</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36">
-        <v>19035.4</v>
+        <v>15533.91</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37">
-        <v>4942.9</v>
+        <v>19035.4</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38">
-        <v>23856.87</v>
+        <v>4942.9</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39">
-        <v>31200</v>
+        <v>23856.87</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40">
-        <v>33164.36</v>
+        <v>31200</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41">
-        <v>38843.63</v>
+        <v>33164.36</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42">
-        <v>22435.29</v>
+        <v>38843.63</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43">
-        <v>27509.4</v>
+        <v>22435.29</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44">
-        <v>4621.42</v>
+        <v>27509.4</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45">
-        <v>28514.4</v>
+        <v>4621.42</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46">
-        <v>18098.79</v>
+        <v>28514.4</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B47">
-        <v>27037.48</v>
+        <v>18098.79</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B48">
-        <v>17122.67</v>
+        <v>27037.48</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49">
-        <v>17622.85</v>
+        <v>17122.67</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50">
-        <v>13501.01</v>
+        <v>17622.85</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51">
-        <v>4054.5</v>
+        <v>13501.01</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B52">
-        <v>25183.26</v>
+        <v>4054.5</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53">
-        <v>22602.82</v>
+        <v>25183.26</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54">
-        <v>20180.46</v>
+        <v>22602.82</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55">
-        <v>37345.11</v>
+        <v>20180.46</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B56">
-        <v>24519.52</v>
+        <v>37345.11</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57">
-        <v>10903.9</v>
+        <v>24519.52</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58">
-        <v>6129.8</v>
+        <v>10903.9</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59">
-        <v>24329.12</v>
+        <v>6129.8</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -1409,27 +1409,27 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B60">
-        <v>17056.87</v>
+        <v>24329.12</v>
       </c>
       <c r="C60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D60">
         <v>2025</v>
       </c>
       <c r="E60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B61">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B62">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B63">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B64">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B65">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B66">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B67">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B68">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B69">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B70">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B71">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B72">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B73">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B74">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B75">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B76">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B77">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B78">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B79">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B80">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B81">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B82">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B83">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B84">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B85">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B86">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B87">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B88">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C88">
         <v>5</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B89">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C89">
         <v>5</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B90">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C90">
         <v>5</v>
@@ -1936,27 +1936,27 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B91">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91">
         <v>2025</v>
       </c>
       <c r="E91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B92">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B93">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B94">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B95">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B96">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B97">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B98">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C98">
         <v>4</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B99">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C99">
         <v>4</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B100">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B101">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B102">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C102">
         <v>4</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B103">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C103">
         <v>4</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B104">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C104">
         <v>4</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B105">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C105">
         <v>4</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B106">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C106">
         <v>4</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B107">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C107">
         <v>4</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B108">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C108">
         <v>4</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B109">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C109">
         <v>4</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B110">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C110">
         <v>4</v>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B111">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C111">
         <v>4</v>
@@ -2293,10 +2293,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B112">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C112">
         <v>4</v>
@@ -2310,10 +2310,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B113">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C113">
         <v>4</v>
@@ -2327,10 +2327,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B114">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C114">
         <v>4</v>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B115">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C115">
         <v>4</v>
@@ -2361,10 +2361,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B116">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C116">
         <v>4</v>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B117">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C117">
         <v>4</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B118">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C118">
         <v>4</v>
@@ -2412,10 +2412,10 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B119">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C119">
         <v>4</v>
@@ -2429,18 +2429,35 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120">
+        <v>29</v>
+      </c>
+      <c r="B120">
+        <v>21976.8</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>2025</v>
+      </c>
+      <c r="E120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
         <v>30</v>
       </c>
-      <c r="B120">
+      <c r="B121">
         <v>24773.88</v>
       </c>
-      <c r="C120">
-        <v>4</v>
-      </c>
-      <c r="D120">
-        <v>2025</v>
-      </c>
-      <c r="E120" t="s">
+      <c r="C121">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>2025</v>
+      </c>
+      <c r="E121" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -916,27 +916,27 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>5140.01</v>
+        <v>64446.8</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D31">
         <v>2025</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32">
-        <v>27797.8</v>
+        <v>5140.01</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33">
-        <v>25236.75</v>
+        <v>27797.8</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34">
-        <v>36189.46</v>
+        <v>25236.75</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35">
-        <v>21643.35</v>
+        <v>36189.46</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36">
-        <v>15533.91</v>
+        <v>21643.35</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37">
-        <v>19035.4</v>
+        <v>15533.91</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38">
-        <v>4942.9</v>
+        <v>19035.4</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39">
-        <v>23856.87</v>
+        <v>4942.9</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40">
-        <v>31200</v>
+        <v>23856.87</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41">
-        <v>33164.36</v>
+        <v>31200</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42">
-        <v>38843.63</v>
+        <v>33164.36</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43">
-        <v>22435.29</v>
+        <v>38843.63</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44">
-        <v>27509.4</v>
+        <v>22435.29</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B45">
-        <v>4621.42</v>
+        <v>27509.4</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46">
-        <v>28514.4</v>
+        <v>4621.42</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47">
-        <v>18098.79</v>
+        <v>28514.4</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48">
-        <v>27037.48</v>
+        <v>18098.79</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B49">
-        <v>17122.67</v>
+        <v>27037.48</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B50">
-        <v>17622.85</v>
+        <v>17122.67</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B51">
-        <v>13501.01</v>
+        <v>17622.85</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B52">
-        <v>4054.5</v>
+        <v>13501.01</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B53">
-        <v>25183.26</v>
+        <v>4054.5</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B54">
-        <v>22602.82</v>
+        <v>25183.26</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B55">
-        <v>20180.46</v>
+        <v>22602.82</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B56">
-        <v>37345.11</v>
+        <v>20180.46</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B57">
-        <v>24519.52</v>
+        <v>37345.11</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B58">
-        <v>10903.9</v>
+        <v>24519.52</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B59">
-        <v>6129.8</v>
+        <v>10903.9</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B60">
-        <v>24329.12</v>
+        <v>6129.8</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -1426,27 +1426,27 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B61">
-        <v>17056.87</v>
+        <v>24329.12</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D61">
         <v>2025</v>
       </c>
       <c r="E61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B63">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B64">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B65">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B66">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B67">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B68">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B69">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B70">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B71">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B72">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B73">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B74">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B75">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B76">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B77">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B78">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B79">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B80">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B81">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B82">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B83">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B84">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B85">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B86">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B87">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B88">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C88">
         <v>5</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B89">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C89">
         <v>5</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B90">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C90">
         <v>5</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B91">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -1953,27 +1953,27 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B92">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92">
         <v>2025</v>
       </c>
       <c r="E92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B93">
-        <v>29218.71</v>
+        <v>19371.37</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B94">
-        <v>19819.3</v>
+        <v>29218.71</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B95">
-        <v>25399.91</v>
+        <v>19819.3</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B96">
-        <v>18509.5</v>
+        <v>25399.91</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B97">
-        <v>5823.21</v>
+        <v>18509.5</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B98">
-        <v>21764.19</v>
+        <v>5823.21</v>
       </c>
       <c r="C98">
         <v>4</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B99">
-        <v>38515.34</v>
+        <v>21764.19</v>
       </c>
       <c r="C99">
         <v>4</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B100">
-        <v>21733.46</v>
+        <v>38515.34</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B101">
-        <v>25715.4</v>
+        <v>21733.46</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B102">
-        <v>22833.25</v>
+        <v>25715.4</v>
       </c>
       <c r="C102">
         <v>4</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B103">
-        <v>21596.15</v>
+        <v>22833.25</v>
       </c>
       <c r="C103">
         <v>4</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B104">
-        <v>6451</v>
+        <v>21596.15</v>
       </c>
       <c r="C104">
         <v>4</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B105">
-        <v>24085.6</v>
+        <v>6451</v>
       </c>
       <c r="C105">
         <v>4</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B106">
-        <v>15644.59</v>
+        <v>24085.6</v>
       </c>
       <c r="C106">
         <v>4</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B107">
-        <v>18372.2</v>
+        <v>15644.59</v>
       </c>
       <c r="C107">
         <v>4</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B108">
-        <v>23446.19</v>
+        <v>18372.2</v>
       </c>
       <c r="C108">
         <v>4</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B109">
-        <v>15474.35</v>
+        <v>23446.19</v>
       </c>
       <c r="C109">
         <v>4</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B110">
-        <v>9164.799999999999</v>
+        <v>15474.35</v>
       </c>
       <c r="C110">
         <v>4</v>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B111">
-        <v>2719</v>
+        <v>9164.799999999999</v>
       </c>
       <c r="C111">
         <v>4</v>
@@ -2293,10 +2293,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B112">
-        <v>15666.86</v>
+        <v>2719</v>
       </c>
       <c r="C112">
         <v>4</v>
@@ -2310,10 +2310,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B113">
-        <v>15219.82</v>
+        <v>15666.86</v>
       </c>
       <c r="C113">
         <v>4</v>
@@ -2327,10 +2327,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B114">
-        <v>19895.36</v>
+        <v>15219.82</v>
       </c>
       <c r="C114">
         <v>4</v>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B115">
-        <v>19632.82</v>
+        <v>19895.36</v>
       </c>
       <c r="C115">
         <v>4</v>
@@ -2361,10 +2361,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B116">
-        <v>19212.07</v>
+        <v>19632.82</v>
       </c>
       <c r="C116">
         <v>4</v>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B117">
-        <v>14442</v>
+        <v>19212.07</v>
       </c>
       <c r="C117">
         <v>4</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B118">
-        <v>5289.3</v>
+        <v>14442</v>
       </c>
       <c r="C118">
         <v>4</v>
@@ -2412,10 +2412,10 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B119">
-        <v>25680.18</v>
+        <v>5289.3</v>
       </c>
       <c r="C119">
         <v>4</v>
@@ -2429,10 +2429,10 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B120">
-        <v>21976.8</v>
+        <v>25680.18</v>
       </c>
       <c r="C120">
         <v>4</v>
@@ -2446,18 +2446,35 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121">
+        <v>29</v>
+      </c>
+      <c r="B121">
+        <v>21976.8</v>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>2025</v>
+      </c>
+      <c r="E121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
         <v>30</v>
       </c>
-      <c r="B121">
+      <c r="B122">
         <v>24773.88</v>
       </c>
-      <c r="C121">
-        <v>4</v>
-      </c>
-      <c r="D121">
-        <v>2025</v>
-      </c>
-      <c r="E121" t="s">
+      <c r="C122">
+        <v>4</v>
+      </c>
+      <c r="D122">
+        <v>2025</v>
+      </c>
+      <c r="E122" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="8">
   <si>
     <t>Dia</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>05/2025</t>
-  </si>
-  <si>
-    <t>04/2025</t>
   </si>
 </sst>
 </file>
@@ -398,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -933,27 +930,27 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>5140.01</v>
+        <v>27424.66</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32">
         <v>2025</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33">
-        <v>27797.8</v>
+        <v>5140.01</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +964,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34">
-        <v>25236.75</v>
+        <v>27797.8</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +981,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35">
-        <v>36189.46</v>
+        <v>25236.75</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +998,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36">
-        <v>21643.35</v>
+        <v>36189.46</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1015,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37">
-        <v>15533.91</v>
+        <v>21643.35</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1032,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38">
-        <v>19035.4</v>
+        <v>15533.91</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1049,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39">
-        <v>4942.9</v>
+        <v>19035.4</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1066,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40">
-        <v>23856.87</v>
+        <v>4942.9</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1083,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41">
-        <v>31200</v>
+        <v>23856.87</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,10 +1100,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42">
-        <v>33164.36</v>
+        <v>31200</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1120,10 +1117,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B43">
-        <v>38843.63</v>
+        <v>33164.36</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1137,10 +1134,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44">
-        <v>22435.29</v>
+        <v>38843.63</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1154,10 +1151,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B45">
-        <v>27509.4</v>
+        <v>22435.29</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1171,10 +1168,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B46">
-        <v>4621.42</v>
+        <v>27509.4</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -1188,10 +1185,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B47">
-        <v>28514.4</v>
+        <v>4621.42</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -1205,10 +1202,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B48">
-        <v>18098.79</v>
+        <v>28514.4</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -1222,10 +1219,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B49">
-        <v>27037.48</v>
+        <v>18098.79</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -1239,10 +1236,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B50">
-        <v>17122.67</v>
+        <v>27037.48</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -1256,10 +1253,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B51">
-        <v>17622.85</v>
+        <v>17122.67</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -1273,10 +1270,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B52">
-        <v>13501.01</v>
+        <v>17622.85</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -1290,10 +1287,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B53">
-        <v>4054.5</v>
+        <v>13501.01</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -1307,10 +1304,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B54">
-        <v>25183.26</v>
+        <v>4054.5</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -1324,10 +1321,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B55">
-        <v>22602.82</v>
+        <v>25183.26</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -1341,10 +1338,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B56">
-        <v>20180.46</v>
+        <v>22602.82</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -1358,10 +1355,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B57">
-        <v>37345.11</v>
+        <v>20180.46</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -1375,10 +1372,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B58">
-        <v>24519.52</v>
+        <v>37345.11</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -1392,10 +1389,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B59">
-        <v>10903.9</v>
+        <v>24519.52</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -1409,10 +1406,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B60">
-        <v>6129.8</v>
+        <v>10903.9</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -1426,10 +1423,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B61">
-        <v>24329.12</v>
+        <v>6129.8</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -1443,27 +1440,27 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B62">
-        <v>17056.87</v>
+        <v>24329.12</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D62">
         <v>2025</v>
       </c>
       <c r="E62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1474,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B64">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1491,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B65">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,10 +1508,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B66">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1528,10 +1525,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B67">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1545,10 +1542,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B68">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1562,10 +1559,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B69">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1579,10 +1576,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B70">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -1596,10 +1593,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B71">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -1613,10 +1610,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B72">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -1630,10 +1627,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B73">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -1647,10 +1644,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B74">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -1664,10 +1661,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B75">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -1681,10 +1678,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B76">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -1698,10 +1695,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B77">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -1715,10 +1712,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B78">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -1732,10 +1729,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B79">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -1749,10 +1746,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B80">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -1766,10 +1763,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B81">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -1783,10 +1780,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B82">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -1800,10 +1797,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B83">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -1817,10 +1814,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B84">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -1834,10 +1831,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B85">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -1851,10 +1848,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B86">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -1868,10 +1865,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B87">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -1885,10 +1882,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B88">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C88">
         <v>5</v>
@@ -1902,10 +1899,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B89">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C89">
         <v>5</v>
@@ -1919,10 +1916,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B90">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C90">
         <v>5</v>
@@ -1936,10 +1933,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B91">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -1953,10 +1950,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B92">
-        <v>19327.9</v>
+        <v>26951.12</v>
       </c>
       <c r="C92">
         <v>5</v>
@@ -1970,512 +1967,19 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B93">
-        <v>19371.37</v>
+        <v>19327.9</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93">
         <v>2025</v>
       </c>
       <c r="E93" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94">
-        <v>2</v>
-      </c>
-      <c r="B94">
-        <v>29218.71</v>
-      </c>
-      <c r="C94">
-        <v>4</v>
-      </c>
-      <c r="D94">
-        <v>2025</v>
-      </c>
-      <c r="E94" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95">
-        <v>3</v>
-      </c>
-      <c r="B95">
-        <v>19819.3</v>
-      </c>
-      <c r="C95">
-        <v>4</v>
-      </c>
-      <c r="D95">
-        <v>2025</v>
-      </c>
-      <c r="E95" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96">
-        <v>4</v>
-      </c>
-      <c r="B96">
-        <v>25399.91</v>
-      </c>
-      <c r="C96">
-        <v>4</v>
-      </c>
-      <c r="D96">
-        <v>2025</v>
-      </c>
-      <c r="E96" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97">
-        <v>5</v>
-      </c>
-      <c r="B97">
-        <v>18509.5</v>
-      </c>
-      <c r="C97">
-        <v>4</v>
-      </c>
-      <c r="D97">
-        <v>2025</v>
-      </c>
-      <c r="E97" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98">
-        <v>6</v>
-      </c>
-      <c r="B98">
-        <v>5823.21</v>
-      </c>
-      <c r="C98">
-        <v>4</v>
-      </c>
-      <c r="D98">
-        <v>2025</v>
-      </c>
-      <c r="E98" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99">
-        <v>7</v>
-      </c>
-      <c r="B99">
-        <v>21764.19</v>
-      </c>
-      <c r="C99">
-        <v>4</v>
-      </c>
-      <c r="D99">
-        <v>2025</v>
-      </c>
-      <c r="E99" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100">
-        <v>8</v>
-      </c>
-      <c r="B100">
-        <v>38515.34</v>
-      </c>
-      <c r="C100">
-        <v>4</v>
-      </c>
-      <c r="D100">
-        <v>2025</v>
-      </c>
-      <c r="E100" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101">
-        <v>9</v>
-      </c>
-      <c r="B101">
-        <v>21733.46</v>
-      </c>
-      <c r="C101">
-        <v>4</v>
-      </c>
-      <c r="D101">
-        <v>2025</v>
-      </c>
-      <c r="E101" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102">
-        <v>10</v>
-      </c>
-      <c r="B102">
-        <v>25715.4</v>
-      </c>
-      <c r="C102">
-        <v>4</v>
-      </c>
-      <c r="D102">
-        <v>2025</v>
-      </c>
-      <c r="E102" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103">
-        <v>11</v>
-      </c>
-      <c r="B103">
-        <v>22833.25</v>
-      </c>
-      <c r="C103">
-        <v>4</v>
-      </c>
-      <c r="D103">
-        <v>2025</v>
-      </c>
-      <c r="E103" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104">
-        <v>12</v>
-      </c>
-      <c r="B104">
-        <v>21596.15</v>
-      </c>
-      <c r="C104">
-        <v>4</v>
-      </c>
-      <c r="D104">
-        <v>2025</v>
-      </c>
-      <c r="E104" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105">
-        <v>13</v>
-      </c>
-      <c r="B105">
-        <v>6451</v>
-      </c>
-      <c r="C105">
-        <v>4</v>
-      </c>
-      <c r="D105">
-        <v>2025</v>
-      </c>
-      <c r="E105" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106">
-        <v>14</v>
-      </c>
-      <c r="B106">
-        <v>24085.6</v>
-      </c>
-      <c r="C106">
-        <v>4</v>
-      </c>
-      <c r="D106">
-        <v>2025</v>
-      </c>
-      <c r="E106" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107">
-        <v>15</v>
-      </c>
-      <c r="B107">
-        <v>15644.59</v>
-      </c>
-      <c r="C107">
-        <v>4</v>
-      </c>
-      <c r="D107">
-        <v>2025</v>
-      </c>
-      <c r="E107" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108">
-        <v>16</v>
-      </c>
-      <c r="B108">
-        <v>18372.2</v>
-      </c>
-      <c r="C108">
-        <v>4</v>
-      </c>
-      <c r="D108">
-        <v>2025</v>
-      </c>
-      <c r="E108" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109">
-        <v>17</v>
-      </c>
-      <c r="B109">
-        <v>23446.19</v>
-      </c>
-      <c r="C109">
-        <v>4</v>
-      </c>
-      <c r="D109">
-        <v>2025</v>
-      </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110">
-        <v>18</v>
-      </c>
-      <c r="B110">
-        <v>15474.35</v>
-      </c>
-      <c r="C110">
-        <v>4</v>
-      </c>
-      <c r="D110">
-        <v>2025</v>
-      </c>
-      <c r="E110" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111">
-        <v>19</v>
-      </c>
-      <c r="B111">
-        <v>9164.799999999999</v>
-      </c>
-      <c r="C111">
-        <v>4</v>
-      </c>
-      <c r="D111">
-        <v>2025</v>
-      </c>
-      <c r="E111" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112">
-        <v>20</v>
-      </c>
-      <c r="B112">
-        <v>2719</v>
-      </c>
-      <c r="C112">
-        <v>4</v>
-      </c>
-      <c r="D112">
-        <v>2025</v>
-      </c>
-      <c r="E112" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113">
-        <v>21</v>
-      </c>
-      <c r="B113">
-        <v>15666.86</v>
-      </c>
-      <c r="C113">
-        <v>4</v>
-      </c>
-      <c r="D113">
-        <v>2025</v>
-      </c>
-      <c r="E113" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114">
-        <v>22</v>
-      </c>
-      <c r="B114">
-        <v>15219.82</v>
-      </c>
-      <c r="C114">
-        <v>4</v>
-      </c>
-      <c r="D114">
-        <v>2025</v>
-      </c>
-      <c r="E114" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115">
-        <v>23</v>
-      </c>
-      <c r="B115">
-        <v>19895.36</v>
-      </c>
-      <c r="C115">
-        <v>4</v>
-      </c>
-      <c r="D115">
-        <v>2025</v>
-      </c>
-      <c r="E115" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116">
-        <v>24</v>
-      </c>
-      <c r="B116">
-        <v>19632.82</v>
-      </c>
-      <c r="C116">
-        <v>4</v>
-      </c>
-      <c r="D116">
-        <v>2025</v>
-      </c>
-      <c r="E116" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117">
-        <v>25</v>
-      </c>
-      <c r="B117">
-        <v>19212.07</v>
-      </c>
-      <c r="C117">
-        <v>4</v>
-      </c>
-      <c r="D117">
-        <v>2025</v>
-      </c>
-      <c r="E117" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118">
-        <v>26</v>
-      </c>
-      <c r="B118">
-        <v>14442</v>
-      </c>
-      <c r="C118">
-        <v>4</v>
-      </c>
-      <c r="D118">
-        <v>2025</v>
-      </c>
-      <c r="E118" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119">
-        <v>27</v>
-      </c>
-      <c r="B119">
-        <v>5289.3</v>
-      </c>
-      <c r="C119">
-        <v>4</v>
-      </c>
-      <c r="D119">
-        <v>2025</v>
-      </c>
-      <c r="E119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120">
-        <v>28</v>
-      </c>
-      <c r="B120">
-        <v>25680.18</v>
-      </c>
-      <c r="C120">
-        <v>4</v>
-      </c>
-      <c r="D120">
-        <v>2025</v>
-      </c>
-      <c r="E120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121">
-        <v>29</v>
-      </c>
-      <c r="B121">
-        <v>21976.8</v>
-      </c>
-      <c r="C121">
-        <v>4</v>
-      </c>
-      <c r="D121">
-        <v>2025</v>
-      </c>
-      <c r="E121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122">
-        <v>30</v>
-      </c>
-      <c r="B122">
-        <v>24773.88</v>
-      </c>
-      <c r="C122">
-        <v>4</v>
-      </c>
-      <c r="D122">
-        <v>2025</v>
-      </c>
-      <c r="E122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Período</t>
+  </si>
+  <si>
+    <t>08/2025</t>
   </si>
   <si>
     <t>07/2025</t>
@@ -395,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,10 +426,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>17734.16</v>
+        <v>21751.6</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>2025</v>
@@ -440,10 +443,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>21194.65</v>
+        <v>20735.7</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>2025</v>
@@ -457,10 +460,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>22892.33</v>
+        <v>5020</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>2025</v>
@@ -471,10 +474,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>25204.24</v>
+        <v>17734.16</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -483,15 +486,15 @@
         <v>2025</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>15236.75</v>
+        <v>21194.65</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -500,15 +503,15 @@
         <v>2025</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>5666.65</v>
+        <v>22892.33</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -517,15 +520,15 @@
         <v>2025</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>21527.67</v>
+        <v>25204.24</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -534,15 +537,15 @@
         <v>2025</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>17965.81</v>
+        <v>15236.75</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -551,15 +554,15 @@
         <v>2025</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>18313.97</v>
+        <v>5666.65</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -568,15 +571,15 @@
         <v>2025</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>21266</v>
+        <v>21527.67</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -585,15 +588,15 @@
         <v>2025</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>25398.22</v>
+        <v>17965.81</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -602,15 +605,15 @@
         <v>2025</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>10045.9</v>
+        <v>18313.97</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -619,15 +622,15 @@
         <v>2025</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>2989.9</v>
+        <v>21266</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -636,15 +639,15 @@
         <v>2025</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>21313.41</v>
+        <v>25398.22</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -653,15 +656,15 @@
         <v>2025</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>32100.04</v>
+        <v>10045.9</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -670,15 +673,15 @@
         <v>2025</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>30864.92</v>
+        <v>2989.9</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -687,15 +690,15 @@
         <v>2025</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>20643.07</v>
+        <v>21313.41</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -704,15 +707,15 @@
         <v>2025</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19">
-        <v>21820.3</v>
+        <v>32100.04</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -721,15 +724,15 @@
         <v>2025</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>15007.65</v>
+        <v>30864.92</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -738,15 +741,15 @@
         <v>2025</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21">
-        <v>3733</v>
+        <v>20643.07</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -755,15 +758,15 @@
         <v>2025</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>26242.62</v>
+        <v>21820.3</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -772,15 +775,15 @@
         <v>2025</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23">
-        <v>16345.2</v>
+        <v>15007.65</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -789,15 +792,15 @@
         <v>2025</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B24">
-        <v>14800.32</v>
+        <v>3733</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -806,15 +809,15 @@
         <v>2025</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25">
-        <v>15029.97</v>
+        <v>26242.62</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -823,15 +826,15 @@
         <v>2025</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <v>21050.1</v>
+        <v>16345.2</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -840,15 +843,15 @@
         <v>2025</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27">
-        <v>9960</v>
+        <v>14800.32</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -857,15 +860,15 @@
         <v>2025</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28">
-        <v>3677</v>
+        <v>15029.97</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -874,15 +877,15 @@
         <v>2025</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B29">
-        <v>24381.97</v>
+        <v>21050.1</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -891,15 +894,15 @@
         <v>2025</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30">
-        <v>20532.76</v>
+        <v>9960</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -908,15 +911,15 @@
         <v>2025</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B31">
-        <v>64446.8</v>
+        <v>3677</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -925,15 +928,15 @@
         <v>2025</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B32">
-        <v>27424.66</v>
+        <v>24381.97</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -942,18 +945,18 @@
         <v>2025</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B33">
-        <v>5140.01</v>
+        <v>20532.76</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D33">
         <v>2025</v>
@@ -964,13 +967,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B34">
-        <v>27797.8</v>
+        <v>64446.8</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D34">
         <v>2025</v>
@@ -981,13 +984,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B35">
-        <v>25236.75</v>
+        <v>27424.66</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35">
         <v>2025</v>
@@ -998,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B36">
-        <v>36189.46</v>
+        <v>5140.01</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1010,15 +1013,15 @@
         <v>2025</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B37">
-        <v>21643.35</v>
+        <v>27797.8</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1027,15 +1030,15 @@
         <v>2025</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B38">
-        <v>15533.91</v>
+        <v>25236.75</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1044,15 +1047,15 @@
         <v>2025</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B39">
-        <v>19035.4</v>
+        <v>36189.46</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1061,15 +1064,15 @@
         <v>2025</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B40">
-        <v>4942.9</v>
+        <v>21643.35</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1078,15 +1081,15 @@
         <v>2025</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B41">
-        <v>23856.87</v>
+        <v>15533.91</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1095,15 +1098,15 @@
         <v>2025</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B42">
-        <v>31200</v>
+        <v>19035.4</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1112,15 +1115,15 @@
         <v>2025</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B43">
-        <v>33164.36</v>
+        <v>4942.9</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1129,15 +1132,15 @@
         <v>2025</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B44">
-        <v>38843.63</v>
+        <v>23856.87</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1146,15 +1149,15 @@
         <v>2025</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B45">
-        <v>22435.29</v>
+        <v>31200</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1163,15 +1166,15 @@
         <v>2025</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B46">
-        <v>27509.4</v>
+        <v>33164.36</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -1180,15 +1183,15 @@
         <v>2025</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B47">
-        <v>4621.42</v>
+        <v>38843.63</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -1197,15 +1200,15 @@
         <v>2025</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B48">
-        <v>28514.4</v>
+        <v>22435.29</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -1214,15 +1217,15 @@
         <v>2025</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B49">
-        <v>18098.79</v>
+        <v>27509.4</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -1231,15 +1234,15 @@
         <v>2025</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B50">
-        <v>27037.48</v>
+        <v>4621.42</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -1248,15 +1251,15 @@
         <v>2025</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B51">
-        <v>17122.67</v>
+        <v>28514.4</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -1265,15 +1268,15 @@
         <v>2025</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B52">
-        <v>17622.85</v>
+        <v>18098.79</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -1282,15 +1285,15 @@
         <v>2025</v>
       </c>
       <c r="E52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B53">
-        <v>13501.01</v>
+        <v>27037.48</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -1299,15 +1302,15 @@
         <v>2025</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B54">
-        <v>4054.5</v>
+        <v>17122.67</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -1316,15 +1319,15 @@
         <v>2025</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B55">
-        <v>25183.26</v>
+        <v>17622.85</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -1333,15 +1336,15 @@
         <v>2025</v>
       </c>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B56">
-        <v>22602.82</v>
+        <v>13501.01</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -1350,15 +1353,15 @@
         <v>2025</v>
       </c>
       <c r="E56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B57">
-        <v>20180.46</v>
+        <v>4054.5</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -1367,15 +1370,15 @@
         <v>2025</v>
       </c>
       <c r="E57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B58">
-        <v>37345.11</v>
+        <v>25183.26</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -1384,15 +1387,15 @@
         <v>2025</v>
       </c>
       <c r="E58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B59">
-        <v>24519.52</v>
+        <v>22602.82</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -1401,15 +1404,15 @@
         <v>2025</v>
       </c>
       <c r="E59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B60">
-        <v>10903.9</v>
+        <v>20180.46</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -1418,15 +1421,15 @@
         <v>2025</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B61">
-        <v>6129.8</v>
+        <v>37345.11</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -1435,15 +1438,15 @@
         <v>2025</v>
       </c>
       <c r="E61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B62">
-        <v>24329.12</v>
+        <v>24519.52</v>
       </c>
       <c r="C62">
         <v>6</v>
@@ -1452,18 +1455,18 @@
         <v>2025</v>
       </c>
       <c r="E62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B63">
-        <v>17056.87</v>
+        <v>10903.9</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D63">
         <v>2025</v>
@@ -1474,13 +1477,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B64">
-        <v>22786.63</v>
+        <v>6129.8</v>
       </c>
       <c r="C64">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D64">
         <v>2025</v>
@@ -1491,13 +1494,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B65">
-        <v>29255</v>
+        <v>24329.12</v>
       </c>
       <c r="C65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D65">
         <v>2025</v>
@@ -1508,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B66">
-        <v>4370</v>
+        <v>17056.87</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1520,15 +1523,15 @@
         <v>2025</v>
       </c>
       <c r="E66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B67">
-        <v>35402.64</v>
+        <v>22786.63</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1537,15 +1540,15 @@
         <v>2025</v>
       </c>
       <c r="E67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B68">
-        <v>28248.43</v>
+        <v>29255</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1554,15 +1557,15 @@
         <v>2025</v>
       </c>
       <c r="E68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B69">
-        <v>31437.91</v>
+        <v>4370</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1571,15 +1574,15 @@
         <v>2025</v>
       </c>
       <c r="E69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B70">
-        <v>27732.15</v>
+        <v>35402.64</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -1588,15 +1591,15 @@
         <v>2025</v>
       </c>
       <c r="E70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B71">
-        <v>25508.17</v>
+        <v>28248.43</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -1605,15 +1608,15 @@
         <v>2025</v>
       </c>
       <c r="E71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B72">
-        <v>14802.01</v>
+        <v>31437.91</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -1622,15 +1625,15 @@
         <v>2025</v>
       </c>
       <c r="E72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B73">
-        <v>9776.9</v>
+        <v>27732.15</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -1639,15 +1642,15 @@
         <v>2025</v>
       </c>
       <c r="E73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B74">
-        <v>31420.44</v>
+        <v>25508.17</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -1656,15 +1659,15 @@
         <v>2025</v>
       </c>
       <c r="E74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B75">
-        <v>26531.86</v>
+        <v>14802.01</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -1673,15 +1676,15 @@
         <v>2025</v>
       </c>
       <c r="E75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B76">
-        <v>36574.18</v>
+        <v>9776.9</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -1690,15 +1693,15 @@
         <v>2025</v>
       </c>
       <c r="E76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B77">
-        <v>33940.79</v>
+        <v>31420.44</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -1707,15 +1710,15 @@
         <v>2025</v>
       </c>
       <c r="E77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B78">
-        <v>30498.76</v>
+        <v>26531.86</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -1724,15 +1727,15 @@
         <v>2025</v>
       </c>
       <c r="E78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B79">
-        <v>15120.8</v>
+        <v>36574.18</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -1741,15 +1744,15 @@
         <v>2025</v>
       </c>
       <c r="E79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B80">
-        <v>8085.01</v>
+        <v>33940.79</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -1758,15 +1761,15 @@
         <v>2025</v>
       </c>
       <c r="E80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B81">
-        <v>26923.67</v>
+        <v>30498.76</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -1775,15 +1778,15 @@
         <v>2025</v>
       </c>
       <c r="E81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B82">
-        <v>33090.3</v>
+        <v>15120.8</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -1792,15 +1795,15 @@
         <v>2025</v>
       </c>
       <c r="E82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B83">
-        <v>25994.16</v>
+        <v>8085.01</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -1809,15 +1812,15 @@
         <v>2025</v>
       </c>
       <c r="E83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B84">
-        <v>27147.29</v>
+        <v>26923.67</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -1826,15 +1829,15 @@
         <v>2025</v>
       </c>
       <c r="E84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B85">
-        <v>23820.29</v>
+        <v>33090.3</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -1843,15 +1846,15 @@
         <v>2025</v>
       </c>
       <c r="E85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B86">
-        <v>34922.72</v>
+        <v>25994.16</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -1860,15 +1863,15 @@
         <v>2025</v>
       </c>
       <c r="E86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B87">
-        <v>3824.9</v>
+        <v>27147.29</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -1877,15 +1880,15 @@
         <v>2025</v>
       </c>
       <c r="E87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B88">
-        <v>27831.77</v>
+        <v>23820.29</v>
       </c>
       <c r="C88">
         <v>5</v>
@@ -1894,15 +1897,15 @@
         <v>2025</v>
       </c>
       <c r="E88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B89">
-        <v>24156.31</v>
+        <v>34922.72</v>
       </c>
       <c r="C89">
         <v>5</v>
@@ -1911,15 +1914,15 @@
         <v>2025</v>
       </c>
       <c r="E89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B90">
-        <v>21718.63</v>
+        <v>3824.9</v>
       </c>
       <c r="C90">
         <v>5</v>
@@ -1928,15 +1931,15 @@
         <v>2025</v>
       </c>
       <c r="E90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B91">
-        <v>19445.75</v>
+        <v>27831.77</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -1945,15 +1948,15 @@
         <v>2025</v>
       </c>
       <c r="E91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B92">
-        <v>26951.12</v>
+        <v>24156.31</v>
       </c>
       <c r="C92">
         <v>5</v>
@@ -1962,24 +1965,75 @@
         <v>2025</v>
       </c>
       <c r="E92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
+        <v>28</v>
+      </c>
+      <c r="B93">
+        <v>21718.63</v>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+      <c r="D93">
+        <v>2025</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>29</v>
+      </c>
+      <c r="B94">
+        <v>19445.75</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
+      </c>
+      <c r="D94">
+        <v>2025</v>
+      </c>
+      <c r="E94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>30</v>
+      </c>
+      <c r="B95">
+        <v>26951.12</v>
+      </c>
+      <c r="C95">
+        <v>5</v>
+      </c>
+      <c r="D95">
+        <v>2025</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
         <v>31</v>
       </c>
-      <c r="B93">
+      <c r="B96">
         <v>19327.9</v>
       </c>
-      <c r="C93">
-        <v>5</v>
-      </c>
-      <c r="D93">
-        <v>2025</v>
-      </c>
-      <c r="E93" t="s">
-        <v>7</v>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>2025</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,27 +474,27 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>17734.16</v>
+        <v>24909.02</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>2025</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>21194.65</v>
+        <v>17734.16</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -508,10 +508,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>22892.33</v>
+        <v>21194.65</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>25204.24</v>
+        <v>22892.33</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>15236.75</v>
+        <v>25204.24</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>5666.65</v>
+        <v>15236.75</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>21527.67</v>
+        <v>5666.65</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>17965.81</v>
+        <v>21527.67</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>18313.97</v>
+        <v>17965.81</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>21266</v>
+        <v>18313.97</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>25398.22</v>
+        <v>21266</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>10045.9</v>
+        <v>25398.22</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>2989.9</v>
+        <v>10045.9</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>21313.41</v>
+        <v>2989.9</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19">
-        <v>32100.04</v>
+        <v>21313.41</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>30864.92</v>
+        <v>32100.04</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>20643.07</v>
+        <v>30864.92</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>21820.3</v>
+        <v>20643.07</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23">
-        <v>15007.65</v>
+        <v>21820.3</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24">
-        <v>3733</v>
+        <v>15007.65</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25">
-        <v>26242.62</v>
+        <v>3733</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>16345.2</v>
+        <v>26242.62</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27">
-        <v>14800.32</v>
+        <v>16345.2</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28">
-        <v>15029.97</v>
+        <v>14800.32</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29">
-        <v>21050.1</v>
+        <v>15029.97</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30">
-        <v>9960</v>
+        <v>21050.1</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31">
-        <v>3677</v>
+        <v>9960</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32">
-        <v>24381.97</v>
+        <v>3677</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33">
-        <v>20532.76</v>
+        <v>24381.97</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34">
-        <v>64446.8</v>
+        <v>20532.76</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35">
-        <v>27424.66</v>
+        <v>64446.8</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -1001,27 +1001,27 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B36">
-        <v>5140.01</v>
+        <v>27424.66</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D36">
         <v>2025</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37">
-        <v>27797.8</v>
+        <v>5140.01</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38">
-        <v>25236.75</v>
+        <v>27797.8</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39">
-        <v>36189.46</v>
+        <v>25236.75</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40">
-        <v>21643.35</v>
+        <v>36189.46</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41">
-        <v>15533.91</v>
+        <v>21643.35</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42">
-        <v>19035.4</v>
+        <v>15533.91</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43">
-        <v>4942.9</v>
+        <v>19035.4</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44">
-        <v>23856.87</v>
+        <v>4942.9</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45">
-        <v>31200</v>
+        <v>23856.87</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46">
-        <v>33164.36</v>
+        <v>31200</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47">
-        <v>38843.63</v>
+        <v>33164.36</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48">
-        <v>22435.29</v>
+        <v>38843.63</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B49">
-        <v>27509.4</v>
+        <v>22435.29</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B50">
-        <v>4621.42</v>
+        <v>27509.4</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B51">
-        <v>28514.4</v>
+        <v>4621.42</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B52">
-        <v>18098.79</v>
+        <v>28514.4</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B53">
-        <v>27037.48</v>
+        <v>18098.79</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B54">
-        <v>17122.67</v>
+        <v>27037.48</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B55">
-        <v>17622.85</v>
+        <v>17122.67</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B56">
-        <v>13501.01</v>
+        <v>17622.85</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B57">
-        <v>4054.5</v>
+        <v>13501.01</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B58">
-        <v>25183.26</v>
+        <v>4054.5</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B59">
-        <v>22602.82</v>
+        <v>25183.26</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B60">
-        <v>20180.46</v>
+        <v>22602.82</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B61">
-        <v>37345.11</v>
+        <v>20180.46</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B62">
-        <v>24519.52</v>
+        <v>37345.11</v>
       </c>
       <c r="C62">
         <v>6</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B63">
-        <v>10903.9</v>
+        <v>24519.52</v>
       </c>
       <c r="C63">
         <v>6</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B64">
-        <v>6129.8</v>
+        <v>10903.9</v>
       </c>
       <c r="C64">
         <v>6</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B65">
-        <v>24329.12</v>
+        <v>6129.8</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -1511,27 +1511,27 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B66">
-        <v>17056.87</v>
+        <v>24329.12</v>
       </c>
       <c r="C66">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D66">
         <v>2025</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B68">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B69">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B70">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B71">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B72">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B73">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B74">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B75">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B76">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B77">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B78">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B79">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B80">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B81">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B82">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B83">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B84">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B85">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B86">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B87">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B88">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C88">
         <v>5</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B89">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C89">
         <v>5</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B90">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C90">
         <v>5</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B91">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B92">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C92">
         <v>5</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B93">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C93">
         <v>5</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B94">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C94">
         <v>5</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B95">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C95">
         <v>5</v>
@@ -2021,18 +2021,35 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
+        <v>30</v>
+      </c>
+      <c r="B96">
+        <v>26951.12</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>2025</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
         <v>31</v>
       </c>
-      <c r="B96">
+      <c r="B97">
         <v>19327.9</v>
       </c>
-      <c r="C96">
-        <v>5</v>
-      </c>
-      <c r="D96">
-        <v>2025</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="C97">
+        <v>5</v>
+      </c>
+      <c r="D97">
+        <v>2025</v>
+      </c>
+      <c r="E97" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -491,27 +491,27 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>17734.16</v>
+        <v>21047.97</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>2025</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>21194.65</v>
+        <v>17734.16</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>22892.33</v>
+        <v>21194.65</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>25204.24</v>
+        <v>22892.33</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>15236.75</v>
+        <v>25204.24</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>5666.65</v>
+        <v>15236.75</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>21527.67</v>
+        <v>5666.65</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>17965.81</v>
+        <v>21527.67</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>18313.97</v>
+        <v>17965.81</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>21266</v>
+        <v>18313.97</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>25398.22</v>
+        <v>21266</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>10045.9</v>
+        <v>25398.22</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>2989.9</v>
+        <v>10045.9</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>21313.41</v>
+        <v>2989.9</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>32100.04</v>
+        <v>21313.41</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21">
-        <v>30864.92</v>
+        <v>32100.04</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>20643.07</v>
+        <v>30864.92</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23">
-        <v>21820.3</v>
+        <v>20643.07</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24">
-        <v>15007.65</v>
+        <v>21820.3</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25">
-        <v>3733</v>
+        <v>15007.65</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26">
-        <v>26242.62</v>
+        <v>3733</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27">
-        <v>16345.2</v>
+        <v>26242.62</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28">
-        <v>14800.32</v>
+        <v>16345.2</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29">
-        <v>15029.97</v>
+        <v>14800.32</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30">
-        <v>21050.1</v>
+        <v>15029.97</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31">
-        <v>9960</v>
+        <v>21050.1</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32">
-        <v>3677</v>
+        <v>9960</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33">
-        <v>24381.97</v>
+        <v>3677</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34">
-        <v>20532.76</v>
+        <v>24381.97</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35">
-        <v>64446.8</v>
+        <v>20532.76</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36">
-        <v>27424.66</v>
+        <v>64446.8</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -1018,27 +1018,27 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B37">
-        <v>5140.01</v>
+        <v>27424.66</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D37">
         <v>2025</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38">
-        <v>27797.8</v>
+        <v>5140.01</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39">
-        <v>25236.75</v>
+        <v>27797.8</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40">
-        <v>36189.46</v>
+        <v>25236.75</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41">
-        <v>21643.35</v>
+        <v>36189.46</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42">
-        <v>15533.91</v>
+        <v>21643.35</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43">
-        <v>19035.4</v>
+        <v>15533.91</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44">
-        <v>4942.9</v>
+        <v>19035.4</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45">
-        <v>23856.87</v>
+        <v>4942.9</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B46">
-        <v>31200</v>
+        <v>23856.87</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47">
-        <v>33164.36</v>
+        <v>31200</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B48">
-        <v>38843.63</v>
+        <v>33164.36</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49">
-        <v>22435.29</v>
+        <v>38843.63</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B50">
-        <v>27509.4</v>
+        <v>22435.29</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51">
-        <v>4621.42</v>
+        <v>27509.4</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52">
-        <v>28514.4</v>
+        <v>4621.42</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B53">
-        <v>18098.79</v>
+        <v>28514.4</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B54">
-        <v>27037.48</v>
+        <v>18098.79</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B55">
-        <v>17122.67</v>
+        <v>27037.48</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56">
-        <v>17622.85</v>
+        <v>17122.67</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B57">
-        <v>13501.01</v>
+        <v>17622.85</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B58">
-        <v>4054.5</v>
+        <v>13501.01</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B59">
-        <v>25183.26</v>
+        <v>4054.5</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B60">
-        <v>22602.82</v>
+        <v>25183.26</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B61">
-        <v>20180.46</v>
+        <v>22602.82</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B62">
-        <v>37345.11</v>
+        <v>20180.46</v>
       </c>
       <c r="C62">
         <v>6</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B63">
-        <v>24519.52</v>
+        <v>37345.11</v>
       </c>
       <c r="C63">
         <v>6</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B64">
-        <v>10903.9</v>
+        <v>24519.52</v>
       </c>
       <c r="C64">
         <v>6</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B65">
-        <v>6129.8</v>
+        <v>10903.9</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B66">
-        <v>24329.12</v>
+        <v>6129.8</v>
       </c>
       <c r="C66">
         <v>6</v>
@@ -1528,27 +1528,27 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B67">
-        <v>17056.87</v>
+        <v>24329.12</v>
       </c>
       <c r="C67">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D67">
         <v>2025</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B68">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B69">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B70">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B71">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B72">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B73">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B74">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B75">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B76">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B77">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B78">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B79">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B80">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B81">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B82">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B83">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B84">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B85">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B86">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B87">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B88">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C88">
         <v>5</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B89">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C89">
         <v>5</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B90">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C90">
         <v>5</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B91">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B92">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C92">
         <v>5</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B93">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C93">
         <v>5</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B94">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C94">
         <v>5</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B95">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C95">
         <v>5</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B96">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C96">
         <v>5</v>
@@ -2038,18 +2038,35 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
+        <v>30</v>
+      </c>
+      <c r="B97">
+        <v>26951.12</v>
+      </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
+      <c r="D97">
+        <v>2025</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
         <v>31</v>
       </c>
-      <c r="B97">
+      <c r="B98">
         <v>19327.9</v>
       </c>
-      <c r="C97">
-        <v>5</v>
-      </c>
-      <c r="D97">
-        <v>2025</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="C98">
+        <v>5</v>
+      </c>
+      <c r="D98">
+        <v>2025</v>
+      </c>
+      <c r="E98" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,27 +508,27 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>17734.16</v>
+        <v>16533.99</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>2025</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>21194.65</v>
+        <v>17734.16</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>22892.33</v>
+        <v>21194.65</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>25204.24</v>
+        <v>22892.33</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>15236.75</v>
+        <v>25204.24</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>5666.65</v>
+        <v>15236.75</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>21527.67</v>
+        <v>5666.65</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>17965.81</v>
+        <v>21527.67</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15">
-        <v>18313.97</v>
+        <v>17965.81</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16">
-        <v>21266</v>
+        <v>18313.97</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17">
-        <v>25398.22</v>
+        <v>21266</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>10045.9</v>
+        <v>25398.22</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>2989.9</v>
+        <v>10045.9</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>21313.41</v>
+        <v>2989.9</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21">
-        <v>32100.04</v>
+        <v>21313.41</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>30864.92</v>
+        <v>32100.04</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23">
-        <v>20643.07</v>
+        <v>30864.92</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24">
-        <v>21820.3</v>
+        <v>20643.07</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25">
-        <v>15007.65</v>
+        <v>21820.3</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26">
-        <v>3733</v>
+        <v>15007.65</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27">
-        <v>26242.62</v>
+        <v>3733</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28">
-        <v>16345.2</v>
+        <v>26242.62</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29">
-        <v>14800.32</v>
+        <v>16345.2</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30">
-        <v>15029.97</v>
+        <v>14800.32</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31">
-        <v>21050.1</v>
+        <v>15029.97</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32">
-        <v>9960</v>
+        <v>21050.1</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33">
-        <v>3677</v>
+        <v>9960</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34">
-        <v>24381.97</v>
+        <v>3677</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35">
-        <v>20532.76</v>
+        <v>24381.97</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36">
-        <v>64446.8</v>
+        <v>20532.76</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37">
-        <v>27424.66</v>
+        <v>64446.8</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -1035,27 +1035,27 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B38">
-        <v>5140.01</v>
+        <v>27424.66</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D38">
         <v>2025</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39">
-        <v>27797.8</v>
+        <v>5140.01</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40">
-        <v>25236.75</v>
+        <v>27797.8</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41">
-        <v>36189.46</v>
+        <v>25236.75</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42">
-        <v>21643.35</v>
+        <v>36189.46</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43">
-        <v>15533.91</v>
+        <v>21643.35</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44">
-        <v>19035.4</v>
+        <v>15533.91</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45">
-        <v>4942.9</v>
+        <v>19035.4</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B46">
-        <v>23856.87</v>
+        <v>4942.9</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B47">
-        <v>31200</v>
+        <v>23856.87</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48">
-        <v>33164.36</v>
+        <v>31200</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B49">
-        <v>38843.63</v>
+        <v>33164.36</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B50">
-        <v>22435.29</v>
+        <v>38843.63</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B51">
-        <v>27509.4</v>
+        <v>22435.29</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B52">
-        <v>4621.42</v>
+        <v>27509.4</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B53">
-        <v>28514.4</v>
+        <v>4621.42</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B54">
-        <v>18098.79</v>
+        <v>28514.4</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B55">
-        <v>27037.48</v>
+        <v>18098.79</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B56">
-        <v>17122.67</v>
+        <v>27037.48</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B57">
-        <v>17622.85</v>
+        <v>17122.67</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B58">
-        <v>13501.01</v>
+        <v>17622.85</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B59">
-        <v>4054.5</v>
+        <v>13501.01</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B60">
-        <v>25183.26</v>
+        <v>4054.5</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B61">
-        <v>22602.82</v>
+        <v>25183.26</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B62">
-        <v>20180.46</v>
+        <v>22602.82</v>
       </c>
       <c r="C62">
         <v>6</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B63">
-        <v>37345.11</v>
+        <v>20180.46</v>
       </c>
       <c r="C63">
         <v>6</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B64">
-        <v>24519.52</v>
+        <v>37345.11</v>
       </c>
       <c r="C64">
         <v>6</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B65">
-        <v>10903.9</v>
+        <v>24519.52</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B66">
-        <v>6129.8</v>
+        <v>10903.9</v>
       </c>
       <c r="C66">
         <v>6</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67">
-        <v>24329.12</v>
+        <v>6129.8</v>
       </c>
       <c r="C67">
         <v>6</v>
@@ -1545,27 +1545,27 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B68">
-        <v>17056.87</v>
+        <v>24329.12</v>
       </c>
       <c r="C68">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D68">
         <v>2025</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B69">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B70">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B71">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B72">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B73">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B74">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B75">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B76">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B77">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B78">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B79">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B80">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B81">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B82">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B83">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B84">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B85">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B86">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B87">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B88">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C88">
         <v>5</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B89">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C89">
         <v>5</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B90">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C90">
         <v>5</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B91">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B92">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C92">
         <v>5</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B93">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C93">
         <v>5</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B94">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C94">
         <v>5</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B95">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C95">
         <v>5</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B96">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C96">
         <v>5</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B97">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C97">
         <v>5</v>
@@ -2055,18 +2055,35 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
+        <v>30</v>
+      </c>
+      <c r="B98">
+        <v>26951.12</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+      <c r="D98">
+        <v>2025</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
         <v>31</v>
       </c>
-      <c r="B98">
+      <c r="B99">
         <v>19327.9</v>
       </c>
-      <c r="C98">
-        <v>5</v>
-      </c>
-      <c r="D98">
-        <v>2025</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="C99">
+        <v>5</v>
+      </c>
+      <c r="D99">
+        <v>2025</v>
+      </c>
+      <c r="E99" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,78 +525,78 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>17734.16</v>
+        <v>28507.4</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>2025</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>21194.65</v>
+        <v>37782.45</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>2025</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>22892.33</v>
+        <v>16187.29</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>2025</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>25204.24</v>
+        <v>2697.99</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>2025</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>15236.75</v>
+        <v>17734.16</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>5666.65</v>
+        <v>21194.65</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>21527.67</v>
+        <v>22892.33</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B15">
-        <v>17965.81</v>
+        <v>25204.24</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B16">
-        <v>18313.97</v>
+        <v>15236.75</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B17">
-        <v>21266</v>
+        <v>5666.65</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>25398.22</v>
+        <v>21527.67</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>10045.9</v>
+        <v>17965.81</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B20">
-        <v>2989.9</v>
+        <v>18313.97</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>21313.41</v>
+        <v>21266</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B22">
-        <v>32100.04</v>
+        <v>25398.22</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>30864.92</v>
+        <v>10045.9</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B24">
-        <v>20643.07</v>
+        <v>2989.9</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B25">
-        <v>21820.3</v>
+        <v>21313.41</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B26">
-        <v>15007.65</v>
+        <v>32100.04</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B27">
-        <v>3733</v>
+        <v>30864.92</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B28">
-        <v>26242.62</v>
+        <v>20643.07</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B29">
-        <v>16345.2</v>
+        <v>21820.3</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B30">
-        <v>14800.32</v>
+        <v>15007.65</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B31">
-        <v>15029.97</v>
+        <v>3733</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B32">
-        <v>21050.1</v>
+        <v>26242.62</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B33">
-        <v>9960</v>
+        <v>16345.2</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B34">
-        <v>3677</v>
+        <v>14800.32</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B35">
-        <v>24381.97</v>
+        <v>15029.97</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B36">
-        <v>20532.76</v>
+        <v>21050.1</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B37">
-        <v>64446.8</v>
+        <v>9960</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B38">
-        <v>27424.66</v>
+        <v>3677</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -1052,78 +1052,78 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B39">
-        <v>5140.01</v>
+        <v>24381.97</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D39">
         <v>2025</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B40">
-        <v>27797.8</v>
+        <v>20532.76</v>
       </c>
       <c r="C40">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D40">
         <v>2025</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B41">
-        <v>25236.75</v>
+        <v>64446.8</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D41">
         <v>2025</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B42">
-        <v>36189.46</v>
+        <v>27424.66</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D42">
         <v>2025</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B43">
-        <v>21643.35</v>
+        <v>5140.01</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B44">
-        <v>15533.91</v>
+        <v>27797.8</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B45">
-        <v>19035.4</v>
+        <v>25236.75</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B46">
-        <v>4942.9</v>
+        <v>36189.46</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B47">
-        <v>23856.87</v>
+        <v>21643.35</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B48">
-        <v>31200</v>
+        <v>15533.91</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B49">
-        <v>33164.36</v>
+        <v>19035.4</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B50">
-        <v>38843.63</v>
+        <v>4942.9</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B51">
-        <v>22435.29</v>
+        <v>23856.87</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B52">
-        <v>27509.4</v>
+        <v>31200</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B53">
-        <v>4621.42</v>
+        <v>33164.36</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B54">
-        <v>28514.4</v>
+        <v>38843.63</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B55">
-        <v>18098.79</v>
+        <v>22435.29</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B56">
-        <v>27037.48</v>
+        <v>27509.4</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B57">
-        <v>17122.67</v>
+        <v>4621.42</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B58">
-        <v>17622.85</v>
+        <v>28514.4</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B59">
-        <v>13501.01</v>
+        <v>18098.79</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B60">
-        <v>4054.5</v>
+        <v>27037.48</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B61">
-        <v>25183.26</v>
+        <v>17122.67</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B62">
-        <v>22602.82</v>
+        <v>17622.85</v>
       </c>
       <c r="C62">
         <v>6</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B63">
-        <v>20180.46</v>
+        <v>13501.01</v>
       </c>
       <c r="C63">
         <v>6</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B64">
-        <v>37345.11</v>
+        <v>4054.5</v>
       </c>
       <c r="C64">
         <v>6</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B65">
-        <v>24519.52</v>
+        <v>25183.26</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B66">
-        <v>10903.9</v>
+        <v>22602.82</v>
       </c>
       <c r="C66">
         <v>6</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B67">
-        <v>6129.8</v>
+        <v>20180.46</v>
       </c>
       <c r="C67">
         <v>6</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B68">
-        <v>24329.12</v>
+        <v>37345.11</v>
       </c>
       <c r="C68">
         <v>6</v>
@@ -1562,78 +1562,78 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B69">
-        <v>17056.87</v>
+        <v>24519.52</v>
       </c>
       <c r="C69">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D69">
         <v>2025</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B70">
-        <v>22786.63</v>
+        <v>10903.9</v>
       </c>
       <c r="C70">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D70">
         <v>2025</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B71">
-        <v>29255</v>
+        <v>6129.8</v>
       </c>
       <c r="C71">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D71">
         <v>2025</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B72">
-        <v>4370</v>
+        <v>24329.12</v>
       </c>
       <c r="C72">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D72">
         <v>2025</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B73">
-        <v>35402.64</v>
+        <v>17056.87</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B74">
-        <v>28248.43</v>
+        <v>22786.63</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B75">
-        <v>31437.91</v>
+        <v>29255</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B76">
-        <v>27732.15</v>
+        <v>4370</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B77">
-        <v>25508.17</v>
+        <v>35402.64</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B78">
-        <v>14802.01</v>
+        <v>28248.43</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B79">
-        <v>9776.9</v>
+        <v>31437.91</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B80">
-        <v>31420.44</v>
+        <v>27732.15</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B81">
-        <v>26531.86</v>
+        <v>25508.17</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B82">
-        <v>36574.18</v>
+        <v>14802.01</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B83">
-        <v>33940.79</v>
+        <v>9776.9</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B84">
-        <v>30498.76</v>
+        <v>31420.44</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B85">
-        <v>15120.8</v>
+        <v>26531.86</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B86">
-        <v>8085.01</v>
+        <v>36574.18</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B87">
-        <v>26923.67</v>
+        <v>33940.79</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B88">
-        <v>33090.3</v>
+        <v>30498.76</v>
       </c>
       <c r="C88">
         <v>5</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B89">
-        <v>25994.16</v>
+        <v>15120.8</v>
       </c>
       <c r="C89">
         <v>5</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B90">
-        <v>27147.29</v>
+        <v>8085.01</v>
       </c>
       <c r="C90">
         <v>5</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B91">
-        <v>23820.29</v>
+        <v>26923.67</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B92">
-        <v>34922.72</v>
+        <v>33090.3</v>
       </c>
       <c r="C92">
         <v>5</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B93">
-        <v>3824.9</v>
+        <v>25994.16</v>
       </c>
       <c r="C93">
         <v>5</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B94">
-        <v>27831.77</v>
+        <v>27147.29</v>
       </c>
       <c r="C94">
         <v>5</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B95">
-        <v>24156.31</v>
+        <v>23820.29</v>
       </c>
       <c r="C95">
         <v>5</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B96">
-        <v>21718.63</v>
+        <v>34922.72</v>
       </c>
       <c r="C96">
         <v>5</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B97">
-        <v>19445.75</v>
+        <v>3824.9</v>
       </c>
       <c r="C97">
         <v>5</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B98">
-        <v>26951.12</v>
+        <v>27831.77</v>
       </c>
       <c r="C98">
         <v>5</v>
@@ -2072,18 +2072,86 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
+        <v>27</v>
+      </c>
+      <c r="B99">
+        <v>24156.31</v>
+      </c>
+      <c r="C99">
+        <v>5</v>
+      </c>
+      <c r="D99">
+        <v>2025</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>28</v>
+      </c>
+      <c r="B100">
+        <v>21718.63</v>
+      </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
+      <c r="D100">
+        <v>2025</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>29</v>
+      </c>
+      <c r="B101">
+        <v>19445.75</v>
+      </c>
+      <c r="C101">
+        <v>5</v>
+      </c>
+      <c r="D101">
+        <v>2025</v>
+      </c>
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>30</v>
+      </c>
+      <c r="B102">
+        <v>26951.12</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+      <c r="D102">
+        <v>2025</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
         <v>31</v>
       </c>
-      <c r="B99">
+      <c r="B103">
         <v>19327.9</v>
       </c>
-      <c r="C99">
-        <v>5</v>
-      </c>
-      <c r="D99">
-        <v>2025</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="C103">
+        <v>5</v>
+      </c>
+      <c r="D103">
+        <v>2025</v>
+      </c>
+      <c r="E103" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -593,27 +593,27 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>17734.16</v>
+        <v>32841.8</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>2025</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>21194.65</v>
+        <v>17734.16</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>22892.33</v>
+        <v>21194.65</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15">
-        <v>25204.24</v>
+        <v>22892.33</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>15236.75</v>
+        <v>25204.24</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>5666.65</v>
+        <v>15236.75</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>21527.67</v>
+        <v>5666.65</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>17965.81</v>
+        <v>21527.67</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20">
-        <v>18313.97</v>
+        <v>17965.81</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21">
-        <v>21266</v>
+        <v>18313.97</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22">
-        <v>25398.22</v>
+        <v>21266</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23">
-        <v>10045.9</v>
+        <v>25398.22</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24">
-        <v>2989.9</v>
+        <v>10045.9</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25">
-        <v>21313.41</v>
+        <v>2989.9</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26">
-        <v>32100.04</v>
+        <v>21313.41</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27">
-        <v>30864.92</v>
+        <v>32100.04</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28">
-        <v>20643.07</v>
+        <v>30864.92</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29">
-        <v>21820.3</v>
+        <v>20643.07</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30">
-        <v>15007.65</v>
+        <v>21820.3</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31">
-        <v>3733</v>
+        <v>15007.65</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32">
-        <v>26242.62</v>
+        <v>3733</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33">
-        <v>16345.2</v>
+        <v>26242.62</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34">
-        <v>14800.32</v>
+        <v>16345.2</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35">
-        <v>15029.97</v>
+        <v>14800.32</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36">
-        <v>21050.1</v>
+        <v>15029.97</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B37">
-        <v>9960</v>
+        <v>21050.1</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38">
-        <v>3677</v>
+        <v>9960</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39">
-        <v>24381.97</v>
+        <v>3677</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40">
-        <v>20532.76</v>
+        <v>24381.97</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B41">
-        <v>64446.8</v>
+        <v>20532.76</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B42">
-        <v>27424.66</v>
+        <v>64446.8</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -1120,27 +1120,27 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B43">
-        <v>5140.01</v>
+        <v>27424.66</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D43">
         <v>2025</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44">
-        <v>27797.8</v>
+        <v>5140.01</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45">
-        <v>25236.75</v>
+        <v>27797.8</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46">
-        <v>36189.46</v>
+        <v>25236.75</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B47">
-        <v>21643.35</v>
+        <v>36189.46</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48">
-        <v>15533.91</v>
+        <v>21643.35</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49">
-        <v>19035.4</v>
+        <v>15533.91</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50">
-        <v>4942.9</v>
+        <v>19035.4</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51">
-        <v>23856.87</v>
+        <v>4942.9</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B52">
-        <v>31200</v>
+        <v>23856.87</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53">
-        <v>33164.36</v>
+        <v>31200</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B54">
-        <v>38843.63</v>
+        <v>33164.36</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55">
-        <v>22435.29</v>
+        <v>38843.63</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B56">
-        <v>27509.4</v>
+        <v>22435.29</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B57">
-        <v>4621.42</v>
+        <v>27509.4</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B58">
-        <v>28514.4</v>
+        <v>4621.42</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B59">
-        <v>18098.79</v>
+        <v>28514.4</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B60">
-        <v>27037.48</v>
+        <v>18098.79</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B61">
-        <v>17122.67</v>
+        <v>27037.48</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B62">
-        <v>17622.85</v>
+        <v>17122.67</v>
       </c>
       <c r="C62">
         <v>6</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B63">
-        <v>13501.01</v>
+        <v>17622.85</v>
       </c>
       <c r="C63">
         <v>6</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B64">
-        <v>4054.5</v>
+        <v>13501.01</v>
       </c>
       <c r="C64">
         <v>6</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B65">
-        <v>25183.26</v>
+        <v>4054.5</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B66">
-        <v>22602.82</v>
+        <v>25183.26</v>
       </c>
       <c r="C66">
         <v>6</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B67">
-        <v>20180.46</v>
+        <v>22602.82</v>
       </c>
       <c r="C67">
         <v>6</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B68">
-        <v>37345.11</v>
+        <v>20180.46</v>
       </c>
       <c r="C68">
         <v>6</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B69">
-        <v>24519.52</v>
+        <v>37345.11</v>
       </c>
       <c r="C69">
         <v>6</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B70">
-        <v>10903.9</v>
+        <v>24519.52</v>
       </c>
       <c r="C70">
         <v>6</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B71">
-        <v>6129.8</v>
+        <v>10903.9</v>
       </c>
       <c r="C71">
         <v>6</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B72">
-        <v>24329.12</v>
+        <v>6129.8</v>
       </c>
       <c r="C72">
         <v>6</v>
@@ -1630,27 +1630,27 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B73">
-        <v>17056.87</v>
+        <v>24329.12</v>
       </c>
       <c r="C73">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D73">
         <v>2025</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B74">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B75">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B76">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B77">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B78">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B79">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B80">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B81">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B82">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B83">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B84">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B85">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B86">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B87">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B88">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C88">
         <v>5</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B89">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C89">
         <v>5</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B90">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C90">
         <v>5</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B91">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B92">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C92">
         <v>5</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B93">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C93">
         <v>5</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B94">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C94">
         <v>5</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B95">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C95">
         <v>5</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B96">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C96">
         <v>5</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B97">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C97">
         <v>5</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B98">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C98">
         <v>5</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B99">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C99">
         <v>5</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B100">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C100">
         <v>5</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B101">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C101">
         <v>5</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B102">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2140,18 +2140,35 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
+        <v>30</v>
+      </c>
+      <c r="B103">
+        <v>26951.12</v>
+      </c>
+      <c r="C103">
+        <v>5</v>
+      </c>
+      <c r="D103">
+        <v>2025</v>
+      </c>
+      <c r="E103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
         <v>31</v>
       </c>
-      <c r="B103">
+      <c r="B104">
         <v>19327.9</v>
       </c>
-      <c r="C103">
-        <v>5</v>
-      </c>
-      <c r="D103">
-        <v>2025</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="C104">
+        <v>5</v>
+      </c>
+      <c r="D104">
+        <v>2025</v>
+      </c>
+      <c r="E104" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,44 +610,44 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>17734.16</v>
+        <v>28398.08</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <v>2025</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>21194.65</v>
+        <v>25151.7</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <v>2025</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>22892.33</v>
+        <v>17734.16</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>25204.24</v>
+        <v>21194.65</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>15236.75</v>
+        <v>22892.33</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18">
-        <v>5666.65</v>
+        <v>25204.24</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>21527.67</v>
+        <v>15236.75</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20">
-        <v>17965.81</v>
+        <v>5666.65</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>18313.97</v>
+        <v>21527.67</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B22">
-        <v>21266</v>
+        <v>17965.81</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B23">
-        <v>25398.22</v>
+        <v>18313.97</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B24">
-        <v>10045.9</v>
+        <v>21266</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25">
-        <v>2989.9</v>
+        <v>25398.22</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B26">
-        <v>21313.41</v>
+        <v>10045.9</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27">
-        <v>32100.04</v>
+        <v>2989.9</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B28">
-        <v>30864.92</v>
+        <v>21313.41</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B29">
-        <v>20643.07</v>
+        <v>32100.04</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B30">
-        <v>21820.3</v>
+        <v>30864.92</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B31">
-        <v>15007.65</v>
+        <v>20643.07</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B32">
-        <v>3733</v>
+        <v>21820.3</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B33">
-        <v>26242.62</v>
+        <v>15007.65</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B34">
-        <v>16345.2</v>
+        <v>3733</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B35">
-        <v>14800.32</v>
+        <v>26242.62</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B36">
-        <v>15029.97</v>
+        <v>16345.2</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37">
-        <v>21050.1</v>
+        <v>14800.32</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B38">
-        <v>9960</v>
+        <v>15029.97</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B39">
-        <v>3677</v>
+        <v>21050.1</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B40">
-        <v>24381.97</v>
+        <v>9960</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B41">
-        <v>20532.76</v>
+        <v>3677</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B42">
-        <v>64446.8</v>
+        <v>24381.97</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B43">
-        <v>27424.66</v>
+        <v>20532.76</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -1137,44 +1137,44 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B44">
-        <v>5140.01</v>
+        <v>64446.8</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D44">
         <v>2025</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B45">
-        <v>27797.8</v>
+        <v>27424.66</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D45">
         <v>2025</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B46">
-        <v>25236.75</v>
+        <v>5140.01</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B47">
-        <v>36189.46</v>
+        <v>27797.8</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B48">
-        <v>21643.35</v>
+        <v>25236.75</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B49">
-        <v>15533.91</v>
+        <v>36189.46</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B50">
-        <v>19035.4</v>
+        <v>21643.35</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B51">
-        <v>4942.9</v>
+        <v>15533.91</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B52">
-        <v>23856.87</v>
+        <v>19035.4</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B53">
-        <v>31200</v>
+        <v>4942.9</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B54">
-        <v>33164.36</v>
+        <v>23856.87</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B55">
-        <v>38843.63</v>
+        <v>31200</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B56">
-        <v>22435.29</v>
+        <v>33164.36</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B57">
-        <v>27509.4</v>
+        <v>38843.63</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B58">
-        <v>4621.42</v>
+        <v>22435.29</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B59">
-        <v>28514.4</v>
+        <v>27509.4</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B60">
-        <v>18098.79</v>
+        <v>4621.42</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B61">
-        <v>27037.48</v>
+        <v>28514.4</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B62">
-        <v>17122.67</v>
+        <v>18098.79</v>
       </c>
       <c r="C62">
         <v>6</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B63">
-        <v>17622.85</v>
+        <v>27037.48</v>
       </c>
       <c r="C63">
         <v>6</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B64">
-        <v>13501.01</v>
+        <v>17122.67</v>
       </c>
       <c r="C64">
         <v>6</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B65">
-        <v>4054.5</v>
+        <v>17622.85</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B66">
-        <v>25183.26</v>
+        <v>13501.01</v>
       </c>
       <c r="C66">
         <v>6</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B67">
-        <v>22602.82</v>
+        <v>4054.5</v>
       </c>
       <c r="C67">
         <v>6</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B68">
-        <v>20180.46</v>
+        <v>25183.26</v>
       </c>
       <c r="C68">
         <v>6</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B69">
-        <v>37345.11</v>
+        <v>22602.82</v>
       </c>
       <c r="C69">
         <v>6</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B70">
-        <v>24519.52</v>
+        <v>20180.46</v>
       </c>
       <c r="C70">
         <v>6</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B71">
-        <v>10903.9</v>
+        <v>37345.11</v>
       </c>
       <c r="C71">
         <v>6</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B72">
-        <v>6129.8</v>
+        <v>24519.52</v>
       </c>
       <c r="C72">
         <v>6</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B73">
-        <v>24329.12</v>
+        <v>10903.9</v>
       </c>
       <c r="C73">
         <v>6</v>
@@ -1647,44 +1647,44 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B74">
-        <v>17056.87</v>
+        <v>6129.8</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D74">
         <v>2025</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B75">
-        <v>22786.63</v>
+        <v>24329.12</v>
       </c>
       <c r="C75">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D75">
         <v>2025</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B76">
-        <v>29255</v>
+        <v>17056.87</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B77">
-        <v>4370</v>
+        <v>22786.63</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B78">
-        <v>35402.64</v>
+        <v>29255</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B79">
-        <v>28248.43</v>
+        <v>4370</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B80">
-        <v>31437.91</v>
+        <v>35402.64</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B81">
-        <v>27732.15</v>
+        <v>28248.43</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B82">
-        <v>25508.17</v>
+        <v>31437.91</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B83">
-        <v>14802.01</v>
+        <v>27732.15</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B84">
-        <v>9776.9</v>
+        <v>25508.17</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B85">
-        <v>31420.44</v>
+        <v>14802.01</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B86">
-        <v>26531.86</v>
+        <v>9776.9</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B87">
-        <v>36574.18</v>
+        <v>31420.44</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B88">
-        <v>33940.79</v>
+        <v>26531.86</v>
       </c>
       <c r="C88">
         <v>5</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B89">
-        <v>30498.76</v>
+        <v>36574.18</v>
       </c>
       <c r="C89">
         <v>5</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B90">
-        <v>15120.8</v>
+        <v>33940.79</v>
       </c>
       <c r="C90">
         <v>5</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B91">
-        <v>8085.01</v>
+        <v>30498.76</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B92">
-        <v>26923.67</v>
+        <v>15120.8</v>
       </c>
       <c r="C92">
         <v>5</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B93">
-        <v>33090.3</v>
+        <v>8085.01</v>
       </c>
       <c r="C93">
         <v>5</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B94">
-        <v>25994.16</v>
+        <v>26923.67</v>
       </c>
       <c r="C94">
         <v>5</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B95">
-        <v>27147.29</v>
+        <v>33090.3</v>
       </c>
       <c r="C95">
         <v>5</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B96">
-        <v>23820.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C96">
         <v>5</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B97">
-        <v>34922.72</v>
+        <v>27147.29</v>
       </c>
       <c r="C97">
         <v>5</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B98">
-        <v>3824.9</v>
+        <v>23820.29</v>
       </c>
       <c r="C98">
         <v>5</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B99">
-        <v>27831.77</v>
+        <v>34922.72</v>
       </c>
       <c r="C99">
         <v>5</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B100">
-        <v>24156.31</v>
+        <v>3824.9</v>
       </c>
       <c r="C100">
         <v>5</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B101">
-        <v>21718.63</v>
+        <v>27831.77</v>
       </c>
       <c r="C101">
         <v>5</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B102">
-        <v>19445.75</v>
+        <v>24156.31</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B103">
-        <v>26951.12</v>
+        <v>21718.63</v>
       </c>
       <c r="C103">
         <v>5</v>
@@ -2157,18 +2157,52 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
+        <v>29</v>
+      </c>
+      <c r="B104">
+        <v>19445.75</v>
+      </c>
+      <c r="C104">
+        <v>5</v>
+      </c>
+      <c r="D104">
+        <v>2025</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>30</v>
+      </c>
+      <c r="B105">
+        <v>26951.12</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+      <c r="D105">
+        <v>2025</v>
+      </c>
+      <c r="E105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
         <v>31</v>
       </c>
-      <c r="B104">
+      <c r="B106">
         <v>19327.9</v>
       </c>
-      <c r="C104">
-        <v>5</v>
-      </c>
-      <c r="D104">
-        <v>2025</v>
-      </c>
-      <c r="E104" t="s">
+      <c r="C106">
+        <v>5</v>
+      </c>
+      <c r="D106">
+        <v>2025</v>
+      </c>
+      <c r="E106" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -644,27 +644,27 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>17734.16</v>
+        <v>21233.96</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15">
         <v>2025</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>21194.65</v>
+        <v>17734.16</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>22892.33</v>
+        <v>21194.65</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>25204.24</v>
+        <v>22892.33</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19">
-        <v>15236.75</v>
+        <v>25204.24</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20">
-        <v>5666.65</v>
+        <v>15236.75</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21">
-        <v>21527.67</v>
+        <v>5666.65</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22">
-        <v>17965.81</v>
+        <v>21527.67</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23">
-        <v>18313.97</v>
+        <v>17965.81</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24">
-        <v>21266</v>
+        <v>18313.97</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25">
-        <v>25398.22</v>
+        <v>21266</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26">
-        <v>10045.9</v>
+        <v>25398.22</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27">
-        <v>2989.9</v>
+        <v>10045.9</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28">
-        <v>21313.41</v>
+        <v>2989.9</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29">
-        <v>32100.04</v>
+        <v>21313.41</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30">
-        <v>30864.92</v>
+        <v>32100.04</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31">
-        <v>20643.07</v>
+        <v>30864.92</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32">
-        <v>21820.3</v>
+        <v>20643.07</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33">
-        <v>15007.65</v>
+        <v>21820.3</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34">
-        <v>3733</v>
+        <v>15007.65</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35">
-        <v>26242.62</v>
+        <v>3733</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36">
-        <v>16345.2</v>
+        <v>26242.62</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37">
-        <v>14800.32</v>
+        <v>16345.2</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38">
-        <v>15029.97</v>
+        <v>14800.32</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39">
-        <v>21050.1</v>
+        <v>15029.97</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40">
-        <v>9960</v>
+        <v>21050.1</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41">
-        <v>3677</v>
+        <v>9960</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42">
-        <v>24381.97</v>
+        <v>3677</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43">
-        <v>20532.76</v>
+        <v>24381.97</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44">
-        <v>64446.8</v>
+        <v>20532.76</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45">
-        <v>27424.66</v>
+        <v>64446.8</v>
       </c>
       <c r="C45">
         <v>7</v>
@@ -1171,27 +1171,27 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B46">
-        <v>5140.01</v>
+        <v>27424.66</v>
       </c>
       <c r="C46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D46">
         <v>2025</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47">
-        <v>27797.8</v>
+        <v>5140.01</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48">
-        <v>25236.75</v>
+        <v>27797.8</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49">
-        <v>36189.46</v>
+        <v>25236.75</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B50">
-        <v>21643.35</v>
+        <v>36189.46</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51">
-        <v>15533.91</v>
+        <v>21643.35</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B52">
-        <v>19035.4</v>
+        <v>15533.91</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B53">
-        <v>4942.9</v>
+        <v>19035.4</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54">
-        <v>23856.87</v>
+        <v>4942.9</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B55">
-        <v>31200</v>
+        <v>23856.87</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B56">
-        <v>33164.36</v>
+        <v>31200</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B57">
-        <v>38843.63</v>
+        <v>33164.36</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B58">
-        <v>22435.29</v>
+        <v>38843.63</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B59">
-        <v>27509.4</v>
+        <v>22435.29</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B60">
-        <v>4621.42</v>
+        <v>27509.4</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B61">
-        <v>28514.4</v>
+        <v>4621.42</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B62">
-        <v>18098.79</v>
+        <v>28514.4</v>
       </c>
       <c r="C62">
         <v>6</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B63">
-        <v>27037.48</v>
+        <v>18098.79</v>
       </c>
       <c r="C63">
         <v>6</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B64">
-        <v>17122.67</v>
+        <v>27037.48</v>
       </c>
       <c r="C64">
         <v>6</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B65">
-        <v>17622.85</v>
+        <v>17122.67</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B66">
-        <v>13501.01</v>
+        <v>17622.85</v>
       </c>
       <c r="C66">
         <v>6</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B67">
-        <v>4054.5</v>
+        <v>13501.01</v>
       </c>
       <c r="C67">
         <v>6</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B68">
-        <v>25183.26</v>
+        <v>4054.5</v>
       </c>
       <c r="C68">
         <v>6</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B69">
-        <v>22602.82</v>
+        <v>25183.26</v>
       </c>
       <c r="C69">
         <v>6</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B70">
-        <v>20180.46</v>
+        <v>22602.82</v>
       </c>
       <c r="C70">
         <v>6</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B71">
-        <v>37345.11</v>
+        <v>20180.46</v>
       </c>
       <c r="C71">
         <v>6</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B72">
-        <v>24519.52</v>
+        <v>37345.11</v>
       </c>
       <c r="C72">
         <v>6</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B73">
-        <v>10903.9</v>
+        <v>24519.52</v>
       </c>
       <c r="C73">
         <v>6</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B74">
-        <v>6129.8</v>
+        <v>10903.9</v>
       </c>
       <c r="C74">
         <v>6</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B75">
-        <v>24329.12</v>
+        <v>6129.8</v>
       </c>
       <c r="C75">
         <v>6</v>
@@ -1681,27 +1681,27 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B76">
-        <v>17056.87</v>
+        <v>24329.12</v>
       </c>
       <c r="C76">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D76">
         <v>2025</v>
       </c>
       <c r="E76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B77">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B78">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B79">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B80">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B81">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B82">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B83">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B84">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B85">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B86">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B87">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B88">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C88">
         <v>5</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B89">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C89">
         <v>5</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B90">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C90">
         <v>5</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B91">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B92">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C92">
         <v>5</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B93">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C93">
         <v>5</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B94">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C94">
         <v>5</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B95">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C95">
         <v>5</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B96">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C96">
         <v>5</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B97">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C97">
         <v>5</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B98">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C98">
         <v>5</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B99">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C99">
         <v>5</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B100">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C100">
         <v>5</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B101">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C101">
         <v>5</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B102">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B103">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C103">
         <v>5</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B104">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C104">
         <v>5</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B105">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C105">
         <v>5</v>
@@ -2191,18 +2191,35 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
+        <v>30</v>
+      </c>
+      <c r="B106">
+        <v>26951.12</v>
+      </c>
+      <c r="C106">
+        <v>5</v>
+      </c>
+      <c r="D106">
+        <v>2025</v>
+      </c>
+      <c r="E106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
         <v>31</v>
       </c>
-      <c r="B106">
+      <c r="B107">
         <v>19327.9</v>
       </c>
-      <c r="C106">
-        <v>5</v>
-      </c>
-      <c r="D106">
-        <v>2025</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="C107">
+        <v>5</v>
+      </c>
+      <c r="D107">
+        <v>2025</v>
+      </c>
+      <c r="E107" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -661,61 +661,61 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>17734.16</v>
+        <v>42971.8</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <v>2025</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>21194.65</v>
+        <v>20952.5</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>2025</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>22892.33</v>
+        <v>3877</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>25204.24</v>
+        <v>17734.16</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B20">
-        <v>15236.75</v>
+        <v>21194.65</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>5666.65</v>
+        <v>22892.33</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B22">
-        <v>21527.67</v>
+        <v>25204.24</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B23">
-        <v>17965.81</v>
+        <v>15236.75</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B24">
-        <v>18313.97</v>
+        <v>5666.65</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B25">
-        <v>21266</v>
+        <v>21527.67</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B26">
-        <v>25398.22</v>
+        <v>17965.81</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B27">
-        <v>10045.9</v>
+        <v>18313.97</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B28">
-        <v>2989.9</v>
+        <v>21266</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B29">
-        <v>21313.41</v>
+        <v>25398.22</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B30">
-        <v>32100.04</v>
+        <v>10045.9</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B31">
-        <v>30864.92</v>
+        <v>2989.9</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B32">
-        <v>20643.07</v>
+        <v>21313.41</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B33">
-        <v>21820.3</v>
+        <v>32100.04</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B34">
-        <v>15007.65</v>
+        <v>30864.92</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B35">
-        <v>3733</v>
+        <v>20643.07</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B36">
-        <v>26242.62</v>
+        <v>21820.3</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B37">
-        <v>16345.2</v>
+        <v>15007.65</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B38">
-        <v>14800.32</v>
+        <v>3733</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B39">
-        <v>15029.97</v>
+        <v>26242.62</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B40">
-        <v>21050.1</v>
+        <v>16345.2</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B41">
-        <v>9960</v>
+        <v>14800.32</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B42">
-        <v>3677</v>
+        <v>15029.97</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B43">
-        <v>24381.97</v>
+        <v>21050.1</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B44">
-        <v>20532.76</v>
+        <v>9960</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B45">
-        <v>64446.8</v>
+        <v>3677</v>
       </c>
       <c r="C45">
         <v>7</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B46">
-        <v>27424.66</v>
+        <v>24381.97</v>
       </c>
       <c r="C46">
         <v>7</v>
@@ -1188,61 +1188,61 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B47">
-        <v>5140.01</v>
+        <v>20532.76</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B48">
-        <v>27797.8</v>
+        <v>64446.8</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B49">
-        <v>25236.75</v>
+        <v>27424.66</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B50">
-        <v>36189.46</v>
+        <v>5140.01</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B51">
-        <v>21643.35</v>
+        <v>27797.8</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B52">
-        <v>15533.91</v>
+        <v>25236.75</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B53">
-        <v>19035.4</v>
+        <v>36189.46</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B54">
-        <v>4942.9</v>
+        <v>21643.35</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B55">
-        <v>23856.87</v>
+        <v>15533.91</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B56">
-        <v>31200</v>
+        <v>19035.4</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B57">
-        <v>33164.36</v>
+        <v>4942.9</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B58">
-        <v>38843.63</v>
+        <v>23856.87</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B59">
-        <v>22435.29</v>
+        <v>31200</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B60">
-        <v>27509.4</v>
+        <v>33164.36</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B61">
-        <v>4621.42</v>
+        <v>38843.63</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B62">
-        <v>28514.4</v>
+        <v>22435.29</v>
       </c>
       <c r="C62">
         <v>6</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B63">
-        <v>18098.79</v>
+        <v>27509.4</v>
       </c>
       <c r="C63">
         <v>6</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B64">
-        <v>27037.48</v>
+        <v>4621.42</v>
       </c>
       <c r="C64">
         <v>6</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B65">
-        <v>17122.67</v>
+        <v>28514.4</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B66">
-        <v>17622.85</v>
+        <v>18098.79</v>
       </c>
       <c r="C66">
         <v>6</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B67">
-        <v>13501.01</v>
+        <v>27037.48</v>
       </c>
       <c r="C67">
         <v>6</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B68">
-        <v>4054.5</v>
+        <v>17122.67</v>
       </c>
       <c r="C68">
         <v>6</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B69">
-        <v>25183.26</v>
+        <v>17622.85</v>
       </c>
       <c r="C69">
         <v>6</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B70">
-        <v>22602.82</v>
+        <v>13501.01</v>
       </c>
       <c r="C70">
         <v>6</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B71">
-        <v>20180.46</v>
+        <v>4054.5</v>
       </c>
       <c r="C71">
         <v>6</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B72">
-        <v>37345.11</v>
+        <v>25183.26</v>
       </c>
       <c r="C72">
         <v>6</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B73">
-        <v>24519.52</v>
+        <v>22602.82</v>
       </c>
       <c r="C73">
         <v>6</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B74">
-        <v>10903.9</v>
+        <v>20180.46</v>
       </c>
       <c r="C74">
         <v>6</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B75">
-        <v>6129.8</v>
+        <v>37345.11</v>
       </c>
       <c r="C75">
         <v>6</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B76">
-        <v>24329.12</v>
+        <v>24519.52</v>
       </c>
       <c r="C76">
         <v>6</v>
@@ -1698,61 +1698,61 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B77">
-        <v>17056.87</v>
+        <v>10903.9</v>
       </c>
       <c r="C77">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D77">
         <v>2025</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B78">
-        <v>22786.63</v>
+        <v>6129.8</v>
       </c>
       <c r="C78">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D78">
         <v>2025</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B79">
-        <v>29255</v>
+        <v>24329.12</v>
       </c>
       <c r="C79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D79">
         <v>2025</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B80">
-        <v>4370</v>
+        <v>17056.87</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B81">
-        <v>35402.64</v>
+        <v>22786.63</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B82">
-        <v>28248.43</v>
+        <v>29255</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B83">
-        <v>31437.91</v>
+        <v>4370</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B84">
-        <v>27732.15</v>
+        <v>35402.64</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B85">
-        <v>25508.17</v>
+        <v>28248.43</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B86">
-        <v>14802.01</v>
+        <v>31437.91</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B87">
-        <v>9776.9</v>
+        <v>27732.15</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B88">
-        <v>31420.44</v>
+        <v>25508.17</v>
       </c>
       <c r="C88">
         <v>5</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B89">
-        <v>26531.86</v>
+        <v>14802.01</v>
       </c>
       <c r="C89">
         <v>5</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B90">
-        <v>36574.18</v>
+        <v>9776.9</v>
       </c>
       <c r="C90">
         <v>5</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B91">
-        <v>33940.79</v>
+        <v>31420.44</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B92">
-        <v>30498.76</v>
+        <v>26531.86</v>
       </c>
       <c r="C92">
         <v>5</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B93">
-        <v>15120.8</v>
+        <v>36574.18</v>
       </c>
       <c r="C93">
         <v>5</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B94">
-        <v>8085.01</v>
+        <v>33940.79</v>
       </c>
       <c r="C94">
         <v>5</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B95">
-        <v>26923.67</v>
+        <v>30498.76</v>
       </c>
       <c r="C95">
         <v>5</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B96">
-        <v>33090.3</v>
+        <v>15120.8</v>
       </c>
       <c r="C96">
         <v>5</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B97">
-        <v>25994.16</v>
+        <v>8085.01</v>
       </c>
       <c r="C97">
         <v>5</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B98">
-        <v>27147.29</v>
+        <v>26923.67</v>
       </c>
       <c r="C98">
         <v>5</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B99">
-        <v>23820.29</v>
+        <v>33090.3</v>
       </c>
       <c r="C99">
         <v>5</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B100">
-        <v>34922.72</v>
+        <v>25994.16</v>
       </c>
       <c r="C100">
         <v>5</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B101">
-        <v>3824.9</v>
+        <v>27147.29</v>
       </c>
       <c r="C101">
         <v>5</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B102">
-        <v>27831.77</v>
+        <v>23820.29</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B103">
-        <v>24156.31</v>
+        <v>34922.72</v>
       </c>
       <c r="C103">
         <v>5</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B104">
-        <v>21718.63</v>
+        <v>3824.9</v>
       </c>
       <c r="C104">
         <v>5</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B105">
-        <v>19445.75</v>
+        <v>27831.77</v>
       </c>
       <c r="C105">
         <v>5</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B106">
-        <v>26951.12</v>
+        <v>24156.31</v>
       </c>
       <c r="C106">
         <v>5</v>
@@ -2208,18 +2208,69 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
+        <v>28</v>
+      </c>
+      <c r="B107">
+        <v>21718.63</v>
+      </c>
+      <c r="C107">
+        <v>5</v>
+      </c>
+      <c r="D107">
+        <v>2025</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>29</v>
+      </c>
+      <c r="B108">
+        <v>19445.75</v>
+      </c>
+      <c r="C108">
+        <v>5</v>
+      </c>
+      <c r="D108">
+        <v>2025</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>30</v>
+      </c>
+      <c r="B109">
+        <v>26951.12</v>
+      </c>
+      <c r="C109">
+        <v>5</v>
+      </c>
+      <c r="D109">
+        <v>2025</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
         <v>31</v>
       </c>
-      <c r="B107">
+      <c r="B110">
         <v>19327.9</v>
       </c>
-      <c r="C107">
-        <v>5</v>
-      </c>
-      <c r="D107">
-        <v>2025</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="C110">
+        <v>5</v>
+      </c>
+      <c r="D110">
+        <v>2025</v>
+      </c>
+      <c r="E110" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -681,7 +681,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>20952.5</v>
+        <v>21142.5</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -712,27 +712,27 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>17734.16</v>
+        <v>51514.1</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <v>2025</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20">
-        <v>21194.65</v>
+        <v>17734.16</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>22892.33</v>
+        <v>21194.65</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22">
-        <v>25204.24</v>
+        <v>22892.33</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23">
-        <v>15236.75</v>
+        <v>25204.24</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24">
-        <v>5666.65</v>
+        <v>15236.75</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25">
-        <v>21527.67</v>
+        <v>5666.65</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26">
-        <v>17965.81</v>
+        <v>21527.67</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27">
-        <v>18313.97</v>
+        <v>17965.81</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28">
-        <v>21266</v>
+        <v>18313.97</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29">
-        <v>25398.22</v>
+        <v>21266</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30">
-        <v>10045.9</v>
+        <v>25398.22</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31">
-        <v>2989.9</v>
+        <v>10045.9</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32">
-        <v>21313.41</v>
+        <v>2989.9</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33">
-        <v>32100.04</v>
+        <v>21313.41</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34">
-        <v>30864.92</v>
+        <v>32100.04</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35">
-        <v>20643.07</v>
+        <v>30864.92</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36">
-        <v>21820.3</v>
+        <v>20643.07</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37">
-        <v>15007.65</v>
+        <v>21820.3</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38">
-        <v>3733</v>
+        <v>15007.65</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B39">
-        <v>26242.62</v>
+        <v>3733</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B40">
-        <v>16345.2</v>
+        <v>26242.62</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B41">
-        <v>14800.32</v>
+        <v>16345.2</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42">
-        <v>15029.97</v>
+        <v>14800.32</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B43">
-        <v>21050.1</v>
+        <v>15029.97</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B44">
-        <v>9960</v>
+        <v>21050.1</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B45">
-        <v>3677</v>
+        <v>9960</v>
       </c>
       <c r="C45">
         <v>7</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B46">
-        <v>24381.97</v>
+        <v>3677</v>
       </c>
       <c r="C46">
         <v>7</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B47">
-        <v>20532.76</v>
+        <v>24381.97</v>
       </c>
       <c r="C47">
         <v>7</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B48">
-        <v>64446.8</v>
+        <v>20532.76</v>
       </c>
       <c r="C48">
         <v>7</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B49">
-        <v>27424.66</v>
+        <v>64446.8</v>
       </c>
       <c r="C49">
         <v>7</v>
@@ -1239,27 +1239,27 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B50">
-        <v>5140.01</v>
+        <v>27424.66</v>
       </c>
       <c r="C50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D50">
         <v>2025</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51">
-        <v>27797.8</v>
+        <v>5140.01</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52">
-        <v>25236.75</v>
+        <v>27797.8</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53">
-        <v>36189.46</v>
+        <v>25236.75</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54">
-        <v>21643.35</v>
+        <v>36189.46</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B55">
-        <v>15533.91</v>
+        <v>21643.35</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B56">
-        <v>19035.4</v>
+        <v>15533.91</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B57">
-        <v>4942.9</v>
+        <v>19035.4</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B58">
-        <v>23856.87</v>
+        <v>4942.9</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B59">
-        <v>31200</v>
+        <v>23856.87</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B60">
-        <v>33164.36</v>
+        <v>31200</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B61">
-        <v>38843.63</v>
+        <v>33164.36</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B62">
-        <v>22435.29</v>
+        <v>38843.63</v>
       </c>
       <c r="C62">
         <v>6</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B63">
-        <v>27509.4</v>
+        <v>22435.29</v>
       </c>
       <c r="C63">
         <v>6</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B64">
-        <v>4621.42</v>
+        <v>27509.4</v>
       </c>
       <c r="C64">
         <v>6</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B65">
-        <v>28514.4</v>
+        <v>4621.42</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B66">
-        <v>18098.79</v>
+        <v>28514.4</v>
       </c>
       <c r="C66">
         <v>6</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B67">
-        <v>27037.48</v>
+        <v>18098.79</v>
       </c>
       <c r="C67">
         <v>6</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B68">
-        <v>17122.67</v>
+        <v>27037.48</v>
       </c>
       <c r="C68">
         <v>6</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B69">
-        <v>17622.85</v>
+        <v>17122.67</v>
       </c>
       <c r="C69">
         <v>6</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B70">
-        <v>13501.01</v>
+        <v>17622.85</v>
       </c>
       <c r="C70">
         <v>6</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B71">
-        <v>4054.5</v>
+        <v>13501.01</v>
       </c>
       <c r="C71">
         <v>6</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B72">
-        <v>25183.26</v>
+        <v>4054.5</v>
       </c>
       <c r="C72">
         <v>6</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B73">
-        <v>22602.82</v>
+        <v>25183.26</v>
       </c>
       <c r="C73">
         <v>6</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B74">
-        <v>20180.46</v>
+        <v>22602.82</v>
       </c>
       <c r="C74">
         <v>6</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B75">
-        <v>37345.11</v>
+        <v>20180.46</v>
       </c>
       <c r="C75">
         <v>6</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B76">
-        <v>24519.52</v>
+        <v>37345.11</v>
       </c>
       <c r="C76">
         <v>6</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B77">
-        <v>10903.9</v>
+        <v>24519.52</v>
       </c>
       <c r="C77">
         <v>6</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B78">
-        <v>6129.8</v>
+        <v>10903.9</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B79">
-        <v>24329.12</v>
+        <v>6129.8</v>
       </c>
       <c r="C79">
         <v>6</v>
@@ -1749,27 +1749,27 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B80">
-        <v>17056.87</v>
+        <v>24329.12</v>
       </c>
       <c r="C80">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D80">
         <v>2025</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B81">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B82">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B83">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B84">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B85">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B86">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B87">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B88">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C88">
         <v>5</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B89">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C89">
         <v>5</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B90">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C90">
         <v>5</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B91">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B92">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C92">
         <v>5</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B93">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C93">
         <v>5</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B94">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C94">
         <v>5</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B95">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C95">
         <v>5</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B96">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C96">
         <v>5</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B97">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C97">
         <v>5</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B98">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C98">
         <v>5</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B99">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C99">
         <v>5</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B100">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C100">
         <v>5</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B101">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C101">
         <v>5</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B102">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B103">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C103">
         <v>5</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B104">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C104">
         <v>5</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B105">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C105">
         <v>5</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B106">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C106">
         <v>5</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B107">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C107">
         <v>5</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B108">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C108">
         <v>5</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B109">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C109">
         <v>5</v>
@@ -2259,18 +2259,35 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
+        <v>30</v>
+      </c>
+      <c r="B110">
+        <v>26951.12</v>
+      </c>
+      <c r="C110">
+        <v>5</v>
+      </c>
+      <c r="D110">
+        <v>2025</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
         <v>31</v>
       </c>
-      <c r="B110">
+      <c r="B111">
         <v>19327.9</v>
       </c>
-      <c r="C110">
-        <v>5</v>
-      </c>
-      <c r="D110">
-        <v>2025</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="C111">
+        <v>5</v>
+      </c>
+      <c r="D111">
+        <v>2025</v>
+      </c>
+      <c r="E111" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -729,27 +729,27 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>17734.16</v>
+        <v>15547.52</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <v>2025</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21">
-        <v>21194.65</v>
+        <v>17734.16</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22">
-        <v>22892.33</v>
+        <v>21194.65</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <v>25204.24</v>
+        <v>22892.33</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24">
-        <v>15236.75</v>
+        <v>25204.24</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25">
-        <v>5666.65</v>
+        <v>15236.75</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26">
-        <v>21527.67</v>
+        <v>5666.65</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27">
-        <v>17965.81</v>
+        <v>21527.67</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28">
-        <v>18313.97</v>
+        <v>17965.81</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29">
-        <v>21266</v>
+        <v>18313.97</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30">
-        <v>25398.22</v>
+        <v>21266</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31">
-        <v>10045.9</v>
+        <v>25398.22</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32">
-        <v>2989.9</v>
+        <v>10045.9</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33">
-        <v>21313.41</v>
+        <v>2989.9</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34">
-        <v>32100.04</v>
+        <v>21313.41</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35">
-        <v>30864.92</v>
+        <v>32100.04</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36">
-        <v>20643.07</v>
+        <v>30864.92</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37">
-        <v>21820.3</v>
+        <v>20643.07</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38">
-        <v>15007.65</v>
+        <v>21820.3</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39">
-        <v>3733</v>
+        <v>15007.65</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40">
-        <v>26242.62</v>
+        <v>3733</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41">
-        <v>16345.2</v>
+        <v>26242.62</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B42">
-        <v>14800.32</v>
+        <v>16345.2</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43">
-        <v>15029.97</v>
+        <v>14800.32</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B44">
-        <v>21050.1</v>
+        <v>15029.97</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45">
-        <v>9960</v>
+        <v>21050.1</v>
       </c>
       <c r="C45">
         <v>7</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B46">
-        <v>3677</v>
+        <v>9960</v>
       </c>
       <c r="C46">
         <v>7</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B47">
-        <v>24381.97</v>
+        <v>3677</v>
       </c>
       <c r="C47">
         <v>7</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B48">
-        <v>20532.76</v>
+        <v>24381.97</v>
       </c>
       <c r="C48">
         <v>7</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49">
-        <v>64446.8</v>
+        <v>20532.76</v>
       </c>
       <c r="C49">
         <v>7</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B50">
-        <v>27424.66</v>
+        <v>64446.8</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -1256,27 +1256,27 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B51">
-        <v>5140.01</v>
+        <v>27424.66</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D51">
         <v>2025</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52">
-        <v>27797.8</v>
+        <v>5140.01</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B53">
-        <v>25236.75</v>
+        <v>27797.8</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B54">
-        <v>36189.46</v>
+        <v>25236.75</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B55">
-        <v>21643.35</v>
+        <v>36189.46</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B56">
-        <v>15533.91</v>
+        <v>21643.35</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B57">
-        <v>19035.4</v>
+        <v>15533.91</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B58">
-        <v>4942.9</v>
+        <v>19035.4</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B59">
-        <v>23856.87</v>
+        <v>4942.9</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B60">
-        <v>31200</v>
+        <v>23856.87</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61">
-        <v>33164.36</v>
+        <v>31200</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B62">
-        <v>38843.63</v>
+        <v>33164.36</v>
       </c>
       <c r="C62">
         <v>6</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B63">
-        <v>22435.29</v>
+        <v>38843.63</v>
       </c>
       <c r="C63">
         <v>6</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B64">
-        <v>27509.4</v>
+        <v>22435.29</v>
       </c>
       <c r="C64">
         <v>6</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B65">
-        <v>4621.42</v>
+        <v>27509.4</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B66">
-        <v>28514.4</v>
+        <v>4621.42</v>
       </c>
       <c r="C66">
         <v>6</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B67">
-        <v>18098.79</v>
+        <v>28514.4</v>
       </c>
       <c r="C67">
         <v>6</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B68">
-        <v>27037.48</v>
+        <v>18098.79</v>
       </c>
       <c r="C68">
         <v>6</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B69">
-        <v>17122.67</v>
+        <v>27037.48</v>
       </c>
       <c r="C69">
         <v>6</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B70">
-        <v>17622.85</v>
+        <v>17122.67</v>
       </c>
       <c r="C70">
         <v>6</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B71">
-        <v>13501.01</v>
+        <v>17622.85</v>
       </c>
       <c r="C71">
         <v>6</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B72">
-        <v>4054.5</v>
+        <v>13501.01</v>
       </c>
       <c r="C72">
         <v>6</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B73">
-        <v>25183.26</v>
+        <v>4054.5</v>
       </c>
       <c r="C73">
         <v>6</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B74">
-        <v>22602.82</v>
+        <v>25183.26</v>
       </c>
       <c r="C74">
         <v>6</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B75">
-        <v>20180.46</v>
+        <v>22602.82</v>
       </c>
       <c r="C75">
         <v>6</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B76">
-        <v>37345.11</v>
+        <v>20180.46</v>
       </c>
       <c r="C76">
         <v>6</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B77">
-        <v>24519.52</v>
+        <v>37345.11</v>
       </c>
       <c r="C77">
         <v>6</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B78">
-        <v>10903.9</v>
+        <v>24519.52</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B79">
-        <v>6129.8</v>
+        <v>10903.9</v>
       </c>
       <c r="C79">
         <v>6</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B80">
-        <v>24329.12</v>
+        <v>6129.8</v>
       </c>
       <c r="C80">
         <v>6</v>
@@ -1766,27 +1766,27 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B81">
-        <v>17056.87</v>
+        <v>24329.12</v>
       </c>
       <c r="C81">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D81">
         <v>2025</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B82">
-        <v>22786.63</v>
+        <v>17056.87</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B83">
-        <v>29255</v>
+        <v>22786.63</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B84">
-        <v>4370</v>
+        <v>29255</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B85">
-        <v>35402.64</v>
+        <v>4370</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B86">
-        <v>28248.43</v>
+        <v>35402.64</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B87">
-        <v>31437.91</v>
+        <v>28248.43</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B88">
-        <v>27732.15</v>
+        <v>31437.91</v>
       </c>
       <c r="C88">
         <v>5</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B89">
-        <v>25508.17</v>
+        <v>27732.15</v>
       </c>
       <c r="C89">
         <v>5</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B90">
-        <v>14802.01</v>
+        <v>25508.17</v>
       </c>
       <c r="C90">
         <v>5</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B91">
-        <v>9776.9</v>
+        <v>14802.01</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B92">
-        <v>31420.44</v>
+        <v>9776.9</v>
       </c>
       <c r="C92">
         <v>5</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B93">
-        <v>26531.86</v>
+        <v>31420.44</v>
       </c>
       <c r="C93">
         <v>5</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B94">
-        <v>36574.18</v>
+        <v>26531.86</v>
       </c>
       <c r="C94">
         <v>5</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B95">
-        <v>33940.79</v>
+        <v>36574.18</v>
       </c>
       <c r="C95">
         <v>5</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B96">
-        <v>30498.76</v>
+        <v>33940.79</v>
       </c>
       <c r="C96">
         <v>5</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B97">
-        <v>15120.8</v>
+        <v>30498.76</v>
       </c>
       <c r="C97">
         <v>5</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B98">
-        <v>8085.01</v>
+        <v>15120.8</v>
       </c>
       <c r="C98">
         <v>5</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B99">
-        <v>26923.67</v>
+        <v>8085.01</v>
       </c>
       <c r="C99">
         <v>5</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B100">
-        <v>33090.3</v>
+        <v>26923.67</v>
       </c>
       <c r="C100">
         <v>5</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B101">
-        <v>25994.16</v>
+        <v>33090.3</v>
       </c>
       <c r="C101">
         <v>5</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B102">
-        <v>27147.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B103">
-        <v>23820.29</v>
+        <v>27147.29</v>
       </c>
       <c r="C103">
         <v>5</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B104">
-        <v>34922.72</v>
+        <v>23820.29</v>
       </c>
       <c r="C104">
         <v>5</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B105">
-        <v>3824.9</v>
+        <v>34922.72</v>
       </c>
       <c r="C105">
         <v>5</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B106">
-        <v>27831.77</v>
+        <v>3824.9</v>
       </c>
       <c r="C106">
         <v>5</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B107">
-        <v>24156.31</v>
+        <v>27831.77</v>
       </c>
       <c r="C107">
         <v>5</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B108">
-        <v>21718.63</v>
+        <v>24156.31</v>
       </c>
       <c r="C108">
         <v>5</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B109">
-        <v>19445.75</v>
+        <v>21718.63</v>
       </c>
       <c r="C109">
         <v>5</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B110">
-        <v>26951.12</v>
+        <v>19445.75</v>
       </c>
       <c r="C110">
         <v>5</v>
@@ -2276,18 +2276,35 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
+        <v>30</v>
+      </c>
+      <c r="B111">
+        <v>26951.12</v>
+      </c>
+      <c r="C111">
+        <v>5</v>
+      </c>
+      <c r="D111">
+        <v>2025</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
         <v>31</v>
       </c>
-      <c r="B111">
+      <c r="B112">
         <v>19327.9</v>
       </c>
-      <c r="C111">
-        <v>5</v>
-      </c>
-      <c r="D111">
-        <v>2025</v>
-      </c>
-      <c r="E111" t="s">
+      <c r="C112">
+        <v>5</v>
+      </c>
+      <c r="D112">
+        <v>2025</v>
+      </c>
+      <c r="E112" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -732,7 +732,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>15547.52</v>
+        <v>16035.52</v>
       </c>
       <c r="C20">
         <v>8</v>
@@ -746,44 +746,44 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>17734.16</v>
+        <v>24420.32</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21">
         <v>2025</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>21194.65</v>
+        <v>20734.7</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <v>2025</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>22892.33</v>
+        <v>17734.16</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>25204.24</v>
+        <v>21194.65</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>15236.75</v>
+        <v>22892.33</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>5666.65</v>
+        <v>25204.24</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>21527.67</v>
+        <v>15236.75</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>17965.81</v>
+        <v>5666.65</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>18313.97</v>
+        <v>21527.67</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>21266</v>
+        <v>17965.81</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>25398.22</v>
+        <v>18313.97</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>10045.9</v>
+        <v>21266</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>2989.9</v>
+        <v>25398.22</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>21313.41</v>
+        <v>10045.9</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>32100.04</v>
+        <v>2989.9</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>30864.92</v>
+        <v>21313.41</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>20643.07</v>
+        <v>32100.04</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B38">
-        <v>21820.3</v>
+        <v>30864.92</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B39">
-        <v>15007.65</v>
+        <v>20643.07</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B40">
-        <v>3733</v>
+        <v>21820.3</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B41">
-        <v>26242.62</v>
+        <v>15007.65</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B42">
-        <v>16345.2</v>
+        <v>3733</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B43">
-        <v>14800.32</v>
+        <v>26242.62</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B44">
-        <v>15029.97</v>
+        <v>16345.2</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B45">
-        <v>21050.1</v>
+        <v>14800.32</v>
       </c>
       <c r="C45">
         <v>7</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B46">
-        <v>9960</v>
+        <v>15029.97</v>
       </c>
       <c r="C46">
         <v>7</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B47">
-        <v>3677</v>
+        <v>21050.1</v>
       </c>
       <c r="C47">
         <v>7</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B48">
-        <v>24381.97</v>
+        <v>9960</v>
       </c>
       <c r="C48">
         <v>7</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B49">
-        <v>20532.76</v>
+        <v>3677</v>
       </c>
       <c r="C49">
         <v>7</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B50">
-        <v>64446.8</v>
+        <v>24381.97</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B51">
-        <v>27424.66</v>
+        <v>20532.76</v>
       </c>
       <c r="C51">
         <v>7</v>
@@ -1273,44 +1273,44 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B52">
-        <v>5140.01</v>
+        <v>64446.8</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D52">
         <v>2025</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B53">
-        <v>27797.8</v>
+        <v>27424.66</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D53">
         <v>2025</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B54">
-        <v>25236.75</v>
+        <v>5140.01</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B55">
-        <v>36189.46</v>
+        <v>27797.8</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B56">
-        <v>21643.35</v>
+        <v>25236.75</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B57">
-        <v>15533.91</v>
+        <v>36189.46</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B58">
-        <v>19035.4</v>
+        <v>21643.35</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B59">
-        <v>4942.9</v>
+        <v>15533.91</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B60">
-        <v>23856.87</v>
+        <v>19035.4</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B61">
-        <v>31200</v>
+        <v>4942.9</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B62">
-        <v>33164.36</v>
+        <v>23856.87</v>
       </c>
       <c r="C62">
         <v>6</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B63">
-        <v>38843.63</v>
+        <v>31200</v>
       </c>
       <c r="C63">
         <v>6</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B64">
-        <v>22435.29</v>
+        <v>33164.36</v>
       </c>
       <c r="C64">
         <v>6</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B65">
-        <v>27509.4</v>
+        <v>38843.63</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B66">
-        <v>4621.42</v>
+        <v>22435.29</v>
       </c>
       <c r="C66">
         <v>6</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B67">
-        <v>28514.4</v>
+        <v>27509.4</v>
       </c>
       <c r="C67">
         <v>6</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B68">
-        <v>18098.79</v>
+        <v>4621.42</v>
       </c>
       <c r="C68">
         <v>6</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B69">
-        <v>27037.48</v>
+        <v>28514.4</v>
       </c>
       <c r="C69">
         <v>6</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B70">
-        <v>17122.67</v>
+        <v>18098.79</v>
       </c>
       <c r="C70">
         <v>6</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B71">
-        <v>17622.85</v>
+        <v>27037.48</v>
       </c>
       <c r="C71">
         <v>6</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B72">
-        <v>13501.01</v>
+        <v>17122.67</v>
       </c>
       <c r="C72">
         <v>6</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B73">
-        <v>4054.5</v>
+        <v>17622.85</v>
       </c>
       <c r="C73">
         <v>6</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B74">
-        <v>25183.26</v>
+        <v>13501.01</v>
       </c>
       <c r="C74">
         <v>6</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B75">
-        <v>22602.82</v>
+        <v>4054.5</v>
       </c>
       <c r="C75">
         <v>6</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B76">
-        <v>20180.46</v>
+        <v>25183.26</v>
       </c>
       <c r="C76">
         <v>6</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B77">
-        <v>37345.11</v>
+        <v>22602.82</v>
       </c>
       <c r="C77">
         <v>6</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B78">
-        <v>24519.52</v>
+        <v>20180.46</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B79">
-        <v>10903.9</v>
+        <v>37345.11</v>
       </c>
       <c r="C79">
         <v>6</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B80">
-        <v>6129.8</v>
+        <v>24519.52</v>
       </c>
       <c r="C80">
         <v>6</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B81">
-        <v>24329.12</v>
+        <v>10903.9</v>
       </c>
       <c r="C81">
         <v>6</v>
@@ -1783,44 +1783,44 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B82">
-        <v>17056.87</v>
+        <v>6129.8</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D82">
         <v>2025</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B83">
-        <v>22786.63</v>
+        <v>24329.12</v>
       </c>
       <c r="C83">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D83">
         <v>2025</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B84">
-        <v>29255</v>
+        <v>17056.87</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B85">
-        <v>4370</v>
+        <v>22786.63</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B86">
-        <v>35402.64</v>
+        <v>29255</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B87">
-        <v>28248.43</v>
+        <v>4370</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B88">
-        <v>31437.91</v>
+        <v>35402.64</v>
       </c>
       <c r="C88">
         <v>5</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B89">
-        <v>27732.15</v>
+        <v>28248.43</v>
       </c>
       <c r="C89">
         <v>5</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B90">
-        <v>25508.17</v>
+        <v>31437.91</v>
       </c>
       <c r="C90">
         <v>5</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B91">
-        <v>14802.01</v>
+        <v>27732.15</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B92">
-        <v>9776.9</v>
+        <v>25508.17</v>
       </c>
       <c r="C92">
         <v>5</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B93">
-        <v>31420.44</v>
+        <v>14802.01</v>
       </c>
       <c r="C93">
         <v>5</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B94">
-        <v>26531.86</v>
+        <v>9776.9</v>
       </c>
       <c r="C94">
         <v>5</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B95">
-        <v>36574.18</v>
+        <v>31420.44</v>
       </c>
       <c r="C95">
         <v>5</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B96">
-        <v>33940.79</v>
+        <v>26531.86</v>
       </c>
       <c r="C96">
         <v>5</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B97">
-        <v>30498.76</v>
+        <v>36574.18</v>
       </c>
       <c r="C97">
         <v>5</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B98">
-        <v>15120.8</v>
+        <v>33940.79</v>
       </c>
       <c r="C98">
         <v>5</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B99">
-        <v>8085.01</v>
+        <v>30498.76</v>
       </c>
       <c r="C99">
         <v>5</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B100">
-        <v>26923.67</v>
+        <v>15120.8</v>
       </c>
       <c r="C100">
         <v>5</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B101">
-        <v>33090.3</v>
+        <v>8085.01</v>
       </c>
       <c r="C101">
         <v>5</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B102">
-        <v>25994.16</v>
+        <v>26923.67</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B103">
-        <v>27147.29</v>
+        <v>33090.3</v>
       </c>
       <c r="C103">
         <v>5</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B104">
-        <v>23820.29</v>
+        <v>25994.16</v>
       </c>
       <c r="C104">
         <v>5</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B105">
-        <v>34922.72</v>
+        <v>27147.29</v>
       </c>
       <c r="C105">
         <v>5</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B106">
-        <v>3824.9</v>
+        <v>23820.29</v>
       </c>
       <c r="C106">
         <v>5</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B107">
-        <v>27831.77</v>
+        <v>34922.72</v>
       </c>
       <c r="C107">
         <v>5</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B108">
-        <v>24156.31</v>
+        <v>3824.9</v>
       </c>
       <c r="C108">
         <v>5</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B109">
-        <v>21718.63</v>
+        <v>27831.77</v>
       </c>
       <c r="C109">
         <v>5</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B110">
-        <v>19445.75</v>
+        <v>24156.31</v>
       </c>
       <c r="C110">
         <v>5</v>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B111">
-        <v>26951.12</v>
+        <v>21718.63</v>
       </c>
       <c r="C111">
         <v>5</v>
@@ -2293,18 +2293,52 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
+        <v>29</v>
+      </c>
+      <c r="B112">
+        <v>19445.75</v>
+      </c>
+      <c r="C112">
+        <v>5</v>
+      </c>
+      <c r="D112">
+        <v>2025</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>30</v>
+      </c>
+      <c r="B113">
+        <v>26951.12</v>
+      </c>
+      <c r="C113">
+        <v>5</v>
+      </c>
+      <c r="D113">
+        <v>2025</v>
+      </c>
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
         <v>31</v>
       </c>
-      <c r="B112">
+      <c r="B114">
         <v>19327.9</v>
       </c>
-      <c r="C112">
-        <v>5</v>
-      </c>
-      <c r="D112">
-        <v>2025</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="C114">
+        <v>5</v>
+      </c>
+      <c r="D114">
+        <v>2025</v>
+      </c>
+      <c r="E114" t="s">
         <v>8</v>
       </c>
     </row>
